--- a/KYSP_EN/Tools_ENG/kysp_database.xlsx
+++ b/KYSP_EN/Tools_ENG/kysp_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PierCorp-Unity\KYSP_EN\Tools_ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\FunPIER\KYSP_EN\Tools_ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78240507-8C08-4FB9-A826-7717F26EECDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81740B1-81E2-4FFA-9A50-EDAB978DABD8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMaster" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="TextMaster3" sheetId="6" r:id="rId4"/>
     <sheet name="DesignParamMaster" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -409,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="2101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="2104">
   <si>
     <t>UFO</t>
   </si>
@@ -24642,10 +24643,6 @@
 the first pitch.</t>
   </si>
   <si>
-    <t>Today I will go out 
-with my girlfriend!</t>
-  </si>
-  <si>
     <t>Please get on in order.</t>
   </si>
   <si>
@@ -24684,24 +24681,11 @@
     <t>Correct or Incorrect?</t>
   </si>
   <si>
-    <t>Then</t>
-  </si>
-  <si>
     <t>Are you stupid?</t>
-  </si>
-  <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>You are stupid.</t>
   </si>
   <si>
     <t>Let's test
 your brain structure.</t>
-  </si>
-  <si>
-    <t>Wow
-I am curious~??</t>
   </si>
   <si>
     <t>Let me find out 
@@ -24711,19 +24695,6 @@
     <t>If I fall down
 the last pin...
 Go out with me.</t>
-  </si>
-  <si>
-    <t>Yes...</t>
-  </si>
-  <si>
-    <t>Good...</t>
-  </si>
-  <si>
-    <t>Today I will have a date.</t>
-  </si>
-  <si>
-    <t>Why don't you consider me
-as your boyfriend...</t>
   </si>
   <si>
     <t>While he suggested 
@@ -24736,15 +24707,6 @@
 read the situation...</t>
   </si>
   <si>
-    <t>He plucked up 
-courage to 
-hold my hand.</t>
-  </si>
-  <si>
-    <t>Now we...
-are dating?</t>
-  </si>
-  <si>
     <t>Well, if you get the correct answer
 you will earn one million dollars.</t>
   </si>
@@ -24905,12 +24867,6 @@
     <t>I'm back LA!! E</t>
   </si>
   <si>
-    <t>LA is the best! Y</t>
-  </si>
-  <si>
-    <t>But not better than New York! N</t>
-  </si>
-  <si>
     <t>Do you love each other? Y</t>
   </si>
   <si>
@@ -24925,17 +24881,6 @@
   <si>
     <t>My grandfather 
 suddenly passed away! N</t>
-  </si>
-  <si>
-    <t>Call &amp; Response!!
-Let's Go~! E</t>
-  </si>
-  <si>
-    <t>We Cannot!! N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>With that heat~~ E</t>
   </si>
   <si>
     <t>Even if we disband,
@@ -29529,12 +29474,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Tomorrow...
-I will hit a home run for you..
-Good luck with your surgery..</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Pause</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -29824,6 +29763,90 @@
   </si>
   <si>
     <t>how people see me…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blah, blah, blah…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yadda-yadda-yadda….</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You are stupid..!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Okay..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Good luck..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I can't believe…!
+I'm going on a date with her!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I'm totally into you..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I want to go steady with you..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He took courage 
+and took my hand.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Are we an item
+now?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I'm so curious.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I will hit a home run for you..
+I hope your surgery goes well.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Best city ever!! Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>But not better than New York! N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Love and Peace! Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Do you love me? Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>With this fever~~ E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes We Can! Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Say ho! ho! E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Just give up! N</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -32285,7 +32308,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="StageMasterTable" displayName="StageMasterTable" ref="A1:O102" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156">
   <autoFilter ref="A1:O102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:O102">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O102">
     <sortCondition ref="B1:B102"/>
   </sortState>
   <tableColumns count="15">
@@ -32696,7 +32719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
@@ -36779,8 +36802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -36848,7 +36871,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1380</v>
+        <v>2089</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>372</v>
@@ -36866,7 +36889,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>373</v>
@@ -36884,7 +36907,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>2058</v>
+        <v>2041</v>
       </c>
       <c r="D6" s="79" t="s">
         <v>1255</v>
@@ -36902,7 +36925,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>374</v>
@@ -36920,7 +36943,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>375</v>
@@ -36938,7 +36961,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>376</v>
@@ -36956,7 +36979,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>377</v>
@@ -36974,7 +36997,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>1256</v>
@@ -36992,7 +37015,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>2056</v>
+        <v>2095</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1257</v>
@@ -37010,7 +37033,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>2059</v>
+        <v>2042</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>1258</v>
@@ -37026,7 +37049,7 @@
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="64" t="s">
-        <v>2061</v>
+        <v>2044</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>1259</v>
@@ -37042,7 +37065,7 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="64" t="s">
-        <v>2060</v>
+        <v>2043</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>1260</v>
@@ -37060,7 +37083,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>1261</v>
@@ -37076,7 +37099,7 @@
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="28" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>1262</v>
@@ -37092,7 +37115,7 @@
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="28" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>224</v>
@@ -37110,7 +37133,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1390</v>
+        <v>2084</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>932</v>
@@ -37126,7 +37149,7 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="64" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>378</v>
@@ -37142,7 +37165,7 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="64" t="s">
-        <v>1392</v>
+        <v>2085</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>992</v>
@@ -37158,7 +37181,7 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="64" t="s">
-        <v>1393</v>
+        <v>2086</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>933</v>
@@ -37176,7 +37199,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>1028</v>
@@ -37186,13 +37209,13 @@
       </c>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6" ht="22.5">
+    <row r="24" spans="1:6">
       <c r="A24" s="27">
         <v>121</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="64" t="s">
-        <v>1395</v>
+        <v>2094</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1263</v>
@@ -37210,7 +37233,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="D25" s="62" t="s">
         <v>1264</v>
@@ -37228,7 +37251,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>1265</v>
@@ -37243,8 +37266,8 @@
         <v>131</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="28" t="s">
-        <v>1398</v>
+      <c r="C27" s="50" t="s">
+        <v>2087</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>934</v>
@@ -37259,8 +37282,8 @@
         <v>132</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="28" t="s">
-        <v>1399</v>
+      <c r="C28" s="50" t="s">
+        <v>2088</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>935</v>
@@ -37277,8 +37300,8 @@
       <c r="B29" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>1400</v>
+      <c r="C29" s="50" t="s">
+        <v>2090</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>379</v>
@@ -37294,7 +37317,7 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="64" t="s">
-        <v>1401</v>
+        <v>2091</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>1266</v>
@@ -37310,7 +37333,7 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="64" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>1267</v>
@@ -37326,7 +37349,7 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="64" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>1268</v>
@@ -37342,7 +37365,7 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="64" t="s">
-        <v>1404</v>
+        <v>2092</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>1269</v>
@@ -37358,7 +37381,7 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="64" t="s">
-        <v>1405</v>
+        <v>2093</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>1270</v>
@@ -37376,7 +37399,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>2062</v>
+        <v>2045</v>
       </c>
       <c r="D35" s="48" t="s">
         <v>1356</v>
@@ -37392,7 +37415,7 @@
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="65" t="s">
-        <v>2065</v>
+        <v>2048</v>
       </c>
       <c r="D36" s="62" t="s">
         <v>1357</v>
@@ -37408,7 +37431,7 @@
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="65" t="s">
-        <v>2064</v>
+        <v>2047</v>
       </c>
       <c r="D37" s="62" t="s">
         <v>1358</v>
@@ -37426,7 +37449,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
       <c r="D38" s="62" t="s">
         <v>1359</v>
@@ -37442,7 +37465,7 @@
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="65" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>1271</v>
@@ -37458,7 +37481,7 @@
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="61" t="s">
-        <v>1408</v>
+        <v>1397</v>
       </c>
       <c r="D40" s="48" t="s">
         <v>1360</v>
@@ -37474,7 +37497,7 @@
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="61" t="s">
-        <v>1409</v>
+        <v>1398</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>1361</v>
@@ -37490,7 +37513,7 @@
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="61" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>1272</v>
@@ -37506,7 +37529,7 @@
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="61" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>1273</v>
@@ -37524,7 +37547,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="D44" s="62" t="s">
         <v>1274</v>
@@ -37540,7 +37563,7 @@
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="65" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="D45" s="63" t="s">
         <v>1362</v>
@@ -37558,7 +37581,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="D46" s="48" t="s">
         <v>1275</v>
@@ -37574,7 +37597,7 @@
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="61" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="D47" s="48" t="s">
         <v>1363</v>
@@ -37592,7 +37615,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="64" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="D48" s="27" t="s">
         <v>1276</v>
@@ -37608,7 +37631,7 @@
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="64" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>1277</v>
@@ -37624,7 +37647,7 @@
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="64" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="D50" s="29" t="s">
         <v>1278</v>
@@ -37640,7 +37663,7 @@
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="64" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="D51" s="29" t="s">
         <v>1279</v>
@@ -37656,7 +37679,7 @@
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="64" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="D52" s="29" t="s">
         <v>1280</v>
@@ -37672,7 +37695,7 @@
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="64" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>1281</v>
@@ -37688,7 +37711,7 @@
       </c>
       <c r="B54" s="27"/>
       <c r="C54" s="64" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>1282</v>
@@ -37704,7 +37727,7 @@
       </c>
       <c r="B55" s="27"/>
       <c r="C55" s="64" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>1283</v>
@@ -37720,7 +37743,7 @@
       </c>
       <c r="B56" s="27"/>
       <c r="C56" s="64" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>1284</v>
@@ -37736,7 +37759,7 @@
       </c>
       <c r="B57" s="27"/>
       <c r="C57" s="64" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>1285</v>
@@ -37752,7 +37775,7 @@
       </c>
       <c r="B58" s="27"/>
       <c r="C58" s="64" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>1286</v>
@@ -37768,7 +37791,7 @@
       </c>
       <c r="B59" s="27"/>
       <c r="C59" s="28" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>1287</v>
@@ -37784,7 +37807,7 @@
       </c>
       <c r="B60" s="27"/>
       <c r="C60" s="28" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>380</v>
@@ -37800,7 +37823,7 @@
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="64" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>381</v>
@@ -37816,7 +37839,7 @@
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="64" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>1288</v>
@@ -37832,7 +37855,7 @@
       </c>
       <c r="B63" s="27"/>
       <c r="C63" s="64" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>1289</v>
@@ -37848,7 +37871,7 @@
       </c>
       <c r="B64" s="27"/>
       <c r="C64" s="64" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>1290</v>
@@ -37864,7 +37887,7 @@
       </c>
       <c r="B65" s="27"/>
       <c r="C65" s="64" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>1291</v>
@@ -37880,7 +37903,7 @@
       </c>
       <c r="B66" s="27"/>
       <c r="C66" s="64" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>1117</v>
@@ -37896,7 +37919,7 @@
       </c>
       <c r="B67" s="27"/>
       <c r="C67" s="64" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>1292</v>
@@ -37912,7 +37935,7 @@
       </c>
       <c r="B68" s="27"/>
       <c r="C68" s="64" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>1293</v>
@@ -37928,7 +37951,7 @@
       </c>
       <c r="B69" s="27"/>
       <c r="C69" s="64" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>1294</v>
@@ -37944,7 +37967,7 @@
       </c>
       <c r="B70" s="27"/>
       <c r="C70" s="64" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>1295</v>
@@ -37960,7 +37983,7 @@
       </c>
       <c r="B71" s="27"/>
       <c r="C71" s="28" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>382</v>
@@ -37976,7 +37999,7 @@
       </c>
       <c r="B72" s="27"/>
       <c r="C72" s="64" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>936</v>
@@ -37992,7 +38015,7 @@
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="64" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="D73" s="29" t="s">
         <v>1296</v>
@@ -38008,7 +38031,7 @@
       </c>
       <c r="B74" s="27"/>
       <c r="C74" s="28" t="s">
-        <v>1439</v>
+        <v>1428</v>
       </c>
       <c r="D74" s="29" t="s">
         <v>1297</v>
@@ -38024,7 +38047,7 @@
       </c>
       <c r="B75" s="27"/>
       <c r="C75" s="28" t="s">
-        <v>1440</v>
+        <v>1429</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>1298</v>
@@ -38040,7 +38063,7 @@
       </c>
       <c r="B76" s="27"/>
       <c r="C76" s="28" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>383</v>
@@ -38056,7 +38079,7 @@
       </c>
       <c r="B77" s="27"/>
       <c r="C77" s="28" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="D77" s="29" t="s">
         <v>1299</v>
@@ -38072,7 +38095,7 @@
       </c>
       <c r="B78" s="27"/>
       <c r="C78" s="64" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>1300</v>
@@ -38088,7 +38111,7 @@
       </c>
       <c r="B79" s="27"/>
       <c r="C79" s="64" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>1301</v>
@@ -38104,7 +38127,7 @@
       </c>
       <c r="B80" s="27"/>
       <c r="C80" s="64" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
       <c r="D80" s="29" t="s">
         <v>1302</v>
@@ -38120,7 +38143,7 @@
       </c>
       <c r="B81" s="27"/>
       <c r="C81" s="28" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
       <c r="D81" s="27" t="s">
         <v>937</v>
@@ -38136,7 +38159,7 @@
       </c>
       <c r="B82" s="27"/>
       <c r="C82" s="28" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>1303</v>
@@ -38152,7 +38175,7 @@
       </c>
       <c r="B83" s="27"/>
       <c r="C83" s="64" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>1304</v>
@@ -38168,7 +38191,7 @@
       </c>
       <c r="B84" s="27"/>
       <c r="C84" s="64" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>1305</v>
@@ -38184,7 +38207,7 @@
       </c>
       <c r="B85" s="27"/>
       <c r="C85" s="64" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>1306</v>
@@ -38202,7 +38225,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="64" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>1307</v>
@@ -38218,7 +38241,7 @@
       </c>
       <c r="B87" s="27"/>
       <c r="C87" s="50" t="s">
-        <v>1455</v>
+        <v>2096</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>1308</v>
@@ -38234,7 +38257,7 @@
       </c>
       <c r="B88" s="27"/>
       <c r="C88" s="64" t="s">
-        <v>1456</v>
+        <v>2097</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>384</v>
@@ -38250,7 +38273,7 @@
       </c>
       <c r="B89" s="27"/>
       <c r="C89" s="64" t="s">
-        <v>1457</v>
+        <v>1444</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>385</v>
@@ -38266,7 +38289,7 @@
       </c>
       <c r="B90" s="27"/>
       <c r="C90" s="64" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D90" s="27" t="s">
         <v>1309</v>
@@ -38282,7 +38305,7 @@
       </c>
       <c r="B91" s="27"/>
       <c r="C91" s="50" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="D91" s="27" t="s">
         <v>386</v>
@@ -38298,7 +38321,7 @@
       </c>
       <c r="B92" s="27"/>
       <c r="C92" s="64" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="D92" s="27" t="s">
         <v>1310</v>
@@ -38314,7 +38337,7 @@
       </c>
       <c r="B93" s="27"/>
       <c r="C93" s="64" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
       <c r="D93" s="27" t="s">
         <v>1311</v>
@@ -38330,7 +38353,7 @@
       </c>
       <c r="B94" s="27"/>
       <c r="C94" s="50" t="s">
-        <v>225</v>
+        <v>2101</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>225</v>
@@ -38346,7 +38369,7 @@
       </c>
       <c r="B95" s="27"/>
       <c r="C95" s="64" t="s">
-        <v>1462</v>
+        <v>2102</v>
       </c>
       <c r="D95" s="29" t="s">
         <v>1312</v>
@@ -38362,7 +38385,7 @@
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="50" t="s">
-        <v>226</v>
+        <v>2098</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>226</v>
@@ -38378,7 +38401,7 @@
       </c>
       <c r="B97" s="27"/>
       <c r="C97" s="50" t="s">
-        <v>1463</v>
+        <v>2103</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>227</v>
@@ -38396,7 +38419,7 @@
         <v>32</v>
       </c>
       <c r="C98" s="64" t="s">
-        <v>1457</v>
+        <v>2099</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>385</v>
@@ -38412,7 +38435,7 @@
       </c>
       <c r="B99" s="27"/>
       <c r="C99" s="50" t="s">
-        <v>1464</v>
+        <v>2100</v>
       </c>
       <c r="D99" s="27" t="s">
         <v>1313</v>
@@ -38428,7 +38451,7 @@
       </c>
       <c r="B100" s="27"/>
       <c r="C100" s="64" t="s">
-        <v>1465</v>
+        <v>1449</v>
       </c>
       <c r="D100" s="29" t="s">
         <v>1314</v>
@@ -38444,7 +38467,7 @@
       </c>
       <c r="B101" s="27"/>
       <c r="C101" s="50" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
       <c r="D101" s="27" t="s">
         <v>1315</v>
@@ -38460,7 +38483,7 @@
       </c>
       <c r="B102" s="27"/>
       <c r="C102" s="50" t="s">
-        <v>1467</v>
+        <v>1451</v>
       </c>
       <c r="D102" s="27" t="s">
         <v>387</v>
@@ -38476,7 +38499,7 @@
       </c>
       <c r="B103" s="27"/>
       <c r="C103" s="64" t="s">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>1316</v>
@@ -38492,7 +38515,7 @@
       </c>
       <c r="B104" s="27"/>
       <c r="C104" s="64" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="D104" s="27" t="s">
         <v>388</v>
@@ -38508,7 +38531,7 @@
       </c>
       <c r="B105" s="27"/>
       <c r="C105" s="64" t="s">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="D105" s="29" t="s">
         <v>1316</v>
@@ -38524,7 +38547,7 @@
       </c>
       <c r="B106" s="27"/>
       <c r="C106" s="64" t="s">
-        <v>1468</v>
+        <v>1452</v>
       </c>
       <c r="D106" s="27" t="s">
         <v>1317</v>
@@ -38540,7 +38563,7 @@
       </c>
       <c r="B107" s="27"/>
       <c r="C107" s="64" t="s">
-        <v>1470</v>
+        <v>1454</v>
       </c>
       <c r="D107" s="27" t="s">
         <v>1318</v>
@@ -38556,7 +38579,7 @@
       </c>
       <c r="B108" s="27"/>
       <c r="C108" s="64" t="s">
-        <v>1469</v>
+        <v>1453</v>
       </c>
       <c r="D108" s="27" t="s">
         <v>1319</v>
@@ -38572,7 +38595,7 @@
       </c>
       <c r="B109" s="27"/>
       <c r="C109" s="64" t="s">
-        <v>2067</v>
+        <v>2050</v>
       </c>
       <c r="D109" s="29" t="s">
         <v>1316</v>
@@ -38590,7 +38613,7 @@
         <v>33</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>1471</v>
+        <v>1455</v>
       </c>
       <c r="D110" s="27" t="s">
         <v>389</v>
@@ -38606,7 +38629,7 @@
       </c>
       <c r="B111" s="27"/>
       <c r="C111" s="64" t="s">
-        <v>2093</v>
+        <v>2076</v>
       </c>
       <c r="D111" s="27" t="s">
         <v>938</v>
@@ -38622,7 +38645,7 @@
       </c>
       <c r="B112" s="27"/>
       <c r="C112" s="50" t="s">
-        <v>2094</v>
+        <v>2077</v>
       </c>
       <c r="D112" s="27" t="s">
         <v>390</v>
@@ -38638,7 +38661,7 @@
       </c>
       <c r="B113" s="27"/>
       <c r="C113" s="64" t="s">
-        <v>1472</v>
+        <v>1456</v>
       </c>
       <c r="D113" s="62" t="s">
         <v>1377</v>
@@ -38654,7 +38677,7 @@
       </c>
       <c r="B114" s="27"/>
       <c r="C114" s="50" t="s">
-        <v>1473</v>
+        <v>1457</v>
       </c>
       <c r="D114" s="27" t="s">
         <v>391</v>
@@ -38670,7 +38693,7 @@
       </c>
       <c r="B115" s="27"/>
       <c r="C115" s="64" t="s">
-        <v>1474</v>
+        <v>1458</v>
       </c>
       <c r="D115" s="29" t="s">
         <v>1320</v>
@@ -38686,7 +38709,7 @@
       </c>
       <c r="B116" s="27"/>
       <c r="C116" s="64" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
       <c r="D116" s="27" t="s">
         <v>1321</v>
@@ -38702,7 +38725,7 @@
       </c>
       <c r="B117" s="27"/>
       <c r="C117" s="64" t="s">
-        <v>1481</v>
+        <v>1465</v>
       </c>
       <c r="D117" s="27" t="s">
         <v>1322</v>
@@ -38718,7 +38741,7 @@
       </c>
       <c r="B118" s="27"/>
       <c r="C118" s="50" t="s">
-        <v>1476</v>
+        <v>1460</v>
       </c>
       <c r="D118" s="27" t="s">
         <v>1323</v>
@@ -38734,7 +38757,7 @@
       </c>
       <c r="B119" s="27"/>
       <c r="C119" s="50" t="s">
-        <v>1477</v>
+        <v>1461</v>
       </c>
       <c r="D119" s="27" t="s">
         <v>1324</v>
@@ -38750,7 +38773,7 @@
       </c>
       <c r="B120" s="27"/>
       <c r="C120" s="50" t="s">
-        <v>1478</v>
+        <v>1462</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>392</v>
@@ -38766,7 +38789,7 @@
       </c>
       <c r="B121" s="27"/>
       <c r="C121" s="64" t="s">
-        <v>1479</v>
+        <v>1463</v>
       </c>
       <c r="D121" s="27" t="s">
         <v>1325</v>
@@ -38782,7 +38805,7 @@
       </c>
       <c r="B122" s="27"/>
       <c r="C122" s="64" t="s">
-        <v>1480</v>
+        <v>1464</v>
       </c>
       <c r="D122" s="27" t="s">
         <v>1326</v>
@@ -38800,7 +38823,7 @@
         <v>34</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="D123" s="27" t="s">
         <v>393</v>
@@ -38816,7 +38839,7 @@
       </c>
       <c r="B124" s="27"/>
       <c r="C124" s="28" t="s">
-        <v>1483</v>
+        <v>1467</v>
       </c>
       <c r="D124" s="27" t="s">
         <v>939</v>
@@ -38848,7 +38871,7 @@
       </c>
       <c r="B126" s="27"/>
       <c r="C126" s="28" t="s">
-        <v>1484</v>
+        <v>1468</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>1328</v>
@@ -38864,7 +38887,7 @@
       </c>
       <c r="B127" s="32"/>
       <c r="C127" s="31" t="s">
-        <v>1485</v>
+        <v>1469</v>
       </c>
       <c r="D127" s="32" t="s">
         <v>1329</v>
@@ -38880,7 +38903,7 @@
       </c>
       <c r="B128" s="27"/>
       <c r="C128" s="28" t="s">
-        <v>1486</v>
+        <v>1470</v>
       </c>
       <c r="D128" s="27" t="s">
         <v>1118</v>
@@ -38896,7 +38919,7 @@
       </c>
       <c r="B129" s="27"/>
       <c r="C129" s="28" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>1330</v>
@@ -38912,7 +38935,7 @@
       </c>
       <c r="B130" s="27"/>
       <c r="C130" s="28" t="s">
-        <v>1488</v>
+        <v>1472</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>1331</v>
@@ -38928,7 +38951,7 @@
       </c>
       <c r="B131" s="27"/>
       <c r="C131" s="28" t="s">
-        <v>1489</v>
+        <v>1473</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>1332</v>
@@ -38944,7 +38967,7 @@
       </c>
       <c r="B132" s="27"/>
       <c r="C132" s="28" t="s">
-        <v>1490</v>
+        <v>1474</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>394</v>
@@ -38960,7 +38983,7 @@
       </c>
       <c r="B133" s="27"/>
       <c r="C133" s="28" t="s">
-        <v>1491</v>
+        <v>1475</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>395</v>
@@ -38976,7 +38999,7 @@
       </c>
       <c r="B134" s="27"/>
       <c r="C134" s="28" t="s">
-        <v>1492</v>
+        <v>1476</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>940</v>
@@ -38992,7 +39015,7 @@
       </c>
       <c r="B135" s="27"/>
       <c r="C135" s="28" t="s">
-        <v>1493</v>
+        <v>1477</v>
       </c>
       <c r="D135" s="27" t="s">
         <v>941</v>
@@ -39008,7 +39031,7 @@
       </c>
       <c r="B136" s="27"/>
       <c r="C136" s="28" t="s">
-        <v>1494</v>
+        <v>1478</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>396</v>
@@ -39024,7 +39047,7 @@
       </c>
       <c r="B137" s="27"/>
       <c r="C137" s="28" t="s">
-        <v>1495</v>
+        <v>1479</v>
       </c>
       <c r="D137" s="27" t="s">
         <v>397</v>
@@ -39040,7 +39063,7 @@
       </c>
       <c r="B138" s="27"/>
       <c r="C138" s="28" t="s">
-        <v>1496</v>
+        <v>1480</v>
       </c>
       <c r="D138" s="27" t="s">
         <v>1333</v>
@@ -39056,7 +39079,7 @@
       </c>
       <c r="B139" s="27"/>
       <c r="C139" s="28" t="s">
-        <v>1497</v>
+        <v>1481</v>
       </c>
       <c r="D139" s="27" t="s">
         <v>1334</v>
@@ -39072,7 +39095,7 @@
       </c>
       <c r="B140" s="27"/>
       <c r="C140" s="28" t="s">
-        <v>1498</v>
+        <v>1482</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>398</v>
@@ -39088,7 +39111,7 @@
       </c>
       <c r="B141" s="27"/>
       <c r="C141" s="28" t="s">
-        <v>1499</v>
+        <v>1483</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>942</v>
@@ -39104,7 +39127,7 @@
       </c>
       <c r="B142" s="27"/>
       <c r="C142" s="28" t="s">
-        <v>1500</v>
+        <v>1484</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>1335</v>
@@ -39120,7 +39143,7 @@
       </c>
       <c r="B143" s="27"/>
       <c r="C143" s="28" t="s">
-        <v>1501</v>
+        <v>1485</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>399</v>
@@ -39136,7 +39159,7 @@
       </c>
       <c r="B144" s="27"/>
       <c r="C144" s="28" t="s">
-        <v>1502</v>
+        <v>1486</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>1336</v>
@@ -39152,7 +39175,7 @@
       </c>
       <c r="B145" s="27"/>
       <c r="C145" s="28" t="s">
-        <v>1503</v>
+        <v>1487</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>400</v>
@@ -39168,7 +39191,7 @@
       </c>
       <c r="B146" s="27"/>
       <c r="C146" s="50" t="s">
-        <v>1504</v>
+        <v>1488</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>1337</v>
@@ -39184,7 +39207,7 @@
       </c>
       <c r="B147" s="27"/>
       <c r="C147" s="50" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
       <c r="D147" s="62" t="s">
         <v>1364</v>
@@ -39200,7 +39223,7 @@
       </c>
       <c r="B148" s="27"/>
       <c r="C148" s="50" t="s">
-        <v>1506</v>
+        <v>1490</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>1338</v>
@@ -39216,7 +39239,7 @@
       </c>
       <c r="B149" s="27"/>
       <c r="C149" s="50" t="s">
-        <v>1507</v>
+        <v>1491</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>1339</v>
@@ -39230,7 +39253,7 @@
       </c>
       <c r="B150" s="27"/>
       <c r="C150" s="28" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>1340</v>
@@ -39246,7 +39269,7 @@
       </c>
       <c r="B151" s="27"/>
       <c r="C151" s="28" t="s">
-        <v>1509</v>
+        <v>1493</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>401</v>
@@ -39280,7 +39303,7 @@
         <v>122</v>
       </c>
       <c r="C153" s="67" t="s">
-        <v>1518</v>
+        <v>1502</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>1341</v>
@@ -39312,7 +39335,7 @@
       </c>
       <c r="B155" s="32"/>
       <c r="C155" s="67" t="s">
-        <v>2068</v>
+        <v>2051</v>
       </c>
       <c r="D155" s="32" t="s">
         <v>1342</v>
@@ -39328,7 +39351,7 @@
       </c>
       <c r="B156" s="27"/>
       <c r="C156" s="28" t="s">
-        <v>1510</v>
+        <v>1494</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>1343</v>
@@ -39344,7 +39367,7 @@
       </c>
       <c r="B157" s="27"/>
       <c r="C157" s="28" t="s">
-        <v>1511</v>
+        <v>1495</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>1344</v>
@@ -39360,7 +39383,7 @@
       </c>
       <c r="B158" s="27"/>
       <c r="C158" s="28" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>1345</v>
@@ -39376,7 +39399,7 @@
       </c>
       <c r="B159" s="27"/>
       <c r="C159" s="28" t="s">
-        <v>1513</v>
+        <v>1497</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>1346</v>
@@ -39392,7 +39415,7 @@
       </c>
       <c r="B160" s="27"/>
       <c r="C160" s="28" t="s">
-        <v>1514</v>
+        <v>1498</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>1347</v>
@@ -39422,7 +39445,7 @@
       </c>
       <c r="B162" s="32"/>
       <c r="C162" s="68" t="s">
-        <v>2098</v>
+        <v>2081</v>
       </c>
       <c r="D162" s="32" t="s">
         <v>1348</v>
@@ -39438,7 +39461,7 @@
       </c>
       <c r="B163" s="32"/>
       <c r="C163" s="30" t="s">
-        <v>1515</v>
+        <v>1499</v>
       </c>
       <c r="D163" s="32" t="s">
         <v>1349</v>
@@ -39454,7 +39477,7 @@
       </c>
       <c r="B164" s="32"/>
       <c r="C164" s="30" t="s">
-        <v>1516</v>
+        <v>1500</v>
       </c>
       <c r="D164" s="32" t="s">
         <v>1350</v>
@@ -39486,7 +39509,7 @@
       </c>
       <c r="B166" s="32"/>
       <c r="C166" s="68" t="s">
-        <v>2070</v>
+        <v>2053</v>
       </c>
       <c r="D166" s="32" t="s">
         <v>1351</v>
@@ -39502,7 +39525,7 @@
       </c>
       <c r="B167" s="32"/>
       <c r="C167" s="30" t="s">
-        <v>1517</v>
+        <v>1501</v>
       </c>
       <c r="D167" s="35" t="s">
         <v>1252</v>
@@ -39518,7 +39541,7 @@
       </c>
       <c r="B168" s="32"/>
       <c r="C168" s="44" t="s">
-        <v>2095</v>
+        <v>2078</v>
       </c>
       <c r="D168" s="35" t="s">
         <v>1246</v>
@@ -39534,7 +39557,7 @@
       </c>
       <c r="B169" s="32"/>
       <c r="C169" s="61" t="s">
-        <v>2096</v>
+        <v>2079</v>
       </c>
       <c r="D169" s="35" t="s">
         <v>1247</v>
@@ -39550,7 +39573,7 @@
       </c>
       <c r="B170" s="32"/>
       <c r="C170" s="61" t="s">
-        <v>2097</v>
+        <v>2080</v>
       </c>
       <c r="D170" s="35" t="s">
         <v>1250</v>
@@ -39608,7 +39631,7 @@
       </c>
       <c r="B174" s="32"/>
       <c r="C174" s="61" t="s">
-        <v>1519</v>
+        <v>1503</v>
       </c>
       <c r="D174" s="32" t="s">
         <v>987</v>
@@ -39624,7 +39647,7 @@
       </c>
       <c r="B175" s="36"/>
       <c r="C175" s="68" t="s">
-        <v>2069</v>
+        <v>2052</v>
       </c>
       <c r="D175" s="36" t="s">
         <v>1352</v>
@@ -39640,7 +39663,7 @@
       </c>
       <c r="B176" s="36"/>
       <c r="C176" s="61" t="s">
-        <v>1520</v>
+        <v>1504</v>
       </c>
       <c r="D176" s="37" t="s">
         <v>1353</v>
@@ -39680,8 +39703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -39720,7 +39743,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>1521</v>
+        <v>1505</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>139</v>
@@ -39736,7 +39759,7 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="69" t="s">
-        <v>1522</v>
+        <v>1506</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>140</v>
@@ -39752,7 +39775,7 @@
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="69" t="s">
-        <v>1523</v>
+        <v>1507</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>141</v>
@@ -39768,7 +39791,7 @@
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="69" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>142</v>
@@ -39784,7 +39807,7 @@
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="69" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>143</v>
@@ -39800,7 +39823,7 @@
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="69" t="s">
-        <v>1526</v>
+        <v>1510</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>144</v>
@@ -39816,7 +39839,7 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="69" t="s">
-        <v>1527</v>
+        <v>1511</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>1027</v>
@@ -39832,7 +39855,7 @@
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="69" t="s">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>145</v>
@@ -39848,7 +39871,7 @@
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="69" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>1107</v>
@@ -39864,7 +39887,7 @@
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="69" t="s">
-        <v>1530</v>
+        <v>1514</v>
       </c>
       <c r="D11" s="44" t="s">
         <v>146</v>
@@ -39880,7 +39903,7 @@
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="69" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="D12" s="44" t="s">
         <v>147</v>
@@ -39896,7 +39919,7 @@
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="70" t="s">
-        <v>2079</v>
+        <v>2062</v>
       </c>
       <c r="D13" s="49" t="s">
         <v>1042</v>
@@ -39912,7 +39935,7 @@
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="69" t="s">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="D14" s="48" t="s">
         <v>148</v>
@@ -39944,7 +39967,7 @@
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="69" t="s">
-        <v>1533</v>
+        <v>1517</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>149</v>
@@ -39960,7 +39983,7 @@
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="69" t="s">
-        <v>1534</v>
+        <v>1518</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>1109</v>
@@ -39976,7 +39999,7 @@
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="69" t="s">
-        <v>1535</v>
+        <v>1519</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>1110</v>
@@ -39992,7 +40015,7 @@
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="69" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="D19" s="48" t="s">
         <v>944</v>
@@ -40008,7 +40031,7 @@
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="69" t="s">
-        <v>1537</v>
+        <v>1521</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>1080</v>
@@ -40024,7 +40047,7 @@
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="69" t="s">
-        <v>1538</v>
+        <v>1522</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>150</v>
@@ -40040,7 +40063,7 @@
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="69" t="s">
-        <v>1539</v>
+        <v>1523</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>151</v>
@@ -40056,7 +40079,7 @@
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="69" t="s">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>152</v>
@@ -40072,7 +40095,7 @@
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="69" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>153</v>
@@ -40088,7 +40111,7 @@
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="69" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>154</v>
@@ -40104,7 +40127,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="69" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>1075</v>
@@ -40120,7 +40143,7 @@
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="69" t="s">
-        <v>1544</v>
+        <v>1528</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>1202</v>
@@ -40136,7 +40159,7 @@
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="69" t="s">
-        <v>1545</v>
+        <v>1529</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>1203</v>
@@ -40152,7 +40175,7 @@
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="69" t="s">
-        <v>1546</v>
+        <v>1530</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>155</v>
@@ -40168,7 +40191,7 @@
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="69" t="s">
-        <v>1547</v>
+        <v>1531</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>1222</v>
@@ -40184,7 +40207,7 @@
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="69" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="D31" s="49" t="s">
         <v>1060</v>
@@ -40200,7 +40223,7 @@
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="69" t="s">
-        <v>1549</v>
+        <v>1533</v>
       </c>
       <c r="D32" s="48" t="s">
         <v>156</v>
@@ -40216,7 +40239,7 @@
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="69" t="s">
-        <v>1550</v>
+        <v>1534</v>
       </c>
       <c r="D33" s="48" t="s">
         <v>1111</v>
@@ -40232,7 +40255,7 @@
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="69" t="s">
-        <v>1551</v>
+        <v>1535</v>
       </c>
       <c r="D34" s="48" t="s">
         <v>157</v>
@@ -40264,7 +40287,7 @@
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="69" t="s">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>945</v>
@@ -40280,7 +40303,7 @@
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="69" t="s">
-        <v>1553</v>
+        <v>1537</v>
       </c>
       <c r="D37" s="48" t="s">
         <v>159</v>
@@ -40296,7 +40319,7 @@
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="69" t="s">
-        <v>1554</v>
+        <v>1538</v>
       </c>
       <c r="D38" s="49" t="s">
         <v>1033</v>
@@ -40328,7 +40351,7 @@
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="69" t="s">
-        <v>1555</v>
+        <v>1539</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>947</v>
@@ -40344,7 +40367,7 @@
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="69" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>160</v>
@@ -40360,7 +40383,7 @@
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="69" t="s">
-        <v>1557</v>
+        <v>1541</v>
       </c>
       <c r="D42" s="48" t="s">
         <v>161</v>
@@ -40408,7 +40431,7 @@
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="69" t="s">
-        <v>1558</v>
+        <v>1542</v>
       </c>
       <c r="D45" s="48" t="s">
         <v>948</v>
@@ -40424,7 +40447,7 @@
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="69" t="s">
-        <v>1559</v>
+        <v>1543</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>949</v>
@@ -40440,7 +40463,7 @@
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="69" t="s">
-        <v>1560</v>
+        <v>1544</v>
       </c>
       <c r="D47" s="48" t="s">
         <v>164</v>
@@ -40456,7 +40479,7 @@
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="69" t="s">
-        <v>1561</v>
+        <v>1545</v>
       </c>
       <c r="D48" s="48" t="s">
         <v>165</v>
@@ -40472,7 +40495,7 @@
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="69" t="s">
-        <v>1562</v>
+        <v>1546</v>
       </c>
       <c r="D49" s="48" t="s">
         <v>166</v>
@@ -40488,7 +40511,7 @@
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="69" t="s">
-        <v>1563</v>
+        <v>1547</v>
       </c>
       <c r="D50" s="48" t="s">
         <v>167</v>
@@ -40504,7 +40527,7 @@
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="69" t="s">
-        <v>1564</v>
+        <v>1548</v>
       </c>
       <c r="D51" s="48" t="s">
         <v>168</v>
@@ -40520,7 +40543,7 @@
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="69" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="D52" s="48" t="s">
         <v>169</v>
@@ -40536,7 +40559,7 @@
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="69" t="s">
-        <v>1566</v>
+        <v>1550</v>
       </c>
       <c r="D53" s="48" t="s">
         <v>1183</v>
@@ -40552,7 +40575,7 @@
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="69" t="s">
-        <v>1567</v>
+        <v>1551</v>
       </c>
       <c r="D54" s="49" t="s">
         <v>1030</v>
@@ -40568,7 +40591,7 @@
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="69" t="s">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="D55" s="49" t="s">
         <v>1077</v>
@@ -40616,7 +40639,7 @@
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="69" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="D58" s="48" t="s">
         <v>172</v>
@@ -40632,7 +40655,7 @@
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="69" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="D59" s="48" t="s">
         <v>950</v>
@@ -40648,7 +40671,7 @@
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="69" t="s">
-        <v>1571</v>
+        <v>1555</v>
       </c>
       <c r="D60" s="49" t="s">
         <v>1084</v>
@@ -40664,7 +40687,7 @@
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="69" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
       <c r="D61" s="49" t="s">
         <v>1209</v>
@@ -40680,7 +40703,7 @@
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="69" t="s">
-        <v>1573</v>
+        <v>1557</v>
       </c>
       <c r="D62" s="48" t="s">
         <v>1223</v>
@@ -40696,7 +40719,7 @@
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="69" t="s">
-        <v>1574</v>
+        <v>1558</v>
       </c>
       <c r="D63" s="48" t="s">
         <v>173</v>
@@ -40712,7 +40735,7 @@
       </c>
       <c r="B64" s="48"/>
       <c r="C64" s="69" t="s">
-        <v>1575</v>
+        <v>1559</v>
       </c>
       <c r="D64" s="48" t="s">
         <v>1126</v>
@@ -40728,7 +40751,7 @@
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="69" t="s">
-        <v>1576</v>
+        <v>1560</v>
       </c>
       <c r="D65" s="48" t="s">
         <v>174</v>
@@ -40760,7 +40783,7 @@
       </c>
       <c r="B67" s="48"/>
       <c r="C67" s="69" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="D67" s="49" t="s">
         <v>952</v>
@@ -40776,7 +40799,7 @@
       </c>
       <c r="B68" s="48"/>
       <c r="C68" s="69" t="s">
-        <v>1578</v>
+        <v>1562</v>
       </c>
       <c r="D68" s="49" t="s">
         <v>1171</v>
@@ -40792,7 +40815,7 @@
       </c>
       <c r="B69" s="48"/>
       <c r="C69" s="69" t="s">
-        <v>1579</v>
+        <v>1563</v>
       </c>
       <c r="D69" s="48" t="s">
         <v>175</v>
@@ -40808,7 +40831,7 @@
       </c>
       <c r="B70" s="48"/>
       <c r="C70" s="69" t="s">
-        <v>1580</v>
+        <v>1564</v>
       </c>
       <c r="D70" s="49" t="s">
         <v>1212</v>
@@ -40856,7 +40879,7 @@
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="69" t="s">
-        <v>1581</v>
+        <v>1565</v>
       </c>
       <c r="D73" s="48" t="s">
         <v>1055</v>
@@ -40872,7 +40895,7 @@
       </c>
       <c r="B74" s="48"/>
       <c r="C74" s="69" t="s">
-        <v>1582</v>
+        <v>1566</v>
       </c>
       <c r="D74" s="48" t="s">
         <v>177</v>
@@ -40904,7 +40927,7 @@
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="69" t="s">
-        <v>1583</v>
+        <v>1567</v>
       </c>
       <c r="D76" s="48" t="s">
         <v>179</v>
@@ -40920,7 +40943,7 @@
       </c>
       <c r="B77" s="48"/>
       <c r="C77" s="69" t="s">
-        <v>1584</v>
+        <v>1568</v>
       </c>
       <c r="D77" s="48" t="s">
         <v>1114</v>
@@ -40936,7 +40959,7 @@
       </c>
       <c r="B78" s="48"/>
       <c r="C78" s="69" t="s">
-        <v>1585</v>
+        <v>1569</v>
       </c>
       <c r="D78" s="48" t="s">
         <v>180</v>
@@ -40952,7 +40975,7 @@
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="69" t="s">
-        <v>1586</v>
+        <v>1570</v>
       </c>
       <c r="D79" s="48" t="s">
         <v>181</v>
@@ -40984,7 +41007,7 @@
       </c>
       <c r="B81" s="48"/>
       <c r="C81" s="69" t="s">
-        <v>1587</v>
+        <v>1571</v>
       </c>
       <c r="D81" s="48" t="s">
         <v>183</v>
@@ -41000,7 +41023,7 @@
       </c>
       <c r="B82" s="48"/>
       <c r="C82" s="69" t="s">
-        <v>1588</v>
+        <v>1572</v>
       </c>
       <c r="D82" s="48" t="s">
         <v>954</v>
@@ -41016,7 +41039,7 @@
       </c>
       <c r="B83" s="48"/>
       <c r="C83" s="69" t="s">
-        <v>1589</v>
+        <v>1573</v>
       </c>
       <c r="D83" s="48" t="s">
         <v>184</v>
@@ -41032,7 +41055,7 @@
       </c>
       <c r="B84" s="48"/>
       <c r="C84" s="69" t="s">
-        <v>1590</v>
+        <v>1574</v>
       </c>
       <c r="D84" s="48" t="s">
         <v>185</v>
@@ -41048,7 +41071,7 @@
       </c>
       <c r="B85" s="48"/>
       <c r="C85" s="69" t="s">
-        <v>1591</v>
+        <v>1575</v>
       </c>
       <c r="D85" s="48" t="s">
         <v>186</v>
@@ -41080,7 +41103,7 @@
       </c>
       <c r="B87" s="48"/>
       <c r="C87" s="69" t="s">
-        <v>1592</v>
+        <v>1576</v>
       </c>
       <c r="D87" s="49" t="s">
         <v>1036</v>
@@ -41128,7 +41151,7 @@
       </c>
       <c r="B90" s="48"/>
       <c r="C90" s="69" t="s">
-        <v>1593</v>
+        <v>1577</v>
       </c>
       <c r="D90" s="48" t="s">
         <v>189</v>
@@ -41144,7 +41167,7 @@
       </c>
       <c r="B91" s="48"/>
       <c r="C91" s="69" t="s">
-        <v>1594</v>
+        <v>1578</v>
       </c>
       <c r="D91" s="49" t="s">
         <v>955</v>
@@ -41176,7 +41199,7 @@
       </c>
       <c r="B93" s="48"/>
       <c r="C93" s="69" t="s">
-        <v>1595</v>
+        <v>1579</v>
       </c>
       <c r="D93" s="49" t="s">
         <v>1194</v>
@@ -41192,7 +41215,7 @@
       </c>
       <c r="B94" s="48"/>
       <c r="C94" s="69" t="s">
-        <v>1596</v>
+        <v>1580</v>
       </c>
       <c r="D94" s="48" t="s">
         <v>1115</v>
@@ -41208,7 +41231,7 @@
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="69" t="s">
-        <v>1597</v>
+        <v>1581</v>
       </c>
       <c r="D95" s="49" t="s">
         <v>1179</v>
@@ -41256,7 +41279,7 @@
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="69" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="D98" s="49" t="s">
         <v>1215</v>
@@ -41272,7 +41295,7 @@
       </c>
       <c r="B99" s="48"/>
       <c r="C99" s="69" t="s">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="D99" s="48" t="s">
         <v>193</v>
@@ -41288,7 +41311,7 @@
       </c>
       <c r="B100" s="48"/>
       <c r="C100" s="69" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="D100" s="48" t="s">
         <v>194</v>
@@ -41304,7 +41327,7 @@
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="71" t="s">
-        <v>1601</v>
+        <v>1585</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>1034</v>
@@ -41320,7 +41343,7 @@
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="71" t="s">
-        <v>1602</v>
+        <v>1586</v>
       </c>
       <c r="D102" s="48" t="s">
         <v>195</v>
@@ -41336,7 +41359,7 @@
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="71" t="s">
-        <v>1603</v>
+        <v>1587</v>
       </c>
       <c r="D103" s="48" t="s">
         <v>196</v>
@@ -41354,7 +41377,7 @@
         <v>74</v>
       </c>
       <c r="C104" s="69" t="s">
-        <v>2080</v>
+        <v>2063</v>
       </c>
       <c r="D104" s="48" t="s">
         <v>197</v>
@@ -41370,7 +41393,7 @@
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="69" t="s">
-        <v>2081</v>
+        <v>2064</v>
       </c>
       <c r="D105" s="48" t="s">
         <v>198</v>
@@ -41386,7 +41409,7 @@
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="69" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
       <c r="D106" s="48" t="s">
         <v>1006</v>
@@ -41402,7 +41425,7 @@
       </c>
       <c r="B107" s="48"/>
       <c r="C107" s="71" t="s">
-        <v>1605</v>
+        <v>1589</v>
       </c>
       <c r="D107" s="49" t="s">
         <v>1189</v>
@@ -41418,7 +41441,7 @@
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="69" t="s">
-        <v>1606</v>
+        <v>1590</v>
       </c>
       <c r="D108" s="48" t="s">
         <v>956</v>
@@ -41434,7 +41457,7 @@
       </c>
       <c r="B109" s="48"/>
       <c r="C109" s="69" t="s">
-        <v>1607</v>
+        <v>1591</v>
       </c>
       <c r="D109" s="48" t="s">
         <v>1012</v>
@@ -41450,7 +41473,7 @@
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="69" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="D110" s="48" t="s">
         <v>1025</v>
@@ -41466,7 +41489,7 @@
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="69" t="s">
-        <v>1609</v>
+        <v>1593</v>
       </c>
       <c r="D111" s="48" t="s">
         <v>1041</v>
@@ -41482,7 +41505,7 @@
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="69" t="s">
-        <v>1610</v>
+        <v>1594</v>
       </c>
       <c r="D112" s="48" t="s">
         <v>1044</v>
@@ -41498,7 +41521,7 @@
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="69" t="s">
-        <v>1611</v>
+        <v>1595</v>
       </c>
       <c r="D113" s="48" t="s">
         <v>1182</v>
@@ -41514,7 +41537,7 @@
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="71" t="s">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="D114" s="49" t="s">
         <v>1187</v>
@@ -41530,7 +41553,7 @@
       </c>
       <c r="B115" s="48"/>
       <c r="C115" s="71" t="s">
-        <v>1612</v>
+        <v>1596</v>
       </c>
       <c r="D115" s="48" t="s">
         <v>1043</v>
@@ -41546,7 +41569,7 @@
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="69" t="s">
-        <v>1613</v>
+        <v>1597</v>
       </c>
       <c r="D116" s="48" t="s">
         <v>957</v>
@@ -41562,7 +41585,7 @@
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="69" t="s">
-        <v>1614</v>
+        <v>1598</v>
       </c>
       <c r="D117" s="48" t="s">
         <v>1221</v>
@@ -41578,7 +41601,7 @@
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="69" t="s">
-        <v>1615</v>
+        <v>1599</v>
       </c>
       <c r="D118" s="48" t="s">
         <v>1049</v>
@@ -41594,7 +41617,7 @@
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="69" t="s">
-        <v>1616</v>
+        <v>1600</v>
       </c>
       <c r="D119" s="49" t="s">
         <v>1059</v>
@@ -41610,7 +41633,7 @@
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="71" t="s">
-        <v>2100</v>
+        <v>2083</v>
       </c>
       <c r="D120" s="48" t="s">
         <v>958</v>
@@ -41626,7 +41649,7 @@
       </c>
       <c r="B121" s="48"/>
       <c r="C121" s="69" t="s">
-        <v>1617</v>
+        <v>1601</v>
       </c>
       <c r="D121" s="49" t="s">
         <v>1066</v>
@@ -41642,7 +41665,7 @@
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="71" t="s">
-        <v>1618</v>
+        <v>1602</v>
       </c>
       <c r="D122" s="49" t="s">
         <v>1162</v>
@@ -41658,7 +41681,7 @@
       </c>
       <c r="B123" s="48"/>
       <c r="C123" s="69" t="s">
-        <v>1619</v>
+        <v>1603</v>
       </c>
       <c r="D123" s="49" t="s">
         <v>1218</v>
@@ -41674,7 +41697,7 @@
       </c>
       <c r="B124" s="48"/>
       <c r="C124" s="71" t="s">
-        <v>1620</v>
+        <v>1604</v>
       </c>
       <c r="D124" s="48" t="s">
         <v>1167</v>
@@ -41690,7 +41713,7 @@
       </c>
       <c r="B125" s="48"/>
       <c r="C125" s="69" t="s">
-        <v>1621</v>
+        <v>1605</v>
       </c>
       <c r="D125" s="48" t="s">
         <v>199</v>
@@ -41706,7 +41729,7 @@
       </c>
       <c r="B126" s="48"/>
       <c r="C126" s="71" t="s">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="D126" s="48" t="s">
         <v>1085</v>
@@ -41722,7 +41745,7 @@
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="69" t="s">
-        <v>1623</v>
+        <v>1607</v>
       </c>
       <c r="D127" s="44" t="s">
         <v>200</v>
@@ -41738,7 +41761,7 @@
       </c>
       <c r="B128" s="48"/>
       <c r="C128" s="71" t="s">
-        <v>1624</v>
+        <v>1608</v>
       </c>
       <c r="D128" s="48" t="s">
         <v>959</v>
@@ -41754,7 +41777,7 @@
       </c>
       <c r="B129" s="48"/>
       <c r="C129" s="69" t="s">
-        <v>1625</v>
+        <v>1609</v>
       </c>
       <c r="D129" s="48" t="s">
         <v>201</v>
@@ -41770,7 +41793,7 @@
       </c>
       <c r="B130" s="48"/>
       <c r="C130" s="69" t="s">
-        <v>1626</v>
+        <v>1610</v>
       </c>
       <c r="D130" s="48" t="s">
         <v>1204</v>
@@ -41786,7 +41809,7 @@
       </c>
       <c r="B131" s="48"/>
       <c r="C131" s="69" t="s">
-        <v>1627</v>
+        <v>1611</v>
       </c>
       <c r="D131" s="48" t="s">
         <v>1001</v>
@@ -41818,7 +41841,7 @@
       </c>
       <c r="B133" s="48"/>
       <c r="C133" s="69" t="s">
-        <v>1628</v>
+        <v>1612</v>
       </c>
       <c r="D133" s="48" t="s">
         <v>1061</v>
@@ -41834,7 +41857,7 @@
       </c>
       <c r="B134" s="48"/>
       <c r="C134" s="69" t="s">
-        <v>1629</v>
+        <v>1613</v>
       </c>
       <c r="D134" s="48" t="s">
         <v>1057</v>
@@ -41850,7 +41873,7 @@
       </c>
       <c r="B135" s="48"/>
       <c r="C135" s="69" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
       <c r="D135" s="49" t="s">
         <v>1082</v>
@@ -41866,7 +41889,7 @@
       </c>
       <c r="B136" s="48"/>
       <c r="C136" s="69" t="s">
-        <v>1631</v>
+        <v>1615</v>
       </c>
       <c r="D136" s="48" t="s">
         <v>203</v>
@@ -41882,7 +41905,7 @@
       </c>
       <c r="B137" s="48"/>
       <c r="C137" s="69" t="s">
-        <v>1632</v>
+        <v>1616</v>
       </c>
       <c r="D137" s="48" t="s">
         <v>1015</v>
@@ -41898,7 +41921,7 @@
       </c>
       <c r="B138" s="48"/>
       <c r="C138" s="69" t="s">
-        <v>1633</v>
+        <v>1617</v>
       </c>
       <c r="D138" s="48" t="s">
         <v>960</v>
@@ -41914,7 +41937,7 @@
       </c>
       <c r="B139" s="48"/>
       <c r="C139" s="69" t="s">
-        <v>2083</v>
+        <v>2066</v>
       </c>
       <c r="D139" s="48" t="s">
         <v>204</v>
@@ -41930,7 +41953,7 @@
       </c>
       <c r="B140" s="48"/>
       <c r="C140" s="69" t="s">
-        <v>2082</v>
+        <v>2065</v>
       </c>
       <c r="D140" s="48" t="s">
         <v>1050</v>
@@ -41946,7 +41969,7 @@
       </c>
       <c r="B141" s="48"/>
       <c r="C141" s="69" t="s">
-        <v>1635</v>
+        <v>1619</v>
       </c>
       <c r="D141" s="48" t="s">
         <v>1219</v>
@@ -41962,7 +41985,7 @@
       </c>
       <c r="B142" s="48"/>
       <c r="C142" s="69" t="s">
-        <v>1636</v>
+        <v>1620</v>
       </c>
       <c r="D142" s="48" t="s">
         <v>1003</v>
@@ -41978,7 +42001,7 @@
       </c>
       <c r="B143" s="48"/>
       <c r="C143" s="69" t="s">
-        <v>1637</v>
+        <v>1621</v>
       </c>
       <c r="D143" s="48" t="s">
         <v>1016</v>
@@ -41994,7 +42017,7 @@
       </c>
       <c r="B144" s="48"/>
       <c r="C144" s="71" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="D144" s="48" t="s">
         <v>1017</v>
@@ -42010,7 +42033,7 @@
       </c>
       <c r="B145" s="48"/>
       <c r="C145" s="69" t="s">
-        <v>1639</v>
+        <v>1623</v>
       </c>
       <c r="D145" s="48" t="s">
         <v>205</v>
@@ -42026,7 +42049,7 @@
       </c>
       <c r="B146" s="48"/>
       <c r="C146" s="71" t="s">
-        <v>1640</v>
+        <v>1624</v>
       </c>
       <c r="D146" s="48" t="s">
         <v>1020</v>
@@ -42042,7 +42065,7 @@
       </c>
       <c r="B147" s="48"/>
       <c r="C147" s="69" t="s">
-        <v>1641</v>
+        <v>1625</v>
       </c>
       <c r="D147" s="48" t="s">
         <v>206</v>
@@ -42058,7 +42081,7 @@
       </c>
       <c r="B148" s="48"/>
       <c r="C148" s="69" t="s">
-        <v>1642</v>
+        <v>1626</v>
       </c>
       <c r="D148" s="48" t="s">
         <v>207</v>
@@ -42074,7 +42097,7 @@
       </c>
       <c r="B149" s="48"/>
       <c r="C149" s="69" t="s">
-        <v>1643</v>
+        <v>1627</v>
       </c>
       <c r="D149" s="48" t="s">
         <v>961</v>
@@ -42090,7 +42113,7 @@
       </c>
       <c r="B150" s="48"/>
       <c r="C150" s="69" t="s">
-        <v>1644</v>
+        <v>1628</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>1021</v>
@@ -42106,7 +42129,7 @@
       </c>
       <c r="B151" s="48"/>
       <c r="C151" s="69" t="s">
-        <v>1645</v>
+        <v>1629</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>1023</v>
@@ -42122,7 +42145,7 @@
       </c>
       <c r="B152" s="48"/>
       <c r="C152" s="71" t="s">
-        <v>1646</v>
+        <v>1630</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>1051</v>
@@ -42138,7 +42161,7 @@
       </c>
       <c r="B153" s="48"/>
       <c r="C153" s="69" t="s">
-        <v>1647</v>
+        <v>1631</v>
       </c>
       <c r="D153" s="48" t="s">
         <v>962</v>
@@ -42154,7 +42177,7 @@
       </c>
       <c r="B154" s="48"/>
       <c r="C154" s="71" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
       <c r="D154" s="49" t="s">
         <v>1008</v>
@@ -42170,7 +42193,7 @@
       </c>
       <c r="B155" s="48"/>
       <c r="C155" s="69" t="s">
-        <v>1649</v>
+        <v>1633</v>
       </c>
       <c r="D155" s="49" t="s">
         <v>1185</v>
@@ -42186,7 +42209,7 @@
       </c>
       <c r="B156" s="48"/>
       <c r="C156" s="69" t="s">
-        <v>2084</v>
+        <v>2067</v>
       </c>
       <c r="D156" s="48" t="s">
         <v>1029</v>
@@ -42202,7 +42225,7 @@
       </c>
       <c r="B157" s="48"/>
       <c r="C157" s="69" t="s">
-        <v>1650</v>
+        <v>1634</v>
       </c>
       <c r="D157" s="48" t="s">
         <v>1076</v>
@@ -42218,7 +42241,7 @@
       </c>
       <c r="B158" s="48"/>
       <c r="C158" s="71" t="s">
-        <v>1651</v>
+        <v>1635</v>
       </c>
       <c r="D158" s="48" t="s">
         <v>1195</v>
@@ -42234,7 +42257,7 @@
       </c>
       <c r="B159" s="48"/>
       <c r="C159" s="69" t="s">
-        <v>1652</v>
+        <v>1636</v>
       </c>
       <c r="D159" s="48" t="s">
         <v>1004</v>
@@ -42250,7 +42273,7 @@
       </c>
       <c r="B160" s="48"/>
       <c r="C160" s="69" t="s">
-        <v>1653</v>
+        <v>1637</v>
       </c>
       <c r="D160" s="48" t="s">
         <v>1018</v>
@@ -42266,7 +42289,7 @@
       </c>
       <c r="B161" s="48"/>
       <c r="C161" s="69" t="s">
-        <v>1654</v>
+        <v>1638</v>
       </c>
       <c r="D161" s="48" t="s">
         <v>963</v>
@@ -42282,7 +42305,7 @@
       </c>
       <c r="B162" s="48"/>
       <c r="C162" s="69" t="s">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="D162" s="48" t="s">
         <v>208</v>
@@ -42298,7 +42321,7 @@
       </c>
       <c r="B163" s="44"/>
       <c r="C163" s="69" t="s">
-        <v>1656</v>
+        <v>1640</v>
       </c>
       <c r="D163" s="44" t="s">
         <v>1208</v>
@@ -42314,7 +42337,7 @@
       </c>
       <c r="B164" s="48"/>
       <c r="C164" s="69" t="s">
-        <v>1657</v>
+        <v>1641</v>
       </c>
       <c r="D164" s="48" t="s">
         <v>1052</v>
@@ -42330,7 +42353,7 @@
       </c>
       <c r="B165" s="44"/>
       <c r="C165" s="69" t="s">
-        <v>1658</v>
+        <v>1642</v>
       </c>
       <c r="D165" s="44" t="s">
         <v>209</v>
@@ -42346,7 +42369,7 @@
       </c>
       <c r="B166" s="44"/>
       <c r="C166" s="69" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="D166" s="44" t="s">
         <v>210</v>
@@ -42362,7 +42385,7 @@
       </c>
       <c r="B167" s="44"/>
       <c r="C167" s="71" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="D167" s="47" t="s">
         <v>1069</v>
@@ -42378,7 +42401,7 @@
       </c>
       <c r="B168" s="44"/>
       <c r="C168" s="69" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="D168" s="44" t="s">
         <v>964</v>
@@ -42394,7 +42417,7 @@
       </c>
       <c r="B169" s="44"/>
       <c r="C169" s="69" t="s">
-        <v>1662</v>
+        <v>1646</v>
       </c>
       <c r="D169" s="44" t="s">
         <v>1053</v>
@@ -42410,7 +42433,7 @@
       </c>
       <c r="B170" s="44"/>
       <c r="C170" s="71" t="s">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="D170" s="47" t="s">
         <v>1173</v>
@@ -42426,7 +42449,7 @@
       </c>
       <c r="B171" s="44"/>
       <c r="C171" s="71" t="s">
-        <v>1664</v>
+        <v>1648</v>
       </c>
       <c r="D171" s="44" t="s">
         <v>1071</v>
@@ -42442,7 +42465,7 @@
       </c>
       <c r="B172" s="44"/>
       <c r="C172" s="69" t="s">
-        <v>2085</v>
+        <v>2068</v>
       </c>
       <c r="D172" s="44" t="s">
         <v>1213</v>
@@ -42458,7 +42481,7 @@
       </c>
       <c r="B173" s="44"/>
       <c r="C173" s="69" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="D173" s="44" t="s">
         <v>965</v>
@@ -42474,7 +42497,7 @@
       </c>
       <c r="B174" s="44"/>
       <c r="C174" s="71" t="s">
-        <v>1666</v>
+        <v>1650</v>
       </c>
       <c r="D174" s="44" t="s">
         <v>1010</v>
@@ -42490,7 +42513,7 @@
       </c>
       <c r="B175" s="44"/>
       <c r="C175" s="69" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="D175" s="44" t="s">
         <v>1039</v>
@@ -42506,7 +42529,7 @@
       </c>
       <c r="B176" s="44"/>
       <c r="C176" s="71" t="s">
-        <v>1668</v>
+        <v>1652</v>
       </c>
       <c r="D176" s="47" t="s">
         <v>1174</v>
@@ -42522,7 +42545,7 @@
       </c>
       <c r="B177" s="44"/>
       <c r="C177" s="69" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="D177" s="44" t="s">
         <v>1206</v>
@@ -42538,7 +42561,7 @@
       </c>
       <c r="B178" s="44"/>
       <c r="C178" s="69" t="s">
-        <v>1670</v>
+        <v>1654</v>
       </c>
       <c r="D178" s="44" t="s">
         <v>1201</v>
@@ -42554,7 +42577,7 @@
       </c>
       <c r="B179" s="44"/>
       <c r="C179" s="69" t="s">
-        <v>1671</v>
+        <v>1655</v>
       </c>
       <c r="D179" s="44" t="s">
         <v>1074</v>
@@ -42570,7 +42593,7 @@
       </c>
       <c r="B180" s="44"/>
       <c r="C180" s="69" t="s">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="D180" s="47" t="s">
         <v>1083</v>
@@ -42586,7 +42609,7 @@
       </c>
       <c r="B181" s="44"/>
       <c r="C181" s="71" t="s">
-        <v>1673</v>
+        <v>1657</v>
       </c>
       <c r="D181" s="44" t="s">
         <v>966</v>
@@ -42602,7 +42625,7 @@
       </c>
       <c r="B182" s="44"/>
       <c r="C182" s="71" t="s">
-        <v>1674</v>
+        <v>1658</v>
       </c>
       <c r="D182" s="44" t="s">
         <v>1224</v>
@@ -42618,7 +42641,7 @@
       </c>
       <c r="B183" s="44"/>
       <c r="C183" s="69" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
       <c r="D183" s="47" t="s">
         <v>1199</v>
@@ -42634,7 +42657,7 @@
       </c>
       <c r="B184" s="44"/>
       <c r="C184" s="69" t="s">
-        <v>1676</v>
+        <v>1660</v>
       </c>
       <c r="D184" s="44" t="s">
         <v>211</v>
@@ -42650,7 +42673,7 @@
       </c>
       <c r="B185" s="44"/>
       <c r="C185" s="69" t="s">
-        <v>1677</v>
+        <v>1661</v>
       </c>
       <c r="D185" s="47" t="s">
         <v>1007</v>
@@ -42666,7 +42689,7 @@
       </c>
       <c r="B186" s="44"/>
       <c r="C186" s="69" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
       <c r="D186" s="44" t="s">
         <v>1005</v>
@@ -42682,7 +42705,7 @@
       </c>
       <c r="B187" s="44"/>
       <c r="C187" s="69" t="s">
-        <v>1679</v>
+        <v>1663</v>
       </c>
       <c r="D187" s="44" t="s">
         <v>1009</v>
@@ -42698,7 +42721,7 @@
       </c>
       <c r="B188" s="44"/>
       <c r="C188" s="69" t="s">
-        <v>1680</v>
+        <v>1664</v>
       </c>
       <c r="D188" s="44" t="s">
         <v>1170</v>
@@ -42714,7 +42737,7 @@
       </c>
       <c r="B189" s="44"/>
       <c r="C189" s="69" t="s">
-        <v>1681</v>
+        <v>1665</v>
       </c>
       <c r="D189" s="44" t="s">
         <v>1037</v>
@@ -42730,7 +42753,7 @@
       </c>
       <c r="B190" s="44"/>
       <c r="C190" s="72" t="s">
-        <v>1682</v>
+        <v>1666</v>
       </c>
       <c r="D190" s="44" t="s">
         <v>1064</v>
@@ -42746,7 +42769,7 @@
       </c>
       <c r="B191" s="44"/>
       <c r="C191" s="71" t="s">
-        <v>1683</v>
+        <v>1667</v>
       </c>
       <c r="D191" s="44" t="s">
         <v>1197</v>
@@ -42762,7 +42785,7 @@
       </c>
       <c r="B192" s="44"/>
       <c r="C192" s="69" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>212</v>
@@ -42778,7 +42801,7 @@
       </c>
       <c r="B193" s="44"/>
       <c r="C193" s="69" t="s">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="D193" s="44" t="s">
         <v>1002</v>
@@ -42794,7 +42817,7 @@
       </c>
       <c r="B194" s="44"/>
       <c r="C194" s="69" t="s">
-        <v>1686</v>
+        <v>1670</v>
       </c>
       <c r="D194" s="47" t="s">
         <v>1078</v>
@@ -42810,7 +42833,7 @@
       </c>
       <c r="B195" s="44"/>
       <c r="C195" s="69" t="s">
-        <v>1687</v>
+        <v>1671</v>
       </c>
       <c r="D195" s="44" t="s">
         <v>213</v>
@@ -42826,7 +42849,7 @@
       </c>
       <c r="B196" s="44"/>
       <c r="C196" s="71" t="s">
-        <v>1688</v>
+        <v>1672</v>
       </c>
       <c r="D196" s="44" t="s">
         <v>214</v>
@@ -42842,7 +42865,7 @@
       </c>
       <c r="B197" s="44"/>
       <c r="C197" s="71" t="s">
-        <v>1689</v>
+        <v>1673</v>
       </c>
       <c r="D197" s="44" t="s">
         <v>1178</v>
@@ -42858,7 +42881,7 @@
       </c>
       <c r="B198" s="44"/>
       <c r="C198" s="69" t="s">
-        <v>1690</v>
+        <v>1674</v>
       </c>
       <c r="D198" s="44" t="s">
         <v>1180</v>
@@ -42874,7 +42897,7 @@
       </c>
       <c r="B199" s="44"/>
       <c r="C199" s="72" t="s">
-        <v>1691</v>
+        <v>1675</v>
       </c>
       <c r="D199" s="44" t="s">
         <v>215</v>
@@ -42890,7 +42913,7 @@
       </c>
       <c r="B200" s="44"/>
       <c r="C200" s="72" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="D200" s="44" t="s">
         <v>967</v>
@@ -42906,7 +42929,7 @@
       </c>
       <c r="B201" s="44"/>
       <c r="C201" s="71" t="s">
-        <v>1693</v>
+        <v>1677</v>
       </c>
       <c r="D201" s="44" t="s">
         <v>1035</v>
@@ -42922,7 +42945,7 @@
       </c>
       <c r="B202" s="44"/>
       <c r="C202" s="71" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="D202" s="44" t="s">
         <v>968</v>
@@ -42938,7 +42961,7 @@
       </c>
       <c r="B203" s="44"/>
       <c r="C203" s="71" t="s">
-        <v>1695</v>
+        <v>1679</v>
       </c>
       <c r="D203" s="44" t="s">
         <v>216</v>
@@ -42954,7 +42977,7 @@
       </c>
       <c r="B204" s="44"/>
       <c r="C204" s="71" t="s">
-        <v>1696</v>
+        <v>1680</v>
       </c>
       <c r="D204" s="44" t="s">
         <v>217</v>
@@ -42972,7 +42995,7 @@
         <v>75</v>
       </c>
       <c r="C205" s="72" t="s">
-        <v>1697</v>
+        <v>1681</v>
       </c>
       <c r="D205" s="56" t="s">
         <v>994</v>
@@ -42988,7 +43011,7 @@
       </c>
       <c r="B206" s="44"/>
       <c r="C206" s="72" t="s">
-        <v>2086</v>
+        <v>2069</v>
       </c>
       <c r="D206" s="56" t="s">
         <v>1013</v>
@@ -43004,7 +43027,7 @@
       </c>
       <c r="B207" s="44"/>
       <c r="C207" s="72" t="s">
-        <v>2087</v>
+        <v>2070</v>
       </c>
       <c r="D207" s="58" t="s">
         <v>999</v>
@@ -43020,7 +43043,7 @@
       </c>
       <c r="B208" s="44"/>
       <c r="C208" s="72" t="s">
-        <v>1698</v>
+        <v>1682</v>
       </c>
       <c r="D208" s="58" t="s">
         <v>1190</v>
@@ -43036,7 +43059,7 @@
       </c>
       <c r="B209" s="44"/>
       <c r="C209" s="72" t="s">
-        <v>1699</v>
+        <v>1683</v>
       </c>
       <c r="D209" s="58" t="s">
         <v>1014</v>
@@ -43052,7 +43075,7 @@
       </c>
       <c r="B210" s="44"/>
       <c r="C210" s="72" t="s">
-        <v>1700</v>
+        <v>1684</v>
       </c>
       <c r="D210" s="56" t="s">
         <v>1086</v>
@@ -43068,7 +43091,7 @@
       </c>
       <c r="B211" s="44"/>
       <c r="C211" s="73" t="s">
-        <v>1701</v>
+        <v>1685</v>
       </c>
       <c r="D211" s="56" t="s">
         <v>1102</v>
@@ -43084,7 +43107,7 @@
       </c>
       <c r="B212" s="44"/>
       <c r="C212" s="69" t="s">
-        <v>1702</v>
+        <v>1686</v>
       </c>
       <c r="D212" s="58" t="s">
         <v>1040</v>
@@ -43100,7 +43123,7 @@
       </c>
       <c r="B213" s="44"/>
       <c r="C213" s="74" t="s">
-        <v>1703</v>
+        <v>1687</v>
       </c>
       <c r="D213" s="56" t="s">
         <v>1108</v>
@@ -43116,7 +43139,7 @@
       </c>
       <c r="B214" s="44"/>
       <c r="C214" s="69" t="s">
-        <v>1704</v>
+        <v>1688</v>
       </c>
       <c r="D214" s="56" t="s">
         <v>1181</v>
@@ -43132,7 +43155,7 @@
       </c>
       <c r="B215" s="44"/>
       <c r="C215" s="73" t="s">
-        <v>1705</v>
+        <v>1689</v>
       </c>
       <c r="D215" s="58" t="s">
         <v>1188</v>
@@ -43148,7 +43171,7 @@
       </c>
       <c r="B216" s="44"/>
       <c r="C216" s="73" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="D216" s="56" t="s">
         <v>1087</v>
@@ -43164,7 +43187,7 @@
       </c>
       <c r="B217" s="44"/>
       <c r="C217" s="69" t="s">
-        <v>1707</v>
+        <v>1691</v>
       </c>
       <c r="D217" s="44" t="s">
         <v>1191</v>
@@ -43180,7 +43203,7 @@
       </c>
       <c r="B218" s="44"/>
       <c r="C218" s="73" t="s">
-        <v>1708</v>
+        <v>1692</v>
       </c>
       <c r="D218" s="56" t="s">
         <v>1125</v>
@@ -43196,7 +43219,7 @@
       </c>
       <c r="B219" s="44"/>
       <c r="C219" s="73" t="s">
-        <v>1709</v>
+        <v>1693</v>
       </c>
       <c r="D219" s="56" t="s">
         <v>1225</v>
@@ -43212,7 +43235,7 @@
       </c>
       <c r="B220" s="44"/>
       <c r="C220" s="73" t="s">
-        <v>1710</v>
+        <v>1694</v>
       </c>
       <c r="D220" s="44" t="s">
         <v>1058</v>
@@ -43228,7 +43251,7 @@
       </c>
       <c r="B221" s="44"/>
       <c r="C221" s="69" t="s">
-        <v>2088</v>
+        <v>2071</v>
       </c>
       <c r="D221" s="56" t="s">
         <v>1113</v>
@@ -43244,7 +43267,7 @@
       </c>
       <c r="B222" s="44"/>
       <c r="C222" s="73" t="s">
-        <v>1711</v>
+        <v>1695</v>
       </c>
       <c r="D222" s="56" t="s">
         <v>1068</v>
@@ -43260,7 +43283,7 @@
       </c>
       <c r="B223" s="44"/>
       <c r="C223" s="69" t="s">
-        <v>1712</v>
+        <v>1696</v>
       </c>
       <c r="D223" s="58" t="s">
         <v>1163</v>
@@ -43276,7 +43299,7 @@
       </c>
       <c r="B224" s="44"/>
       <c r="C224" s="69" t="s">
-        <v>1713</v>
+        <v>1697</v>
       </c>
       <c r="D224" s="44" t="s">
         <v>138</v>
@@ -43292,7 +43315,7 @@
       </c>
       <c r="B225" s="44"/>
       <c r="C225" s="73" t="s">
-        <v>1714</v>
+        <v>1698</v>
       </c>
       <c r="D225" s="58" t="s">
         <v>1168</v>
@@ -43308,7 +43331,7 @@
       </c>
       <c r="B226" s="44"/>
       <c r="C226" s="69" t="s">
-        <v>1715</v>
+        <v>1699</v>
       </c>
       <c r="D226" s="44" t="s">
         <v>1079</v>
@@ -43324,7 +43347,7 @@
       </c>
       <c r="B227" s="44"/>
       <c r="C227" s="69" t="s">
-        <v>1716</v>
+        <v>1700</v>
       </c>
       <c r="D227" s="44" t="s">
         <v>1123</v>
@@ -43340,7 +43363,7 @@
       </c>
       <c r="B228" s="44"/>
       <c r="C228" s="73" t="s">
-        <v>1717</v>
+        <v>1701</v>
       </c>
       <c r="D228" s="56" t="s">
         <v>1088</v>
@@ -43356,7 +43379,7 @@
       </c>
       <c r="B229" s="44"/>
       <c r="C229" s="73" t="s">
-        <v>2089</v>
+        <v>2072</v>
       </c>
       <c r="D229" s="56" t="s">
         <v>1116</v>
@@ -43372,7 +43395,7 @@
       </c>
       <c r="B230" s="44"/>
       <c r="C230" s="73" t="s">
-        <v>1718</v>
+        <v>1702</v>
       </c>
       <c r="D230" s="58" t="s">
         <v>996</v>
@@ -43388,7 +43411,7 @@
       </c>
       <c r="B231" s="44"/>
       <c r="C231" s="73" t="s">
-        <v>1719</v>
+        <v>1703</v>
       </c>
       <c r="D231" s="56" t="s">
         <v>1205</v>
@@ -43404,7 +43427,7 @@
       </c>
       <c r="B232" s="44"/>
       <c r="C232" s="69" t="s">
-        <v>1720</v>
+        <v>1704</v>
       </c>
       <c r="D232" s="44" t="s">
         <v>969</v>
@@ -43420,7 +43443,7 @@
       </c>
       <c r="B233" s="44"/>
       <c r="C233" s="73" t="s">
-        <v>1721</v>
+        <v>1705</v>
       </c>
       <c r="D233" s="58" t="s">
         <v>1165</v>
@@ -43436,7 +43459,7 @@
       </c>
       <c r="B234" s="44"/>
       <c r="C234" s="69" t="s">
-        <v>1722</v>
+        <v>1706</v>
       </c>
       <c r="D234" s="44" t="s">
         <v>1062</v>
@@ -43452,7 +43475,7 @@
       </c>
       <c r="B235" s="44"/>
       <c r="C235" s="69" t="s">
-        <v>1723</v>
+        <v>1707</v>
       </c>
       <c r="D235" s="44" t="s">
         <v>1056</v>
@@ -43468,7 +43491,7 @@
       </c>
       <c r="B236" s="44"/>
       <c r="C236" s="69" t="s">
-        <v>1724</v>
+        <v>1708</v>
       </c>
       <c r="D236" s="44" t="s">
         <v>1081</v>
@@ -43484,7 +43507,7 @@
       </c>
       <c r="B237" s="44"/>
       <c r="C237" s="69" t="s">
-        <v>1725</v>
+        <v>1709</v>
       </c>
       <c r="D237" s="44" t="s">
         <v>1026</v>
@@ -43500,7 +43523,7 @@
       </c>
       <c r="B238" s="44"/>
       <c r="C238" s="73" t="s">
-        <v>1726</v>
+        <v>1710</v>
       </c>
       <c r="D238" s="56" t="s">
         <v>1227</v>
@@ -43516,7 +43539,7 @@
       </c>
       <c r="B239" s="44"/>
       <c r="C239" s="69" t="s">
-        <v>1727</v>
+        <v>1711</v>
       </c>
       <c r="D239" s="44" t="s">
         <v>1166</v>
@@ -43532,7 +43555,7 @@
       </c>
       <c r="B240" s="44"/>
       <c r="C240" s="73" t="s">
-        <v>1728</v>
+        <v>1712</v>
       </c>
       <c r="D240" s="56" t="s">
         <v>1164</v>
@@ -43548,7 +43571,7 @@
       </c>
       <c r="B241" s="44"/>
       <c r="C241" s="69" t="s">
-        <v>1729</v>
+        <v>1713</v>
       </c>
       <c r="D241" s="56" t="s">
         <v>1103</v>
@@ -43564,7 +43587,7 @@
       </c>
       <c r="B242" s="44"/>
       <c r="C242" s="73" t="s">
-        <v>1730</v>
+        <v>1714</v>
       </c>
       <c r="D242" s="56" t="s">
         <v>1217</v>
@@ -43580,7 +43603,7 @@
       </c>
       <c r="B243" s="44"/>
       <c r="C243" s="69" t="s">
-        <v>1731</v>
+        <v>1715</v>
       </c>
       <c r="D243" s="44" t="s">
         <v>998</v>
@@ -43596,7 +43619,7 @@
       </c>
       <c r="B244" s="44"/>
       <c r="C244" s="73" t="s">
-        <v>1732</v>
+        <v>1716</v>
       </c>
       <c r="D244" s="56" t="s">
         <v>1089</v>
@@ -43612,7 +43635,7 @@
       </c>
       <c r="B245" s="44"/>
       <c r="C245" s="69" t="s">
-        <v>1733</v>
+        <v>1717</v>
       </c>
       <c r="D245" s="44" t="s">
         <v>1045</v>
@@ -43628,7 +43651,7 @@
       </c>
       <c r="B246" s="44"/>
       <c r="C246" s="73" t="s">
-        <v>1734</v>
+        <v>1718</v>
       </c>
       <c r="D246" s="47" t="s">
         <v>1226</v>
@@ -43644,7 +43667,7 @@
       </c>
       <c r="B247" s="44"/>
       <c r="C247" s="73" t="s">
-        <v>1735</v>
+        <v>1719</v>
       </c>
       <c r="D247" s="44" t="s">
         <v>1019</v>
@@ -43660,7 +43683,7 @@
       </c>
       <c r="B248" s="44"/>
       <c r="C248" s="73" t="s">
-        <v>1736</v>
+        <v>1720</v>
       </c>
       <c r="D248" s="58" t="s">
         <v>1124</v>
@@ -43676,7 +43699,7 @@
       </c>
       <c r="B249" s="44"/>
       <c r="C249" s="73" t="s">
-        <v>1737</v>
+        <v>1721</v>
       </c>
       <c r="D249" s="58" t="s">
         <v>1046</v>
@@ -43692,7 +43715,7 @@
       </c>
       <c r="B250" s="44"/>
       <c r="C250" s="69" t="s">
-        <v>1738</v>
+        <v>1722</v>
       </c>
       <c r="D250" s="44" t="s">
         <v>997</v>
@@ -43708,7 +43731,7 @@
       </c>
       <c r="B251" s="44"/>
       <c r="C251" s="69" t="s">
-        <v>1739</v>
+        <v>1723</v>
       </c>
       <c r="D251" s="58" t="s">
         <v>1022</v>
@@ -43724,7 +43747,7 @@
       </c>
       <c r="B252" s="44"/>
       <c r="C252" s="73" t="s">
-        <v>1740</v>
+        <v>1724</v>
       </c>
       <c r="D252" s="58" t="s">
         <v>1024</v>
@@ -43740,7 +43763,7 @@
       </c>
       <c r="B253" s="44"/>
       <c r="C253" s="73" t="s">
-        <v>1741</v>
+        <v>1725</v>
       </c>
       <c r="D253" s="58" t="s">
         <v>1073</v>
@@ -43756,7 +43779,7 @@
       </c>
       <c r="B254" s="44"/>
       <c r="C254" s="73" t="s">
-        <v>1742</v>
+        <v>1726</v>
       </c>
       <c r="D254" s="56" t="s">
         <v>1047</v>
@@ -43772,7 +43795,7 @@
       </c>
       <c r="B255" s="44"/>
       <c r="C255" s="73" t="s">
-        <v>1743</v>
+        <v>1727</v>
       </c>
       <c r="D255" s="44" t="s">
         <v>1000</v>
@@ -43788,7 +43811,7 @@
       </c>
       <c r="B256" s="44"/>
       <c r="C256" s="69" t="s">
-        <v>1744</v>
+        <v>1728</v>
       </c>
       <c r="D256" s="44" t="s">
         <v>1184</v>
@@ -43804,7 +43827,7 @@
       </c>
       <c r="B257" s="44"/>
       <c r="C257" s="69" t="s">
-        <v>1745</v>
+        <v>1729</v>
       </c>
       <c r="D257" s="56" t="s">
         <v>1031</v>
@@ -43820,7 +43843,7 @@
       </c>
       <c r="B258" s="44"/>
       <c r="C258" s="73" t="s">
-        <v>1746</v>
+        <v>1730</v>
       </c>
       <c r="D258" s="44" t="s">
         <v>1032</v>
@@ -43836,7 +43859,7 @@
       </c>
       <c r="B259" s="44"/>
       <c r="C259" s="73" t="s">
-        <v>1747</v>
+        <v>1731</v>
       </c>
       <c r="D259" s="56" t="s">
         <v>1196</v>
@@ -43852,7 +43875,7 @@
       </c>
       <c r="B260" s="44"/>
       <c r="C260" s="73" t="s">
-        <v>1748</v>
+        <v>1732</v>
       </c>
       <c r="D260" s="56" t="s">
         <v>1090</v>
@@ -43868,7 +43891,7 @@
       </c>
       <c r="B261" s="44"/>
       <c r="C261" s="73" t="s">
-        <v>1749</v>
+        <v>1733</v>
       </c>
       <c r="D261" s="44" t="s">
         <v>1048</v>
@@ -43884,7 +43907,7 @@
       </c>
       <c r="B262" s="44"/>
       <c r="C262" s="73" t="s">
-        <v>1750</v>
+        <v>1734</v>
       </c>
       <c r="D262" s="56" t="s">
         <v>1099</v>
@@ -43900,7 +43923,7 @@
       </c>
       <c r="B263" s="44"/>
       <c r="C263" s="73" t="s">
-        <v>1751</v>
+        <v>1735</v>
       </c>
       <c r="D263" s="56" t="s">
         <v>1122</v>
@@ -43916,7 +43939,7 @@
       </c>
       <c r="B264" s="44"/>
       <c r="C264" s="73" t="s">
-        <v>1752</v>
+        <v>1736</v>
       </c>
       <c r="D264" s="56" t="s">
         <v>1210</v>
@@ -43932,7 +43955,7 @@
       </c>
       <c r="B265" s="44"/>
       <c r="C265" s="73" t="s">
-        <v>1753</v>
+        <v>1737</v>
       </c>
       <c r="D265" s="56" t="s">
         <v>1091</v>
@@ -43948,7 +43971,7 @@
       </c>
       <c r="B266" s="44"/>
       <c r="C266" s="73" t="s">
-        <v>1754</v>
+        <v>1738</v>
       </c>
       <c r="D266" s="58" t="s">
         <v>1065</v>
@@ -43964,7 +43987,7 @@
       </c>
       <c r="B267" s="44"/>
       <c r="C267" s="73" t="s">
-        <v>1755</v>
+        <v>1739</v>
       </c>
       <c r="D267" s="58" t="s">
         <v>1070</v>
@@ -43980,7 +44003,7 @@
       </c>
       <c r="B268" s="44"/>
       <c r="C268" s="69" t="s">
-        <v>1756</v>
+        <v>1740</v>
       </c>
       <c r="D268" s="44" t="s">
         <v>1112</v>
@@ -43996,7 +44019,7 @@
       </c>
       <c r="B269" s="44"/>
       <c r="C269" s="69" t="s">
-        <v>1757</v>
+        <v>1741</v>
       </c>
       <c r="D269" s="44" t="s">
         <v>218</v>
@@ -44012,7 +44035,7 @@
       </c>
       <c r="B270" s="44"/>
       <c r="C270" s="73" t="s">
-        <v>1758</v>
+        <v>1742</v>
       </c>
       <c r="D270" s="56" t="s">
         <v>1193</v>
@@ -44028,7 +44051,7 @@
       </c>
       <c r="B271" s="44"/>
       <c r="C271" s="69" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="D271" s="44" t="s">
         <v>1172</v>
@@ -44044,7 +44067,7 @@
       </c>
       <c r="B272" s="44"/>
       <c r="C272" s="73" t="s">
-        <v>1760</v>
+        <v>1744</v>
       </c>
       <c r="D272" s="56" t="s">
         <v>1092</v>
@@ -44060,7 +44083,7 @@
       </c>
       <c r="B273" s="44"/>
       <c r="C273" s="69" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="D273" s="58" t="s">
         <v>1214</v>
@@ -44076,7 +44099,7 @@
       </c>
       <c r="B274" s="44"/>
       <c r="C274" s="73" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
       <c r="D274" s="56" t="s">
         <v>1067</v>
@@ -44092,7 +44115,7 @@
       </c>
       <c r="B275" s="44"/>
       <c r="C275" s="73" t="s">
-        <v>1763</v>
+        <v>1747</v>
       </c>
       <c r="D275" s="56" t="s">
         <v>1011</v>
@@ -44108,7 +44131,7 @@
       </c>
       <c r="B276" s="44"/>
       <c r="C276" s="69" t="s">
-        <v>1764</v>
+        <v>1748</v>
       </c>
       <c r="D276" s="44" t="s">
         <v>1038</v>
@@ -44124,7 +44147,7 @@
       </c>
       <c r="B277" s="44"/>
       <c r="C277" s="69" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="D277" s="56" t="s">
         <v>1093</v>
@@ -44140,7 +44163,7 @@
       </c>
       <c r="B278" s="44"/>
       <c r="C278" s="73" t="s">
-        <v>1766</v>
+        <v>1750</v>
       </c>
       <c r="D278" s="56" t="s">
         <v>1207</v>
@@ -44156,7 +44179,7 @@
       </c>
       <c r="B279" s="44"/>
       <c r="C279" s="73" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="D279" s="58" t="s">
         <v>1200</v>
@@ -44172,7 +44195,7 @@
       </c>
       <c r="B280" s="44"/>
       <c r="C280" s="73" t="s">
-        <v>1768</v>
+        <v>1752</v>
       </c>
       <c r="D280" s="56" t="s">
         <v>1094</v>
@@ -44188,7 +44211,7 @@
       </c>
       <c r="B281" s="44"/>
       <c r="C281" s="73" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
       <c r="D281" s="56" t="s">
         <v>1121</v>
@@ -44204,7 +44227,7 @@
       </c>
       <c r="B282" s="44"/>
       <c r="C282" s="73" t="s">
-        <v>1770</v>
+        <v>1754</v>
       </c>
       <c r="D282" s="56" t="s">
         <v>1186</v>
@@ -44236,7 +44259,7 @@
       </c>
       <c r="B284" s="44"/>
       <c r="C284" s="73" t="s">
-        <v>1771</v>
+        <v>1755</v>
       </c>
       <c r="D284" s="44" t="s">
         <v>220</v>
@@ -44268,7 +44291,7 @@
       </c>
       <c r="B286" s="44"/>
       <c r="C286" s="73" t="s">
-        <v>1772</v>
+        <v>1756</v>
       </c>
       <c r="D286" s="56" t="s">
         <v>1101</v>
@@ -44284,7 +44307,7 @@
       </c>
       <c r="B287" s="44"/>
       <c r="C287" s="69" t="s">
-        <v>1773</v>
+        <v>1757</v>
       </c>
       <c r="D287" s="44" t="s">
         <v>221</v>
@@ -44300,7 +44323,7 @@
       </c>
       <c r="B288" s="44"/>
       <c r="C288" s="73" t="s">
-        <v>1774</v>
+        <v>1758</v>
       </c>
       <c r="D288" s="58" t="s">
         <v>1095</v>
@@ -44316,7 +44339,7 @@
       </c>
       <c r="B289" s="44"/>
       <c r="C289" s="73" t="s">
-        <v>1775</v>
+        <v>1759</v>
       </c>
       <c r="D289" s="58" t="s">
         <v>1169</v>
@@ -44332,7 +44355,7 @@
       </c>
       <c r="B290" s="44"/>
       <c r="C290" s="73" t="s">
-        <v>1776</v>
+        <v>1760</v>
       </c>
       <c r="D290" s="56" t="s">
         <v>1106</v>
@@ -44348,7 +44371,7 @@
       </c>
       <c r="B291" s="44"/>
       <c r="C291" s="73" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
       <c r="D291" s="56" t="s">
         <v>1063</v>
@@ -44364,7 +44387,7 @@
       </c>
       <c r="B292" s="44"/>
       <c r="C292" s="73" t="s">
-        <v>1778</v>
+        <v>1762</v>
       </c>
       <c r="D292" s="58" t="s">
         <v>1198</v>
@@ -44380,7 +44403,7 @@
       </c>
       <c r="B293" s="44"/>
       <c r="C293" s="73" t="s">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="D293" s="58" t="s">
         <v>995</v>
@@ -44396,7 +44419,7 @@
       </c>
       <c r="B294" s="44"/>
       <c r="C294" s="73" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="D294" s="58" t="s">
         <v>1100</v>
@@ -44412,7 +44435,7 @@
       </c>
       <c r="B295" s="44"/>
       <c r="C295" s="73" t="s">
-        <v>1791</v>
+        <v>1775</v>
       </c>
       <c r="D295" s="58" t="s">
         <v>1119</v>
@@ -44428,7 +44451,7 @@
       </c>
       <c r="B296" s="44"/>
       <c r="C296" s="73" t="s">
-        <v>1790</v>
+        <v>1774</v>
       </c>
       <c r="D296" s="56" t="s">
         <v>990</v>
@@ -44444,7 +44467,7 @@
       </c>
       <c r="B297" s="44"/>
       <c r="C297" s="73" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
       <c r="D297" s="56" t="s">
         <v>1192</v>
@@ -44460,7 +44483,7 @@
       </c>
       <c r="B298" s="44"/>
       <c r="C298" s="73" t="s">
-        <v>1789</v>
+        <v>1773</v>
       </c>
       <c r="D298" s="58" t="s">
         <v>1177</v>
@@ -44476,7 +44499,7 @@
       </c>
       <c r="B299" s="44"/>
       <c r="C299" s="69" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="D299" s="44" t="s">
         <v>222</v>
@@ -44492,7 +44515,7 @@
       </c>
       <c r="B300" s="44"/>
       <c r="C300" s="73" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="D300" s="56" t="s">
         <v>1120</v>
@@ -44508,7 +44531,7 @@
       </c>
       <c r="B301" s="44"/>
       <c r="C301" s="73" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="D301" s="56" t="s">
         <v>1216</v>
@@ -44524,7 +44547,7 @@
       </c>
       <c r="B302" s="44"/>
       <c r="C302" s="73" t="s">
-        <v>1785</v>
+        <v>1769</v>
       </c>
       <c r="D302" s="56" t="s">
         <v>1105</v>
@@ -44540,7 +44563,7 @@
       </c>
       <c r="B303" s="44"/>
       <c r="C303" s="73" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="D303" s="58" t="s">
         <v>1104</v>
@@ -44556,7 +44579,7 @@
       </c>
       <c r="B304" s="44"/>
       <c r="C304" s="75" t="s">
-        <v>1783</v>
+        <v>1767</v>
       </c>
       <c r="D304" s="58" t="s">
         <v>1211</v>
@@ -44572,7 +44595,7 @@
       </c>
       <c r="B305" s="48"/>
       <c r="C305" s="75" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="D305" s="57" t="s">
         <v>991</v>
@@ -45043,19 +45066,19 @@
         <v>20000</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>1868</v>
+        <v>1852</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="D2" s="71" t="s">
         <v>930</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>1807</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="11.25">
@@ -45064,13 +45087,13 @@
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="71" t="s">
-        <v>1793</v>
+        <v>1777</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>970</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>1870</v>
+        <v>1854</v>
       </c>
       <c r="F3" s="77"/>
     </row>
@@ -45080,13 +45103,13 @@
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="71" t="s">
-        <v>1794</v>
+        <v>1778</v>
       </c>
       <c r="D4" s="71" t="s">
         <v>981</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
       <c r="F4" s="77"/>
     </row>
@@ -45095,10 +45118,10 @@
         <v>20010</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>1795</v>
+        <v>1779</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>296</v>
@@ -45107,7 +45130,7 @@
         <v>848</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>1808</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25">
@@ -45116,13 +45139,13 @@
       </c>
       <c r="B6" s="71"/>
       <c r="C6" s="71" t="s">
-        <v>1796</v>
+        <v>1780</v>
       </c>
       <c r="D6" s="71" t="s">
         <v>1096</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
       <c r="F6" s="77"/>
     </row>
@@ -45132,13 +45155,13 @@
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71" t="s">
-        <v>2057</v>
+        <v>2040</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>297</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
       <c r="F7" s="77"/>
     </row>
@@ -45148,7 +45171,7 @@
       </c>
       <c r="B8" s="71"/>
       <c r="C8" s="71" t="s">
-        <v>1797</v>
+        <v>1781</v>
       </c>
       <c r="D8" s="71" t="s">
         <v>298</v>
@@ -45163,10 +45186,10 @@
         <v>20020</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>1798</v>
+        <v>1782</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>293</v>
@@ -45175,7 +45198,7 @@
         <v>850</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>1809</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25">
@@ -45184,13 +45207,13 @@
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71" t="s">
-        <v>1794</v>
+        <v>1778</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>993</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
       <c r="F10" s="77"/>
     </row>
@@ -45200,7 +45223,7 @@
       </c>
       <c r="B11" s="71"/>
       <c r="C11" s="71" t="s">
-        <v>1799</v>
+        <v>1783</v>
       </c>
       <c r="D11" s="71" t="s">
         <v>1097</v>
@@ -45216,13 +45239,13 @@
       </c>
       <c r="B12" s="78"/>
       <c r="C12" s="71" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1810</v>
+        <v>1794</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
       <c r="F12" s="77"/>
     </row>
@@ -45232,13 +45255,13 @@
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="71" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="D13" s="71" t="s">
         <v>989</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
       <c r="F13" s="77"/>
     </row>
@@ -45248,13 +45271,13 @@
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="71" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>1098</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
       <c r="F14" s="77"/>
     </row>
@@ -45264,10 +45287,10 @@
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="71" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
       <c r="E15" s="71" t="s">
         <v>45</v>
@@ -45280,7 +45303,7 @@
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="71" t="s">
-        <v>1804</v>
+        <v>1788</v>
       </c>
       <c r="D16" s="71" t="s">
         <v>292</v>
@@ -45296,7 +45319,7 @@
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="71" t="s">
-        <v>1805</v>
+        <v>1789</v>
       </c>
       <c r="D17" s="71" t="s">
         <v>299</v>
@@ -45312,7 +45335,7 @@
       </c>
       <c r="B18" s="71"/>
       <c r="C18" s="71" t="s">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="D18" s="71" t="s">
         <v>1149</v>
@@ -45328,7 +45351,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>1943</v>
+        <v>1927</v>
       </c>
       <c r="D19" s="71" t="s">
         <v>300</v>
@@ -45346,13 +45369,13 @@
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="71" t="s">
-        <v>1944</v>
+        <v>1928</v>
       </c>
       <c r="D20" s="71" t="s">
         <v>971</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>1879</v>
+        <v>1863</v>
       </c>
       <c r="F20" s="77"/>
     </row>
@@ -45362,7 +45385,7 @@
       </c>
       <c r="B21" s="71"/>
       <c r="C21" s="71" t="s">
-        <v>1945</v>
+        <v>1929</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>301</v>
@@ -45378,13 +45401,13 @@
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71" t="s">
-        <v>1946</v>
+        <v>1930</v>
       </c>
       <c r="D22" s="71" t="s">
         <v>302</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>1880</v>
+        <v>1864</v>
       </c>
       <c r="F22" s="77"/>
     </row>
@@ -45393,10 +45416,10 @@
         <v>20040</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>1947</v>
+        <v>1931</v>
       </c>
       <c r="D23" s="71" t="s">
         <v>303</v>
@@ -45414,7 +45437,7 @@
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71" t="s">
-        <v>1948</v>
+        <v>1932</v>
       </c>
       <c r="D24" s="71" t="s">
         <v>304</v>
@@ -45430,7 +45453,7 @@
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="71" t="s">
-        <v>1949</v>
+        <v>1933</v>
       </c>
       <c r="D25" s="71" t="s">
         <v>305</v>
@@ -45446,13 +45469,13 @@
       </c>
       <c r="B26" s="71"/>
       <c r="C26" s="71" t="s">
-        <v>1950</v>
+        <v>1934</v>
       </c>
       <c r="D26" s="71" t="s">
         <v>294</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
       <c r="F26" s="77"/>
     </row>
@@ -45462,7 +45485,7 @@
       </c>
       <c r="B27" s="71"/>
       <c r="C27" s="71" t="s">
-        <v>1951</v>
+        <v>1935</v>
       </c>
       <c r="D27" s="71" t="s">
         <v>306</v>
@@ -45478,7 +45501,7 @@
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="71" t="s">
-        <v>1952</v>
+        <v>1936</v>
       </c>
       <c r="D28" s="71" t="s">
         <v>1354</v>
@@ -45492,7 +45515,7 @@
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="71" t="s">
-        <v>1953</v>
+        <v>1937</v>
       </c>
       <c r="D29" s="71" t="s">
         <v>1355</v>
@@ -45508,7 +45531,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>1954</v>
+        <v>1938</v>
       </c>
       <c r="D30" s="71" t="s">
         <v>307</v>
@@ -45517,7 +45540,7 @@
         <v>860</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.25">
@@ -45526,7 +45549,7 @@
       </c>
       <c r="B31" s="71"/>
       <c r="C31" s="71" t="s">
-        <v>2099</v>
+        <v>2082</v>
       </c>
       <c r="D31" s="71" t="s">
         <v>308</v>
@@ -45542,13 +45565,13 @@
       </c>
       <c r="B32" s="71"/>
       <c r="C32" s="71" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
       <c r="D32" s="71" t="s">
         <v>142</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>1882</v>
+        <v>1866</v>
       </c>
       <c r="F32" s="77"/>
     </row>
@@ -45558,13 +45581,13 @@
       </c>
       <c r="B33" s="71"/>
       <c r="C33" s="71" t="s">
-        <v>1955</v>
+        <v>1939</v>
       </c>
       <c r="D33" s="71" t="s">
         <v>309</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
       <c r="F33" s="77"/>
     </row>
@@ -45574,13 +45597,13 @@
       </c>
       <c r="B34" s="71"/>
       <c r="C34" s="71" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="D34" s="71" t="s">
         <v>310</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>1884</v>
+        <v>1868</v>
       </c>
       <c r="F34" s="77"/>
     </row>
@@ -45590,13 +45613,13 @@
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71" t="s">
-        <v>1957</v>
+        <v>1941</v>
       </c>
       <c r="D35" s="71" t="s">
         <v>311</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="F35" s="77"/>
     </row>
@@ -45606,13 +45629,13 @@
       </c>
       <c r="B36" s="71"/>
       <c r="C36" s="71" t="s">
-        <v>1958</v>
+        <v>1942</v>
       </c>
       <c r="D36" s="71" t="s">
         <v>312</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
       <c r="F36" s="77"/>
     </row>
@@ -45621,19 +45644,19 @@
         <v>20060</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>1887</v>
+        <v>1871</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="D37" s="71" t="s">
         <v>1135</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>1888</v>
+        <v>1872</v>
       </c>
       <c r="F37" s="77" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25">
@@ -45660,7 +45683,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>1959</v>
+        <v>1943</v>
       </c>
       <c r="D39" s="71" t="s">
         <v>313</v>
@@ -45669,7 +45692,7 @@
         <v>863</v>
       </c>
       <c r="F39" s="77" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="11.25">
@@ -45678,7 +45701,7 @@
       </c>
       <c r="B40" s="71"/>
       <c r="C40" s="71" t="s">
-        <v>1960</v>
+        <v>1944</v>
       </c>
       <c r="D40" s="71" t="s">
         <v>314</v>
@@ -45694,7 +45717,7 @@
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="71" t="s">
-        <v>1961</v>
+        <v>1945</v>
       </c>
       <c r="D41" s="71" t="s">
         <v>315</v>
@@ -45709,19 +45732,19 @@
         <v>20080</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>1962</v>
+        <v>1946</v>
       </c>
       <c r="D42" s="71" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
       <c r="E42" s="71" t="s">
         <v>866</v>
       </c>
       <c r="F42" s="77" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="11.25">
@@ -45730,10 +45753,10 @@
       </c>
       <c r="B43" s="71"/>
       <c r="C43" s="71" t="s">
-        <v>1963</v>
+        <v>1947</v>
       </c>
       <c r="D43" s="71" t="s">
-        <v>1817</v>
+        <v>1801</v>
       </c>
       <c r="E43" s="71" t="s">
         <v>867</v>
@@ -45746,10 +45769,10 @@
       </c>
       <c r="B44" s="71"/>
       <c r="C44" s="71" t="s">
-        <v>1964</v>
+        <v>1948</v>
       </c>
       <c r="D44" s="71" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
       <c r="E44" s="71" t="s">
         <v>868</v>
@@ -45764,7 +45787,7 @@
         <v>1151</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>1965</v>
+        <v>1949</v>
       </c>
       <c r="D45" s="71" t="s">
         <v>1152</v>
@@ -45778,7 +45801,7 @@
       </c>
       <c r="B46" s="71"/>
       <c r="C46" s="71" t="s">
-        <v>1966</v>
+        <v>1950</v>
       </c>
       <c r="D46" s="71" t="s">
         <v>1153</v>
@@ -45794,7 +45817,7 @@
         <v>1145</v>
       </c>
       <c r="C47" s="71" t="s">
-        <v>1967</v>
+        <v>1951</v>
       </c>
       <c r="D47" s="71" t="s">
         <v>1146</v>
@@ -45824,10 +45847,10 @@
         <v>113</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>2071</v>
+        <v>2054</v>
       </c>
       <c r="D49" s="71" t="s">
-        <v>1819</v>
+        <v>1803</v>
       </c>
       <c r="E49" s="71" t="s">
         <v>982</v>
@@ -45842,7 +45865,7 @@
       </c>
       <c r="B50" s="71"/>
       <c r="C50" s="71" t="s">
-        <v>2072</v>
+        <v>2055</v>
       </c>
       <c r="D50" s="71" t="s">
         <v>983</v>
@@ -45858,13 +45881,13 @@
       </c>
       <c r="B51" s="71"/>
       <c r="C51" s="71" t="s">
-        <v>2073</v>
+        <v>2056</v>
       </c>
       <c r="D51" s="71" t="s">
-        <v>1820</v>
+        <v>1804</v>
       </c>
       <c r="E51" s="71" t="s">
-        <v>1889</v>
+        <v>1873</v>
       </c>
       <c r="F51" s="77"/>
     </row>
@@ -45874,13 +45897,13 @@
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="71" t="s">
-        <v>2074</v>
+        <v>2057</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>1890</v>
+        <v>1874</v>
       </c>
       <c r="F52" s="77"/>
     </row>
@@ -45890,13 +45913,13 @@
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="71" t="s">
-        <v>2075</v>
+        <v>2058</v>
       </c>
       <c r="D53" s="71" t="s">
         <v>985</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>1891</v>
+        <v>1875</v>
       </c>
       <c r="F53" s="77"/>
     </row>
@@ -45906,7 +45929,7 @@
       </c>
       <c r="B54" s="71"/>
       <c r="C54" s="71" t="s">
-        <v>2076</v>
+        <v>2059</v>
       </c>
       <c r="D54" s="71" t="s">
         <v>984</v>
@@ -45922,7 +45945,7 @@
       </c>
       <c r="B55" s="71"/>
       <c r="C55" s="71" t="s">
-        <v>2077</v>
+        <v>2060</v>
       </c>
       <c r="D55" s="71" t="s">
         <v>1150</v>
@@ -45936,7 +45959,7 @@
       </c>
       <c r="B56" s="71"/>
       <c r="C56" s="71" t="s">
-        <v>2078</v>
+        <v>2061</v>
       </c>
       <c r="D56" s="71" t="s">
         <v>1144</v>
@@ -45949,10 +45972,10 @@
         <v>21000</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>1968</v>
+        <v>1952</v>
       </c>
       <c r="D57" s="71" t="s">
         <v>1136</v>
@@ -45970,7 +45993,7 @@
       </c>
       <c r="B58" s="71"/>
       <c r="C58" s="71" t="s">
-        <v>1969</v>
+        <v>1953</v>
       </c>
       <c r="D58" s="71" t="s">
         <v>1137</v>
@@ -45986,7 +46009,7 @@
       </c>
       <c r="B59" s="71"/>
       <c r="C59" s="71" t="s">
-        <v>1970</v>
+        <v>1954</v>
       </c>
       <c r="D59" s="71" t="s">
         <v>1138</v>
@@ -46002,7 +46025,7 @@
       </c>
       <c r="B60" s="71"/>
       <c r="C60" s="71" t="s">
-        <v>1971</v>
+        <v>1955</v>
       </c>
       <c r="D60" s="71" t="s">
         <v>1139</v>
@@ -46018,7 +46041,7 @@
       </c>
       <c r="B61" s="71"/>
       <c r="C61" s="71" t="s">
-        <v>1972</v>
+        <v>1956</v>
       </c>
       <c r="D61" s="71" t="s">
         <v>1140</v>
@@ -46034,13 +46057,13 @@
       </c>
       <c r="B62" s="71"/>
       <c r="C62" s="71" t="s">
-        <v>1973</v>
+        <v>1957</v>
       </c>
       <c r="D62" s="71" t="s">
         <v>1141</v>
       </c>
       <c r="E62" s="71" t="s">
-        <v>1892</v>
+        <v>1876</v>
       </c>
       <c r="F62" s="77"/>
     </row>
@@ -46049,19 +46072,19 @@
         <v>21010</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>1893</v>
+        <v>1877</v>
       </c>
       <c r="C63" s="71" t="s">
-        <v>1974</v>
+        <v>1958</v>
       </c>
       <c r="D63" s="71" t="s">
-        <v>1822</v>
+        <v>1806</v>
       </c>
       <c r="E63" s="71" t="s">
         <v>874</v>
       </c>
       <c r="F63" s="77" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="11.25">
@@ -46072,16 +46095,16 @@
         <v>49</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>1975</v>
+        <v>1959</v>
       </c>
       <c r="D64" s="71" t="s">
-        <v>1824</v>
+        <v>1808</v>
       </c>
       <c r="E64" s="71" t="s">
         <v>875</v>
       </c>
       <c r="F64" s="77" t="s">
-        <v>1825</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="11.25">
@@ -46090,10 +46113,10 @@
       </c>
       <c r="B65" s="71"/>
       <c r="C65" s="71" t="s">
-        <v>1976</v>
+        <v>1960</v>
       </c>
       <c r="D65" s="71" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
       <c r="E65" s="71" t="s">
         <v>876</v>
@@ -46106,7 +46129,7 @@
       </c>
       <c r="B66" s="71"/>
       <c r="C66" s="71" t="s">
-        <v>1977</v>
+        <v>1961</v>
       </c>
       <c r="D66" s="71" t="s">
         <v>316</v>
@@ -46122,10 +46145,10 @@
       </c>
       <c r="B67" s="71"/>
       <c r="C67" s="71" t="s">
-        <v>1978</v>
+        <v>1962</v>
       </c>
       <c r="D67" s="71" t="s">
-        <v>1827</v>
+        <v>1811</v>
       </c>
       <c r="E67" s="71" t="s">
         <v>878</v>
@@ -46138,7 +46161,7 @@
       </c>
       <c r="B68" s="71"/>
       <c r="C68" s="71" t="s">
-        <v>1979</v>
+        <v>1963</v>
       </c>
       <c r="D68" s="71" t="s">
         <v>317</v>
@@ -46154,13 +46177,13 @@
       </c>
       <c r="B69" s="71"/>
       <c r="C69" s="71" t="s">
-        <v>1980</v>
+        <v>1964</v>
       </c>
       <c r="D69" s="71" t="s">
         <v>318</v>
       </c>
       <c r="E69" s="71" t="s">
-        <v>1894</v>
+        <v>1878</v>
       </c>
       <c r="F69" s="77"/>
     </row>
@@ -46172,16 +46195,16 @@
         <v>50</v>
       </c>
       <c r="C70" s="71" t="s">
-        <v>1981</v>
+        <v>1965</v>
       </c>
       <c r="D70" s="71" t="s">
         <v>319</v>
       </c>
       <c r="E70" s="71" t="s">
-        <v>1895</v>
+        <v>1879</v>
       </c>
       <c r="F70" s="77" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="11.25">
@@ -46190,7 +46213,7 @@
       </c>
       <c r="B71" s="71"/>
       <c r="C71" s="71" t="s">
-        <v>1982</v>
+        <v>1966</v>
       </c>
       <c r="D71" s="71" t="s">
         <v>320</v>
@@ -46206,7 +46229,7 @@
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="71" t="s">
-        <v>1983</v>
+        <v>1967</v>
       </c>
       <c r="D72" s="71" t="s">
         <v>321</v>
@@ -46222,7 +46245,7 @@
       </c>
       <c r="B73" s="71"/>
       <c r="C73" s="71" t="s">
-        <v>1984</v>
+        <v>1968</v>
       </c>
       <c r="D73" s="71" t="s">
         <v>322</v>
@@ -46238,7 +46261,7 @@
       </c>
       <c r="B74" s="71"/>
       <c r="C74" s="71" t="s">
-        <v>1985</v>
+        <v>1969</v>
       </c>
       <c r="D74" s="71" t="s">
         <v>323</v>
@@ -46254,7 +46277,7 @@
       </c>
       <c r="B75" s="71"/>
       <c r="C75" s="71" t="s">
-        <v>1986</v>
+        <v>1970</v>
       </c>
       <c r="D75" s="71" t="s">
         <v>324</v>
@@ -46272,16 +46295,16 @@
         <v>51</v>
       </c>
       <c r="C76" s="71" t="s">
-        <v>1987</v>
+        <v>1971</v>
       </c>
       <c r="D76" s="71" t="s">
         <v>325</v>
       </c>
       <c r="E76" s="71" t="s">
-        <v>1896</v>
+        <v>1880</v>
       </c>
       <c r="F76" s="77" t="s">
-        <v>1829</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="11.25">
@@ -46290,13 +46313,13 @@
       </c>
       <c r="B77" s="71"/>
       <c r="C77" s="71" t="s">
-        <v>1988</v>
+        <v>1972</v>
       </c>
       <c r="D77" s="71" t="s">
         <v>326</v>
       </c>
       <c r="E77" s="71" t="s">
-        <v>1897</v>
+        <v>1881</v>
       </c>
       <c r="F77" s="77"/>
     </row>
@@ -46306,7 +46329,7 @@
       </c>
       <c r="B78" s="71"/>
       <c r="C78" s="71" t="s">
-        <v>1989</v>
+        <v>1973</v>
       </c>
       <c r="D78" s="71" t="s">
         <v>327</v>
@@ -46322,7 +46345,7 @@
       </c>
       <c r="B79" s="71"/>
       <c r="C79" s="71" t="s">
-        <v>1990</v>
+        <v>1974</v>
       </c>
       <c r="D79" s="71" t="s">
         <v>328</v>
@@ -46338,7 +46361,7 @@
       </c>
       <c r="B80" s="71"/>
       <c r="C80" s="71" t="s">
-        <v>1991</v>
+        <v>1975</v>
       </c>
       <c r="D80" s="71" t="s">
         <v>329</v>
@@ -46354,13 +46377,13 @@
       </c>
       <c r="B81" s="71"/>
       <c r="C81" s="71" t="s">
-        <v>1992</v>
+        <v>1976</v>
       </c>
       <c r="D81" s="71" t="s">
         <v>330</v>
       </c>
       <c r="E81" s="71" t="s">
-        <v>1898</v>
+        <v>1882</v>
       </c>
       <c r="F81" s="77"/>
     </row>
@@ -46372,7 +46395,7 @@
         <v>52</v>
       </c>
       <c r="C82" s="71" t="s">
-        <v>1993</v>
+        <v>1977</v>
       </c>
       <c r="D82" s="71" t="s">
         <v>331</v>
@@ -46381,7 +46404,7 @@
         <v>888</v>
       </c>
       <c r="F82" s="77" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="11.25">
@@ -46390,10 +46413,10 @@
       </c>
       <c r="B83" s="71"/>
       <c r="C83" s="71" t="s">
-        <v>1994</v>
+        <v>1978</v>
       </c>
       <c r="D83" s="71" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
       <c r="E83" s="71" t="s">
         <v>889</v>
@@ -46406,7 +46429,7 @@
       </c>
       <c r="B84" s="71"/>
       <c r="C84" s="71" t="s">
-        <v>1995</v>
+        <v>1979</v>
       </c>
       <c r="D84" s="71" t="s">
         <v>332</v>
@@ -46422,7 +46445,7 @@
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="71" t="s">
-        <v>1996</v>
+        <v>1980</v>
       </c>
       <c r="D85" s="71" t="s">
         <v>333</v>
@@ -46438,13 +46461,13 @@
       </c>
       <c r="B86" s="71"/>
       <c r="C86" s="71" t="s">
-        <v>1997</v>
+        <v>1981</v>
       </c>
       <c r="D86" s="71" t="s">
         <v>334</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>1899</v>
+        <v>1883</v>
       </c>
       <c r="F86" s="77"/>
     </row>
@@ -46454,13 +46477,13 @@
       </c>
       <c r="B87" s="71"/>
       <c r="C87" s="71" t="s">
-        <v>1998</v>
+        <v>1982</v>
       </c>
       <c r="D87" s="71" t="s">
         <v>972</v>
       </c>
       <c r="E87" s="71" t="s">
-        <v>1900</v>
+        <v>1884</v>
       </c>
       <c r="F87" s="77"/>
     </row>
@@ -46472,16 +46495,16 @@
         <v>48</v>
       </c>
       <c r="C88" s="71" t="s">
-        <v>1999</v>
+        <v>1983</v>
       </c>
       <c r="D88" s="71" t="s">
         <v>335</v>
       </c>
       <c r="E88" s="71" t="s">
-        <v>1901</v>
+        <v>1885</v>
       </c>
       <c r="F88" s="77" t="s">
-        <v>1832</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="11.25">
@@ -46489,19 +46512,19 @@
         <v>21070</v>
       </c>
       <c r="B89" s="71" t="s">
-        <v>1902</v>
+        <v>1886</v>
       </c>
       <c r="C89" s="71" t="s">
-        <v>2000</v>
+        <v>1984</v>
       </c>
       <c r="D89" s="71" t="s">
-        <v>1833</v>
+        <v>1817</v>
       </c>
       <c r="E89" s="71" t="s">
         <v>892</v>
       </c>
       <c r="F89" s="77" t="s">
-        <v>1834</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="11.25">
@@ -46510,10 +46533,10 @@
       </c>
       <c r="B90" s="71"/>
       <c r="C90" s="71" t="s">
-        <v>2092</v>
+        <v>2075</v>
       </c>
       <c r="D90" s="71" t="s">
-        <v>1835</v>
+        <v>1819</v>
       </c>
       <c r="E90" s="71" t="s">
         <v>893</v>
@@ -46525,19 +46548,19 @@
         <v>21080</v>
       </c>
       <c r="B91" s="71" t="s">
-        <v>1903</v>
+        <v>1887</v>
       </c>
       <c r="C91" s="75" t="s">
-        <v>2001</v>
+        <v>1985</v>
       </c>
       <c r="D91" s="71" t="s">
         <v>1142</v>
       </c>
       <c r="E91" s="71" t="s">
-        <v>1904</v>
+        <v>1888</v>
       </c>
       <c r="F91" s="77" t="s">
-        <v>1836</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="11.25">
@@ -46552,7 +46575,7 @@
         <v>228</v>
       </c>
       <c r="E92" s="71" t="s">
-        <v>1905</v>
+        <v>1889</v>
       </c>
       <c r="F92" s="77"/>
     </row>
@@ -46562,7 +46585,7 @@
       </c>
       <c r="B93" s="71"/>
       <c r="C93" s="71" t="s">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="D93" s="71" t="s">
         <v>1159</v>
@@ -46578,7 +46601,7 @@
       </c>
       <c r="B94" s="71"/>
       <c r="C94" s="71" t="s">
-        <v>2063</v>
+        <v>2046</v>
       </c>
       <c r="D94" s="71" t="s">
         <v>1160</v>
@@ -46594,7 +46617,7 @@
       </c>
       <c r="B95" s="71"/>
       <c r="C95" s="71" t="s">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="D95" s="71" t="s">
         <v>1156</v>
@@ -46610,7 +46633,7 @@
       </c>
       <c r="B96" s="71"/>
       <c r="C96" s="71" t="s">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="D96" s="71" t="s">
         <v>1157</v>
@@ -46626,7 +46649,7 @@
       </c>
       <c r="B97" s="71"/>
       <c r="C97" s="71" t="s">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="D97" s="71" t="s">
         <v>1161</v>
@@ -46642,7 +46665,7 @@
       </c>
       <c r="B98" s="71"/>
       <c r="C98" s="71" t="s">
-        <v>2003</v>
+        <v>1987</v>
       </c>
       <c r="D98" s="71" t="s">
         <v>1228</v>
@@ -46657,10 +46680,10 @@
         <v>21100</v>
       </c>
       <c r="B99" s="71" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="C99" s="71" t="s">
-        <v>2091</v>
+        <v>2074</v>
       </c>
       <c r="D99" s="71" t="s">
         <v>336</v>
@@ -46669,7 +46692,7 @@
         <v>897</v>
       </c>
       <c r="F99" s="77" t="s">
-        <v>1837</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="11.25">
@@ -46680,7 +46703,7 @@
         <v>114</v>
       </c>
       <c r="C100" s="71" t="s">
-        <v>2004</v>
+        <v>1988</v>
       </c>
       <c r="D100" s="71" t="s">
         <v>337</v>
@@ -46689,7 +46712,7 @@
         <v>898</v>
       </c>
       <c r="F100" s="77" t="s">
-        <v>1838</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="11.25">
@@ -46698,7 +46721,7 @@
       </c>
       <c r="B101" s="71"/>
       <c r="C101" s="71" t="s">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="D101" s="71" t="s">
         <v>338</v>
@@ -46714,7 +46737,7 @@
       </c>
       <c r="B102" s="71"/>
       <c r="C102" s="71" t="s">
-        <v>2090</v>
+        <v>2073</v>
       </c>
       <c r="D102" s="71" t="s">
         <v>339</v>
@@ -46730,7 +46753,7 @@
       </c>
       <c r="B103" s="71"/>
       <c r="C103" s="71" t="s">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="D103" s="71" t="s">
         <v>340</v>
@@ -46746,7 +46769,7 @@
       </c>
       <c r="B104" s="71"/>
       <c r="C104" s="71" t="s">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="D104" s="71" t="s">
         <v>341</v>
@@ -46762,7 +46785,7 @@
       </c>
       <c r="B105" s="71"/>
       <c r="C105" s="71" t="s">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="D105" s="71" t="s">
         <v>342</v>
@@ -46780,16 +46803,16 @@
         <v>115</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>2012</v>
+        <v>1996</v>
       </c>
       <c r="D106" s="71" t="s">
         <v>343</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="F106" s="77" t="s">
-        <v>1839</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="11.25">
@@ -46798,7 +46821,7 @@
       </c>
       <c r="B107" s="71"/>
       <c r="C107" s="71" t="s">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="D107" s="71" t="s">
         <v>344</v>
@@ -46814,7 +46837,7 @@
       </c>
       <c r="B108" s="71"/>
       <c r="C108" s="71" t="s">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="D108" s="71" t="s">
         <v>973</v>
@@ -46830,7 +46853,7 @@
       </c>
       <c r="B109" s="71"/>
       <c r="C109" s="71" t="s">
-        <v>2015</v>
+        <v>1999</v>
       </c>
       <c r="D109" s="71" t="s">
         <v>974</v>
@@ -46846,13 +46869,13 @@
       </c>
       <c r="B110" s="71"/>
       <c r="C110" s="71" t="s">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="D110" s="71" t="s">
         <v>975</v>
       </c>
       <c r="E110" s="71" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="F110" s="77"/>
     </row>
@@ -46862,13 +46885,13 @@
       </c>
       <c r="B111" s="71"/>
       <c r="C111" s="71" t="s">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="D111" s="71" t="s">
         <v>976</v>
       </c>
       <c r="E111" s="71" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="F111" s="77"/>
     </row>
@@ -46880,7 +46903,7 @@
         <v>116</v>
       </c>
       <c r="C112" s="71" t="s">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="D112" s="71" t="s">
         <v>345</v>
@@ -46889,7 +46912,7 @@
         <v>907</v>
       </c>
       <c r="F112" s="77" t="s">
-        <v>1840</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="11.25">
@@ -46898,7 +46921,7 @@
       </c>
       <c r="B113" s="71"/>
       <c r="C113" s="71" t="s">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="D113" s="71" t="s">
         <v>346</v>
@@ -46914,13 +46937,13 @@
       </c>
       <c r="B114" s="71"/>
       <c r="C114" s="71" t="s">
-        <v>2020</v>
+        <v>2004</v>
       </c>
       <c r="D114" s="71" t="s">
         <v>347</v>
       </c>
       <c r="E114" s="71" t="s">
-        <v>1910</v>
+        <v>1894</v>
       </c>
       <c r="F114" s="77"/>
     </row>
@@ -46930,7 +46953,7 @@
       </c>
       <c r="B115" s="71"/>
       <c r="C115" s="71" t="s">
-        <v>2021</v>
+        <v>2005</v>
       </c>
       <c r="D115" s="71" t="s">
         <v>348</v>
@@ -46946,7 +46969,7 @@
       </c>
       <c r="B116" s="71"/>
       <c r="C116" s="71" t="s">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="D116" s="71" t="s">
         <v>977</v>
@@ -46962,13 +46985,13 @@
       </c>
       <c r="B117" s="71"/>
       <c r="C117" s="71" t="s">
-        <v>2023</v>
+        <v>2007</v>
       </c>
       <c r="D117" s="71" t="s">
         <v>349</v>
       </c>
       <c r="E117" s="71" t="s">
-        <v>1911</v>
+        <v>1895</v>
       </c>
       <c r="F117" s="77"/>
     </row>
@@ -46980,16 +47003,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="D118" s="71" t="s">
         <v>350</v>
       </c>
       <c r="E118" s="71" t="s">
-        <v>1912</v>
+        <v>1896</v>
       </c>
       <c r="F118" s="77" t="s">
-        <v>1841</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="11.25">
@@ -46998,7 +47021,7 @@
       </c>
       <c r="B119" s="71"/>
       <c r="C119" s="71" t="s">
-        <v>2025</v>
+        <v>2009</v>
       </c>
       <c r="D119" s="71" t="s">
         <v>351</v>
@@ -47014,13 +47037,13 @@
       </c>
       <c r="B120" s="71"/>
       <c r="C120" s="71" t="s">
-        <v>2026</v>
+        <v>2010</v>
       </c>
       <c r="D120" s="71" t="s">
         <v>352</v>
       </c>
       <c r="E120" s="71" t="s">
-        <v>1913</v>
+        <v>1897</v>
       </c>
       <c r="F120" s="77"/>
     </row>
@@ -47030,13 +47053,13 @@
       </c>
       <c r="B121" s="71"/>
       <c r="C121" s="71" t="s">
-        <v>2027</v>
+        <v>2011</v>
       </c>
       <c r="D121" s="71" t="s">
         <v>353</v>
       </c>
       <c r="E121" s="71" t="s">
-        <v>1914</v>
+        <v>1898</v>
       </c>
       <c r="F121" s="77"/>
     </row>
@@ -47046,7 +47069,7 @@
       </c>
       <c r="B122" s="71"/>
       <c r="C122" s="71" t="s">
-        <v>2028</v>
+        <v>2012</v>
       </c>
       <c r="D122" s="71" t="s">
         <v>354</v>
@@ -47062,7 +47085,7 @@
       </c>
       <c r="B123" s="71"/>
       <c r="C123" s="71" t="s">
-        <v>2029</v>
+        <v>2013</v>
       </c>
       <c r="D123" s="71" t="s">
         <v>355</v>
@@ -47080,16 +47103,16 @@
         <v>118</v>
       </c>
       <c r="C124" s="71" t="s">
-        <v>2030</v>
+        <v>2014</v>
       </c>
       <c r="D124" s="71" t="s">
         <v>356</v>
       </c>
       <c r="E124" s="71" t="s">
-        <v>1915</v>
+        <v>1899</v>
       </c>
       <c r="F124" s="77" t="s">
-        <v>1842</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="11.25">
@@ -47166,7 +47189,7 @@
       </c>
       <c r="B129" s="71"/>
       <c r="C129" s="71" t="s">
-        <v>2031</v>
+        <v>2015</v>
       </c>
       <c r="D129" s="75" t="s">
         <v>979</v>
@@ -47182,13 +47205,13 @@
       </c>
       <c r="B130" s="71"/>
       <c r="C130" s="75" t="s">
-        <v>2055</v>
+        <v>2039</v>
       </c>
       <c r="D130" s="75" t="s">
-        <v>1843</v>
+        <v>1827</v>
       </c>
       <c r="E130" s="71" t="s">
-        <v>1916</v>
+        <v>1900</v>
       </c>
       <c r="F130" s="77"/>
     </row>
@@ -47198,13 +47221,13 @@
       </c>
       <c r="B131" s="71"/>
       <c r="C131" s="71" t="s">
-        <v>2032</v>
+        <v>2016</v>
       </c>
       <c r="D131" s="75" t="s">
-        <v>1844</v>
+        <v>1828</v>
       </c>
       <c r="E131" s="71" t="s">
-        <v>1917</v>
+        <v>1901</v>
       </c>
       <c r="F131" s="77"/>
     </row>
@@ -47213,19 +47236,19 @@
         <v>23000</v>
       </c>
       <c r="B132" s="71" t="s">
-        <v>1918</v>
+        <v>1902</v>
       </c>
       <c r="C132" s="71" t="s">
-        <v>2033</v>
+        <v>2017</v>
       </c>
       <c r="D132" s="71" t="s">
-        <v>1845</v>
+        <v>1829</v>
       </c>
       <c r="E132" s="71" t="s">
-        <v>1919</v>
+        <v>1903</v>
       </c>
       <c r="F132" s="77" t="s">
-        <v>1846</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="11.25">
@@ -47234,13 +47257,13 @@
       </c>
       <c r="B133" s="71"/>
       <c r="C133" s="71" t="s">
-        <v>2034</v>
+        <v>2018</v>
       </c>
       <c r="D133" s="71" t="s">
-        <v>1847</v>
+        <v>1831</v>
       </c>
       <c r="E133" s="71" t="s">
-        <v>1920</v>
+        <v>1904</v>
       </c>
       <c r="F133" s="77"/>
     </row>
@@ -47250,13 +47273,13 @@
       </c>
       <c r="B134" s="71"/>
       <c r="C134" s="71" t="s">
-        <v>2035</v>
+        <v>2019</v>
       </c>
       <c r="D134" s="71" t="s">
-        <v>1848</v>
+        <v>1832</v>
       </c>
       <c r="E134" s="71" t="s">
-        <v>1921</v>
+        <v>1905</v>
       </c>
       <c r="F134" s="77"/>
     </row>
@@ -47266,13 +47289,13 @@
       </c>
       <c r="B135" s="71"/>
       <c r="C135" s="71" t="s">
-        <v>2036</v>
+        <v>2020</v>
       </c>
       <c r="D135" s="71" t="s">
-        <v>1849</v>
+        <v>1833</v>
       </c>
       <c r="E135" s="71" t="s">
-        <v>1922</v>
+        <v>1906</v>
       </c>
       <c r="F135" s="77"/>
     </row>
@@ -47282,10 +47305,10 @@
       </c>
       <c r="B136" s="71"/>
       <c r="C136" s="71" t="s">
-        <v>2037</v>
+        <v>2021</v>
       </c>
       <c r="D136" s="71" t="s">
-        <v>1850</v>
+        <v>1834</v>
       </c>
       <c r="E136" s="71"/>
       <c r="F136" s="77"/>
@@ -47295,19 +47318,19 @@
         <v>23010</v>
       </c>
       <c r="B137" s="71" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
       <c r="C137" s="71" t="s">
-        <v>2038</v>
+        <v>2022</v>
       </c>
       <c r="D137" s="71" t="s">
-        <v>1851</v>
+        <v>1835</v>
       </c>
       <c r="E137" s="71" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
       <c r="F137" s="77" t="s">
-        <v>1852</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="11.25">
@@ -47316,13 +47339,13 @@
       </c>
       <c r="B138" s="71"/>
       <c r="C138" s="71" t="s">
-        <v>2039</v>
+        <v>2023</v>
       </c>
       <c r="D138" s="71" t="s">
         <v>358</v>
       </c>
       <c r="E138" s="71" t="s">
-        <v>1925</v>
+        <v>1909</v>
       </c>
       <c r="F138" s="77"/>
     </row>
@@ -47332,13 +47355,13 @@
       </c>
       <c r="B139" s="71"/>
       <c r="C139" s="71" t="s">
-        <v>2040</v>
+        <v>2024</v>
       </c>
       <c r="D139" s="71" t="s">
-        <v>1853</v>
+        <v>1837</v>
       </c>
       <c r="E139" s="71" t="s">
-        <v>1926</v>
+        <v>1910</v>
       </c>
       <c r="F139" s="77"/>
     </row>
@@ -47348,13 +47371,13 @@
       </c>
       <c r="B140" s="71"/>
       <c r="C140" s="71" t="s">
-        <v>2041</v>
+        <v>2025</v>
       </c>
       <c r="D140" s="71" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
       <c r="E140" s="71" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="F140" s="77"/>
     </row>
@@ -47363,10 +47386,10 @@
         <v>23020</v>
       </c>
       <c r="B141" s="71" t="s">
-        <v>1928</v>
+        <v>1912</v>
       </c>
       <c r="C141" s="71" t="s">
-        <v>2042</v>
+        <v>2026</v>
       </c>
       <c r="D141" s="71" t="s">
         <v>359</v>
@@ -47375,7 +47398,7 @@
         <v>918</v>
       </c>
       <c r="F141" s="77" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="11.25">
@@ -47384,7 +47407,7 @@
       </c>
       <c r="B142" s="71"/>
       <c r="C142" s="71" t="s">
-        <v>2043</v>
+        <v>2027</v>
       </c>
       <c r="D142" s="71" t="s">
         <v>980</v>
@@ -47400,7 +47423,7 @@
       </c>
       <c r="B143" s="71"/>
       <c r="C143" s="71" t="s">
-        <v>2044</v>
+        <v>2028</v>
       </c>
       <c r="D143" s="71" t="s">
         <v>360</v>
@@ -47416,10 +47439,10 @@
       </c>
       <c r="B144" s="71"/>
       <c r="C144" s="71" t="s">
-        <v>2045</v>
+        <v>2029</v>
       </c>
       <c r="D144" s="71" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
       <c r="E144" s="71" t="s">
         <v>921</v>
@@ -47434,16 +47457,16 @@
         <v>54</v>
       </c>
       <c r="C145" s="71" t="s">
-        <v>2046</v>
+        <v>2030</v>
       </c>
       <c r="D145" s="71" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
       <c r="E145" s="71" t="s">
         <v>922</v>
       </c>
       <c r="F145" s="77" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="11.25">
@@ -47452,13 +47475,13 @@
       </c>
       <c r="B146" s="71"/>
       <c r="C146" s="71" t="s">
-        <v>2047</v>
+        <v>2031</v>
       </c>
       <c r="D146" s="71" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
       <c r="E146" s="71" t="s">
-        <v>1929</v>
+        <v>1913</v>
       </c>
       <c r="F146" s="77"/>
     </row>
@@ -47468,13 +47491,13 @@
       </c>
       <c r="B147" s="71"/>
       <c r="C147" s="71" t="s">
-        <v>2048</v>
+        <v>2032</v>
       </c>
       <c r="D147" s="71" t="s">
         <v>1158</v>
       </c>
       <c r="E147" s="71" t="s">
-        <v>1930</v>
+        <v>1914</v>
       </c>
       <c r="F147" s="77"/>
     </row>
@@ -47486,16 +47509,16 @@
         <v>55</v>
       </c>
       <c r="C148" s="71" t="s">
-        <v>2049</v>
+        <v>2033</v>
       </c>
       <c r="D148" s="71" t="s">
         <v>361</v>
       </c>
       <c r="E148" s="71" t="s">
-        <v>1931</v>
+        <v>1915</v>
       </c>
       <c r="F148" s="77" t="s">
-        <v>1860</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="11.25">
@@ -47504,13 +47527,13 @@
       </c>
       <c r="B149" s="71"/>
       <c r="C149" s="71" t="s">
-        <v>2050</v>
+        <v>2034</v>
       </c>
       <c r="D149" s="71" t="s">
         <v>362</v>
       </c>
       <c r="E149" s="71" t="s">
-        <v>1932</v>
+        <v>1916</v>
       </c>
       <c r="F149" s="77"/>
     </row>
@@ -47520,13 +47543,13 @@
       </c>
       <c r="B150" s="71"/>
       <c r="C150" s="71" t="s">
-        <v>2051</v>
+        <v>2035</v>
       </c>
       <c r="D150" s="71" t="s">
         <v>363</v>
       </c>
       <c r="E150" s="71" t="s">
-        <v>1933</v>
+        <v>1917</v>
       </c>
       <c r="F150" s="77"/>
     </row>
@@ -47535,10 +47558,10 @@
         <v>23100</v>
       </c>
       <c r="B151" s="71" t="s">
-        <v>1934</v>
+        <v>1918</v>
       </c>
       <c r="C151" s="71" t="s">
-        <v>2052</v>
+        <v>2036</v>
       </c>
       <c r="D151" s="71" t="s">
         <v>986</v>
@@ -47547,7 +47570,7 @@
         <v>923</v>
       </c>
       <c r="F151" s="77" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="11.25">
@@ -47556,13 +47579,13 @@
       </c>
       <c r="B152" s="71"/>
       <c r="C152" s="71" t="s">
-        <v>2053</v>
+        <v>2037</v>
       </c>
       <c r="D152" s="71" t="s">
         <v>364</v>
       </c>
       <c r="E152" s="71" t="s">
-        <v>1935</v>
+        <v>1919</v>
       </c>
       <c r="F152" s="77"/>
     </row>
@@ -47571,17 +47594,17 @@
         <v>24000</v>
       </c>
       <c r="B153" s="71" t="s">
-        <v>1936</v>
+        <v>1920</v>
       </c>
       <c r="C153" s="71"/>
       <c r="D153" s="71" t="s">
-        <v>1862</v>
+        <v>1846</v>
       </c>
       <c r="E153" s="71" t="s">
-        <v>1937</v>
+        <v>1921</v>
       </c>
       <c r="F153" s="77" t="s">
-        <v>1863</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="11.25">
@@ -47591,7 +47614,7 @@
       <c r="B154" s="71"/>
       <c r="C154" s="71"/>
       <c r="D154" s="71" t="s">
-        <v>1864</v>
+        <v>1848</v>
       </c>
       <c r="E154" s="71" t="s">
         <v>924</v>
@@ -47619,7 +47642,7 @@
       <c r="B156" s="71"/>
       <c r="C156" s="71"/>
       <c r="D156" s="71" t="s">
-        <v>1865</v>
+        <v>1849</v>
       </c>
       <c r="E156" s="71" t="s">
         <v>926</v>
@@ -47633,10 +47656,10 @@
       <c r="B157" s="71"/>
       <c r="C157" s="71"/>
       <c r="D157" s="71" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
       <c r="E157" s="71" t="s">
-        <v>1938</v>
+        <v>1922</v>
       </c>
       <c r="F157" s="77"/>
     </row>
@@ -47650,7 +47673,7 @@
         <v>366</v>
       </c>
       <c r="E158" s="71" t="s">
-        <v>1939</v>
+        <v>1923</v>
       </c>
       <c r="F158" s="77"/>
     </row>
@@ -47692,7 +47715,7 @@
         <v>369</v>
       </c>
       <c r="E161" s="71" t="s">
-        <v>1940</v>
+        <v>1924</v>
       </c>
       <c r="F161" s="77"/>
     </row>
@@ -47706,7 +47729,7 @@
         <v>370</v>
       </c>
       <c r="E162" s="71" t="s">
-        <v>1941</v>
+        <v>1925</v>
       </c>
       <c r="F162" s="77"/>
     </row>
@@ -47716,13 +47739,13 @@
       </c>
       <c r="B163" s="78"/>
       <c r="C163" s="78" t="s">
-        <v>2054</v>
+        <v>2038</v>
       </c>
       <c r="D163" s="78" t="s">
-        <v>1867</v>
+        <v>1851</v>
       </c>
       <c r="E163" s="78" t="s">
-        <v>1942</v>
+        <v>1926</v>
       </c>
       <c r="F163" s="77"/>
     </row>

--- a/KYSP_EN/Tools_ENG/kysp_database.xlsx
+++ b/KYSP_EN/Tools_ENG/kysp_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\FunPIER\KYSP_EN\Tools_ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81740B1-81E2-4FFA-9A50-EDAB978DABD8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E56C9DE-DD0F-467A-BDAA-9CB9A0E27CA3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29786,11 +29786,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>I can't believe…!
-I'm going on a date with her!!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>I'm totally into you..</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -29847,6 +29842,11 @@
   </si>
   <si>
     <t>Just give up! N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I can't believe…!
+I'm going on a date!!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -36802,8 +36802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -36871,7 +36871,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>2089</v>
+        <v>2103</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>372</v>
@@ -37015,7 +37015,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1257</v>
@@ -37215,7 +37215,7 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="64" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1263</v>
@@ -37301,7 +37301,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>379</v>
@@ -37317,7 +37317,7 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="64" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>1266</v>
@@ -37365,7 +37365,7 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="64" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>1269</v>
@@ -37381,7 +37381,7 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="64" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>1270</v>
@@ -38241,7 +38241,7 @@
       </c>
       <c r="B87" s="27"/>
       <c r="C87" s="50" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>1308</v>
@@ -38257,7 +38257,7 @@
       </c>
       <c r="B88" s="27"/>
       <c r="C88" s="64" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>384</v>
@@ -38353,7 +38353,7 @@
       </c>
       <c r="B94" s="27"/>
       <c r="C94" s="50" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>225</v>
@@ -38369,7 +38369,7 @@
       </c>
       <c r="B95" s="27"/>
       <c r="C95" s="64" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D95" s="29" t="s">
         <v>1312</v>
@@ -38385,7 +38385,7 @@
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="50" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>226</v>
@@ -38401,7 +38401,7 @@
       </c>
       <c r="B97" s="27"/>
       <c r="C97" s="50" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>227</v>
@@ -38419,7 +38419,7 @@
         <v>32</v>
       </c>
       <c r="C98" s="64" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>385</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="B99" s="27"/>
       <c r="C99" s="50" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D99" s="27" t="s">
         <v>1313</v>

--- a/KYSP_EN/Tools_ENG/kysp_database.xlsx
+++ b/KYSP_EN/Tools_ENG/kysp_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\FunPIER\KYSP_EN\Tools_ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E56C9DE-DD0F-467A-BDAA-9CB9A0E27CA3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94823A98-30C0-4F9C-8656-2119F29DBDC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMaster" sheetId="1" r:id="rId1"/>
@@ -29478,12 +29478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Today,
-my favorite idol 'A'
-will have an fan signing event</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>I am hungry…</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -29847,6 +29841,11 @@
   <si>
     <t>I can't believe…!
 I'm going on a date!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Today is my favorite
+idol's fan autograph event..!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -36803,7 +36802,7 @@
   <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -36871,7 +36870,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>372</v>
@@ -36899,7 +36898,7 @@
       </c>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="1:6" ht="33.75">
+    <row r="6" spans="1:6" ht="22.5">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -36907,7 +36906,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>2041</v>
+        <v>2103</v>
       </c>
       <c r="D6" s="79" t="s">
         <v>1255</v>
@@ -37015,7 +37014,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1257</v>
@@ -37033,7 +37032,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>1258</v>
@@ -37049,7 +37048,7 @@
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="64" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>1259</v>
@@ -37065,7 +37064,7 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="64" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>1260</v>
@@ -37133,7 +37132,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>932</v>
@@ -37165,7 +37164,7 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="64" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>992</v>
@@ -37181,7 +37180,7 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="64" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>933</v>
@@ -37215,7 +37214,7 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="64" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1263</v>
@@ -37267,7 +37266,7 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="50" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>934</v>
@@ -37283,7 +37282,7 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="50" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>935</v>
@@ -37301,7 +37300,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>379</v>
@@ -37317,7 +37316,7 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="64" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>1266</v>
@@ -37365,7 +37364,7 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="64" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>1269</v>
@@ -37381,7 +37380,7 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="64" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>1270</v>
@@ -37399,7 +37398,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D35" s="48" t="s">
         <v>1356</v>
@@ -37415,7 +37414,7 @@
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="65" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D36" s="62" t="s">
         <v>1357</v>
@@ -37431,7 +37430,7 @@
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="65" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D37" s="62" t="s">
         <v>1358</v>
@@ -38241,7 +38240,7 @@
       </c>
       <c r="B87" s="27"/>
       <c r="C87" s="50" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>1308</v>
@@ -38257,7 +38256,7 @@
       </c>
       <c r="B88" s="27"/>
       <c r="C88" s="64" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>384</v>
@@ -38353,7 +38352,7 @@
       </c>
       <c r="B94" s="27"/>
       <c r="C94" s="50" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>225</v>
@@ -38369,7 +38368,7 @@
       </c>
       <c r="B95" s="27"/>
       <c r="C95" s="64" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D95" s="29" t="s">
         <v>1312</v>
@@ -38385,7 +38384,7 @@
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="50" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>226</v>
@@ -38401,7 +38400,7 @@
       </c>
       <c r="B97" s="27"/>
       <c r="C97" s="50" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>227</v>
@@ -38419,7 +38418,7 @@
         <v>32</v>
       </c>
       <c r="C98" s="64" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>385</v>
@@ -38435,7 +38434,7 @@
       </c>
       <c r="B99" s="27"/>
       <c r="C99" s="50" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D99" s="27" t="s">
         <v>1313</v>
@@ -38499,7 +38498,7 @@
       </c>
       <c r="B103" s="27"/>
       <c r="C103" s="64" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>1316</v>
@@ -38531,7 +38530,7 @@
       </c>
       <c r="B105" s="27"/>
       <c r="C105" s="64" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D105" s="29" t="s">
         <v>1316</v>
@@ -38595,7 +38594,7 @@
       </c>
       <c r="B109" s="27"/>
       <c r="C109" s="64" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D109" s="29" t="s">
         <v>1316</v>
@@ -38629,7 +38628,7 @@
       </c>
       <c r="B111" s="27"/>
       <c r="C111" s="64" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D111" s="27" t="s">
         <v>938</v>
@@ -38645,7 +38644,7 @@
       </c>
       <c r="B112" s="27"/>
       <c r="C112" s="50" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D112" s="27" t="s">
         <v>390</v>
@@ -39335,7 +39334,7 @@
       </c>
       <c r="B155" s="32"/>
       <c r="C155" s="67" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D155" s="32" t="s">
         <v>1342</v>
@@ -39445,7 +39444,7 @@
       </c>
       <c r="B162" s="32"/>
       <c r="C162" s="68" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D162" s="32" t="s">
         <v>1348</v>
@@ -39509,7 +39508,7 @@
       </c>
       <c r="B166" s="32"/>
       <c r="C166" s="68" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D166" s="32" t="s">
         <v>1351</v>
@@ -39541,7 +39540,7 @@
       </c>
       <c r="B168" s="32"/>
       <c r="C168" s="44" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D168" s="35" t="s">
         <v>1246</v>
@@ -39557,7 +39556,7 @@
       </c>
       <c r="B169" s="32"/>
       <c r="C169" s="61" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D169" s="35" t="s">
         <v>1247</v>
@@ -39573,7 +39572,7 @@
       </c>
       <c r="B170" s="32"/>
       <c r="C170" s="61" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D170" s="35" t="s">
         <v>1250</v>
@@ -39647,7 +39646,7 @@
       </c>
       <c r="B175" s="36"/>
       <c r="C175" s="68" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D175" s="36" t="s">
         <v>1352</v>
@@ -39919,7 +39918,7 @@
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="70" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D13" s="49" t="s">
         <v>1042</v>
@@ -41377,7 +41376,7 @@
         <v>74</v>
       </c>
       <c r="C104" s="69" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D104" s="48" t="s">
         <v>197</v>
@@ -41393,7 +41392,7 @@
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="69" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D105" s="48" t="s">
         <v>198</v>
@@ -41633,7 +41632,7 @@
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="71" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D120" s="48" t="s">
         <v>958</v>
@@ -41937,7 +41936,7 @@
       </c>
       <c r="B139" s="48"/>
       <c r="C139" s="69" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D139" s="48" t="s">
         <v>204</v>
@@ -41953,7 +41952,7 @@
       </c>
       <c r="B140" s="48"/>
       <c r="C140" s="69" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D140" s="48" t="s">
         <v>1050</v>
@@ -42209,7 +42208,7 @@
       </c>
       <c r="B156" s="48"/>
       <c r="C156" s="69" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D156" s="48" t="s">
         <v>1029</v>
@@ -42465,7 +42464,7 @@
       </c>
       <c r="B172" s="44"/>
       <c r="C172" s="69" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D172" s="44" t="s">
         <v>1213</v>
@@ -43011,7 +43010,7 @@
       </c>
       <c r="B206" s="44"/>
       <c r="C206" s="72" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D206" s="56" t="s">
         <v>1013</v>
@@ -43027,7 +43026,7 @@
       </c>
       <c r="B207" s="44"/>
       <c r="C207" s="72" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D207" s="58" t="s">
         <v>999</v>
@@ -43251,7 +43250,7 @@
       </c>
       <c r="B221" s="44"/>
       <c r="C221" s="69" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D221" s="56" t="s">
         <v>1113</v>
@@ -43379,7 +43378,7 @@
       </c>
       <c r="B229" s="44"/>
       <c r="C229" s="73" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D229" s="56" t="s">
         <v>1116</v>
@@ -45549,7 +45548,7 @@
       </c>
       <c r="B31" s="71"/>
       <c r="C31" s="71" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D31" s="71" t="s">
         <v>308</v>
@@ -45847,7 +45846,7 @@
         <v>113</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D49" s="71" t="s">
         <v>1803</v>
@@ -45865,7 +45864,7 @@
       </c>
       <c r="B50" s="71"/>
       <c r="C50" s="71" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D50" s="71" t="s">
         <v>983</v>
@@ -45881,7 +45880,7 @@
       </c>
       <c r="B51" s="71"/>
       <c r="C51" s="71" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D51" s="71" t="s">
         <v>1804</v>
@@ -45897,7 +45896,7 @@
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="71" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D52" s="71" t="s">
         <v>1805</v>
@@ -45913,7 +45912,7 @@
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="71" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D53" s="71" t="s">
         <v>985</v>
@@ -45929,7 +45928,7 @@
       </c>
       <c r="B54" s="71"/>
       <c r="C54" s="71" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D54" s="71" t="s">
         <v>984</v>
@@ -45945,7 +45944,7 @@
       </c>
       <c r="B55" s="71"/>
       <c r="C55" s="71" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D55" s="71" t="s">
         <v>1150</v>
@@ -45959,7 +45958,7 @@
       </c>
       <c r="B56" s="71"/>
       <c r="C56" s="71" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D56" s="71" t="s">
         <v>1144</v>
@@ -46533,7 +46532,7 @@
       </c>
       <c r="B90" s="71"/>
       <c r="C90" s="71" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D90" s="71" t="s">
         <v>1819</v>
@@ -46601,7 +46600,7 @@
       </c>
       <c r="B94" s="71"/>
       <c r="C94" s="71" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D94" s="71" t="s">
         <v>1160</v>
@@ -46683,7 +46682,7 @@
         <v>1890</v>
       </c>
       <c r="C99" s="71" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D99" s="71" t="s">
         <v>336</v>
@@ -46737,7 +46736,7 @@
       </c>
       <c r="B102" s="71"/>
       <c r="C102" s="71" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D102" s="71" t="s">
         <v>339</v>

--- a/KYSP_EN/Tools_ENG/kysp_database.xlsx
+++ b/KYSP_EN/Tools_ENG/kysp_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\FunPIER\KYSP_EN\Tools_ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94823A98-30C0-4F9C-8656-2119F29DBDC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EE5415-B920-487A-9007-542ED9E76217}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24668,16 +24668,6 @@
 among these members.</t>
   </si>
   <si>
-    <t>Cheer up!
-I will make
-money.</t>
-  </si>
-  <si>
-    <t>Question
-What is the highest mountain in Japan?
-It's Mount Fuji!</t>
-  </si>
-  <si>
     <t>Correct or Incorrect?</t>
   </si>
   <si>
@@ -24739,61 +24729,22 @@
     <t>You passed!</t>
   </si>
   <si>
-    <t>Hey! Are you listening?!</t>
-  </si>
-  <si>
-    <t>I'm gaining weight.</t>
-  </si>
-  <si>
-    <t>You were out for a blind date right?</t>
-  </si>
-  <si>
     <t>Hey... Don't you want to go overseas?</t>
   </si>
   <si>
-    <t>A guy who's a year ahead of me 
-told me that I am cute.</t>
-  </si>
-  <si>
     <t>Didn't you collect those long time ago?</t>
   </si>
   <si>
     <t>Didn't you do this when you were young?</t>
   </si>
   <si>
-    <t>I'd like to see this movie ...</t>
-  </si>
-  <si>
-    <t>I found a hot restaurant...</t>
-  </si>
-  <si>
     <t>She is really hot.</t>
   </si>
   <si>
-    <t>Hey, don't you think 
-this ring is pretty?</t>
-  </si>
-  <si>
-    <t>I want to eat pudding.</t>
-  </si>
-  <si>
     <t>Isn't that great?</t>
   </si>
   <si>
-    <t>Do you have any decent CD?</t>
-  </si>
-  <si>
     <t>Should I change my phone?</t>
-  </si>
-  <si>
-    <t>Maybe spread it on the bread... ?
-Don't you understand?</t>
-  </si>
-  <si>
-    <t>Yea. Isn't that a pity?</t>
-  </si>
-  <si>
-    <t>Why don't you get a haircut... ?</t>
   </si>
   <si>
     <t>Which one is better?</t>
@@ -24809,9 +24760,6 @@
     <t>So, I gave it to them.</t>
   </si>
   <si>
-    <t>Who was the one that smiled in that ad?</t>
-  </si>
-  <si>
     <t>Which color is better?</t>
   </si>
   <si>
@@ -24834,10 +24782,6 @@
     <t>Don't you often get that wrong?</t>
   </si>
   <si>
-    <t>Well, grey is still
-not great.</t>
-  </si>
-  <si>
     <t>Have you ever had a dog?</t>
   </si>
   <si>
@@ -24845,10 +24789,6 @@
   </si>
   <si>
     <t>What was the name of the person in that show?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ah- I should just quit my job~</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -29478,10 +29418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>I am hungry…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Either you may
 draw a line or not!</t>
     <phoneticPr fontId="1"/>
@@ -29846,6 +29782,84 @@
   <si>
     <t>Today is my favorite
 idol's fan autograph event..!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Just hang in there..
+I'll do something about it..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I am hungry..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The highest mountain
+in Japan is Mount Fuji.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I found a really good restaurant!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I'd like to see this movie...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Who was the celebrity from 
+that TV commercial?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Well, grey is still not great.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blah Blah.. Isn't that so pitiful?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>What don't you find another job?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Should I cut my hair short..?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aren’t you hungry..?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hey, don't you think 
+this ring is pretty?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I think.. 
+I've gained weight lately.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hey! Are you listening to me?!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oh, my God. I can't believe it!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>My classmates told me that
+I am cute.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I suddenly feel likt eating pudding..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shall we listen to some music?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -36801,8 +36815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -36870,7 +36884,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>2102</v>
+        <v>2084</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>372</v>
@@ -36906,7 +36920,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>2103</v>
+        <v>2085</v>
       </c>
       <c r="D6" s="79" t="s">
         <v>1255</v>
@@ -37014,7 +37028,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>2093</v>
+        <v>2075</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1257</v>
@@ -37032,7 +37046,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>2041</v>
+        <v>2087</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>1258</v>
@@ -37048,7 +37062,7 @@
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="64" t="s">
-        <v>2043</v>
+        <v>2025</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>1259</v>
@@ -37064,7 +37078,7 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="64" t="s">
-        <v>2042</v>
+        <v>2024</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>1260</v>
@@ -37074,15 +37088,15 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="22.5">
       <c r="A16" s="27">
         <v>103</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>1386</v>
+      <c r="C16" s="64" t="s">
+        <v>2086</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>1261</v>
@@ -37092,13 +37106,13 @@
       </c>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="22.5">
       <c r="A17" s="27">
         <v>104</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
-        <v>1387</v>
+      <c r="C17" s="64" t="s">
+        <v>2088</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>1262</v>
@@ -37114,7 +37128,7 @@
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="28" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>224</v>
@@ -37132,7 +37146,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>2083</v>
+        <v>2065</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>932</v>
@@ -37148,7 +37162,7 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="64" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>378</v>
@@ -37164,7 +37178,7 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="64" t="s">
-        <v>2084</v>
+        <v>2066</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>992</v>
@@ -37180,7 +37194,7 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="64" t="s">
-        <v>2085</v>
+        <v>2067</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>933</v>
@@ -37198,7 +37212,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>1028</v>
@@ -37214,7 +37228,7 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="64" t="s">
-        <v>2092</v>
+        <v>2074</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1263</v>
@@ -37232,7 +37246,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D25" s="62" t="s">
         <v>1264</v>
@@ -37250,7 +37264,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>1265</v>
@@ -37266,7 +37280,7 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="50" t="s">
-        <v>2086</v>
+        <v>2068</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>934</v>
@@ -37282,7 +37296,7 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="50" t="s">
-        <v>2087</v>
+        <v>2069</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>935</v>
@@ -37300,7 +37314,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>2088</v>
+        <v>2070</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>379</v>
@@ -37316,7 +37330,7 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="64" t="s">
-        <v>2089</v>
+        <v>2071</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>1266</v>
@@ -37332,7 +37346,7 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="64" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>1267</v>
@@ -37348,7 +37362,7 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="64" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>1268</v>
@@ -37364,7 +37378,7 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="64" t="s">
-        <v>2090</v>
+        <v>2072</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>1269</v>
@@ -37380,7 +37394,7 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="64" t="s">
-        <v>2091</v>
+        <v>2073</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>1270</v>
@@ -37398,7 +37412,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>2044</v>
+        <v>2026</v>
       </c>
       <c r="D35" s="48" t="s">
         <v>1356</v>
@@ -37414,7 +37428,7 @@
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="65" t="s">
-        <v>2047</v>
+        <v>2029</v>
       </c>
       <c r="D36" s="62" t="s">
         <v>1357</v>
@@ -37430,7 +37444,7 @@
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="65" t="s">
-        <v>2046</v>
+        <v>2028</v>
       </c>
       <c r="D37" s="62" t="s">
         <v>1358</v>
@@ -37448,7 +37462,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D38" s="62" t="s">
         <v>1359</v>
@@ -37464,7 +37478,7 @@
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="65" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>1271</v>
@@ -37480,7 +37494,7 @@
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="61" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D40" s="48" t="s">
         <v>1360</v>
@@ -37496,7 +37510,7 @@
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="61" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>1361</v>
@@ -37512,7 +37526,7 @@
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="61" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>1272</v>
@@ -37528,7 +37542,7 @@
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="61" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>1273</v>
@@ -37546,7 +37560,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D44" s="62" t="s">
         <v>1274</v>
@@ -37562,7 +37576,7 @@
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="65" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D45" s="63" t="s">
         <v>1362</v>
@@ -37580,7 +37594,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D46" s="48" t="s">
         <v>1275</v>
@@ -37596,7 +37610,7 @@
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="61" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D47" s="48" t="s">
         <v>1363</v>
@@ -37614,7 +37628,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="64" t="s">
-        <v>1405</v>
+        <v>2099</v>
       </c>
       <c r="D48" s="27" t="s">
         <v>1276</v>
@@ -37630,7 +37644,7 @@
       </c>
       <c r="B49" s="27"/>
       <c r="C49" s="64" t="s">
-        <v>1406</v>
+        <v>2098</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>1277</v>
@@ -37646,7 +37660,7 @@
       </c>
       <c r="B50" s="27"/>
       <c r="C50" s="64" t="s">
-        <v>1407</v>
+        <v>2100</v>
       </c>
       <c r="D50" s="29" t="s">
         <v>1278</v>
@@ -37662,7 +37676,7 @@
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="64" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="D51" s="29" t="s">
         <v>1279</v>
@@ -37678,7 +37692,7 @@
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="64" t="s">
-        <v>1409</v>
+        <v>2101</v>
       </c>
       <c r="D52" s="29" t="s">
         <v>1280</v>
@@ -37694,7 +37708,7 @@
       </c>
       <c r="B53" s="27"/>
       <c r="C53" s="64" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>1281</v>
@@ -37710,7 +37724,7 @@
       </c>
       <c r="B54" s="27"/>
       <c r="C54" s="64" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>1282</v>
@@ -37726,7 +37740,7 @@
       </c>
       <c r="B55" s="27"/>
       <c r="C55" s="64" t="s">
-        <v>1412</v>
+        <v>2090</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>1283</v>
@@ -37742,7 +37756,7 @@
       </c>
       <c r="B56" s="27"/>
       <c r="C56" s="64" t="s">
-        <v>1413</v>
+        <v>2089</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>1284</v>
@@ -37758,7 +37772,7 @@
       </c>
       <c r="B57" s="27"/>
       <c r="C57" s="64" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>1285</v>
@@ -37774,7 +37788,7 @@
       </c>
       <c r="B58" s="27"/>
       <c r="C58" s="64" t="s">
-        <v>1415</v>
+        <v>2097</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>1286</v>
@@ -37789,8 +37803,8 @@
         <v>1011</v>
       </c>
       <c r="B59" s="27"/>
-      <c r="C59" s="28" t="s">
-        <v>1416</v>
+      <c r="C59" s="50" t="s">
+        <v>2102</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>1287</v>
@@ -37806,7 +37820,7 @@
       </c>
       <c r="B60" s="27"/>
       <c r="C60" s="28" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>380</v>
@@ -37822,7 +37836,7 @@
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="64" t="s">
-        <v>1418</v>
+        <v>2103</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>381</v>
@@ -37838,7 +37852,7 @@
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="64" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>1288</v>
@@ -37854,7 +37868,7 @@
       </c>
       <c r="B63" s="27"/>
       <c r="C63" s="64" t="s">
-        <v>1440</v>
+        <v>1423</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>1289</v>
@@ -37864,13 +37878,13 @@
       </c>
       <c r="F63" s="24"/>
     </row>
-    <row r="64" spans="1:6" ht="22.5">
+    <row r="64" spans="1:6">
       <c r="A64" s="27">
         <v>1016</v>
       </c>
       <c r="B64" s="27"/>
       <c r="C64" s="64" t="s">
-        <v>1420</v>
+        <v>2096</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>1290</v>
@@ -37886,7 +37900,7 @@
       </c>
       <c r="B65" s="27"/>
       <c r="C65" s="64" t="s">
-        <v>1421</v>
+        <v>2093</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>1291</v>
@@ -37902,7 +37916,7 @@
       </c>
       <c r="B66" s="27"/>
       <c r="C66" s="64" t="s">
-        <v>1422</v>
+        <v>2095</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>1117</v>
@@ -37918,7 +37932,7 @@
       </c>
       <c r="B67" s="27"/>
       <c r="C67" s="64" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>1292</v>
@@ -37934,7 +37948,7 @@
       </c>
       <c r="B68" s="27"/>
       <c r="C68" s="64" t="s">
-        <v>1439</v>
+        <v>2094</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>1293</v>
@@ -37950,7 +37964,7 @@
       </c>
       <c r="B69" s="27"/>
       <c r="C69" s="64" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>1294</v>
@@ -37966,7 +37980,7 @@
       </c>
       <c r="B70" s="27"/>
       <c r="C70" s="64" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>1295</v>
@@ -37982,7 +37996,7 @@
       </c>
       <c r="B71" s="27"/>
       <c r="C71" s="28" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>382</v>
@@ -37998,7 +38012,7 @@
       </c>
       <c r="B72" s="27"/>
       <c r="C72" s="64" t="s">
-        <v>1438</v>
+        <v>1422</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>936</v>
@@ -38014,7 +38028,7 @@
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="64" t="s">
-        <v>1427</v>
+        <v>2091</v>
       </c>
       <c r="D73" s="29" t="s">
         <v>1296</v>
@@ -38030,7 +38044,7 @@
       </c>
       <c r="B74" s="27"/>
       <c r="C74" s="28" t="s">
-        <v>1428</v>
+        <v>1413</v>
       </c>
       <c r="D74" s="29" t="s">
         <v>1297</v>
@@ -38046,7 +38060,7 @@
       </c>
       <c r="B75" s="27"/>
       <c r="C75" s="28" t="s">
-        <v>1429</v>
+        <v>1414</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>1298</v>
@@ -38062,7 +38076,7 @@
       </c>
       <c r="B76" s="27"/>
       <c r="C76" s="28" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>383</v>
@@ -38078,7 +38092,7 @@
       </c>
       <c r="B77" s="27"/>
       <c r="C77" s="28" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="D77" s="29" t="s">
         <v>1299</v>
@@ -38094,7 +38108,7 @@
       </c>
       <c r="B78" s="27"/>
       <c r="C78" s="64" t="s">
-        <v>1432</v>
+        <v>1417</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>1300</v>
@@ -38110,7 +38124,7 @@
       </c>
       <c r="B79" s="27"/>
       <c r="C79" s="64" t="s">
-        <v>1433</v>
+        <v>1418</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>1301</v>
@@ -38126,7 +38140,7 @@
       </c>
       <c r="B80" s="27"/>
       <c r="C80" s="64" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="D80" s="29" t="s">
         <v>1302</v>
@@ -38141,8 +38155,8 @@
         <v>1033</v>
       </c>
       <c r="B81" s="27"/>
-      <c r="C81" s="28" t="s">
-        <v>1435</v>
+      <c r="C81" s="50" t="s">
+        <v>2092</v>
       </c>
       <c r="D81" s="27" t="s">
         <v>937</v>
@@ -38158,7 +38172,7 @@
       </c>
       <c r="B82" s="27"/>
       <c r="C82" s="28" t="s">
-        <v>1436</v>
+        <v>1420</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>1303</v>
@@ -38174,7 +38188,7 @@
       </c>
       <c r="B83" s="27"/>
       <c r="C83" s="64" t="s">
-        <v>1437</v>
+        <v>1421</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>1304</v>
@@ -38190,7 +38204,7 @@
       </c>
       <c r="B84" s="27"/>
       <c r="C84" s="64" t="s">
-        <v>1441</v>
+        <v>1424</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>1305</v>
@@ -38206,7 +38220,7 @@
       </c>
       <c r="B85" s="27"/>
       <c r="C85" s="64" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>1306</v>
@@ -38224,7 +38238,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="64" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>1307</v>
@@ -38240,7 +38254,7 @@
       </c>
       <c r="B87" s="27"/>
       <c r="C87" s="50" t="s">
-        <v>2094</v>
+        <v>2076</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>1308</v>
@@ -38256,7 +38270,7 @@
       </c>
       <c r="B88" s="27"/>
       <c r="C88" s="64" t="s">
-        <v>2095</v>
+        <v>2077</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>384</v>
@@ -38272,7 +38286,7 @@
       </c>
       <c r="B89" s="27"/>
       <c r="C89" s="64" t="s">
-        <v>1444</v>
+        <v>1427</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>385</v>
@@ -38288,7 +38302,7 @@
       </c>
       <c r="B90" s="27"/>
       <c r="C90" s="64" t="s">
-        <v>1445</v>
+        <v>1428</v>
       </c>
       <c r="D90" s="27" t="s">
         <v>1309</v>
@@ -38304,7 +38318,7 @@
       </c>
       <c r="B91" s="27"/>
       <c r="C91" s="50" t="s">
-        <v>1446</v>
+        <v>1429</v>
       </c>
       <c r="D91" s="27" t="s">
         <v>386</v>
@@ -38320,7 +38334,7 @@
       </c>
       <c r="B92" s="27"/>
       <c r="C92" s="64" t="s">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="D92" s="27" t="s">
         <v>1310</v>
@@ -38336,7 +38350,7 @@
       </c>
       <c r="B93" s="27"/>
       <c r="C93" s="64" t="s">
-        <v>1448</v>
+        <v>1431</v>
       </c>
       <c r="D93" s="27" t="s">
         <v>1311</v>
@@ -38352,7 +38366,7 @@
       </c>
       <c r="B94" s="27"/>
       <c r="C94" s="50" t="s">
-        <v>2099</v>
+        <v>2081</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>225</v>
@@ -38368,7 +38382,7 @@
       </c>
       <c r="B95" s="27"/>
       <c r="C95" s="64" t="s">
-        <v>2100</v>
+        <v>2082</v>
       </c>
       <c r="D95" s="29" t="s">
         <v>1312</v>
@@ -38384,7 +38398,7 @@
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="50" t="s">
-        <v>2096</v>
+        <v>2078</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>226</v>
@@ -38400,7 +38414,7 @@
       </c>
       <c r="B97" s="27"/>
       <c r="C97" s="50" t="s">
-        <v>2101</v>
+        <v>2083</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>227</v>
@@ -38418,7 +38432,7 @@
         <v>32</v>
       </c>
       <c r="C98" s="64" t="s">
-        <v>2097</v>
+        <v>2079</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>385</v>
@@ -38434,7 +38448,7 @@
       </c>
       <c r="B99" s="27"/>
       <c r="C99" s="50" t="s">
-        <v>2098</v>
+        <v>2080</v>
       </c>
       <c r="D99" s="27" t="s">
         <v>1313</v>
@@ -38450,7 +38464,7 @@
       </c>
       <c r="B100" s="27"/>
       <c r="C100" s="64" t="s">
-        <v>1449</v>
+        <v>1432</v>
       </c>
       <c r="D100" s="29" t="s">
         <v>1314</v>
@@ -38466,7 +38480,7 @@
       </c>
       <c r="B101" s="27"/>
       <c r="C101" s="50" t="s">
-        <v>1450</v>
+        <v>1433</v>
       </c>
       <c r="D101" s="27" t="s">
         <v>1315</v>
@@ -38482,7 +38496,7 @@
       </c>
       <c r="B102" s="27"/>
       <c r="C102" s="50" t="s">
-        <v>1451</v>
+        <v>1434</v>
       </c>
       <c r="D102" s="27" t="s">
         <v>387</v>
@@ -38498,7 +38512,7 @@
       </c>
       <c r="B103" s="27"/>
       <c r="C103" s="64" t="s">
-        <v>2048</v>
+        <v>2030</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>1316</v>
@@ -38514,7 +38528,7 @@
       </c>
       <c r="B104" s="27"/>
       <c r="C104" s="64" t="s">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="D104" s="27" t="s">
         <v>388</v>
@@ -38530,7 +38544,7 @@
       </c>
       <c r="B105" s="27"/>
       <c r="C105" s="64" t="s">
-        <v>2048</v>
+        <v>2030</v>
       </c>
       <c r="D105" s="29" t="s">
         <v>1316</v>
@@ -38546,7 +38560,7 @@
       </c>
       <c r="B106" s="27"/>
       <c r="C106" s="64" t="s">
-        <v>1452</v>
+        <v>1435</v>
       </c>
       <c r="D106" s="27" t="s">
         <v>1317</v>
@@ -38562,7 +38576,7 @@
       </c>
       <c r="B107" s="27"/>
       <c r="C107" s="64" t="s">
-        <v>1454</v>
+        <v>1437</v>
       </c>
       <c r="D107" s="27" t="s">
         <v>1318</v>
@@ -38578,7 +38592,7 @@
       </c>
       <c r="B108" s="27"/>
       <c r="C108" s="64" t="s">
-        <v>1453</v>
+        <v>1436</v>
       </c>
       <c r="D108" s="27" t="s">
         <v>1319</v>
@@ -38594,7 +38608,7 @@
       </c>
       <c r="B109" s="27"/>
       <c r="C109" s="64" t="s">
-        <v>2049</v>
+        <v>2031</v>
       </c>
       <c r="D109" s="29" t="s">
         <v>1316</v>
@@ -38612,7 +38626,7 @@
         <v>33</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>1455</v>
+        <v>1438</v>
       </c>
       <c r="D110" s="27" t="s">
         <v>389</v>
@@ -38628,7 +38642,7 @@
       </c>
       <c r="B111" s="27"/>
       <c r="C111" s="64" t="s">
-        <v>2075</v>
+        <v>2057</v>
       </c>
       <c r="D111" s="27" t="s">
         <v>938</v>
@@ -38644,7 +38658,7 @@
       </c>
       <c r="B112" s="27"/>
       <c r="C112" s="50" t="s">
-        <v>2076</v>
+        <v>2058</v>
       </c>
       <c r="D112" s="27" t="s">
         <v>390</v>
@@ -38660,7 +38674,7 @@
       </c>
       <c r="B113" s="27"/>
       <c r="C113" s="64" t="s">
-        <v>1456</v>
+        <v>1439</v>
       </c>
       <c r="D113" s="62" t="s">
         <v>1377</v>
@@ -38676,7 +38690,7 @@
       </c>
       <c r="B114" s="27"/>
       <c r="C114" s="50" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="D114" s="27" t="s">
         <v>391</v>
@@ -38692,7 +38706,7 @@
       </c>
       <c r="B115" s="27"/>
       <c r="C115" s="64" t="s">
-        <v>1458</v>
+        <v>1441</v>
       </c>
       <c r="D115" s="29" t="s">
         <v>1320</v>
@@ -38708,7 +38722,7 @@
       </c>
       <c r="B116" s="27"/>
       <c r="C116" s="64" t="s">
-        <v>1459</v>
+        <v>1442</v>
       </c>
       <c r="D116" s="27" t="s">
         <v>1321</v>
@@ -38724,7 +38738,7 @@
       </c>
       <c r="B117" s="27"/>
       <c r="C117" s="64" t="s">
-        <v>1465</v>
+        <v>1448</v>
       </c>
       <c r="D117" s="27" t="s">
         <v>1322</v>
@@ -38740,7 +38754,7 @@
       </c>
       <c r="B118" s="27"/>
       <c r="C118" s="50" t="s">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="D118" s="27" t="s">
         <v>1323</v>
@@ -38756,7 +38770,7 @@
       </c>
       <c r="B119" s="27"/>
       <c r="C119" s="50" t="s">
-        <v>1461</v>
+        <v>1444</v>
       </c>
       <c r="D119" s="27" t="s">
         <v>1324</v>
@@ -38772,7 +38786,7 @@
       </c>
       <c r="B120" s="27"/>
       <c r="C120" s="50" t="s">
-        <v>1462</v>
+        <v>1445</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>392</v>
@@ -38788,7 +38802,7 @@
       </c>
       <c r="B121" s="27"/>
       <c r="C121" s="64" t="s">
-        <v>1463</v>
+        <v>1446</v>
       </c>
       <c r="D121" s="27" t="s">
         <v>1325</v>
@@ -38804,7 +38818,7 @@
       </c>
       <c r="B122" s="27"/>
       <c r="C122" s="64" t="s">
-        <v>1464</v>
+        <v>1447</v>
       </c>
       <c r="D122" s="27" t="s">
         <v>1326</v>
@@ -38822,7 +38836,7 @@
         <v>34</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>1466</v>
+        <v>1449</v>
       </c>
       <c r="D123" s="27" t="s">
         <v>393</v>
@@ -38838,7 +38852,7 @@
       </c>
       <c r="B124" s="27"/>
       <c r="C124" s="28" t="s">
-        <v>1467</v>
+        <v>1450</v>
       </c>
       <c r="D124" s="27" t="s">
         <v>939</v>
@@ -38870,7 +38884,7 @@
       </c>
       <c r="B126" s="27"/>
       <c r="C126" s="28" t="s">
-        <v>1468</v>
+        <v>1451</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>1328</v>
@@ -38886,7 +38900,7 @@
       </c>
       <c r="B127" s="32"/>
       <c r="C127" s="31" t="s">
-        <v>1469</v>
+        <v>1452</v>
       </c>
       <c r="D127" s="32" t="s">
         <v>1329</v>
@@ -38902,7 +38916,7 @@
       </c>
       <c r="B128" s="27"/>
       <c r="C128" s="28" t="s">
-        <v>1470</v>
+        <v>1453</v>
       </c>
       <c r="D128" s="27" t="s">
         <v>1118</v>
@@ -38918,7 +38932,7 @@
       </c>
       <c r="B129" s="27"/>
       <c r="C129" s="28" t="s">
-        <v>1471</v>
+        <v>1454</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>1330</v>
@@ -38934,7 +38948,7 @@
       </c>
       <c r="B130" s="27"/>
       <c r="C130" s="28" t="s">
-        <v>1472</v>
+        <v>1455</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>1331</v>
@@ -38950,7 +38964,7 @@
       </c>
       <c r="B131" s="27"/>
       <c r="C131" s="28" t="s">
-        <v>1473</v>
+        <v>1456</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>1332</v>
@@ -38966,7 +38980,7 @@
       </c>
       <c r="B132" s="27"/>
       <c r="C132" s="28" t="s">
-        <v>1474</v>
+        <v>1457</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>394</v>
@@ -38982,7 +38996,7 @@
       </c>
       <c r="B133" s="27"/>
       <c r="C133" s="28" t="s">
-        <v>1475</v>
+        <v>1458</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>395</v>
@@ -38998,7 +39012,7 @@
       </c>
       <c r="B134" s="27"/>
       <c r="C134" s="28" t="s">
-        <v>1476</v>
+        <v>1459</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>940</v>
@@ -39014,7 +39028,7 @@
       </c>
       <c r="B135" s="27"/>
       <c r="C135" s="28" t="s">
-        <v>1477</v>
+        <v>1460</v>
       </c>
       <c r="D135" s="27" t="s">
         <v>941</v>
@@ -39030,7 +39044,7 @@
       </c>
       <c r="B136" s="27"/>
       <c r="C136" s="28" t="s">
-        <v>1478</v>
+        <v>1461</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>396</v>
@@ -39046,7 +39060,7 @@
       </c>
       <c r="B137" s="27"/>
       <c r="C137" s="28" t="s">
-        <v>1479</v>
+        <v>1462</v>
       </c>
       <c r="D137" s="27" t="s">
         <v>397</v>
@@ -39062,7 +39076,7 @@
       </c>
       <c r="B138" s="27"/>
       <c r="C138" s="28" t="s">
-        <v>1480</v>
+        <v>1463</v>
       </c>
       <c r="D138" s="27" t="s">
         <v>1333</v>
@@ -39078,7 +39092,7 @@
       </c>
       <c r="B139" s="27"/>
       <c r="C139" s="28" t="s">
-        <v>1481</v>
+        <v>1464</v>
       </c>
       <c r="D139" s="27" t="s">
         <v>1334</v>
@@ -39094,7 +39108,7 @@
       </c>
       <c r="B140" s="27"/>
       <c r="C140" s="28" t="s">
-        <v>1482</v>
+        <v>1465</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>398</v>
@@ -39110,7 +39124,7 @@
       </c>
       <c r="B141" s="27"/>
       <c r="C141" s="28" t="s">
-        <v>1483</v>
+        <v>1466</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>942</v>
@@ -39126,7 +39140,7 @@
       </c>
       <c r="B142" s="27"/>
       <c r="C142" s="28" t="s">
-        <v>1484</v>
+        <v>1467</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>1335</v>
@@ -39142,7 +39156,7 @@
       </c>
       <c r="B143" s="27"/>
       <c r="C143" s="28" t="s">
-        <v>1485</v>
+        <v>1468</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>399</v>
@@ -39158,7 +39172,7 @@
       </c>
       <c r="B144" s="27"/>
       <c r="C144" s="28" t="s">
-        <v>1486</v>
+        <v>1469</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>1336</v>
@@ -39174,7 +39188,7 @@
       </c>
       <c r="B145" s="27"/>
       <c r="C145" s="28" t="s">
-        <v>1487</v>
+        <v>1470</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>400</v>
@@ -39190,7 +39204,7 @@
       </c>
       <c r="B146" s="27"/>
       <c r="C146" s="50" t="s">
-        <v>1488</v>
+        <v>1471</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>1337</v>
@@ -39206,7 +39220,7 @@
       </c>
       <c r="B147" s="27"/>
       <c r="C147" s="50" t="s">
-        <v>1489</v>
+        <v>1472</v>
       </c>
       <c r="D147" s="62" t="s">
         <v>1364</v>
@@ -39222,7 +39236,7 @@
       </c>
       <c r="B148" s="27"/>
       <c r="C148" s="50" t="s">
-        <v>1490</v>
+        <v>1473</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>1338</v>
@@ -39238,7 +39252,7 @@
       </c>
       <c r="B149" s="27"/>
       <c r="C149" s="50" t="s">
-        <v>1491</v>
+        <v>1474</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>1339</v>
@@ -39252,7 +39266,7 @@
       </c>
       <c r="B150" s="27"/>
       <c r="C150" s="28" t="s">
-        <v>1492</v>
+        <v>1475</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>1340</v>
@@ -39268,7 +39282,7 @@
       </c>
       <c r="B151" s="27"/>
       <c r="C151" s="28" t="s">
-        <v>1493</v>
+        <v>1476</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>401</v>
@@ -39302,7 +39316,7 @@
         <v>122</v>
       </c>
       <c r="C153" s="67" t="s">
-        <v>1502</v>
+        <v>1485</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>1341</v>
@@ -39334,7 +39348,7 @@
       </c>
       <c r="B155" s="32"/>
       <c r="C155" s="67" t="s">
-        <v>2050</v>
+        <v>2032</v>
       </c>
       <c r="D155" s="32" t="s">
         <v>1342</v>
@@ -39350,7 +39364,7 @@
       </c>
       <c r="B156" s="27"/>
       <c r="C156" s="28" t="s">
-        <v>1494</v>
+        <v>1477</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>1343</v>
@@ -39366,7 +39380,7 @@
       </c>
       <c r="B157" s="27"/>
       <c r="C157" s="28" t="s">
-        <v>1495</v>
+        <v>1478</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>1344</v>
@@ -39382,7 +39396,7 @@
       </c>
       <c r="B158" s="27"/>
       <c r="C158" s="28" t="s">
-        <v>1496</v>
+        <v>1479</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>1345</v>
@@ -39398,7 +39412,7 @@
       </c>
       <c r="B159" s="27"/>
       <c r="C159" s="28" t="s">
-        <v>1497</v>
+        <v>1480</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>1346</v>
@@ -39414,7 +39428,7 @@
       </c>
       <c r="B160" s="27"/>
       <c r="C160" s="28" t="s">
-        <v>1498</v>
+        <v>1481</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>1347</v>
@@ -39444,7 +39458,7 @@
       </c>
       <c r="B162" s="32"/>
       <c r="C162" s="68" t="s">
-        <v>2080</v>
+        <v>2062</v>
       </c>
       <c r="D162" s="32" t="s">
         <v>1348</v>
@@ -39460,7 +39474,7 @@
       </c>
       <c r="B163" s="32"/>
       <c r="C163" s="30" t="s">
-        <v>1499</v>
+        <v>1482</v>
       </c>
       <c r="D163" s="32" t="s">
         <v>1349</v>
@@ -39476,7 +39490,7 @@
       </c>
       <c r="B164" s="32"/>
       <c r="C164" s="30" t="s">
-        <v>1500</v>
+        <v>1483</v>
       </c>
       <c r="D164" s="32" t="s">
         <v>1350</v>
@@ -39508,7 +39522,7 @@
       </c>
       <c r="B166" s="32"/>
       <c r="C166" s="68" t="s">
-        <v>2052</v>
+        <v>2034</v>
       </c>
       <c r="D166" s="32" t="s">
         <v>1351</v>
@@ -39524,7 +39538,7 @@
       </c>
       <c r="B167" s="32"/>
       <c r="C167" s="30" t="s">
-        <v>1501</v>
+        <v>1484</v>
       </c>
       <c r="D167" s="35" t="s">
         <v>1252</v>
@@ -39540,7 +39554,7 @@
       </c>
       <c r="B168" s="32"/>
       <c r="C168" s="44" t="s">
-        <v>2077</v>
+        <v>2059</v>
       </c>
       <c r="D168" s="35" t="s">
         <v>1246</v>
@@ -39556,7 +39570,7 @@
       </c>
       <c r="B169" s="32"/>
       <c r="C169" s="61" t="s">
-        <v>2078</v>
+        <v>2060</v>
       </c>
       <c r="D169" s="35" t="s">
         <v>1247</v>
@@ -39572,7 +39586,7 @@
       </c>
       <c r="B170" s="32"/>
       <c r="C170" s="61" t="s">
-        <v>2079</v>
+        <v>2061</v>
       </c>
       <c r="D170" s="35" t="s">
         <v>1250</v>
@@ -39630,7 +39644,7 @@
       </c>
       <c r="B174" s="32"/>
       <c r="C174" s="61" t="s">
-        <v>1503</v>
+        <v>1486</v>
       </c>
       <c r="D174" s="32" t="s">
         <v>987</v>
@@ -39646,7 +39660,7 @@
       </c>
       <c r="B175" s="36"/>
       <c r="C175" s="68" t="s">
-        <v>2051</v>
+        <v>2033</v>
       </c>
       <c r="D175" s="36" t="s">
         <v>1352</v>
@@ -39662,7 +39676,7 @@
       </c>
       <c r="B176" s="36"/>
       <c r="C176" s="61" t="s">
-        <v>1504</v>
+        <v>1487</v>
       </c>
       <c r="D176" s="37" t="s">
         <v>1353</v>
@@ -39742,7 +39756,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>1505</v>
+        <v>1488</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>139</v>
@@ -39758,7 +39772,7 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="69" t="s">
-        <v>1506</v>
+        <v>1489</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>140</v>
@@ -39774,7 +39788,7 @@
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="69" t="s">
-        <v>1507</v>
+        <v>1490</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>141</v>
@@ -39790,7 +39804,7 @@
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="69" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>142</v>
@@ -39806,7 +39820,7 @@
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="69" t="s">
-        <v>1509</v>
+        <v>1492</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>143</v>
@@ -39822,7 +39836,7 @@
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="69" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>144</v>
@@ -39838,7 +39852,7 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="69" t="s">
-        <v>1511</v>
+        <v>1494</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>1027</v>
@@ -39854,7 +39868,7 @@
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="69" t="s">
-        <v>1512</v>
+        <v>1495</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>145</v>
@@ -39870,7 +39884,7 @@
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="69" t="s">
-        <v>1513</v>
+        <v>1496</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>1107</v>
@@ -39886,7 +39900,7 @@
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="69" t="s">
-        <v>1514</v>
+        <v>1497</v>
       </c>
       <c r="D11" s="44" t="s">
         <v>146</v>
@@ -39902,7 +39916,7 @@
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="69" t="s">
-        <v>1515</v>
+        <v>1498</v>
       </c>
       <c r="D12" s="44" t="s">
         <v>147</v>
@@ -39918,7 +39932,7 @@
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="70" t="s">
-        <v>2061</v>
+        <v>2043</v>
       </c>
       <c r="D13" s="49" t="s">
         <v>1042</v>
@@ -39934,7 +39948,7 @@
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="69" t="s">
-        <v>1516</v>
+        <v>1499</v>
       </c>
       <c r="D14" s="48" t="s">
         <v>148</v>
@@ -39966,7 +39980,7 @@
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="69" t="s">
-        <v>1517</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>149</v>
@@ -39982,7 +39996,7 @@
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="69" t="s">
-        <v>1518</v>
+        <v>1501</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>1109</v>
@@ -39998,7 +40012,7 @@
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="69" t="s">
-        <v>1519</v>
+        <v>1502</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>1110</v>
@@ -40014,7 +40028,7 @@
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="69" t="s">
-        <v>1520</v>
+        <v>1503</v>
       </c>
       <c r="D19" s="48" t="s">
         <v>944</v>
@@ -40030,7 +40044,7 @@
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="69" t="s">
-        <v>1521</v>
+        <v>1504</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>1080</v>
@@ -40046,7 +40060,7 @@
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="69" t="s">
-        <v>1522</v>
+        <v>1505</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>150</v>
@@ -40062,7 +40076,7 @@
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="69" t="s">
-        <v>1523</v>
+        <v>1506</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>151</v>
@@ -40078,7 +40092,7 @@
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="69" t="s">
-        <v>1524</v>
+        <v>1507</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>152</v>
@@ -40094,7 +40108,7 @@
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="69" t="s">
-        <v>1525</v>
+        <v>1508</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>153</v>
@@ -40110,7 +40124,7 @@
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="69" t="s">
-        <v>1526</v>
+        <v>1509</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>154</v>
@@ -40126,7 +40140,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="69" t="s">
-        <v>1527</v>
+        <v>1510</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>1075</v>
@@ -40142,7 +40156,7 @@
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="69" t="s">
-        <v>1528</v>
+        <v>1511</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>1202</v>
@@ -40158,7 +40172,7 @@
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="69" t="s">
-        <v>1529</v>
+        <v>1512</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>1203</v>
@@ -40174,7 +40188,7 @@
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="69" t="s">
-        <v>1530</v>
+        <v>1513</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>155</v>
@@ -40190,7 +40204,7 @@
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="69" t="s">
-        <v>1531</v>
+        <v>1514</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>1222</v>
@@ -40206,7 +40220,7 @@
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="69" t="s">
-        <v>1532</v>
+        <v>1515</v>
       </c>
       <c r="D31" s="49" t="s">
         <v>1060</v>
@@ -40222,7 +40236,7 @@
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="69" t="s">
-        <v>1533</v>
+        <v>1516</v>
       </c>
       <c r="D32" s="48" t="s">
         <v>156</v>
@@ -40238,7 +40252,7 @@
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="69" t="s">
-        <v>1534</v>
+        <v>1517</v>
       </c>
       <c r="D33" s="48" t="s">
         <v>1111</v>
@@ -40254,7 +40268,7 @@
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="69" t="s">
-        <v>1535</v>
+        <v>1518</v>
       </c>
       <c r="D34" s="48" t="s">
         <v>157</v>
@@ -40286,7 +40300,7 @@
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="69" t="s">
-        <v>1536</v>
+        <v>1519</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>945</v>
@@ -40302,7 +40316,7 @@
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="69" t="s">
-        <v>1537</v>
+        <v>1520</v>
       </c>
       <c r="D37" s="48" t="s">
         <v>159</v>
@@ -40318,7 +40332,7 @@
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="69" t="s">
-        <v>1538</v>
+        <v>1521</v>
       </c>
       <c r="D38" s="49" t="s">
         <v>1033</v>
@@ -40350,7 +40364,7 @@
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="69" t="s">
-        <v>1539</v>
+        <v>1522</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>947</v>
@@ -40366,7 +40380,7 @@
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="69" t="s">
-        <v>1540</v>
+        <v>1523</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>160</v>
@@ -40382,7 +40396,7 @@
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="69" t="s">
-        <v>1541</v>
+        <v>1524</v>
       </c>
       <c r="D42" s="48" t="s">
         <v>161</v>
@@ -40430,7 +40444,7 @@
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="69" t="s">
-        <v>1542</v>
+        <v>1525</v>
       </c>
       <c r="D45" s="48" t="s">
         <v>948</v>
@@ -40446,7 +40460,7 @@
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="69" t="s">
-        <v>1543</v>
+        <v>1526</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>949</v>
@@ -40462,7 +40476,7 @@
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="69" t="s">
-        <v>1544</v>
+        <v>1527</v>
       </c>
       <c r="D47" s="48" t="s">
         <v>164</v>
@@ -40478,7 +40492,7 @@
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="69" t="s">
-        <v>1545</v>
+        <v>1528</v>
       </c>
       <c r="D48" s="48" t="s">
         <v>165</v>
@@ -40494,7 +40508,7 @@
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="69" t="s">
-        <v>1546</v>
+        <v>1529</v>
       </c>
       <c r="D49" s="48" t="s">
         <v>166</v>
@@ -40510,7 +40524,7 @@
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="69" t="s">
-        <v>1547</v>
+        <v>1530</v>
       </c>
       <c r="D50" s="48" t="s">
         <v>167</v>
@@ -40526,7 +40540,7 @@
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="69" t="s">
-        <v>1548</v>
+        <v>1531</v>
       </c>
       <c r="D51" s="48" t="s">
         <v>168</v>
@@ -40542,7 +40556,7 @@
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="69" t="s">
-        <v>1549</v>
+        <v>1532</v>
       </c>
       <c r="D52" s="48" t="s">
         <v>169</v>
@@ -40558,7 +40572,7 @@
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="69" t="s">
-        <v>1550</v>
+        <v>1533</v>
       </c>
       <c r="D53" s="48" t="s">
         <v>1183</v>
@@ -40574,7 +40588,7 @@
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="69" t="s">
-        <v>1551</v>
+        <v>1534</v>
       </c>
       <c r="D54" s="49" t="s">
         <v>1030</v>
@@ -40590,7 +40604,7 @@
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="69" t="s">
-        <v>1552</v>
+        <v>1535</v>
       </c>
       <c r="D55" s="49" t="s">
         <v>1077</v>
@@ -40638,7 +40652,7 @@
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="69" t="s">
-        <v>1553</v>
+        <v>1536</v>
       </c>
       <c r="D58" s="48" t="s">
         <v>172</v>
@@ -40654,7 +40668,7 @@
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="69" t="s">
-        <v>1554</v>
+        <v>1537</v>
       </c>
       <c r="D59" s="48" t="s">
         <v>950</v>
@@ -40670,7 +40684,7 @@
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="69" t="s">
-        <v>1555</v>
+        <v>1538</v>
       </c>
       <c r="D60" s="49" t="s">
         <v>1084</v>
@@ -40686,7 +40700,7 @@
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="69" t="s">
-        <v>1556</v>
+        <v>1539</v>
       </c>
       <c r="D61" s="49" t="s">
         <v>1209</v>
@@ -40702,7 +40716,7 @@
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="69" t="s">
-        <v>1557</v>
+        <v>1540</v>
       </c>
       <c r="D62" s="48" t="s">
         <v>1223</v>
@@ -40718,7 +40732,7 @@
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="69" t="s">
-        <v>1558</v>
+        <v>1541</v>
       </c>
       <c r="D63" s="48" t="s">
         <v>173</v>
@@ -40734,7 +40748,7 @@
       </c>
       <c r="B64" s="48"/>
       <c r="C64" s="69" t="s">
-        <v>1559</v>
+        <v>1542</v>
       </c>
       <c r="D64" s="48" t="s">
         <v>1126</v>
@@ -40750,7 +40764,7 @@
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="69" t="s">
-        <v>1560</v>
+        <v>1543</v>
       </c>
       <c r="D65" s="48" t="s">
         <v>174</v>
@@ -40782,7 +40796,7 @@
       </c>
       <c r="B67" s="48"/>
       <c r="C67" s="69" t="s">
-        <v>1561</v>
+        <v>1544</v>
       </c>
       <c r="D67" s="49" t="s">
         <v>952</v>
@@ -40798,7 +40812,7 @@
       </c>
       <c r="B68" s="48"/>
       <c r="C68" s="69" t="s">
-        <v>1562</v>
+        <v>1545</v>
       </c>
       <c r="D68" s="49" t="s">
         <v>1171</v>
@@ -40814,7 +40828,7 @@
       </c>
       <c r="B69" s="48"/>
       <c r="C69" s="69" t="s">
-        <v>1563</v>
+        <v>1546</v>
       </c>
       <c r="D69" s="48" t="s">
         <v>175</v>
@@ -40830,7 +40844,7 @@
       </c>
       <c r="B70" s="48"/>
       <c r="C70" s="69" t="s">
-        <v>1564</v>
+        <v>1547</v>
       </c>
       <c r="D70" s="49" t="s">
         <v>1212</v>
@@ -40878,7 +40892,7 @@
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="69" t="s">
-        <v>1565</v>
+        <v>1548</v>
       </c>
       <c r="D73" s="48" t="s">
         <v>1055</v>
@@ -40894,7 +40908,7 @@
       </c>
       <c r="B74" s="48"/>
       <c r="C74" s="69" t="s">
-        <v>1566</v>
+        <v>1549</v>
       </c>
       <c r="D74" s="48" t="s">
         <v>177</v>
@@ -40926,7 +40940,7 @@
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="69" t="s">
-        <v>1567</v>
+        <v>1550</v>
       </c>
       <c r="D76" s="48" t="s">
         <v>179</v>
@@ -40942,7 +40956,7 @@
       </c>
       <c r="B77" s="48"/>
       <c r="C77" s="69" t="s">
-        <v>1568</v>
+        <v>1551</v>
       </c>
       <c r="D77" s="48" t="s">
         <v>1114</v>
@@ -40958,7 +40972,7 @@
       </c>
       <c r="B78" s="48"/>
       <c r="C78" s="69" t="s">
-        <v>1569</v>
+        <v>1552</v>
       </c>
       <c r="D78" s="48" t="s">
         <v>180</v>
@@ -40974,7 +40988,7 @@
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="69" t="s">
-        <v>1570</v>
+        <v>1553</v>
       </c>
       <c r="D79" s="48" t="s">
         <v>181</v>
@@ -41006,7 +41020,7 @@
       </c>
       <c r="B81" s="48"/>
       <c r="C81" s="69" t="s">
-        <v>1571</v>
+        <v>1554</v>
       </c>
       <c r="D81" s="48" t="s">
         <v>183</v>
@@ -41022,7 +41036,7 @@
       </c>
       <c r="B82" s="48"/>
       <c r="C82" s="69" t="s">
-        <v>1572</v>
+        <v>1555</v>
       </c>
       <c r="D82" s="48" t="s">
         <v>954</v>
@@ -41038,7 +41052,7 @@
       </c>
       <c r="B83" s="48"/>
       <c r="C83" s="69" t="s">
-        <v>1573</v>
+        <v>1556</v>
       </c>
       <c r="D83" s="48" t="s">
         <v>184</v>
@@ -41054,7 +41068,7 @@
       </c>
       <c r="B84" s="48"/>
       <c r="C84" s="69" t="s">
-        <v>1574</v>
+        <v>1557</v>
       </c>
       <c r="D84" s="48" t="s">
         <v>185</v>
@@ -41070,7 +41084,7 @@
       </c>
       <c r="B85" s="48"/>
       <c r="C85" s="69" t="s">
-        <v>1575</v>
+        <v>1558</v>
       </c>
       <c r="D85" s="48" t="s">
         <v>186</v>
@@ -41102,7 +41116,7 @@
       </c>
       <c r="B87" s="48"/>
       <c r="C87" s="69" t="s">
-        <v>1576</v>
+        <v>1559</v>
       </c>
       <c r="D87" s="49" t="s">
         <v>1036</v>
@@ -41150,7 +41164,7 @@
       </c>
       <c r="B90" s="48"/>
       <c r="C90" s="69" t="s">
-        <v>1577</v>
+        <v>1560</v>
       </c>
       <c r="D90" s="48" t="s">
         <v>189</v>
@@ -41166,7 +41180,7 @@
       </c>
       <c r="B91" s="48"/>
       <c r="C91" s="69" t="s">
-        <v>1578</v>
+        <v>1561</v>
       </c>
       <c r="D91" s="49" t="s">
         <v>955</v>
@@ -41198,7 +41212,7 @@
       </c>
       <c r="B93" s="48"/>
       <c r="C93" s="69" t="s">
-        <v>1579</v>
+        <v>1562</v>
       </c>
       <c r="D93" s="49" t="s">
         <v>1194</v>
@@ -41214,7 +41228,7 @@
       </c>
       <c r="B94" s="48"/>
       <c r="C94" s="69" t="s">
-        <v>1580</v>
+        <v>1563</v>
       </c>
       <c r="D94" s="48" t="s">
         <v>1115</v>
@@ -41230,7 +41244,7 @@
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="69" t="s">
-        <v>1581</v>
+        <v>1564</v>
       </c>
       <c r="D95" s="49" t="s">
         <v>1179</v>
@@ -41278,7 +41292,7 @@
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="69" t="s">
-        <v>1582</v>
+        <v>1565</v>
       </c>
       <c r="D98" s="49" t="s">
         <v>1215</v>
@@ -41294,7 +41308,7 @@
       </c>
       <c r="B99" s="48"/>
       <c r="C99" s="69" t="s">
-        <v>1583</v>
+        <v>1566</v>
       </c>
       <c r="D99" s="48" t="s">
         <v>193</v>
@@ -41310,7 +41324,7 @@
       </c>
       <c r="B100" s="48"/>
       <c r="C100" s="69" t="s">
-        <v>1584</v>
+        <v>1567</v>
       </c>
       <c r="D100" s="48" t="s">
         <v>194</v>
@@ -41326,7 +41340,7 @@
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="71" t="s">
-        <v>1585</v>
+        <v>1568</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>1034</v>
@@ -41342,7 +41356,7 @@
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="71" t="s">
-        <v>1586</v>
+        <v>1569</v>
       </c>
       <c r="D102" s="48" t="s">
         <v>195</v>
@@ -41358,7 +41372,7 @@
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="71" t="s">
-        <v>1587</v>
+        <v>1570</v>
       </c>
       <c r="D103" s="48" t="s">
         <v>196</v>
@@ -41376,7 +41390,7 @@
         <v>74</v>
       </c>
       <c r="C104" s="69" t="s">
-        <v>2062</v>
+        <v>2044</v>
       </c>
       <c r="D104" s="48" t="s">
         <v>197</v>
@@ -41392,7 +41406,7 @@
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="69" t="s">
-        <v>2063</v>
+        <v>2045</v>
       </c>
       <c r="D105" s="48" t="s">
         <v>198</v>
@@ -41408,7 +41422,7 @@
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="69" t="s">
-        <v>1588</v>
+        <v>1571</v>
       </c>
       <c r="D106" s="48" t="s">
         <v>1006</v>
@@ -41424,7 +41438,7 @@
       </c>
       <c r="B107" s="48"/>
       <c r="C107" s="71" t="s">
-        <v>1589</v>
+        <v>1572</v>
       </c>
       <c r="D107" s="49" t="s">
         <v>1189</v>
@@ -41440,7 +41454,7 @@
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="69" t="s">
-        <v>1590</v>
+        <v>1573</v>
       </c>
       <c r="D108" s="48" t="s">
         <v>956</v>
@@ -41456,7 +41470,7 @@
       </c>
       <c r="B109" s="48"/>
       <c r="C109" s="69" t="s">
-        <v>1591</v>
+        <v>1574</v>
       </c>
       <c r="D109" s="48" t="s">
         <v>1012</v>
@@ -41472,7 +41486,7 @@
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="69" t="s">
-        <v>1592</v>
+        <v>1575</v>
       </c>
       <c r="D110" s="48" t="s">
         <v>1025</v>
@@ -41488,7 +41502,7 @@
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="69" t="s">
-        <v>1593</v>
+        <v>1576</v>
       </c>
       <c r="D111" s="48" t="s">
         <v>1041</v>
@@ -41504,7 +41518,7 @@
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="69" t="s">
-        <v>1594</v>
+        <v>1577</v>
       </c>
       <c r="D112" s="48" t="s">
         <v>1044</v>
@@ -41520,7 +41534,7 @@
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="69" t="s">
-        <v>1595</v>
+        <v>1578</v>
       </c>
       <c r="D113" s="48" t="s">
         <v>1182</v>
@@ -41536,7 +41550,7 @@
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="71" t="s">
-        <v>1618</v>
+        <v>1601</v>
       </c>
       <c r="D114" s="49" t="s">
         <v>1187</v>
@@ -41552,7 +41566,7 @@
       </c>
       <c r="B115" s="48"/>
       <c r="C115" s="71" t="s">
-        <v>1596</v>
+        <v>1579</v>
       </c>
       <c r="D115" s="48" t="s">
         <v>1043</v>
@@ -41568,7 +41582,7 @@
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="69" t="s">
-        <v>1597</v>
+        <v>1580</v>
       </c>
       <c r="D116" s="48" t="s">
         <v>957</v>
@@ -41584,7 +41598,7 @@
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="69" t="s">
-        <v>1598</v>
+        <v>1581</v>
       </c>
       <c r="D117" s="48" t="s">
         <v>1221</v>
@@ -41600,7 +41614,7 @@
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="69" t="s">
-        <v>1599</v>
+        <v>1582</v>
       </c>
       <c r="D118" s="48" t="s">
         <v>1049</v>
@@ -41616,7 +41630,7 @@
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="69" t="s">
-        <v>1600</v>
+        <v>1583</v>
       </c>
       <c r="D119" s="49" t="s">
         <v>1059</v>
@@ -41632,7 +41646,7 @@
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="71" t="s">
-        <v>2082</v>
+        <v>2064</v>
       </c>
       <c r="D120" s="48" t="s">
         <v>958</v>
@@ -41648,7 +41662,7 @@
       </c>
       <c r="B121" s="48"/>
       <c r="C121" s="69" t="s">
-        <v>1601</v>
+        <v>1584</v>
       </c>
       <c r="D121" s="49" t="s">
         <v>1066</v>
@@ -41664,7 +41678,7 @@
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="71" t="s">
-        <v>1602</v>
+        <v>1585</v>
       </c>
       <c r="D122" s="49" t="s">
         <v>1162</v>
@@ -41680,7 +41694,7 @@
       </c>
       <c r="B123" s="48"/>
       <c r="C123" s="69" t="s">
-        <v>1603</v>
+        <v>1586</v>
       </c>
       <c r="D123" s="49" t="s">
         <v>1218</v>
@@ -41696,7 +41710,7 @@
       </c>
       <c r="B124" s="48"/>
       <c r="C124" s="71" t="s">
-        <v>1604</v>
+        <v>1587</v>
       </c>
       <c r="D124" s="48" t="s">
         <v>1167</v>
@@ -41712,7 +41726,7 @@
       </c>
       <c r="B125" s="48"/>
       <c r="C125" s="69" t="s">
-        <v>1605</v>
+        <v>1588</v>
       </c>
       <c r="D125" s="48" t="s">
         <v>199</v>
@@ -41728,7 +41742,7 @@
       </c>
       <c r="B126" s="48"/>
       <c r="C126" s="71" t="s">
-        <v>1606</v>
+        <v>1589</v>
       </c>
       <c r="D126" s="48" t="s">
         <v>1085</v>
@@ -41744,7 +41758,7 @@
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="69" t="s">
-        <v>1607</v>
+        <v>1590</v>
       </c>
       <c r="D127" s="44" t="s">
         <v>200</v>
@@ -41760,7 +41774,7 @@
       </c>
       <c r="B128" s="48"/>
       <c r="C128" s="71" t="s">
-        <v>1608</v>
+        <v>1591</v>
       </c>
       <c r="D128" s="48" t="s">
         <v>959</v>
@@ -41776,7 +41790,7 @@
       </c>
       <c r="B129" s="48"/>
       <c r="C129" s="69" t="s">
-        <v>1609</v>
+        <v>1592</v>
       </c>
       <c r="D129" s="48" t="s">
         <v>201</v>
@@ -41792,7 +41806,7 @@
       </c>
       <c r="B130" s="48"/>
       <c r="C130" s="69" t="s">
-        <v>1610</v>
+        <v>1593</v>
       </c>
       <c r="D130" s="48" t="s">
         <v>1204</v>
@@ -41808,7 +41822,7 @@
       </c>
       <c r="B131" s="48"/>
       <c r="C131" s="69" t="s">
-        <v>1611</v>
+        <v>1594</v>
       </c>
       <c r="D131" s="48" t="s">
         <v>1001</v>
@@ -41840,7 +41854,7 @@
       </c>
       <c r="B133" s="48"/>
       <c r="C133" s="69" t="s">
-        <v>1612</v>
+        <v>1595</v>
       </c>
       <c r="D133" s="48" t="s">
         <v>1061</v>
@@ -41856,7 +41870,7 @@
       </c>
       <c r="B134" s="48"/>
       <c r="C134" s="69" t="s">
-        <v>1613</v>
+        <v>1596</v>
       </c>
       <c r="D134" s="48" t="s">
         <v>1057</v>
@@ -41872,7 +41886,7 @@
       </c>
       <c r="B135" s="48"/>
       <c r="C135" s="69" t="s">
-        <v>1614</v>
+        <v>1597</v>
       </c>
       <c r="D135" s="49" t="s">
         <v>1082</v>
@@ -41888,7 +41902,7 @@
       </c>
       <c r="B136" s="48"/>
       <c r="C136" s="69" t="s">
-        <v>1615</v>
+        <v>1598</v>
       </c>
       <c r="D136" s="48" t="s">
         <v>203</v>
@@ -41904,7 +41918,7 @@
       </c>
       <c r="B137" s="48"/>
       <c r="C137" s="69" t="s">
-        <v>1616</v>
+        <v>1599</v>
       </c>
       <c r="D137" s="48" t="s">
         <v>1015</v>
@@ -41920,7 +41934,7 @@
       </c>
       <c r="B138" s="48"/>
       <c r="C138" s="69" t="s">
-        <v>1617</v>
+        <v>1600</v>
       </c>
       <c r="D138" s="48" t="s">
         <v>960</v>
@@ -41936,7 +41950,7 @@
       </c>
       <c r="B139" s="48"/>
       <c r="C139" s="69" t="s">
-        <v>2065</v>
+        <v>2047</v>
       </c>
       <c r="D139" s="48" t="s">
         <v>204</v>
@@ -41952,7 +41966,7 @@
       </c>
       <c r="B140" s="48"/>
       <c r="C140" s="69" t="s">
-        <v>2064</v>
+        <v>2046</v>
       </c>
       <c r="D140" s="48" t="s">
         <v>1050</v>
@@ -41968,7 +41982,7 @@
       </c>
       <c r="B141" s="48"/>
       <c r="C141" s="69" t="s">
-        <v>1619</v>
+        <v>1602</v>
       </c>
       <c r="D141" s="48" t="s">
         <v>1219</v>
@@ -41984,7 +41998,7 @@
       </c>
       <c r="B142" s="48"/>
       <c r="C142" s="69" t="s">
-        <v>1620</v>
+        <v>1603</v>
       </c>
       <c r="D142" s="48" t="s">
         <v>1003</v>
@@ -42000,7 +42014,7 @@
       </c>
       <c r="B143" s="48"/>
       <c r="C143" s="69" t="s">
-        <v>1621</v>
+        <v>1604</v>
       </c>
       <c r="D143" s="48" t="s">
         <v>1016</v>
@@ -42016,7 +42030,7 @@
       </c>
       <c r="B144" s="48"/>
       <c r="C144" s="71" t="s">
-        <v>1622</v>
+        <v>1605</v>
       </c>
       <c r="D144" s="48" t="s">
         <v>1017</v>
@@ -42032,7 +42046,7 @@
       </c>
       <c r="B145" s="48"/>
       <c r="C145" s="69" t="s">
-        <v>1623</v>
+        <v>1606</v>
       </c>
       <c r="D145" s="48" t="s">
         <v>205</v>
@@ -42048,7 +42062,7 @@
       </c>
       <c r="B146" s="48"/>
       <c r="C146" s="71" t="s">
-        <v>1624</v>
+        <v>1607</v>
       </c>
       <c r="D146" s="48" t="s">
         <v>1020</v>
@@ -42064,7 +42078,7 @@
       </c>
       <c r="B147" s="48"/>
       <c r="C147" s="69" t="s">
-        <v>1625</v>
+        <v>1608</v>
       </c>
       <c r="D147" s="48" t="s">
         <v>206</v>
@@ -42080,7 +42094,7 @@
       </c>
       <c r="B148" s="48"/>
       <c r="C148" s="69" t="s">
-        <v>1626</v>
+        <v>1609</v>
       </c>
       <c r="D148" s="48" t="s">
         <v>207</v>
@@ -42096,7 +42110,7 @@
       </c>
       <c r="B149" s="48"/>
       <c r="C149" s="69" t="s">
-        <v>1627</v>
+        <v>1610</v>
       </c>
       <c r="D149" s="48" t="s">
         <v>961</v>
@@ -42112,7 +42126,7 @@
       </c>
       <c r="B150" s="48"/>
       <c r="C150" s="69" t="s">
-        <v>1628</v>
+        <v>1611</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>1021</v>
@@ -42128,7 +42142,7 @@
       </c>
       <c r="B151" s="48"/>
       <c r="C151" s="69" t="s">
-        <v>1629</v>
+        <v>1612</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>1023</v>
@@ -42144,7 +42158,7 @@
       </c>
       <c r="B152" s="48"/>
       <c r="C152" s="71" t="s">
-        <v>1630</v>
+        <v>1613</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>1051</v>
@@ -42160,7 +42174,7 @@
       </c>
       <c r="B153" s="48"/>
       <c r="C153" s="69" t="s">
-        <v>1631</v>
+        <v>1614</v>
       </c>
       <c r="D153" s="48" t="s">
         <v>962</v>
@@ -42176,7 +42190,7 @@
       </c>
       <c r="B154" s="48"/>
       <c r="C154" s="71" t="s">
-        <v>1632</v>
+        <v>1615</v>
       </c>
       <c r="D154" s="49" t="s">
         <v>1008</v>
@@ -42192,7 +42206,7 @@
       </c>
       <c r="B155" s="48"/>
       <c r="C155" s="69" t="s">
-        <v>1633</v>
+        <v>1616</v>
       </c>
       <c r="D155" s="49" t="s">
         <v>1185</v>
@@ -42208,7 +42222,7 @@
       </c>
       <c r="B156" s="48"/>
       <c r="C156" s="69" t="s">
-        <v>2066</v>
+        <v>2048</v>
       </c>
       <c r="D156" s="48" t="s">
         <v>1029</v>
@@ -42224,7 +42238,7 @@
       </c>
       <c r="B157" s="48"/>
       <c r="C157" s="69" t="s">
-        <v>1634</v>
+        <v>1617</v>
       </c>
       <c r="D157" s="48" t="s">
         <v>1076</v>
@@ -42240,7 +42254,7 @@
       </c>
       <c r="B158" s="48"/>
       <c r="C158" s="71" t="s">
-        <v>1635</v>
+        <v>1618</v>
       </c>
       <c r="D158" s="48" t="s">
         <v>1195</v>
@@ -42256,7 +42270,7 @@
       </c>
       <c r="B159" s="48"/>
       <c r="C159" s="69" t="s">
-        <v>1636</v>
+        <v>1619</v>
       </c>
       <c r="D159" s="48" t="s">
         <v>1004</v>
@@ -42272,7 +42286,7 @@
       </c>
       <c r="B160" s="48"/>
       <c r="C160" s="69" t="s">
-        <v>1637</v>
+        <v>1620</v>
       </c>
       <c r="D160" s="48" t="s">
         <v>1018</v>
@@ -42288,7 +42302,7 @@
       </c>
       <c r="B161" s="48"/>
       <c r="C161" s="69" t="s">
-        <v>1638</v>
+        <v>1621</v>
       </c>
       <c r="D161" s="48" t="s">
         <v>963</v>
@@ -42304,7 +42318,7 @@
       </c>
       <c r="B162" s="48"/>
       <c r="C162" s="69" t="s">
-        <v>1639</v>
+        <v>1622</v>
       </c>
       <c r="D162" s="48" t="s">
         <v>208</v>
@@ -42320,7 +42334,7 @@
       </c>
       <c r="B163" s="44"/>
       <c r="C163" s="69" t="s">
-        <v>1640</v>
+        <v>1623</v>
       </c>
       <c r="D163" s="44" t="s">
         <v>1208</v>
@@ -42336,7 +42350,7 @@
       </c>
       <c r="B164" s="48"/>
       <c r="C164" s="69" t="s">
-        <v>1641</v>
+        <v>1624</v>
       </c>
       <c r="D164" s="48" t="s">
         <v>1052</v>
@@ -42352,7 +42366,7 @@
       </c>
       <c r="B165" s="44"/>
       <c r="C165" s="69" t="s">
-        <v>1642</v>
+        <v>1625</v>
       </c>
       <c r="D165" s="44" t="s">
         <v>209</v>
@@ -42368,7 +42382,7 @@
       </c>
       <c r="B166" s="44"/>
       <c r="C166" s="69" t="s">
-        <v>1643</v>
+        <v>1626</v>
       </c>
       <c r="D166" s="44" t="s">
         <v>210</v>
@@ -42384,7 +42398,7 @@
       </c>
       <c r="B167" s="44"/>
       <c r="C167" s="71" t="s">
-        <v>1644</v>
+        <v>1627</v>
       </c>
       <c r="D167" s="47" t="s">
         <v>1069</v>
@@ -42400,7 +42414,7 @@
       </c>
       <c r="B168" s="44"/>
       <c r="C168" s="69" t="s">
-        <v>1645</v>
+        <v>1628</v>
       </c>
       <c r="D168" s="44" t="s">
         <v>964</v>
@@ -42416,7 +42430,7 @@
       </c>
       <c r="B169" s="44"/>
       <c r="C169" s="69" t="s">
-        <v>1646</v>
+        <v>1629</v>
       </c>
       <c r="D169" s="44" t="s">
         <v>1053</v>
@@ -42432,7 +42446,7 @@
       </c>
       <c r="B170" s="44"/>
       <c r="C170" s="71" t="s">
-        <v>1647</v>
+        <v>1630</v>
       </c>
       <c r="D170" s="47" t="s">
         <v>1173</v>
@@ -42448,7 +42462,7 @@
       </c>
       <c r="B171" s="44"/>
       <c r="C171" s="71" t="s">
-        <v>1648</v>
+        <v>1631</v>
       </c>
       <c r="D171" s="44" t="s">
         <v>1071</v>
@@ -42464,7 +42478,7 @@
       </c>
       <c r="B172" s="44"/>
       <c r="C172" s="69" t="s">
-        <v>2067</v>
+        <v>2049</v>
       </c>
       <c r="D172" s="44" t="s">
         <v>1213</v>
@@ -42480,7 +42494,7 @@
       </c>
       <c r="B173" s="44"/>
       <c r="C173" s="69" t="s">
-        <v>1649</v>
+        <v>1632</v>
       </c>
       <c r="D173" s="44" t="s">
         <v>965</v>
@@ -42496,7 +42510,7 @@
       </c>
       <c r="B174" s="44"/>
       <c r="C174" s="71" t="s">
-        <v>1650</v>
+        <v>1633</v>
       </c>
       <c r="D174" s="44" t="s">
         <v>1010</v>
@@ -42512,7 +42526,7 @@
       </c>
       <c r="B175" s="44"/>
       <c r="C175" s="69" t="s">
-        <v>1651</v>
+        <v>1634</v>
       </c>
       <c r="D175" s="44" t="s">
         <v>1039</v>
@@ -42528,7 +42542,7 @@
       </c>
       <c r="B176" s="44"/>
       <c r="C176" s="71" t="s">
-        <v>1652</v>
+        <v>1635</v>
       </c>
       <c r="D176" s="47" t="s">
         <v>1174</v>
@@ -42544,7 +42558,7 @@
       </c>
       <c r="B177" s="44"/>
       <c r="C177" s="69" t="s">
-        <v>1653</v>
+        <v>1636</v>
       </c>
       <c r="D177" s="44" t="s">
         <v>1206</v>
@@ -42560,7 +42574,7 @@
       </c>
       <c r="B178" s="44"/>
       <c r="C178" s="69" t="s">
-        <v>1654</v>
+        <v>1637</v>
       </c>
       <c r="D178" s="44" t="s">
         <v>1201</v>
@@ -42576,7 +42590,7 @@
       </c>
       <c r="B179" s="44"/>
       <c r="C179" s="69" t="s">
-        <v>1655</v>
+        <v>1638</v>
       </c>
       <c r="D179" s="44" t="s">
         <v>1074</v>
@@ -42592,7 +42606,7 @@
       </c>
       <c r="B180" s="44"/>
       <c r="C180" s="69" t="s">
-        <v>1656</v>
+        <v>1639</v>
       </c>
       <c r="D180" s="47" t="s">
         <v>1083</v>
@@ -42608,7 +42622,7 @@
       </c>
       <c r="B181" s="44"/>
       <c r="C181" s="71" t="s">
-        <v>1657</v>
+        <v>1640</v>
       </c>
       <c r="D181" s="44" t="s">
         <v>966</v>
@@ -42624,7 +42638,7 @@
       </c>
       <c r="B182" s="44"/>
       <c r="C182" s="71" t="s">
-        <v>1658</v>
+        <v>1641</v>
       </c>
       <c r="D182" s="44" t="s">
         <v>1224</v>
@@ -42640,7 +42654,7 @@
       </c>
       <c r="B183" s="44"/>
       <c r="C183" s="69" t="s">
-        <v>1659</v>
+        <v>1642</v>
       </c>
       <c r="D183" s="47" t="s">
         <v>1199</v>
@@ -42656,7 +42670,7 @@
       </c>
       <c r="B184" s="44"/>
       <c r="C184" s="69" t="s">
-        <v>1660</v>
+        <v>1643</v>
       </c>
       <c r="D184" s="44" t="s">
         <v>211</v>
@@ -42672,7 +42686,7 @@
       </c>
       <c r="B185" s="44"/>
       <c r="C185" s="69" t="s">
-        <v>1661</v>
+        <v>1644</v>
       </c>
       <c r="D185" s="47" t="s">
         <v>1007</v>
@@ -42688,7 +42702,7 @@
       </c>
       <c r="B186" s="44"/>
       <c r="C186" s="69" t="s">
-        <v>1662</v>
+        <v>1645</v>
       </c>
       <c r="D186" s="44" t="s">
         <v>1005</v>
@@ -42704,7 +42718,7 @@
       </c>
       <c r="B187" s="44"/>
       <c r="C187" s="69" t="s">
-        <v>1663</v>
+        <v>1646</v>
       </c>
       <c r="D187" s="44" t="s">
         <v>1009</v>
@@ -42720,7 +42734,7 @@
       </c>
       <c r="B188" s="44"/>
       <c r="C188" s="69" t="s">
-        <v>1664</v>
+        <v>1647</v>
       </c>
       <c r="D188" s="44" t="s">
         <v>1170</v>
@@ -42736,7 +42750,7 @@
       </c>
       <c r="B189" s="44"/>
       <c r="C189" s="69" t="s">
-        <v>1665</v>
+        <v>1648</v>
       </c>
       <c r="D189" s="44" t="s">
         <v>1037</v>
@@ -42752,7 +42766,7 @@
       </c>
       <c r="B190" s="44"/>
       <c r="C190" s="72" t="s">
-        <v>1666</v>
+        <v>1649</v>
       </c>
       <c r="D190" s="44" t="s">
         <v>1064</v>
@@ -42768,7 +42782,7 @@
       </c>
       <c r="B191" s="44"/>
       <c r="C191" s="71" t="s">
-        <v>1667</v>
+        <v>1650</v>
       </c>
       <c r="D191" s="44" t="s">
         <v>1197</v>
@@ -42784,7 +42798,7 @@
       </c>
       <c r="B192" s="44"/>
       <c r="C192" s="69" t="s">
-        <v>1668</v>
+        <v>1651</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>212</v>
@@ -42800,7 +42814,7 @@
       </c>
       <c r="B193" s="44"/>
       <c r="C193" s="69" t="s">
-        <v>1669</v>
+        <v>1652</v>
       </c>
       <c r="D193" s="44" t="s">
         <v>1002</v>
@@ -42816,7 +42830,7 @@
       </c>
       <c r="B194" s="44"/>
       <c r="C194" s="69" t="s">
-        <v>1670</v>
+        <v>1653</v>
       </c>
       <c r="D194" s="47" t="s">
         <v>1078</v>
@@ -42832,7 +42846,7 @@
       </c>
       <c r="B195" s="44"/>
       <c r="C195" s="69" t="s">
-        <v>1671</v>
+        <v>1654</v>
       </c>
       <c r="D195" s="44" t="s">
         <v>213</v>
@@ -42848,7 +42862,7 @@
       </c>
       <c r="B196" s="44"/>
       <c r="C196" s="71" t="s">
-        <v>1672</v>
+        <v>1655</v>
       </c>
       <c r="D196" s="44" t="s">
         <v>214</v>
@@ -42864,7 +42878,7 @@
       </c>
       <c r="B197" s="44"/>
       <c r="C197" s="71" t="s">
-        <v>1673</v>
+        <v>1656</v>
       </c>
       <c r="D197" s="44" t="s">
         <v>1178</v>
@@ -42880,7 +42894,7 @@
       </c>
       <c r="B198" s="44"/>
       <c r="C198" s="69" t="s">
-        <v>1674</v>
+        <v>1657</v>
       </c>
       <c r="D198" s="44" t="s">
         <v>1180</v>
@@ -42896,7 +42910,7 @@
       </c>
       <c r="B199" s="44"/>
       <c r="C199" s="72" t="s">
-        <v>1675</v>
+        <v>1658</v>
       </c>
       <c r="D199" s="44" t="s">
         <v>215</v>
@@ -42912,7 +42926,7 @@
       </c>
       <c r="B200" s="44"/>
       <c r="C200" s="72" t="s">
-        <v>1676</v>
+        <v>1659</v>
       </c>
       <c r="D200" s="44" t="s">
         <v>967</v>
@@ -42928,7 +42942,7 @@
       </c>
       <c r="B201" s="44"/>
       <c r="C201" s="71" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="D201" s="44" t="s">
         <v>1035</v>
@@ -42944,7 +42958,7 @@
       </c>
       <c r="B202" s="44"/>
       <c r="C202" s="71" t="s">
-        <v>1678</v>
+        <v>1661</v>
       </c>
       <c r="D202" s="44" t="s">
         <v>968</v>
@@ -42960,7 +42974,7 @@
       </c>
       <c r="B203" s="44"/>
       <c r="C203" s="71" t="s">
-        <v>1679</v>
+        <v>1662</v>
       </c>
       <c r="D203" s="44" t="s">
         <v>216</v>
@@ -42976,7 +42990,7 @@
       </c>
       <c r="B204" s="44"/>
       <c r="C204" s="71" t="s">
-        <v>1680</v>
+        <v>1663</v>
       </c>
       <c r="D204" s="44" t="s">
         <v>217</v>
@@ -42994,7 +43008,7 @@
         <v>75</v>
       </c>
       <c r="C205" s="72" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
       <c r="D205" s="56" t="s">
         <v>994</v>
@@ -43010,7 +43024,7 @@
       </c>
       <c r="B206" s="44"/>
       <c r="C206" s="72" t="s">
-        <v>2068</v>
+        <v>2050</v>
       </c>
       <c r="D206" s="56" t="s">
         <v>1013</v>
@@ -43026,7 +43040,7 @@
       </c>
       <c r="B207" s="44"/>
       <c r="C207" s="72" t="s">
-        <v>2069</v>
+        <v>2051</v>
       </c>
       <c r="D207" s="58" t="s">
         <v>999</v>
@@ -43042,7 +43056,7 @@
       </c>
       <c r="B208" s="44"/>
       <c r="C208" s="72" t="s">
-        <v>1682</v>
+        <v>1665</v>
       </c>
       <c r="D208" s="58" t="s">
         <v>1190</v>
@@ -43058,7 +43072,7 @@
       </c>
       <c r="B209" s="44"/>
       <c r="C209" s="72" t="s">
-        <v>1683</v>
+        <v>1666</v>
       </c>
       <c r="D209" s="58" t="s">
         <v>1014</v>
@@ -43074,7 +43088,7 @@
       </c>
       <c r="B210" s="44"/>
       <c r="C210" s="72" t="s">
-        <v>1684</v>
+        <v>1667</v>
       </c>
       <c r="D210" s="56" t="s">
         <v>1086</v>
@@ -43090,7 +43104,7 @@
       </c>
       <c r="B211" s="44"/>
       <c r="C211" s="73" t="s">
-        <v>1685</v>
+        <v>1668</v>
       </c>
       <c r="D211" s="56" t="s">
         <v>1102</v>
@@ -43106,7 +43120,7 @@
       </c>
       <c r="B212" s="44"/>
       <c r="C212" s="69" t="s">
-        <v>1686</v>
+        <v>1669</v>
       </c>
       <c r="D212" s="58" t="s">
         <v>1040</v>
@@ -43122,7 +43136,7 @@
       </c>
       <c r="B213" s="44"/>
       <c r="C213" s="74" t="s">
-        <v>1687</v>
+        <v>1670</v>
       </c>
       <c r="D213" s="56" t="s">
         <v>1108</v>
@@ -43138,7 +43152,7 @@
       </c>
       <c r="B214" s="44"/>
       <c r="C214" s="69" t="s">
-        <v>1688</v>
+        <v>1671</v>
       </c>
       <c r="D214" s="56" t="s">
         <v>1181</v>
@@ -43154,7 +43168,7 @@
       </c>
       <c r="B215" s="44"/>
       <c r="C215" s="73" t="s">
-        <v>1689</v>
+        <v>1672</v>
       </c>
       <c r="D215" s="58" t="s">
         <v>1188</v>
@@ -43170,7 +43184,7 @@
       </c>
       <c r="B216" s="44"/>
       <c r="C216" s="73" t="s">
-        <v>1690</v>
+        <v>1673</v>
       </c>
       <c r="D216" s="56" t="s">
         <v>1087</v>
@@ -43186,7 +43200,7 @@
       </c>
       <c r="B217" s="44"/>
       <c r="C217" s="69" t="s">
-        <v>1691</v>
+        <v>1674</v>
       </c>
       <c r="D217" s="44" t="s">
         <v>1191</v>
@@ -43202,7 +43216,7 @@
       </c>
       <c r="B218" s="44"/>
       <c r="C218" s="73" t="s">
-        <v>1692</v>
+        <v>1675</v>
       </c>
       <c r="D218" s="56" t="s">
         <v>1125</v>
@@ -43218,7 +43232,7 @@
       </c>
       <c r="B219" s="44"/>
       <c r="C219" s="73" t="s">
-        <v>1693</v>
+        <v>1676</v>
       </c>
       <c r="D219" s="56" t="s">
         <v>1225</v>
@@ -43234,7 +43248,7 @@
       </c>
       <c r="B220" s="44"/>
       <c r="C220" s="73" t="s">
-        <v>1694</v>
+        <v>1677</v>
       </c>
       <c r="D220" s="44" t="s">
         <v>1058</v>
@@ -43250,7 +43264,7 @@
       </c>
       <c r="B221" s="44"/>
       <c r="C221" s="69" t="s">
-        <v>2070</v>
+        <v>2052</v>
       </c>
       <c r="D221" s="56" t="s">
         <v>1113</v>
@@ -43266,7 +43280,7 @@
       </c>
       <c r="B222" s="44"/>
       <c r="C222" s="73" t="s">
-        <v>1695</v>
+        <v>1678</v>
       </c>
       <c r="D222" s="56" t="s">
         <v>1068</v>
@@ -43282,7 +43296,7 @@
       </c>
       <c r="B223" s="44"/>
       <c r="C223" s="69" t="s">
-        <v>1696</v>
+        <v>1679</v>
       </c>
       <c r="D223" s="58" t="s">
         <v>1163</v>
@@ -43298,7 +43312,7 @@
       </c>
       <c r="B224" s="44"/>
       <c r="C224" s="69" t="s">
-        <v>1697</v>
+        <v>1680</v>
       </c>
       <c r="D224" s="44" t="s">
         <v>138</v>
@@ -43314,7 +43328,7 @@
       </c>
       <c r="B225" s="44"/>
       <c r="C225" s="73" t="s">
-        <v>1698</v>
+        <v>1681</v>
       </c>
       <c r="D225" s="58" t="s">
         <v>1168</v>
@@ -43330,7 +43344,7 @@
       </c>
       <c r="B226" s="44"/>
       <c r="C226" s="69" t="s">
-        <v>1699</v>
+        <v>1682</v>
       </c>
       <c r="D226" s="44" t="s">
         <v>1079</v>
@@ -43346,7 +43360,7 @@
       </c>
       <c r="B227" s="44"/>
       <c r="C227" s="69" t="s">
-        <v>1700</v>
+        <v>1683</v>
       </c>
       <c r="D227" s="44" t="s">
         <v>1123</v>
@@ -43362,7 +43376,7 @@
       </c>
       <c r="B228" s="44"/>
       <c r="C228" s="73" t="s">
-        <v>1701</v>
+        <v>1684</v>
       </c>
       <c r="D228" s="56" t="s">
         <v>1088</v>
@@ -43378,7 +43392,7 @@
       </c>
       <c r="B229" s="44"/>
       <c r="C229" s="73" t="s">
-        <v>2071</v>
+        <v>2053</v>
       </c>
       <c r="D229" s="56" t="s">
         <v>1116</v>
@@ -43394,7 +43408,7 @@
       </c>
       <c r="B230" s="44"/>
       <c r="C230" s="73" t="s">
-        <v>1702</v>
+        <v>1685</v>
       </c>
       <c r="D230" s="58" t="s">
         <v>996</v>
@@ -43410,7 +43424,7 @@
       </c>
       <c r="B231" s="44"/>
       <c r="C231" s="73" t="s">
-        <v>1703</v>
+        <v>1686</v>
       </c>
       <c r="D231" s="56" t="s">
         <v>1205</v>
@@ -43426,7 +43440,7 @@
       </c>
       <c r="B232" s="44"/>
       <c r="C232" s="69" t="s">
-        <v>1704</v>
+        <v>1687</v>
       </c>
       <c r="D232" s="44" t="s">
         <v>969</v>
@@ -43442,7 +43456,7 @@
       </c>
       <c r="B233" s="44"/>
       <c r="C233" s="73" t="s">
-        <v>1705</v>
+        <v>1688</v>
       </c>
       <c r="D233" s="58" t="s">
         <v>1165</v>
@@ -43458,7 +43472,7 @@
       </c>
       <c r="B234" s="44"/>
       <c r="C234" s="69" t="s">
-        <v>1706</v>
+        <v>1689</v>
       </c>
       <c r="D234" s="44" t="s">
         <v>1062</v>
@@ -43474,7 +43488,7 @@
       </c>
       <c r="B235" s="44"/>
       <c r="C235" s="69" t="s">
-        <v>1707</v>
+        <v>1690</v>
       </c>
       <c r="D235" s="44" t="s">
         <v>1056</v>
@@ -43490,7 +43504,7 @@
       </c>
       <c r="B236" s="44"/>
       <c r="C236" s="69" t="s">
-        <v>1708</v>
+        <v>1691</v>
       </c>
       <c r="D236" s="44" t="s">
         <v>1081</v>
@@ -43506,7 +43520,7 @@
       </c>
       <c r="B237" s="44"/>
       <c r="C237" s="69" t="s">
-        <v>1709</v>
+        <v>1692</v>
       </c>
       <c r="D237" s="44" t="s">
         <v>1026</v>
@@ -43522,7 +43536,7 @@
       </c>
       <c r="B238" s="44"/>
       <c r="C238" s="73" t="s">
-        <v>1710</v>
+        <v>1693</v>
       </c>
       <c r="D238" s="56" t="s">
         <v>1227</v>
@@ -43538,7 +43552,7 @@
       </c>
       <c r="B239" s="44"/>
       <c r="C239" s="69" t="s">
-        <v>1711</v>
+        <v>1694</v>
       </c>
       <c r="D239" s="44" t="s">
         <v>1166</v>
@@ -43554,7 +43568,7 @@
       </c>
       <c r="B240" s="44"/>
       <c r="C240" s="73" t="s">
-        <v>1712</v>
+        <v>1695</v>
       </c>
       <c r="D240" s="56" t="s">
         <v>1164</v>
@@ -43570,7 +43584,7 @@
       </c>
       <c r="B241" s="44"/>
       <c r="C241" s="69" t="s">
-        <v>1713</v>
+        <v>1696</v>
       </c>
       <c r="D241" s="56" t="s">
         <v>1103</v>
@@ -43586,7 +43600,7 @@
       </c>
       <c r="B242" s="44"/>
       <c r="C242" s="73" t="s">
-        <v>1714</v>
+        <v>1697</v>
       </c>
       <c r="D242" s="56" t="s">
         <v>1217</v>
@@ -43602,7 +43616,7 @@
       </c>
       <c r="B243" s="44"/>
       <c r="C243" s="69" t="s">
-        <v>1715</v>
+        <v>1698</v>
       </c>
       <c r="D243" s="44" t="s">
         <v>998</v>
@@ -43618,7 +43632,7 @@
       </c>
       <c r="B244" s="44"/>
       <c r="C244" s="73" t="s">
-        <v>1716</v>
+        <v>1699</v>
       </c>
       <c r="D244" s="56" t="s">
         <v>1089</v>
@@ -43634,7 +43648,7 @@
       </c>
       <c r="B245" s="44"/>
       <c r="C245" s="69" t="s">
-        <v>1717</v>
+        <v>1700</v>
       </c>
       <c r="D245" s="44" t="s">
         <v>1045</v>
@@ -43650,7 +43664,7 @@
       </c>
       <c r="B246" s="44"/>
       <c r="C246" s="73" t="s">
-        <v>1718</v>
+        <v>1701</v>
       </c>
       <c r="D246" s="47" t="s">
         <v>1226</v>
@@ -43666,7 +43680,7 @@
       </c>
       <c r="B247" s="44"/>
       <c r="C247" s="73" t="s">
-        <v>1719</v>
+        <v>1702</v>
       </c>
       <c r="D247" s="44" t="s">
         <v>1019</v>
@@ -43682,7 +43696,7 @@
       </c>
       <c r="B248" s="44"/>
       <c r="C248" s="73" t="s">
-        <v>1720</v>
+        <v>1703</v>
       </c>
       <c r="D248" s="58" t="s">
         <v>1124</v>
@@ -43698,7 +43712,7 @@
       </c>
       <c r="B249" s="44"/>
       <c r="C249" s="73" t="s">
-        <v>1721</v>
+        <v>1704</v>
       </c>
       <c r="D249" s="58" t="s">
         <v>1046</v>
@@ -43714,7 +43728,7 @@
       </c>
       <c r="B250" s="44"/>
       <c r="C250" s="69" t="s">
-        <v>1722</v>
+        <v>1705</v>
       </c>
       <c r="D250" s="44" t="s">
         <v>997</v>
@@ -43730,7 +43744,7 @@
       </c>
       <c r="B251" s="44"/>
       <c r="C251" s="69" t="s">
-        <v>1723</v>
+        <v>1706</v>
       </c>
       <c r="D251" s="58" t="s">
         <v>1022</v>
@@ -43746,7 +43760,7 @@
       </c>
       <c r="B252" s="44"/>
       <c r="C252" s="73" t="s">
-        <v>1724</v>
+        <v>1707</v>
       </c>
       <c r="D252" s="58" t="s">
         <v>1024</v>
@@ -43762,7 +43776,7 @@
       </c>
       <c r="B253" s="44"/>
       <c r="C253" s="73" t="s">
-        <v>1725</v>
+        <v>1708</v>
       </c>
       <c r="D253" s="58" t="s">
         <v>1073</v>
@@ -43778,7 +43792,7 @@
       </c>
       <c r="B254" s="44"/>
       <c r="C254" s="73" t="s">
-        <v>1726</v>
+        <v>1709</v>
       </c>
       <c r="D254" s="56" t="s">
         <v>1047</v>
@@ -43794,7 +43808,7 @@
       </c>
       <c r="B255" s="44"/>
       <c r="C255" s="73" t="s">
-        <v>1727</v>
+        <v>1710</v>
       </c>
       <c r="D255" s="44" t="s">
         <v>1000</v>
@@ -43810,7 +43824,7 @@
       </c>
       <c r="B256" s="44"/>
       <c r="C256" s="69" t="s">
-        <v>1728</v>
+        <v>1711</v>
       </c>
       <c r="D256" s="44" t="s">
         <v>1184</v>
@@ -43826,7 +43840,7 @@
       </c>
       <c r="B257" s="44"/>
       <c r="C257" s="69" t="s">
-        <v>1729</v>
+        <v>1712</v>
       </c>
       <c r="D257" s="56" t="s">
         <v>1031</v>
@@ -43842,7 +43856,7 @@
       </c>
       <c r="B258" s="44"/>
       <c r="C258" s="73" t="s">
-        <v>1730</v>
+        <v>1713</v>
       </c>
       <c r="D258" s="44" t="s">
         <v>1032</v>
@@ -43858,7 +43872,7 @@
       </c>
       <c r="B259" s="44"/>
       <c r="C259" s="73" t="s">
-        <v>1731</v>
+        <v>1714</v>
       </c>
       <c r="D259" s="56" t="s">
         <v>1196</v>
@@ -43874,7 +43888,7 @@
       </c>
       <c r="B260" s="44"/>
       <c r="C260" s="73" t="s">
-        <v>1732</v>
+        <v>1715</v>
       </c>
       <c r="D260" s="56" t="s">
         <v>1090</v>
@@ -43890,7 +43904,7 @@
       </c>
       <c r="B261" s="44"/>
       <c r="C261" s="73" t="s">
-        <v>1733</v>
+        <v>1716</v>
       </c>
       <c r="D261" s="44" t="s">
         <v>1048</v>
@@ -43906,7 +43920,7 @@
       </c>
       <c r="B262" s="44"/>
       <c r="C262" s="73" t="s">
-        <v>1734</v>
+        <v>1717</v>
       </c>
       <c r="D262" s="56" t="s">
         <v>1099</v>
@@ -43922,7 +43936,7 @@
       </c>
       <c r="B263" s="44"/>
       <c r="C263" s="73" t="s">
-        <v>1735</v>
+        <v>1718</v>
       </c>
       <c r="D263" s="56" t="s">
         <v>1122</v>
@@ -43938,7 +43952,7 @@
       </c>
       <c r="B264" s="44"/>
       <c r="C264" s="73" t="s">
-        <v>1736</v>
+        <v>1719</v>
       </c>
       <c r="D264" s="56" t="s">
         <v>1210</v>
@@ -43954,7 +43968,7 @@
       </c>
       <c r="B265" s="44"/>
       <c r="C265" s="73" t="s">
-        <v>1737</v>
+        <v>1720</v>
       </c>
       <c r="D265" s="56" t="s">
         <v>1091</v>
@@ -43970,7 +43984,7 @@
       </c>
       <c r="B266" s="44"/>
       <c r="C266" s="73" t="s">
-        <v>1738</v>
+        <v>1721</v>
       </c>
       <c r="D266" s="58" t="s">
         <v>1065</v>
@@ -43986,7 +44000,7 @@
       </c>
       <c r="B267" s="44"/>
       <c r="C267" s="73" t="s">
-        <v>1739</v>
+        <v>1722</v>
       </c>
       <c r="D267" s="58" t="s">
         <v>1070</v>
@@ -44002,7 +44016,7 @@
       </c>
       <c r="B268" s="44"/>
       <c r="C268" s="69" t="s">
-        <v>1740</v>
+        <v>1723</v>
       </c>
       <c r="D268" s="44" t="s">
         <v>1112</v>
@@ -44018,7 +44032,7 @@
       </c>
       <c r="B269" s="44"/>
       <c r="C269" s="69" t="s">
-        <v>1741</v>
+        <v>1724</v>
       </c>
       <c r="D269" s="44" t="s">
         <v>218</v>
@@ -44034,7 +44048,7 @@
       </c>
       <c r="B270" s="44"/>
       <c r="C270" s="73" t="s">
-        <v>1742</v>
+        <v>1725</v>
       </c>
       <c r="D270" s="56" t="s">
         <v>1193</v>
@@ -44050,7 +44064,7 @@
       </c>
       <c r="B271" s="44"/>
       <c r="C271" s="69" t="s">
-        <v>1743</v>
+        <v>1726</v>
       </c>
       <c r="D271" s="44" t="s">
         <v>1172</v>
@@ -44066,7 +44080,7 @@
       </c>
       <c r="B272" s="44"/>
       <c r="C272" s="73" t="s">
-        <v>1744</v>
+        <v>1727</v>
       </c>
       <c r="D272" s="56" t="s">
         <v>1092</v>
@@ -44082,7 +44096,7 @@
       </c>
       <c r="B273" s="44"/>
       <c r="C273" s="69" t="s">
-        <v>1745</v>
+        <v>1728</v>
       </c>
       <c r="D273" s="58" t="s">
         <v>1214</v>
@@ -44098,7 +44112,7 @@
       </c>
       <c r="B274" s="44"/>
       <c r="C274" s="73" t="s">
-        <v>1746</v>
+        <v>1729</v>
       </c>
       <c r="D274" s="56" t="s">
         <v>1067</v>
@@ -44114,7 +44128,7 @@
       </c>
       <c r="B275" s="44"/>
       <c r="C275" s="73" t="s">
-        <v>1747</v>
+        <v>1730</v>
       </c>
       <c r="D275" s="56" t="s">
         <v>1011</v>
@@ -44130,7 +44144,7 @@
       </c>
       <c r="B276" s="44"/>
       <c r="C276" s="69" t="s">
-        <v>1748</v>
+        <v>1731</v>
       </c>
       <c r="D276" s="44" t="s">
         <v>1038</v>
@@ -44146,7 +44160,7 @@
       </c>
       <c r="B277" s="44"/>
       <c r="C277" s="69" t="s">
-        <v>1749</v>
+        <v>1732</v>
       </c>
       <c r="D277" s="56" t="s">
         <v>1093</v>
@@ -44162,7 +44176,7 @@
       </c>
       <c r="B278" s="44"/>
       <c r="C278" s="73" t="s">
-        <v>1750</v>
+        <v>1733</v>
       </c>
       <c r="D278" s="56" t="s">
         <v>1207</v>
@@ -44178,7 +44192,7 @@
       </c>
       <c r="B279" s="44"/>
       <c r="C279" s="73" t="s">
-        <v>1751</v>
+        <v>1734</v>
       </c>
       <c r="D279" s="58" t="s">
         <v>1200</v>
@@ -44194,7 +44208,7 @@
       </c>
       <c r="B280" s="44"/>
       <c r="C280" s="73" t="s">
-        <v>1752</v>
+        <v>1735</v>
       </c>
       <c r="D280" s="56" t="s">
         <v>1094</v>
@@ -44210,7 +44224,7 @@
       </c>
       <c r="B281" s="44"/>
       <c r="C281" s="73" t="s">
-        <v>1753</v>
+        <v>1736</v>
       </c>
       <c r="D281" s="56" t="s">
         <v>1121</v>
@@ -44226,7 +44240,7 @@
       </c>
       <c r="B282" s="44"/>
       <c r="C282" s="73" t="s">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="D282" s="56" t="s">
         <v>1186</v>
@@ -44258,7 +44272,7 @@
       </c>
       <c r="B284" s="44"/>
       <c r="C284" s="73" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
       <c r="D284" s="44" t="s">
         <v>220</v>
@@ -44290,7 +44304,7 @@
       </c>
       <c r="B286" s="44"/>
       <c r="C286" s="73" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
       <c r="D286" s="56" t="s">
         <v>1101</v>
@@ -44306,7 +44320,7 @@
       </c>
       <c r="B287" s="44"/>
       <c r="C287" s="69" t="s">
-        <v>1757</v>
+        <v>1740</v>
       </c>
       <c r="D287" s="44" t="s">
         <v>221</v>
@@ -44322,7 +44336,7 @@
       </c>
       <c r="B288" s="44"/>
       <c r="C288" s="73" t="s">
-        <v>1758</v>
+        <v>1741</v>
       </c>
       <c r="D288" s="58" t="s">
         <v>1095</v>
@@ -44338,7 +44352,7 @@
       </c>
       <c r="B289" s="44"/>
       <c r="C289" s="73" t="s">
-        <v>1759</v>
+        <v>1742</v>
       </c>
       <c r="D289" s="58" t="s">
         <v>1169</v>
@@ -44354,7 +44368,7 @@
       </c>
       <c r="B290" s="44"/>
       <c r="C290" s="73" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
       <c r="D290" s="56" t="s">
         <v>1106</v>
@@ -44370,7 +44384,7 @@
       </c>
       <c r="B291" s="44"/>
       <c r="C291" s="73" t="s">
-        <v>1761</v>
+        <v>1744</v>
       </c>
       <c r="D291" s="56" t="s">
         <v>1063</v>
@@ -44386,7 +44400,7 @@
       </c>
       <c r="B292" s="44"/>
       <c r="C292" s="73" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
       <c r="D292" s="58" t="s">
         <v>1198</v>
@@ -44402,7 +44416,7 @@
       </c>
       <c r="B293" s="44"/>
       <c r="C293" s="73" t="s">
-        <v>1763</v>
+        <v>1746</v>
       </c>
       <c r="D293" s="58" t="s">
         <v>995</v>
@@ -44418,7 +44432,7 @@
       </c>
       <c r="B294" s="44"/>
       <c r="C294" s="73" t="s">
-        <v>1764</v>
+        <v>1747</v>
       </c>
       <c r="D294" s="58" t="s">
         <v>1100</v>
@@ -44434,7 +44448,7 @@
       </c>
       <c r="B295" s="44"/>
       <c r="C295" s="73" t="s">
-        <v>1775</v>
+        <v>1758</v>
       </c>
       <c r="D295" s="58" t="s">
         <v>1119</v>
@@ -44450,7 +44464,7 @@
       </c>
       <c r="B296" s="44"/>
       <c r="C296" s="73" t="s">
-        <v>1774</v>
+        <v>1757</v>
       </c>
       <c r="D296" s="56" t="s">
         <v>990</v>
@@ -44466,7 +44480,7 @@
       </c>
       <c r="B297" s="44"/>
       <c r="C297" s="73" t="s">
-        <v>1765</v>
+        <v>1748</v>
       </c>
       <c r="D297" s="56" t="s">
         <v>1192</v>
@@ -44482,7 +44496,7 @@
       </c>
       <c r="B298" s="44"/>
       <c r="C298" s="73" t="s">
-        <v>1773</v>
+        <v>1756</v>
       </c>
       <c r="D298" s="58" t="s">
         <v>1177</v>
@@ -44498,7 +44512,7 @@
       </c>
       <c r="B299" s="44"/>
       <c r="C299" s="69" t="s">
-        <v>1772</v>
+        <v>1755</v>
       </c>
       <c r="D299" s="44" t="s">
         <v>222</v>
@@ -44514,7 +44528,7 @@
       </c>
       <c r="B300" s="44"/>
       <c r="C300" s="73" t="s">
-        <v>1771</v>
+        <v>1754</v>
       </c>
       <c r="D300" s="56" t="s">
         <v>1120</v>
@@ -44530,7 +44544,7 @@
       </c>
       <c r="B301" s="44"/>
       <c r="C301" s="73" t="s">
-        <v>1770</v>
+        <v>1753</v>
       </c>
       <c r="D301" s="56" t="s">
         <v>1216</v>
@@ -44546,7 +44560,7 @@
       </c>
       <c r="B302" s="44"/>
       <c r="C302" s="73" t="s">
-        <v>1769</v>
+        <v>1752</v>
       </c>
       <c r="D302" s="56" t="s">
         <v>1105</v>
@@ -44562,7 +44576,7 @@
       </c>
       <c r="B303" s="44"/>
       <c r="C303" s="73" t="s">
-        <v>1768</v>
+        <v>1751</v>
       </c>
       <c r="D303" s="58" t="s">
         <v>1104</v>
@@ -44578,7 +44592,7 @@
       </c>
       <c r="B304" s="44"/>
       <c r="C304" s="75" t="s">
-        <v>1767</v>
+        <v>1750</v>
       </c>
       <c r="D304" s="58" t="s">
         <v>1211</v>
@@ -44594,7 +44608,7 @@
       </c>
       <c r="B305" s="48"/>
       <c r="C305" s="75" t="s">
-        <v>1766</v>
+        <v>1749</v>
       </c>
       <c r="D305" s="57" t="s">
         <v>991</v>
@@ -45065,19 +45079,19 @@
         <v>20000</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>1852</v>
+        <v>1835</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>1776</v>
+        <v>1759</v>
       </c>
       <c r="D2" s="71" t="s">
         <v>930</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>1853</v>
+        <v>1836</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>1791</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="11.25">
@@ -45086,13 +45100,13 @@
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="71" t="s">
-        <v>1777</v>
+        <v>1760</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>970</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>1854</v>
+        <v>1837</v>
       </c>
       <c r="F3" s="77"/>
     </row>
@@ -45102,13 +45116,13 @@
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="71" t="s">
-        <v>1778</v>
+        <v>1761</v>
       </c>
       <c r="D4" s="71" t="s">
         <v>981</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>1855</v>
+        <v>1838</v>
       </c>
       <c r="F4" s="77"/>
     </row>
@@ -45117,10 +45131,10 @@
         <v>20010</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>1856</v>
+        <v>1839</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>1779</v>
+        <v>1762</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>296</v>
@@ -45129,7 +45143,7 @@
         <v>848</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>1792</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25">
@@ -45138,13 +45152,13 @@
       </c>
       <c r="B6" s="71"/>
       <c r="C6" s="71" t="s">
-        <v>1780</v>
+        <v>1763</v>
       </c>
       <c r="D6" s="71" t="s">
         <v>1096</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>1857</v>
+        <v>1840</v>
       </c>
       <c r="F6" s="77"/>
     </row>
@@ -45154,13 +45168,13 @@
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71" t="s">
-        <v>2040</v>
+        <v>2023</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>297</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>1858</v>
+        <v>1841</v>
       </c>
       <c r="F7" s="77"/>
     </row>
@@ -45170,7 +45184,7 @@
       </c>
       <c r="B8" s="71"/>
       <c r="C8" s="71" t="s">
-        <v>1781</v>
+        <v>1764</v>
       </c>
       <c r="D8" s="71" t="s">
         <v>298</v>
@@ -45185,10 +45199,10 @@
         <v>20020</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>1859</v>
+        <v>1842</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>1782</v>
+        <v>1765</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>293</v>
@@ -45197,7 +45211,7 @@
         <v>850</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>1793</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25">
@@ -45206,13 +45220,13 @@
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71" t="s">
-        <v>1778</v>
+        <v>1761</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>993</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>1855</v>
+        <v>1838</v>
       </c>
       <c r="F10" s="77"/>
     </row>
@@ -45222,7 +45236,7 @@
       </c>
       <c r="B11" s="71"/>
       <c r="C11" s="71" t="s">
-        <v>1783</v>
+        <v>1766</v>
       </c>
       <c r="D11" s="71" t="s">
         <v>1097</v>
@@ -45238,13 +45252,13 @@
       </c>
       <c r="B12" s="78"/>
       <c r="C12" s="71" t="s">
-        <v>1784</v>
+        <v>1767</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1794</v>
+        <v>1777</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>1860</v>
+        <v>1843</v>
       </c>
       <c r="F12" s="77"/>
     </row>
@@ -45254,13 +45268,13 @@
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="71" t="s">
-        <v>1785</v>
+        <v>1768</v>
       </c>
       <c r="D13" s="71" t="s">
         <v>989</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>1861</v>
+        <v>1844</v>
       </c>
       <c r="F13" s="77"/>
     </row>
@@ -45270,13 +45284,13 @@
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="71" t="s">
-        <v>1786</v>
+        <v>1769</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>1098</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>1862</v>
+        <v>1845</v>
       </c>
       <c r="F14" s="77"/>
     </row>
@@ -45286,10 +45300,10 @@
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="71" t="s">
-        <v>1787</v>
+        <v>1770</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>1795</v>
+        <v>1778</v>
       </c>
       <c r="E15" s="71" t="s">
         <v>45</v>
@@ -45302,7 +45316,7 @@
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="71" t="s">
-        <v>1788</v>
+        <v>1771</v>
       </c>
       <c r="D16" s="71" t="s">
         <v>292</v>
@@ -45318,7 +45332,7 @@
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="71" t="s">
-        <v>1789</v>
+        <v>1772</v>
       </c>
       <c r="D17" s="71" t="s">
         <v>299</v>
@@ -45334,7 +45348,7 @@
       </c>
       <c r="B18" s="71"/>
       <c r="C18" s="71" t="s">
-        <v>1790</v>
+        <v>1773</v>
       </c>
       <c r="D18" s="71" t="s">
         <v>1149</v>
@@ -45350,7 +45364,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
       <c r="D19" s="71" t="s">
         <v>300</v>
@@ -45368,13 +45382,13 @@
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="71" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
       <c r="D20" s="71" t="s">
         <v>971</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>1863</v>
+        <v>1846</v>
       </c>
       <c r="F20" s="77"/>
     </row>
@@ -45384,7 +45398,7 @@
       </c>
       <c r="B21" s="71"/>
       <c r="C21" s="71" t="s">
-        <v>1929</v>
+        <v>1912</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>301</v>
@@ -45400,13 +45414,13 @@
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71" t="s">
-        <v>1930</v>
+        <v>1913</v>
       </c>
       <c r="D22" s="71" t="s">
         <v>302</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>1864</v>
+        <v>1847</v>
       </c>
       <c r="F22" s="77"/>
     </row>
@@ -45415,10 +45429,10 @@
         <v>20040</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>1853</v>
+        <v>1836</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>1931</v>
+        <v>1914</v>
       </c>
       <c r="D23" s="71" t="s">
         <v>303</v>
@@ -45436,7 +45450,7 @@
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71" t="s">
-        <v>1932</v>
+        <v>1915</v>
       </c>
       <c r="D24" s="71" t="s">
         <v>304</v>
@@ -45452,7 +45466,7 @@
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="71" t="s">
-        <v>1933</v>
+        <v>1916</v>
       </c>
       <c r="D25" s="71" t="s">
         <v>305</v>
@@ -45468,13 +45482,13 @@
       </c>
       <c r="B26" s="71"/>
       <c r="C26" s="71" t="s">
-        <v>1934</v>
+        <v>1917</v>
       </c>
       <c r="D26" s="71" t="s">
         <v>294</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>1865</v>
+        <v>1848</v>
       </c>
       <c r="F26" s="77"/>
     </row>
@@ -45484,7 +45498,7 @@
       </c>
       <c r="B27" s="71"/>
       <c r="C27" s="71" t="s">
-        <v>1935</v>
+        <v>1918</v>
       </c>
       <c r="D27" s="71" t="s">
         <v>306</v>
@@ -45500,7 +45514,7 @@
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="71" t="s">
-        <v>1936</v>
+        <v>1919</v>
       </c>
       <c r="D28" s="71" t="s">
         <v>1354</v>
@@ -45514,7 +45528,7 @@
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="71" t="s">
-        <v>1937</v>
+        <v>1920</v>
       </c>
       <c r="D29" s="71" t="s">
         <v>1355</v>
@@ -45530,7 +45544,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>1938</v>
+        <v>1921</v>
       </c>
       <c r="D30" s="71" t="s">
         <v>307</v>
@@ -45539,7 +45553,7 @@
         <v>860</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>1796</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.25">
@@ -45548,7 +45562,7 @@
       </c>
       <c r="B31" s="71"/>
       <c r="C31" s="71" t="s">
-        <v>2081</v>
+        <v>2063</v>
       </c>
       <c r="D31" s="71" t="s">
         <v>308</v>
@@ -45564,13 +45578,13 @@
       </c>
       <c r="B32" s="71"/>
       <c r="C32" s="71" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
       <c r="D32" s="71" t="s">
         <v>142</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>1866</v>
+        <v>1849</v>
       </c>
       <c r="F32" s="77"/>
     </row>
@@ -45580,13 +45594,13 @@
       </c>
       <c r="B33" s="71"/>
       <c r="C33" s="71" t="s">
-        <v>1939</v>
+        <v>1922</v>
       </c>
       <c r="D33" s="71" t="s">
         <v>309</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>1867</v>
+        <v>1850</v>
       </c>
       <c r="F33" s="77"/>
     </row>
@@ -45596,13 +45610,13 @@
       </c>
       <c r="B34" s="71"/>
       <c r="C34" s="71" t="s">
-        <v>1940</v>
+        <v>1923</v>
       </c>
       <c r="D34" s="71" t="s">
         <v>310</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>1868</v>
+        <v>1851</v>
       </c>
       <c r="F34" s="77"/>
     </row>
@@ -45612,13 +45626,13 @@
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71" t="s">
-        <v>1941</v>
+        <v>1924</v>
       </c>
       <c r="D35" s="71" t="s">
         <v>311</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>1869</v>
+        <v>1852</v>
       </c>
       <c r="F35" s="77"/>
     </row>
@@ -45628,13 +45642,13 @@
       </c>
       <c r="B36" s="71"/>
       <c r="C36" s="71" t="s">
-        <v>1942</v>
+        <v>1925</v>
       </c>
       <c r="D36" s="71" t="s">
         <v>312</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>1870</v>
+        <v>1853</v>
       </c>
       <c r="F36" s="77"/>
     </row>
@@ -45643,19 +45657,19 @@
         <v>20060</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>1871</v>
+        <v>1854</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>1786</v>
+        <v>1769</v>
       </c>
       <c r="D37" s="71" t="s">
         <v>1135</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>1872</v>
+        <v>1855</v>
       </c>
       <c r="F37" s="77" t="s">
-        <v>1797</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25">
@@ -45682,7 +45696,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>1943</v>
+        <v>1926</v>
       </c>
       <c r="D39" s="71" t="s">
         <v>313</v>
@@ -45691,7 +45705,7 @@
         <v>863</v>
       </c>
       <c r="F39" s="77" t="s">
-        <v>1798</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="11.25">
@@ -45700,7 +45714,7 @@
       </c>
       <c r="B40" s="71"/>
       <c r="C40" s="71" t="s">
-        <v>1944</v>
+        <v>1927</v>
       </c>
       <c r="D40" s="71" t="s">
         <v>314</v>
@@ -45716,7 +45730,7 @@
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="71" t="s">
-        <v>1945</v>
+        <v>1928</v>
       </c>
       <c r="D41" s="71" t="s">
         <v>315</v>
@@ -45731,19 +45745,19 @@
         <v>20080</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>1861</v>
+        <v>1844</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>1946</v>
+        <v>1929</v>
       </c>
       <c r="D42" s="71" t="s">
-        <v>1799</v>
+        <v>1782</v>
       </c>
       <c r="E42" s="71" t="s">
         <v>866</v>
       </c>
       <c r="F42" s="77" t="s">
-        <v>1800</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="11.25">
@@ -45752,10 +45766,10 @@
       </c>
       <c r="B43" s="71"/>
       <c r="C43" s="71" t="s">
-        <v>1947</v>
+        <v>1930</v>
       </c>
       <c r="D43" s="71" t="s">
-        <v>1801</v>
+        <v>1784</v>
       </c>
       <c r="E43" s="71" t="s">
         <v>867</v>
@@ -45768,10 +45782,10 @@
       </c>
       <c r="B44" s="71"/>
       <c r="C44" s="71" t="s">
-        <v>1948</v>
+        <v>1931</v>
       </c>
       <c r="D44" s="71" t="s">
-        <v>1802</v>
+        <v>1785</v>
       </c>
       <c r="E44" s="71" t="s">
         <v>868</v>
@@ -45786,7 +45800,7 @@
         <v>1151</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>1949</v>
+        <v>1932</v>
       </c>
       <c r="D45" s="71" t="s">
         <v>1152</v>
@@ -45800,7 +45814,7 @@
       </c>
       <c r="B46" s="71"/>
       <c r="C46" s="71" t="s">
-        <v>1950</v>
+        <v>1933</v>
       </c>
       <c r="D46" s="71" t="s">
         <v>1153</v>
@@ -45816,7 +45830,7 @@
         <v>1145</v>
       </c>
       <c r="C47" s="71" t="s">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="D47" s="71" t="s">
         <v>1146</v>
@@ -45846,10 +45860,10 @@
         <v>113</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>2053</v>
+        <v>2035</v>
       </c>
       <c r="D49" s="71" t="s">
-        <v>1803</v>
+        <v>1786</v>
       </c>
       <c r="E49" s="71" t="s">
         <v>982</v>
@@ -45864,7 +45878,7 @@
       </c>
       <c r="B50" s="71"/>
       <c r="C50" s="71" t="s">
-        <v>2054</v>
+        <v>2036</v>
       </c>
       <c r="D50" s="71" t="s">
         <v>983</v>
@@ -45880,13 +45894,13 @@
       </c>
       <c r="B51" s="71"/>
       <c r="C51" s="71" t="s">
-        <v>2055</v>
+        <v>2037</v>
       </c>
       <c r="D51" s="71" t="s">
-        <v>1804</v>
+        <v>1787</v>
       </c>
       <c r="E51" s="71" t="s">
-        <v>1873</v>
+        <v>1856</v>
       </c>
       <c r="F51" s="77"/>
     </row>
@@ -45896,13 +45910,13 @@
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="71" t="s">
-        <v>2056</v>
+        <v>2038</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>1805</v>
+        <v>1788</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>1874</v>
+        <v>1857</v>
       </c>
       <c r="F52" s="77"/>
     </row>
@@ -45912,13 +45926,13 @@
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="71" t="s">
-        <v>2057</v>
+        <v>2039</v>
       </c>
       <c r="D53" s="71" t="s">
         <v>985</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>1875</v>
+        <v>1858</v>
       </c>
       <c r="F53" s="77"/>
     </row>
@@ -45928,7 +45942,7 @@
       </c>
       <c r="B54" s="71"/>
       <c r="C54" s="71" t="s">
-        <v>2058</v>
+        <v>2040</v>
       </c>
       <c r="D54" s="71" t="s">
         <v>984</v>
@@ -45944,7 +45958,7 @@
       </c>
       <c r="B55" s="71"/>
       <c r="C55" s="71" t="s">
-        <v>2059</v>
+        <v>2041</v>
       </c>
       <c r="D55" s="71" t="s">
         <v>1150</v>
@@ -45958,7 +45972,7 @@
       </c>
       <c r="B56" s="71"/>
       <c r="C56" s="71" t="s">
-        <v>2060</v>
+        <v>2042</v>
       </c>
       <c r="D56" s="71" t="s">
         <v>1144</v>
@@ -45971,10 +45985,10 @@
         <v>21000</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>1865</v>
+        <v>1848</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>1952</v>
+        <v>1935</v>
       </c>
       <c r="D57" s="71" t="s">
         <v>1136</v>
@@ -45992,7 +46006,7 @@
       </c>
       <c r="B58" s="71"/>
       <c r="C58" s="71" t="s">
-        <v>1953</v>
+        <v>1936</v>
       </c>
       <c r="D58" s="71" t="s">
         <v>1137</v>
@@ -46008,7 +46022,7 @@
       </c>
       <c r="B59" s="71"/>
       <c r="C59" s="71" t="s">
-        <v>1954</v>
+        <v>1937</v>
       </c>
       <c r="D59" s="71" t="s">
         <v>1138</v>
@@ -46024,7 +46038,7 @@
       </c>
       <c r="B60" s="71"/>
       <c r="C60" s="71" t="s">
-        <v>1955</v>
+        <v>1938</v>
       </c>
       <c r="D60" s="71" t="s">
         <v>1139</v>
@@ -46040,7 +46054,7 @@
       </c>
       <c r="B61" s="71"/>
       <c r="C61" s="71" t="s">
-        <v>1956</v>
+        <v>1939</v>
       </c>
       <c r="D61" s="71" t="s">
         <v>1140</v>
@@ -46056,13 +46070,13 @@
       </c>
       <c r="B62" s="71"/>
       <c r="C62" s="71" t="s">
-        <v>1957</v>
+        <v>1940</v>
       </c>
       <c r="D62" s="71" t="s">
         <v>1141</v>
       </c>
       <c r="E62" s="71" t="s">
-        <v>1876</v>
+        <v>1859</v>
       </c>
       <c r="F62" s="77"/>
     </row>
@@ -46071,19 +46085,19 @@
         <v>21010</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>1877</v>
+        <v>1860</v>
       </c>
       <c r="C63" s="71" t="s">
-        <v>1958</v>
+        <v>1941</v>
       </c>
       <c r="D63" s="71" t="s">
-        <v>1806</v>
+        <v>1789</v>
       </c>
       <c r="E63" s="71" t="s">
         <v>874</v>
       </c>
       <c r="F63" s="77" t="s">
-        <v>1807</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="11.25">
@@ -46094,16 +46108,16 @@
         <v>49</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>1959</v>
+        <v>1942</v>
       </c>
       <c r="D64" s="71" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="E64" s="71" t="s">
         <v>875</v>
       </c>
       <c r="F64" s="77" t="s">
-        <v>1809</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="11.25">
@@ -46112,10 +46126,10 @@
       </c>
       <c r="B65" s="71"/>
       <c r="C65" s="71" t="s">
-        <v>1960</v>
+        <v>1943</v>
       </c>
       <c r="D65" s="71" t="s">
-        <v>1810</v>
+        <v>1793</v>
       </c>
       <c r="E65" s="71" t="s">
         <v>876</v>
@@ -46128,7 +46142,7 @@
       </c>
       <c r="B66" s="71"/>
       <c r="C66" s="71" t="s">
-        <v>1961</v>
+        <v>1944</v>
       </c>
       <c r="D66" s="71" t="s">
         <v>316</v>
@@ -46144,10 +46158,10 @@
       </c>
       <c r="B67" s="71"/>
       <c r="C67" s="71" t="s">
-        <v>1962</v>
+        <v>1945</v>
       </c>
       <c r="D67" s="71" t="s">
-        <v>1811</v>
+        <v>1794</v>
       </c>
       <c r="E67" s="71" t="s">
         <v>878</v>
@@ -46160,7 +46174,7 @@
       </c>
       <c r="B68" s="71"/>
       <c r="C68" s="71" t="s">
-        <v>1963</v>
+        <v>1946</v>
       </c>
       <c r="D68" s="71" t="s">
         <v>317</v>
@@ -46176,13 +46190,13 @@
       </c>
       <c r="B69" s="71"/>
       <c r="C69" s="71" t="s">
-        <v>1964</v>
+        <v>1947</v>
       </c>
       <c r="D69" s="71" t="s">
         <v>318</v>
       </c>
       <c r="E69" s="71" t="s">
-        <v>1878</v>
+        <v>1861</v>
       </c>
       <c r="F69" s="77"/>
     </row>
@@ -46194,16 +46208,16 @@
         <v>50</v>
       </c>
       <c r="C70" s="71" t="s">
-        <v>1965</v>
+        <v>1948</v>
       </c>
       <c r="D70" s="71" t="s">
         <v>319</v>
       </c>
       <c r="E70" s="71" t="s">
-        <v>1879</v>
+        <v>1862</v>
       </c>
       <c r="F70" s="77" t="s">
-        <v>1812</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="11.25">
@@ -46212,7 +46226,7 @@
       </c>
       <c r="B71" s="71"/>
       <c r="C71" s="71" t="s">
-        <v>1966</v>
+        <v>1949</v>
       </c>
       <c r="D71" s="71" t="s">
         <v>320</v>
@@ -46228,7 +46242,7 @@
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="71" t="s">
-        <v>1967</v>
+        <v>1950</v>
       </c>
       <c r="D72" s="71" t="s">
         <v>321</v>
@@ -46244,7 +46258,7 @@
       </c>
       <c r="B73" s="71"/>
       <c r="C73" s="71" t="s">
-        <v>1968</v>
+        <v>1951</v>
       </c>
       <c r="D73" s="71" t="s">
         <v>322</v>
@@ -46260,7 +46274,7 @@
       </c>
       <c r="B74" s="71"/>
       <c r="C74" s="71" t="s">
-        <v>1969</v>
+        <v>1952</v>
       </c>
       <c r="D74" s="71" t="s">
         <v>323</v>
@@ -46276,7 +46290,7 @@
       </c>
       <c r="B75" s="71"/>
       <c r="C75" s="71" t="s">
-        <v>1970</v>
+        <v>1953</v>
       </c>
       <c r="D75" s="71" t="s">
         <v>324</v>
@@ -46294,16 +46308,16 @@
         <v>51</v>
       </c>
       <c r="C76" s="71" t="s">
-        <v>1971</v>
+        <v>1954</v>
       </c>
       <c r="D76" s="71" t="s">
         <v>325</v>
       </c>
       <c r="E76" s="71" t="s">
-        <v>1880</v>
+        <v>1863</v>
       </c>
       <c r="F76" s="77" t="s">
-        <v>1813</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="11.25">
@@ -46312,13 +46326,13 @@
       </c>
       <c r="B77" s="71"/>
       <c r="C77" s="71" t="s">
-        <v>1972</v>
+        <v>1955</v>
       </c>
       <c r="D77" s="71" t="s">
         <v>326</v>
       </c>
       <c r="E77" s="71" t="s">
-        <v>1881</v>
+        <v>1864</v>
       </c>
       <c r="F77" s="77"/>
     </row>
@@ -46328,7 +46342,7 @@
       </c>
       <c r="B78" s="71"/>
       <c r="C78" s="71" t="s">
-        <v>1973</v>
+        <v>1956</v>
       </c>
       <c r="D78" s="71" t="s">
         <v>327</v>
@@ -46344,7 +46358,7 @@
       </c>
       <c r="B79" s="71"/>
       <c r="C79" s="71" t="s">
-        <v>1974</v>
+        <v>1957</v>
       </c>
       <c r="D79" s="71" t="s">
         <v>328</v>
@@ -46360,7 +46374,7 @@
       </c>
       <c r="B80" s="71"/>
       <c r="C80" s="71" t="s">
-        <v>1975</v>
+        <v>1958</v>
       </c>
       <c r="D80" s="71" t="s">
         <v>329</v>
@@ -46376,13 +46390,13 @@
       </c>
       <c r="B81" s="71"/>
       <c r="C81" s="71" t="s">
-        <v>1976</v>
+        <v>1959</v>
       </c>
       <c r="D81" s="71" t="s">
         <v>330</v>
       </c>
       <c r="E81" s="71" t="s">
-        <v>1882</v>
+        <v>1865</v>
       </c>
       <c r="F81" s="77"/>
     </row>
@@ -46394,7 +46408,7 @@
         <v>52</v>
       </c>
       <c r="C82" s="71" t="s">
-        <v>1977</v>
+        <v>1960</v>
       </c>
       <c r="D82" s="71" t="s">
         <v>331</v>
@@ -46403,7 +46417,7 @@
         <v>888</v>
       </c>
       <c r="F82" s="77" t="s">
-        <v>1814</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="11.25">
@@ -46412,10 +46426,10 @@
       </c>
       <c r="B83" s="71"/>
       <c r="C83" s="71" t="s">
-        <v>1978</v>
+        <v>1961</v>
       </c>
       <c r="D83" s="71" t="s">
-        <v>1815</v>
+        <v>1798</v>
       </c>
       <c r="E83" s="71" t="s">
         <v>889</v>
@@ -46428,7 +46442,7 @@
       </c>
       <c r="B84" s="71"/>
       <c r="C84" s="71" t="s">
-        <v>1979</v>
+        <v>1962</v>
       </c>
       <c r="D84" s="71" t="s">
         <v>332</v>
@@ -46444,7 +46458,7 @@
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="71" t="s">
-        <v>1980</v>
+        <v>1963</v>
       </c>
       <c r="D85" s="71" t="s">
         <v>333</v>
@@ -46460,13 +46474,13 @@
       </c>
       <c r="B86" s="71"/>
       <c r="C86" s="71" t="s">
-        <v>1981</v>
+        <v>1964</v>
       </c>
       <c r="D86" s="71" t="s">
         <v>334</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>1883</v>
+        <v>1866</v>
       </c>
       <c r="F86" s="77"/>
     </row>
@@ -46476,13 +46490,13 @@
       </c>
       <c r="B87" s="71"/>
       <c r="C87" s="71" t="s">
-        <v>1982</v>
+        <v>1965</v>
       </c>
       <c r="D87" s="71" t="s">
         <v>972</v>
       </c>
       <c r="E87" s="71" t="s">
-        <v>1884</v>
+        <v>1867</v>
       </c>
       <c r="F87" s="77"/>
     </row>
@@ -46494,16 +46508,16 @@
         <v>48</v>
       </c>
       <c r="C88" s="71" t="s">
-        <v>1983</v>
+        <v>1966</v>
       </c>
       <c r="D88" s="71" t="s">
         <v>335</v>
       </c>
       <c r="E88" s="71" t="s">
-        <v>1885</v>
+        <v>1868</v>
       </c>
       <c r="F88" s="77" t="s">
-        <v>1816</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="11.25">
@@ -46511,19 +46525,19 @@
         <v>21070</v>
       </c>
       <c r="B89" s="71" t="s">
-        <v>1886</v>
+        <v>1869</v>
       </c>
       <c r="C89" s="71" t="s">
-        <v>1984</v>
+        <v>1967</v>
       </c>
       <c r="D89" s="71" t="s">
-        <v>1817</v>
+        <v>1800</v>
       </c>
       <c r="E89" s="71" t="s">
         <v>892</v>
       </c>
       <c r="F89" s="77" t="s">
-        <v>1818</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="11.25">
@@ -46532,10 +46546,10 @@
       </c>
       <c r="B90" s="71"/>
       <c r="C90" s="71" t="s">
-        <v>2074</v>
+        <v>2056</v>
       </c>
       <c r="D90" s="71" t="s">
-        <v>1819</v>
+        <v>1802</v>
       </c>
       <c r="E90" s="71" t="s">
         <v>893</v>
@@ -46547,19 +46561,19 @@
         <v>21080</v>
       </c>
       <c r="B91" s="71" t="s">
-        <v>1887</v>
+        <v>1870</v>
       </c>
       <c r="C91" s="75" t="s">
-        <v>1985</v>
+        <v>1968</v>
       </c>
       <c r="D91" s="71" t="s">
         <v>1142</v>
       </c>
       <c r="E91" s="71" t="s">
-        <v>1888</v>
+        <v>1871</v>
       </c>
       <c r="F91" s="77" t="s">
-        <v>1820</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="11.25">
@@ -46574,7 +46588,7 @@
         <v>228</v>
       </c>
       <c r="E92" s="71" t="s">
-        <v>1889</v>
+        <v>1872</v>
       </c>
       <c r="F92" s="77"/>
     </row>
@@ -46584,7 +46598,7 @@
       </c>
       <c r="B93" s="71"/>
       <c r="C93" s="71" t="s">
-        <v>1993</v>
+        <v>1976</v>
       </c>
       <c r="D93" s="71" t="s">
         <v>1159</v>
@@ -46600,7 +46614,7 @@
       </c>
       <c r="B94" s="71"/>
       <c r="C94" s="71" t="s">
-        <v>2045</v>
+        <v>2027</v>
       </c>
       <c r="D94" s="71" t="s">
         <v>1160</v>
@@ -46616,7 +46630,7 @@
       </c>
       <c r="B95" s="71"/>
       <c r="C95" s="71" t="s">
-        <v>1986</v>
+        <v>1969</v>
       </c>
       <c r="D95" s="71" t="s">
         <v>1156</v>
@@ -46632,7 +46646,7 @@
       </c>
       <c r="B96" s="71"/>
       <c r="C96" s="71" t="s">
-        <v>1994</v>
+        <v>1977</v>
       </c>
       <c r="D96" s="71" t="s">
         <v>1157</v>
@@ -46648,7 +46662,7 @@
       </c>
       <c r="B97" s="71"/>
       <c r="C97" s="71" t="s">
-        <v>1995</v>
+        <v>1978</v>
       </c>
       <c r="D97" s="71" t="s">
         <v>1161</v>
@@ -46664,7 +46678,7 @@
       </c>
       <c r="B98" s="71"/>
       <c r="C98" s="71" t="s">
-        <v>1987</v>
+        <v>1970</v>
       </c>
       <c r="D98" s="71" t="s">
         <v>1228</v>
@@ -46679,10 +46693,10 @@
         <v>21100</v>
       </c>
       <c r="B99" s="71" t="s">
-        <v>1890</v>
+        <v>1873</v>
       </c>
       <c r="C99" s="71" t="s">
-        <v>2073</v>
+        <v>2055</v>
       </c>
       <c r="D99" s="71" t="s">
         <v>336</v>
@@ -46691,7 +46705,7 @@
         <v>897</v>
       </c>
       <c r="F99" s="77" t="s">
-        <v>1821</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="11.25">
@@ -46702,7 +46716,7 @@
         <v>114</v>
       </c>
       <c r="C100" s="71" t="s">
-        <v>1988</v>
+        <v>1971</v>
       </c>
       <c r="D100" s="71" t="s">
         <v>337</v>
@@ -46711,7 +46725,7 @@
         <v>898</v>
       </c>
       <c r="F100" s="77" t="s">
-        <v>1822</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="11.25">
@@ -46720,7 +46734,7 @@
       </c>
       <c r="B101" s="71"/>
       <c r="C101" s="71" t="s">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="D101" s="71" t="s">
         <v>338</v>
@@ -46736,7 +46750,7 @@
       </c>
       <c r="B102" s="71"/>
       <c r="C102" s="71" t="s">
-        <v>2072</v>
+        <v>2054</v>
       </c>
       <c r="D102" s="71" t="s">
         <v>339</v>
@@ -46752,7 +46766,7 @@
       </c>
       <c r="B103" s="71"/>
       <c r="C103" s="71" t="s">
-        <v>1990</v>
+        <v>1973</v>
       </c>
       <c r="D103" s="71" t="s">
         <v>340</v>
@@ -46768,7 +46782,7 @@
       </c>
       <c r="B104" s="71"/>
       <c r="C104" s="71" t="s">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="D104" s="71" t="s">
         <v>341</v>
@@ -46784,7 +46798,7 @@
       </c>
       <c r="B105" s="71"/>
       <c r="C105" s="71" t="s">
-        <v>1992</v>
+        <v>1975</v>
       </c>
       <c r="D105" s="71" t="s">
         <v>342</v>
@@ -46802,16 +46816,16 @@
         <v>115</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="D106" s="71" t="s">
         <v>343</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>1891</v>
+        <v>1874</v>
       </c>
       <c r="F106" s="77" t="s">
-        <v>1823</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="11.25">
@@ -46820,7 +46834,7 @@
       </c>
       <c r="B107" s="71"/>
       <c r="C107" s="71" t="s">
-        <v>1997</v>
+        <v>1980</v>
       </c>
       <c r="D107" s="71" t="s">
         <v>344</v>
@@ -46836,7 +46850,7 @@
       </c>
       <c r="B108" s="71"/>
       <c r="C108" s="71" t="s">
-        <v>1998</v>
+        <v>1981</v>
       </c>
       <c r="D108" s="71" t="s">
         <v>973</v>
@@ -46852,7 +46866,7 @@
       </c>
       <c r="B109" s="71"/>
       <c r="C109" s="71" t="s">
-        <v>1999</v>
+        <v>1982</v>
       </c>
       <c r="D109" s="71" t="s">
         <v>974</v>
@@ -46868,13 +46882,13 @@
       </c>
       <c r="B110" s="71"/>
       <c r="C110" s="71" t="s">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="D110" s="71" t="s">
         <v>975</v>
       </c>
       <c r="E110" s="71" t="s">
-        <v>1892</v>
+        <v>1875</v>
       </c>
       <c r="F110" s="77"/>
     </row>
@@ -46884,13 +46898,13 @@
       </c>
       <c r="B111" s="71"/>
       <c r="C111" s="71" t="s">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="D111" s="71" t="s">
         <v>976</v>
       </c>
       <c r="E111" s="71" t="s">
-        <v>1893</v>
+        <v>1876</v>
       </c>
       <c r="F111" s="77"/>
     </row>
@@ -46902,7 +46916,7 @@
         <v>116</v>
       </c>
       <c r="C112" s="71" t="s">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="D112" s="71" t="s">
         <v>345</v>
@@ -46911,7 +46925,7 @@
         <v>907</v>
       </c>
       <c r="F112" s="77" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="11.25">
@@ -46920,7 +46934,7 @@
       </c>
       <c r="B113" s="71"/>
       <c r="C113" s="71" t="s">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="D113" s="71" t="s">
         <v>346</v>
@@ -46936,13 +46950,13 @@
       </c>
       <c r="B114" s="71"/>
       <c r="C114" s="71" t="s">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="D114" s="71" t="s">
         <v>347</v>
       </c>
       <c r="E114" s="71" t="s">
-        <v>1894</v>
+        <v>1877</v>
       </c>
       <c r="F114" s="77"/>
     </row>
@@ -46952,7 +46966,7 @@
       </c>
       <c r="B115" s="71"/>
       <c r="C115" s="71" t="s">
-        <v>2005</v>
+        <v>1988</v>
       </c>
       <c r="D115" s="71" t="s">
         <v>348</v>
@@ -46968,7 +46982,7 @@
       </c>
       <c r="B116" s="71"/>
       <c r="C116" s="71" t="s">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="D116" s="71" t="s">
         <v>977</v>
@@ -46984,13 +46998,13 @@
       </c>
       <c r="B117" s="71"/>
       <c r="C117" s="71" t="s">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="D117" s="71" t="s">
         <v>349</v>
       </c>
       <c r="E117" s="71" t="s">
-        <v>1895</v>
+        <v>1878</v>
       </c>
       <c r="F117" s="77"/>
     </row>
@@ -47002,16 +47016,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="D118" s="71" t="s">
         <v>350</v>
       </c>
       <c r="E118" s="71" t="s">
-        <v>1896</v>
+        <v>1879</v>
       </c>
       <c r="F118" s="77" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="11.25">
@@ -47020,7 +47034,7 @@
       </c>
       <c r="B119" s="71"/>
       <c r="C119" s="71" t="s">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="D119" s="71" t="s">
         <v>351</v>
@@ -47036,13 +47050,13 @@
       </c>
       <c r="B120" s="71"/>
       <c r="C120" s="71" t="s">
-        <v>2010</v>
+        <v>1993</v>
       </c>
       <c r="D120" s="71" t="s">
         <v>352</v>
       </c>
       <c r="E120" s="71" t="s">
-        <v>1897</v>
+        <v>1880</v>
       </c>
       <c r="F120" s="77"/>
     </row>
@@ -47052,13 +47066,13 @@
       </c>
       <c r="B121" s="71"/>
       <c r="C121" s="71" t="s">
-        <v>2011</v>
+        <v>1994</v>
       </c>
       <c r="D121" s="71" t="s">
         <v>353</v>
       </c>
       <c r="E121" s="71" t="s">
-        <v>1898</v>
+        <v>1881</v>
       </c>
       <c r="F121" s="77"/>
     </row>
@@ -47068,7 +47082,7 @@
       </c>
       <c r="B122" s="71"/>
       <c r="C122" s="71" t="s">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="D122" s="71" t="s">
         <v>354</v>
@@ -47084,7 +47098,7 @@
       </c>
       <c r="B123" s="71"/>
       <c r="C123" s="71" t="s">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="D123" s="71" t="s">
         <v>355</v>
@@ -47102,16 +47116,16 @@
         <v>118</v>
       </c>
       <c r="C124" s="71" t="s">
-        <v>2014</v>
+        <v>1997</v>
       </c>
       <c r="D124" s="71" t="s">
         <v>356</v>
       </c>
       <c r="E124" s="71" t="s">
-        <v>1899</v>
+        <v>1882</v>
       </c>
       <c r="F124" s="77" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="11.25">
@@ -47188,7 +47202,7 @@
       </c>
       <c r="B129" s="71"/>
       <c r="C129" s="71" t="s">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="D129" s="75" t="s">
         <v>979</v>
@@ -47204,13 +47218,13 @@
       </c>
       <c r="B130" s="71"/>
       <c r="C130" s="75" t="s">
-        <v>2039</v>
+        <v>2022</v>
       </c>
       <c r="D130" s="75" t="s">
-        <v>1827</v>
+        <v>1810</v>
       </c>
       <c r="E130" s="71" t="s">
-        <v>1900</v>
+        <v>1883</v>
       </c>
       <c r="F130" s="77"/>
     </row>
@@ -47220,13 +47234,13 @@
       </c>
       <c r="B131" s="71"/>
       <c r="C131" s="71" t="s">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D131" s="75" t="s">
-        <v>1828</v>
+        <v>1811</v>
       </c>
       <c r="E131" s="71" t="s">
-        <v>1901</v>
+        <v>1884</v>
       </c>
       <c r="F131" s="77"/>
     </row>
@@ -47235,19 +47249,19 @@
         <v>23000</v>
       </c>
       <c r="B132" s="71" t="s">
-        <v>1902</v>
+        <v>1885</v>
       </c>
       <c r="C132" s="71" t="s">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="D132" s="71" t="s">
-        <v>1829</v>
+        <v>1812</v>
       </c>
       <c r="E132" s="71" t="s">
-        <v>1903</v>
+        <v>1886</v>
       </c>
       <c r="F132" s="77" t="s">
-        <v>1830</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="11.25">
@@ -47256,13 +47270,13 @@
       </c>
       <c r="B133" s="71"/>
       <c r="C133" s="71" t="s">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="D133" s="71" t="s">
-        <v>1831</v>
+        <v>1814</v>
       </c>
       <c r="E133" s="71" t="s">
-        <v>1904</v>
+        <v>1887</v>
       </c>
       <c r="F133" s="77"/>
     </row>
@@ -47272,13 +47286,13 @@
       </c>
       <c r="B134" s="71"/>
       <c r="C134" s="71" t="s">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="D134" s="71" t="s">
-        <v>1832</v>
+        <v>1815</v>
       </c>
       <c r="E134" s="71" t="s">
-        <v>1905</v>
+        <v>1888</v>
       </c>
       <c r="F134" s="77"/>
     </row>
@@ -47288,13 +47302,13 @@
       </c>
       <c r="B135" s="71"/>
       <c r="C135" s="71" t="s">
-        <v>2020</v>
+        <v>2003</v>
       </c>
       <c r="D135" s="71" t="s">
-        <v>1833</v>
+        <v>1816</v>
       </c>
       <c r="E135" s="71" t="s">
-        <v>1906</v>
+        <v>1889</v>
       </c>
       <c r="F135" s="77"/>
     </row>
@@ -47304,10 +47318,10 @@
       </c>
       <c r="B136" s="71"/>
       <c r="C136" s="71" t="s">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="D136" s="71" t="s">
-        <v>1834</v>
+        <v>1817</v>
       </c>
       <c r="E136" s="71"/>
       <c r="F136" s="77"/>
@@ -47317,19 +47331,19 @@
         <v>23010</v>
       </c>
       <c r="B137" s="71" t="s">
-        <v>1907</v>
+        <v>1890</v>
       </c>
       <c r="C137" s="71" t="s">
-        <v>2022</v>
+        <v>2005</v>
       </c>
       <c r="D137" s="71" t="s">
-        <v>1835</v>
+        <v>1818</v>
       </c>
       <c r="E137" s="71" t="s">
-        <v>1908</v>
+        <v>1891</v>
       </c>
       <c r="F137" s="77" t="s">
-        <v>1836</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="11.25">
@@ -47338,13 +47352,13 @@
       </c>
       <c r="B138" s="71"/>
       <c r="C138" s="71" t="s">
-        <v>2023</v>
+        <v>2006</v>
       </c>
       <c r="D138" s="71" t="s">
         <v>358</v>
       </c>
       <c r="E138" s="71" t="s">
-        <v>1909</v>
+        <v>1892</v>
       </c>
       <c r="F138" s="77"/>
     </row>
@@ -47354,13 +47368,13 @@
       </c>
       <c r="B139" s="71"/>
       <c r="C139" s="71" t="s">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="D139" s="71" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="E139" s="71" t="s">
-        <v>1910</v>
+        <v>1893</v>
       </c>
       <c r="F139" s="77"/>
     </row>
@@ -47370,13 +47384,13 @@
       </c>
       <c r="B140" s="71"/>
       <c r="C140" s="71" t="s">
-        <v>2025</v>
+        <v>2008</v>
       </c>
       <c r="D140" s="71" t="s">
-        <v>1838</v>
+        <v>1821</v>
       </c>
       <c r="E140" s="71" t="s">
-        <v>1911</v>
+        <v>1894</v>
       </c>
       <c r="F140" s="77"/>
     </row>
@@ -47385,10 +47399,10 @@
         <v>23020</v>
       </c>
       <c r="B141" s="71" t="s">
-        <v>1912</v>
+        <v>1895</v>
       </c>
       <c r="C141" s="71" t="s">
-        <v>2026</v>
+        <v>2009</v>
       </c>
       <c r="D141" s="71" t="s">
         <v>359</v>
@@ -47397,7 +47411,7 @@
         <v>918</v>
       </c>
       <c r="F141" s="77" t="s">
-        <v>1839</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="11.25">
@@ -47406,7 +47420,7 @@
       </c>
       <c r="B142" s="71"/>
       <c r="C142" s="71" t="s">
-        <v>2027</v>
+        <v>2010</v>
       </c>
       <c r="D142" s="71" t="s">
         <v>980</v>
@@ -47422,7 +47436,7 @@
       </c>
       <c r="B143" s="71"/>
       <c r="C143" s="71" t="s">
-        <v>2028</v>
+        <v>2011</v>
       </c>
       <c r="D143" s="71" t="s">
         <v>360</v>
@@ -47438,10 +47452,10 @@
       </c>
       <c r="B144" s="71"/>
       <c r="C144" s="71" t="s">
-        <v>2029</v>
+        <v>2012</v>
       </c>
       <c r="D144" s="71" t="s">
-        <v>1840</v>
+        <v>1823</v>
       </c>
       <c r="E144" s="71" t="s">
         <v>921</v>
@@ -47456,16 +47470,16 @@
         <v>54</v>
       </c>
       <c r="C145" s="71" t="s">
-        <v>2030</v>
+        <v>2013</v>
       </c>
       <c r="D145" s="71" t="s">
-        <v>1841</v>
+        <v>1824</v>
       </c>
       <c r="E145" s="71" t="s">
         <v>922</v>
       </c>
       <c r="F145" s="77" t="s">
-        <v>1842</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="11.25">
@@ -47474,13 +47488,13 @@
       </c>
       <c r="B146" s="71"/>
       <c r="C146" s="71" t="s">
-        <v>2031</v>
+        <v>2014</v>
       </c>
       <c r="D146" s="71" t="s">
-        <v>1843</v>
+        <v>1826</v>
       </c>
       <c r="E146" s="71" t="s">
-        <v>1913</v>
+        <v>1896</v>
       </c>
       <c r="F146" s="77"/>
     </row>
@@ -47490,13 +47504,13 @@
       </c>
       <c r="B147" s="71"/>
       <c r="C147" s="71" t="s">
-        <v>2032</v>
+        <v>2015</v>
       </c>
       <c r="D147" s="71" t="s">
         <v>1158</v>
       </c>
       <c r="E147" s="71" t="s">
-        <v>1914</v>
+        <v>1897</v>
       </c>
       <c r="F147" s="77"/>
     </row>
@@ -47508,16 +47522,16 @@
         <v>55</v>
       </c>
       <c r="C148" s="71" t="s">
-        <v>2033</v>
+        <v>2016</v>
       </c>
       <c r="D148" s="71" t="s">
         <v>361</v>
       </c>
       <c r="E148" s="71" t="s">
-        <v>1915</v>
+        <v>1898</v>
       </c>
       <c r="F148" s="77" t="s">
-        <v>1844</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="11.25">
@@ -47526,13 +47540,13 @@
       </c>
       <c r="B149" s="71"/>
       <c r="C149" s="71" t="s">
-        <v>2034</v>
+        <v>2017</v>
       </c>
       <c r="D149" s="71" t="s">
         <v>362</v>
       </c>
       <c r="E149" s="71" t="s">
-        <v>1916</v>
+        <v>1899</v>
       </c>
       <c r="F149" s="77"/>
     </row>
@@ -47542,13 +47556,13 @@
       </c>
       <c r="B150" s="71"/>
       <c r="C150" s="71" t="s">
-        <v>2035</v>
+        <v>2018</v>
       </c>
       <c r="D150" s="71" t="s">
         <v>363</v>
       </c>
       <c r="E150" s="71" t="s">
-        <v>1917</v>
+        <v>1900</v>
       </c>
       <c r="F150" s="77"/>
     </row>
@@ -47557,10 +47571,10 @@
         <v>23100</v>
       </c>
       <c r="B151" s="71" t="s">
-        <v>1918</v>
+        <v>1901</v>
       </c>
       <c r="C151" s="71" t="s">
-        <v>2036</v>
+        <v>2019</v>
       </c>
       <c r="D151" s="71" t="s">
         <v>986</v>
@@ -47569,7 +47583,7 @@
         <v>923</v>
       </c>
       <c r="F151" s="77" t="s">
-        <v>1845</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="11.25">
@@ -47578,13 +47592,13 @@
       </c>
       <c r="B152" s="71"/>
       <c r="C152" s="71" t="s">
-        <v>2037</v>
+        <v>2020</v>
       </c>
       <c r="D152" s="71" t="s">
         <v>364</v>
       </c>
       <c r="E152" s="71" t="s">
-        <v>1919</v>
+        <v>1902</v>
       </c>
       <c r="F152" s="77"/>
     </row>
@@ -47593,17 +47607,17 @@
         <v>24000</v>
       </c>
       <c r="B153" s="71" t="s">
-        <v>1920</v>
+        <v>1903</v>
       </c>
       <c r="C153" s="71"/>
       <c r="D153" s="71" t="s">
-        <v>1846</v>
+        <v>1829</v>
       </c>
       <c r="E153" s="71" t="s">
-        <v>1921</v>
+        <v>1904</v>
       </c>
       <c r="F153" s="77" t="s">
-        <v>1847</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="11.25">
@@ -47613,7 +47627,7 @@
       <c r="B154" s="71"/>
       <c r="C154" s="71"/>
       <c r="D154" s="71" t="s">
-        <v>1848</v>
+        <v>1831</v>
       </c>
       <c r="E154" s="71" t="s">
         <v>924</v>
@@ -47641,7 +47655,7 @@
       <c r="B156" s="71"/>
       <c r="C156" s="71"/>
       <c r="D156" s="71" t="s">
-        <v>1849</v>
+        <v>1832</v>
       </c>
       <c r="E156" s="71" t="s">
         <v>926</v>
@@ -47655,10 +47669,10 @@
       <c r="B157" s="71"/>
       <c r="C157" s="71"/>
       <c r="D157" s="71" t="s">
-        <v>1850</v>
+        <v>1833</v>
       </c>
       <c r="E157" s="71" t="s">
-        <v>1922</v>
+        <v>1905</v>
       </c>
       <c r="F157" s="77"/>
     </row>
@@ -47672,7 +47686,7 @@
         <v>366</v>
       </c>
       <c r="E158" s="71" t="s">
-        <v>1923</v>
+        <v>1906</v>
       </c>
       <c r="F158" s="77"/>
     </row>
@@ -47714,7 +47728,7 @@
         <v>369</v>
       </c>
       <c r="E161" s="71" t="s">
-        <v>1924</v>
+        <v>1907</v>
       </c>
       <c r="F161" s="77"/>
     </row>
@@ -47728,7 +47742,7 @@
         <v>370</v>
       </c>
       <c r="E162" s="71" t="s">
-        <v>1925</v>
+        <v>1908</v>
       </c>
       <c r="F162" s="77"/>
     </row>
@@ -47738,13 +47752,13 @@
       </c>
       <c r="B163" s="78"/>
       <c r="C163" s="78" t="s">
-        <v>2038</v>
+        <v>2021</v>
       </c>
       <c r="D163" s="78" t="s">
-        <v>1851</v>
+        <v>1834</v>
       </c>
       <c r="E163" s="78" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
       <c r="F163" s="77"/>
     </row>

--- a/KYSP_EN/Tools_ENG/kysp_database.xlsx
+++ b/KYSP_EN/Tools_ENG/kysp_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\FunPIER\KYSP_EN\Tools_ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EE5415-B920-487A-9007-542ED9E76217}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DE9C2A-F8F8-45D3-BB1D-CD89E99506D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMaster" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -24682,25 +24684,12 @@
 the brain structure..</t>
   </si>
   <si>
-    <t>If I fall down
-the last pin...
-Go out with me.</t>
-  </si>
-  <si>
     <t>While he suggested 
 an animation movie,
 I suggested 
 a romantic movie.</t>
   </si>
   <si>
-    <t>Men really cannot
-read the situation...</t>
-  </si>
-  <si>
-    <t>Well, if you get the correct answer
-you will earn one million dollars.</t>
-  </si>
-  <si>
     <t>Q. What is the highest mountain in the world?</t>
   </si>
   <si>
@@ -24738,9 +24727,6 @@
     <t>Didn't you do this when you were young?</t>
   </si>
   <si>
-    <t>She is really hot.</t>
-  </si>
-  <si>
     <t>Isn't that great?</t>
   </si>
   <si>
@@ -24750,26 +24736,10 @@
     <t>Which one is better?</t>
   </si>
   <si>
-    <t>Like a wedding dress
-I'm jealous~</t>
-  </si>
-  <si>
-    <t>Is that kid in elementary school ... ?</t>
-  </si>
-  <si>
-    <t>So, I gave it to them.</t>
-  </si>
-  <si>
     <t>Which color is better?</t>
   </si>
   <si>
     <t>I want to go somewhere like hot spring~</t>
-  </si>
-  <si>
-    <t>Isn't this guy smart~?</t>
-  </si>
-  <si>
-    <t>I've been binge watching this…</t>
   </si>
   <si>
     <t>Will the subway be faster?</t>
@@ -24796,31 +24766,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>He never answered 
-my call.</t>
-  </si>
-  <si>
-    <t>I hope you were standing 
-at this side of the station...</t>
-  </si>
-  <si>
-    <t>I'm back LA!! E</t>
-  </si>
-  <si>
     <t>Do you love each other? Y</t>
   </si>
   <si>
-    <t>With that heat ~~~! E</t>
-  </si>
-  <si>
-    <t>Global Warming! N</t>
-  </si>
-  <si>
     <t>Thank you for today! Y</t>
-  </si>
-  <si>
-    <t>My grandfather 
-suddenly passed away! N</t>
   </si>
   <si>
     <t>Even if we disband,
@@ -29448,39 +29397,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>In order to succeed in my first
-performance in Seoul tomorrow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Tomorrow exam will determine my life</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>···</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>We are disbanding
 from today onward! N</t>
     <phoneticPr fontId="1"/>
@@ -29729,11 +29645,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Are we an item
-now?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>I'm so curious.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -29755,23 +29666,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Do you love me? Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>With this fever~~ E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Yes We Can! Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Say ho! ho! E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Just give up! N</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -29860,6 +29755,114 @@
   </si>
   <si>
     <t>Shall we listen to some music?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blah blah.. so, I gave it to them.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Isn't that guy smart~?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He never answered my call.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>There are no movies to watch
+these days..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>There are no fun things these days..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>She is really hot.. Isn't she?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remember my friend's wedding?
+She was so pretty..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Is that kid in elementary school...?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If I hit the last pin...
+Go out with me.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>We are lovers now, 
+right?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Men really cannot
+read the room...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Global Warming! N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thank you for today! Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scream~~~~! Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wanna go home~~? N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>My grandfather 
+suddenly passed away! N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>With your passion~~! E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I am back LA!! E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Do you love  me? Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Well, if you get the correct answer
+you will earn one million dollars.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>This exam will determine my life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Finally, my first performance is 
+just one day away!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -30143,7 +30146,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -30168,6 +30171,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -30186,7 +30201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -30431,6 +30446,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36815,8 +36851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -36884,7 +36920,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>2084</v>
+        <v>2062</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>372</v>
@@ -36920,7 +36956,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>2085</v>
+        <v>2063</v>
       </c>
       <c r="D6" s="79" t="s">
         <v>1255</v>
@@ -37028,7 +37064,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>2075</v>
+        <v>2057</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1257</v>
@@ -37046,7 +37082,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>2087</v>
+        <v>2065</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>1258</v>
@@ -37062,7 +37098,7 @@
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="64" t="s">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>1259</v>
@@ -37078,7 +37114,7 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="64" t="s">
-        <v>2024</v>
+        <v>2009</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>1260</v>
@@ -37096,7 +37132,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>2086</v>
+        <v>2064</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>1261</v>
@@ -37112,7 +37148,7 @@
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="64" t="s">
-        <v>2088</v>
+        <v>2066</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>1262</v>
@@ -37146,7 +37182,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>2065</v>
+        <v>2048</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>932</v>
@@ -37178,7 +37214,7 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="64" t="s">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>992</v>
@@ -37194,7 +37230,7 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="64" t="s">
-        <v>2067</v>
+        <v>2050</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>933</v>
@@ -37228,7 +37264,7 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="64" t="s">
-        <v>2074</v>
+        <v>2056</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1263</v>
@@ -37256,7 +37292,7 @@
       </c>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:6" ht="33.75">
+    <row r="26" spans="1:6" ht="22.5">
       <c r="A26" s="27">
         <v>130</v>
       </c>
@@ -37264,7 +37300,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>1390</v>
+        <v>2090</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>1265</v>
@@ -37280,7 +37316,7 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="50" t="s">
-        <v>2068</v>
+        <v>2051</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>934</v>
@@ -37296,7 +37332,7 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="50" t="s">
-        <v>2069</v>
+        <v>2052</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>935</v>
@@ -37314,7 +37350,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>2070</v>
+        <v>2053</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>379</v>
@@ -37330,7 +37366,7 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="64" t="s">
-        <v>2071</v>
+        <v>2054</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>1266</v>
@@ -37346,7 +37382,7 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="64" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>1267</v>
@@ -37362,7 +37398,7 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="64" t="s">
-        <v>1392</v>
+        <v>2092</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>1268</v>
@@ -37378,7 +37414,7 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="64" t="s">
-        <v>2072</v>
+        <v>2055</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>1269</v>
@@ -37394,7 +37430,7 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="64" t="s">
-        <v>2073</v>
+        <v>2091</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>1270</v>
@@ -37412,7 +37448,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>2026</v>
+        <v>2011</v>
       </c>
       <c r="D35" s="48" t="s">
         <v>1356</v>
@@ -37428,7 +37464,7 @@
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="65" t="s">
-        <v>2029</v>
+        <v>2102</v>
       </c>
       <c r="D36" s="62" t="s">
         <v>1357</v>
@@ -37444,7 +37480,7 @@
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="65" t="s">
-        <v>2028</v>
+        <v>2103</v>
       </c>
       <c r="D37" s="62" t="s">
         <v>1358</v>
@@ -37462,7 +37498,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>1393</v>
+        <v>2101</v>
       </c>
       <c r="D38" s="62" t="s">
         <v>1359</v>
@@ -37478,7 +37514,7 @@
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="65" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>1271</v>
@@ -37494,7 +37530,7 @@
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="61" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D40" s="48" t="s">
         <v>1360</v>
@@ -37510,7 +37546,7 @@
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="61" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>1361</v>
@@ -37526,7 +37562,7 @@
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="61" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>1272</v>
@@ -37542,7 +37578,7 @@
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="61" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>1273</v>
@@ -37560,7 +37596,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D44" s="62" t="s">
         <v>1274</v>
@@ -37576,7 +37612,7 @@
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="65" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="D45" s="63" t="s">
         <v>1362</v>
@@ -37594,7 +37630,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D46" s="48" t="s">
         <v>1275</v>
@@ -37610,7 +37646,7 @@
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="61" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D47" s="48" t="s">
         <v>1363</v>
@@ -37628,7 +37664,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="64" t="s">
-        <v>2099</v>
+        <v>2077</v>
       </c>
       <c r="D48" s="27" t="s">
         <v>1276</v>
@@ -37639,12 +37675,12 @@
       <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:6" ht="33">
-      <c r="A49" s="27">
+      <c r="A49" s="81">
         <v>1001</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="64" t="s">
-        <v>2098</v>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82" t="s">
+        <v>2076</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>1277</v>
@@ -37655,12 +37691,12 @@
       <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:6" ht="33">
-      <c r="A50" s="27">
+      <c r="A50" s="81">
         <v>1002</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="64" t="s">
-        <v>2100</v>
+      <c r="B50" s="81"/>
+      <c r="C50" s="82" t="s">
+        <v>2078</v>
       </c>
       <c r="D50" s="29" t="s">
         <v>1278</v>
@@ -37671,12 +37707,12 @@
       <c r="F50" s="24"/>
     </row>
     <row r="51" spans="1:6" ht="33">
-      <c r="A51" s="27">
+      <c r="A51" s="81">
         <v>1003</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="64" t="s">
-        <v>1403</v>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82" t="s">
+        <v>1400</v>
       </c>
       <c r="D51" s="29" t="s">
         <v>1279</v>
@@ -37687,12 +37723,12 @@
       <c r="F51" s="24"/>
     </row>
     <row r="52" spans="1:6" ht="33">
-      <c r="A52" s="27">
+      <c r="A52" s="81">
         <v>1004</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="64" t="s">
-        <v>2101</v>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82" t="s">
+        <v>2079</v>
       </c>
       <c r="D52" s="29" t="s">
         <v>1280</v>
@@ -37703,12 +37739,12 @@
       <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="27">
+      <c r="A53" s="81">
         <v>1005</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="64" t="s">
-        <v>1404</v>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82" t="s">
+        <v>1401</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>1281</v>
@@ -37719,12 +37755,12 @@
       <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="27">
+      <c r="A54" s="81">
         <v>1006</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="64" t="s">
-        <v>1405</v>
+      <c r="B54" s="81"/>
+      <c r="C54" s="82" t="s">
+        <v>1402</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>1282</v>
@@ -37735,12 +37771,12 @@
       <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="27">
+      <c r="A55" s="81">
         <v>1007</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="64" t="s">
-        <v>2090</v>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82" t="s">
+        <v>2068</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>1283</v>
@@ -37751,12 +37787,12 @@
       <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="27">
+      <c r="A56" s="81">
         <v>1008</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="64" t="s">
-        <v>2089</v>
+      <c r="B56" s="81"/>
+      <c r="C56" s="82" t="s">
+        <v>2067</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>1284</v>
@@ -37767,12 +37803,12 @@
       <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="27">
+      <c r="A57" s="80">
         <v>1009</v>
       </c>
       <c r="B57" s="27"/>
       <c r="C57" s="64" t="s">
-        <v>1406</v>
+        <v>2087</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>1285</v>
@@ -37783,12 +37819,12 @@
       <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" ht="22.5">
-      <c r="A58" s="27">
+      <c r="A58" s="81">
         <v>1010</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="64" t="s">
-        <v>2097</v>
+      <c r="B58" s="81"/>
+      <c r="C58" s="82" t="s">
+        <v>2075</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>1286</v>
@@ -37799,12 +37835,12 @@
       <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="27">
+      <c r="A59" s="81">
         <v>1011</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="50" t="s">
-        <v>2102</v>
+      <c r="B59" s="81"/>
+      <c r="C59" s="84" t="s">
+        <v>2080</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>1287</v>
@@ -37815,28 +37851,28 @@
       <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:6" ht="11.25">
-      <c r="A60" s="27">
+      <c r="A60" s="81">
         <v>1012</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="28" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D60" s="27" t="s">
+      <c r="B60" s="81"/>
+      <c r="C60" s="83" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D60" s="81" t="s">
         <v>380</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="81" t="s">
         <v>462</v>
       </c>
       <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6" ht="11.25">
-      <c r="A61" s="27">
+      <c r="A61" s="81">
         <v>1013</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="64" t="s">
-        <v>2103</v>
+      <c r="B61" s="81"/>
+      <c r="C61" s="82" t="s">
+        <v>2081</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>381</v>
@@ -37847,12 +37883,12 @@
       <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="27">
+      <c r="A62" s="81">
         <v>1014</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="64" t="s">
-        <v>1408</v>
+      <c r="B62" s="81"/>
+      <c r="C62" s="82" t="s">
+        <v>1404</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>1288</v>
@@ -37863,12 +37899,12 @@
       <c r="F62" s="24"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="27">
+      <c r="A63" s="81">
         <v>1015</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="64" t="s">
-        <v>1423</v>
+      <c r="B63" s="81"/>
+      <c r="C63" s="82" t="s">
+        <v>1414</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>1289</v>
@@ -37879,12 +37915,12 @@
       <c r="F63" s="24"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="27">
+      <c r="A64" s="81">
         <v>1016</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="64" t="s">
-        <v>2096</v>
+      <c r="B64" s="81"/>
+      <c r="C64" s="82" t="s">
+        <v>2074</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>1290</v>
@@ -37895,12 +37931,12 @@
       <c r="F64" s="24"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="27">
+      <c r="A65" s="81">
         <v>1017</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="64" t="s">
-        <v>2093</v>
+      <c r="B65" s="81"/>
+      <c r="C65" s="82" t="s">
+        <v>2071</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>1291</v>
@@ -37911,12 +37947,12 @@
       <c r="F65" s="24"/>
     </row>
     <row r="66" spans="1:6" ht="11.25">
-      <c r="A66" s="27">
+      <c r="A66" s="81">
         <v>1018</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="64" t="s">
-        <v>2095</v>
+      <c r="B66" s="81"/>
+      <c r="C66" s="82" t="s">
+        <v>2073</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>1117</v>
@@ -37927,12 +37963,12 @@
       <c r="F66" s="24"/>
     </row>
     <row r="67" spans="1:6" ht="33">
-      <c r="A67" s="27">
+      <c r="A67" s="81">
         <v>1019</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="64" t="s">
-        <v>1409</v>
+      <c r="B67" s="81"/>
+      <c r="C67" s="82" t="s">
+        <v>1405</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>1292</v>
@@ -37943,12 +37979,12 @@
       <c r="F67" s="24"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="27">
+      <c r="A68" s="81">
         <v>1020</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="64" t="s">
-        <v>2094</v>
+      <c r="B68" s="81"/>
+      <c r="C68" s="82" t="s">
+        <v>2072</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>1293</v>
@@ -37959,12 +37995,12 @@
       <c r="F68" s="24"/>
     </row>
     <row r="69" spans="1:6" ht="22.5">
-      <c r="A69" s="27">
+      <c r="A69" s="81">
         <v>1021</v>
       </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="64" t="s">
-        <v>1410</v>
+      <c r="B69" s="81"/>
+      <c r="C69" s="82" t="s">
+        <v>2088</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>1294</v>
@@ -37975,12 +38011,12 @@
       <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="27">
+      <c r="A70" s="81">
         <v>1022</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="64" t="s">
-        <v>1411</v>
+      <c r="B70" s="81"/>
+      <c r="C70" s="82" t="s">
+        <v>2089</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>1295</v>
@@ -37991,12 +38027,12 @@
       <c r="F70" s="24"/>
     </row>
     <row r="71" spans="1:6" ht="11.25">
-      <c r="A71" s="27">
+      <c r="A71" s="81">
         <v>1023</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="28" t="s">
-        <v>1412</v>
+      <c r="B71" s="81"/>
+      <c r="C71" s="84" t="s">
+        <v>2082</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>382</v>
@@ -38007,12 +38043,12 @@
       <c r="F71" s="24"/>
     </row>
     <row r="72" spans="1:6" ht="11.25">
-      <c r="A72" s="27">
+      <c r="A72" s="81">
         <v>1024</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="64" t="s">
-        <v>1422</v>
+      <c r="B72" s="81"/>
+      <c r="C72" s="82" t="s">
+        <v>1413</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>936</v>
@@ -38023,12 +38059,12 @@
       <c r="F72" s="24"/>
     </row>
     <row r="73" spans="1:6" ht="33">
-      <c r="A73" s="27">
+      <c r="A73" s="81">
         <v>1025</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="64" t="s">
-        <v>2091</v>
+      <c r="B73" s="81"/>
+      <c r="C73" s="82" t="s">
+        <v>2069</v>
       </c>
       <c r="D73" s="29" t="s">
         <v>1296</v>
@@ -38039,12 +38075,12 @@
       <c r="F73" s="24"/>
     </row>
     <row r="74" spans="1:6" ht="33">
-      <c r="A74" s="27">
+      <c r="A74" s="81">
         <v>1026</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="28" t="s">
-        <v>1413</v>
+      <c r="B74" s="81"/>
+      <c r="C74" s="83" t="s">
+        <v>1406</v>
       </c>
       <c r="D74" s="29" t="s">
         <v>1297</v>
@@ -38055,12 +38091,12 @@
       <c r="F74" s="24"/>
     </row>
     <row r="75" spans="1:6" ht="33">
-      <c r="A75" s="27">
+      <c r="A75" s="81">
         <v>1027</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="28" t="s">
-        <v>1414</v>
+      <c r="B75" s="81"/>
+      <c r="C75" s="83" t="s">
+        <v>1407</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>1298</v>
@@ -38071,12 +38107,12 @@
       <c r="F75" s="24"/>
     </row>
     <row r="76" spans="1:6" ht="11.25">
-      <c r="A76" s="27">
+      <c r="A76" s="81">
         <v>1028</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28" t="s">
-        <v>1415</v>
+      <c r="B76" s="81"/>
+      <c r="C76" s="84" t="s">
+        <v>2083</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>383</v>
@@ -38087,12 +38123,12 @@
       <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:6" ht="33">
-      <c r="A77" s="27">
+      <c r="A77" s="81">
         <v>1029</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28" t="s">
-        <v>1416</v>
+      <c r="B77" s="81"/>
+      <c r="C77" s="82" t="s">
+        <v>2086</v>
       </c>
       <c r="D77" s="29" t="s">
         <v>1299</v>
@@ -38103,12 +38139,12 @@
       <c r="F77" s="24"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="27">
+      <c r="A78" s="81">
         <v>1030</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="64" t="s">
-        <v>1417</v>
+      <c r="B78" s="81"/>
+      <c r="C78" s="82" t="s">
+        <v>1408</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>1300</v>
@@ -38119,12 +38155,12 @@
       <c r="F78" s="24"/>
     </row>
     <row r="79" spans="1:6" ht="22.5">
-      <c r="A79" s="27">
+      <c r="A79" s="81">
         <v>1031</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="64" t="s">
-        <v>1418</v>
+      <c r="B79" s="81"/>
+      <c r="C79" s="82" t="s">
+        <v>1409</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>1301</v>
@@ -38135,12 +38171,12 @@
       <c r="F79" s="24"/>
     </row>
     <row r="80" spans="1:6" ht="33">
-      <c r="A80" s="27">
+      <c r="A80" s="81">
         <v>1032</v>
       </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="64" t="s">
-        <v>1419</v>
+      <c r="B80" s="81"/>
+      <c r="C80" s="82" t="s">
+        <v>1410</v>
       </c>
       <c r="D80" s="29" t="s">
         <v>1302</v>
@@ -38151,12 +38187,12 @@
       <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6" ht="11.25">
-      <c r="A81" s="27">
+      <c r="A81" s="81">
         <v>1033</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="50" t="s">
-        <v>2092</v>
+      <c r="B81" s="81"/>
+      <c r="C81" s="84" t="s">
+        <v>2070</v>
       </c>
       <c r="D81" s="27" t="s">
         <v>937</v>
@@ -38167,12 +38203,12 @@
       <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="27">
+      <c r="A82" s="81">
         <v>1034</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="28" t="s">
-        <v>1420</v>
+      <c r="B82" s="81"/>
+      <c r="C82" s="83" t="s">
+        <v>1411</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>1303</v>
@@ -38183,12 +38219,12 @@
       <c r="F82" s="24"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="27">
+      <c r="A83" s="81">
         <v>1035</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="64" t="s">
-        <v>1421</v>
+      <c r="B83" s="81"/>
+      <c r="C83" s="82" t="s">
+        <v>1412</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>1304</v>
@@ -38198,13 +38234,13 @@
       </c>
       <c r="F83" s="24"/>
     </row>
-    <row r="84" spans="1:6" ht="22.5">
-      <c r="A84" s="27">
+    <row r="84" spans="1:6">
+      <c r="A84" s="81">
         <v>1036</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="64" t="s">
-        <v>1424</v>
+      <c r="B84" s="81"/>
+      <c r="C84" s="82" t="s">
+        <v>2084</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>1305</v>
@@ -38215,12 +38251,12 @@
       <c r="F84" s="24"/>
     </row>
     <row r="85" spans="1:6" ht="22.5">
-      <c r="A85" s="27">
+      <c r="A85" s="81">
         <v>1037</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="64" t="s">
-        <v>1425</v>
+      <c r="B85" s="81"/>
+      <c r="C85" s="82" t="s">
+        <v>2085</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>1306</v>
@@ -38231,14 +38267,14 @@
       <c r="F85" s="24"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="27">
+      <c r="A86" s="80">
         <v>1100</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="64" t="s">
-        <v>1426</v>
+      <c r="C86" s="85" t="s">
+        <v>2099</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>1307</v>
@@ -38249,12 +38285,12 @@
       <c r="F86" s="24"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="27">
+      <c r="A87" s="80">
         <v>1101</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="50" t="s">
-        <v>2076</v>
+      <c r="B87" s="80"/>
+      <c r="C87" s="86" t="s">
+        <v>2058</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>1308</v>
@@ -38265,12 +38301,12 @@
       <c r="F87" s="24"/>
     </row>
     <row r="88" spans="1:6" ht="11.25">
-      <c r="A88" s="27">
+      <c r="A88" s="80">
         <v>1102</v>
       </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="64" t="s">
-        <v>2077</v>
+      <c r="B88" s="80"/>
+      <c r="C88" s="85" t="s">
+        <v>2059</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>384</v>
@@ -38281,12 +38317,12 @@
       <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" ht="11.25">
-      <c r="A89" s="27">
+      <c r="A89" s="80">
         <v>1103</v>
       </c>
-      <c r="B89" s="27"/>
-      <c r="C89" s="64" t="s">
-        <v>1427</v>
+      <c r="B89" s="80"/>
+      <c r="C89" s="85" t="s">
+        <v>1415</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>385</v>
@@ -38297,12 +38333,12 @@
       <c r="F89" s="24"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="27">
+      <c r="A90" s="80">
         <v>1104</v>
       </c>
-      <c r="B90" s="27"/>
-      <c r="C90" s="64" t="s">
-        <v>1428</v>
+      <c r="B90" s="80"/>
+      <c r="C90" s="85" t="s">
+        <v>2098</v>
       </c>
       <c r="D90" s="27" t="s">
         <v>1309</v>
@@ -38313,12 +38349,12 @@
       <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" ht="11.25">
-      <c r="A91" s="27">
+      <c r="A91" s="80">
         <v>1105</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="50" t="s">
-        <v>1429</v>
+      <c r="B91" s="80"/>
+      <c r="C91" s="86" t="s">
+        <v>2093</v>
       </c>
       <c r="D91" s="27" t="s">
         <v>386</v>
@@ -38329,12 +38365,12 @@
       <c r="F91" s="24"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="27">
+      <c r="A92" s="80">
         <v>1106</v>
       </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="64" t="s">
-        <v>1430</v>
+      <c r="B92" s="80"/>
+      <c r="C92" s="85" t="s">
+        <v>2094</v>
       </c>
       <c r="D92" s="27" t="s">
         <v>1310</v>
@@ -38345,12 +38381,12 @@
       <c r="F92" s="24"/>
     </row>
     <row r="93" spans="1:6" ht="22.5">
-      <c r="A93" s="27">
+      <c r="A93" s="80">
         <v>1107</v>
       </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="64" t="s">
-        <v>1431</v>
+      <c r="B93" s="80"/>
+      <c r="C93" s="85" t="s">
+        <v>2097</v>
       </c>
       <c r="D93" s="27" t="s">
         <v>1311</v>
@@ -38361,12 +38397,12 @@
       <c r="F93" s="24"/>
     </row>
     <row r="94" spans="1:6" ht="11.25">
-      <c r="A94" s="27">
+      <c r="A94" s="81">
         <v>1108</v>
       </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="50" t="s">
-        <v>2081</v>
+      <c r="B94" s="81"/>
+      <c r="C94" s="84" t="s">
+        <v>2095</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>225</v>
@@ -38377,12 +38413,12 @@
       <c r="F94" s="24"/>
     </row>
     <row r="95" spans="1:6" ht="27">
-      <c r="A95" s="27">
+      <c r="A95" s="81">
         <v>1109</v>
       </c>
-      <c r="B95" s="27"/>
-      <c r="C95" s="64" t="s">
-        <v>2082</v>
+      <c r="B95" s="81"/>
+      <c r="C95" s="82" t="s">
+        <v>2061</v>
       </c>
       <c r="D95" s="29" t="s">
         <v>1312</v>
@@ -38393,12 +38429,12 @@
       <c r="F95" s="24"/>
     </row>
     <row r="96" spans="1:6" ht="11.25">
-      <c r="A96" s="27">
+      <c r="A96" s="80">
         <v>1110</v>
       </c>
-      <c r="B96" s="27"/>
-      <c r="C96" s="50" t="s">
-        <v>2078</v>
+      <c r="B96" s="80"/>
+      <c r="C96" s="86" t="s">
+        <v>2060</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>226</v>
@@ -38409,12 +38445,12 @@
       <c r="F96" s="24"/>
     </row>
     <row r="97" spans="1:6" ht="11.25">
-      <c r="A97" s="27">
+      <c r="A97" s="80">
         <v>1111</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="50" t="s">
-        <v>2083</v>
+      <c r="B97" s="80"/>
+      <c r="C97" s="86" t="s">
+        <v>2096</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>227</v>
@@ -38432,7 +38468,7 @@
         <v>32</v>
       </c>
       <c r="C98" s="64" t="s">
-        <v>2079</v>
+        <v>2100</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>385</v>
@@ -38447,8 +38483,8 @@
         <v>1201</v>
       </c>
       <c r="B99" s="27"/>
-      <c r="C99" s="50" t="s">
-        <v>2080</v>
+      <c r="C99" s="85" t="s">
+        <v>2098</v>
       </c>
       <c r="D99" s="27" t="s">
         <v>1313</v>
@@ -38464,7 +38500,7 @@
       </c>
       <c r="B100" s="27"/>
       <c r="C100" s="64" t="s">
-        <v>1432</v>
+        <v>1417</v>
       </c>
       <c r="D100" s="29" t="s">
         <v>1314</v>
@@ -38480,7 +38516,7 @@
       </c>
       <c r="B101" s="27"/>
       <c r="C101" s="50" t="s">
-        <v>1433</v>
+        <v>1418</v>
       </c>
       <c r="D101" s="27" t="s">
         <v>1315</v>
@@ -38496,7 +38532,7 @@
       </c>
       <c r="B102" s="27"/>
       <c r="C102" s="50" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="D102" s="27" t="s">
         <v>387</v>
@@ -38512,7 +38548,7 @@
       </c>
       <c r="B103" s="27"/>
       <c r="C103" s="64" t="s">
-        <v>2030</v>
+        <v>2013</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>1316</v>
@@ -38528,7 +38564,7 @@
       </c>
       <c r="B104" s="27"/>
       <c r="C104" s="64" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="D104" s="27" t="s">
         <v>388</v>
@@ -38544,7 +38580,7 @@
       </c>
       <c r="B105" s="27"/>
       <c r="C105" s="64" t="s">
-        <v>2030</v>
+        <v>2013</v>
       </c>
       <c r="D105" s="29" t="s">
         <v>1316</v>
@@ -38560,7 +38596,7 @@
       </c>
       <c r="B106" s="27"/>
       <c r="C106" s="64" t="s">
-        <v>1435</v>
+        <v>1420</v>
       </c>
       <c r="D106" s="27" t="s">
         <v>1317</v>
@@ -38576,7 +38612,7 @@
       </c>
       <c r="B107" s="27"/>
       <c r="C107" s="64" t="s">
-        <v>1437</v>
+        <v>1422</v>
       </c>
       <c r="D107" s="27" t="s">
         <v>1318</v>
@@ -38592,7 +38628,7 @@
       </c>
       <c r="B108" s="27"/>
       <c r="C108" s="64" t="s">
-        <v>1436</v>
+        <v>1421</v>
       </c>
       <c r="D108" s="27" t="s">
         <v>1319</v>
@@ -38608,7 +38644,7 @@
       </c>
       <c r="B109" s="27"/>
       <c r="C109" s="64" t="s">
-        <v>2031</v>
+        <v>2014</v>
       </c>
       <c r="D109" s="29" t="s">
         <v>1316</v>
@@ -38626,7 +38662,7 @@
         <v>33</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>1438</v>
+        <v>1423</v>
       </c>
       <c r="D110" s="27" t="s">
         <v>389</v>
@@ -38642,7 +38678,7 @@
       </c>
       <c r="B111" s="27"/>
       <c r="C111" s="64" t="s">
-        <v>2057</v>
+        <v>2040</v>
       </c>
       <c r="D111" s="27" t="s">
         <v>938</v>
@@ -38658,7 +38694,7 @@
       </c>
       <c r="B112" s="27"/>
       <c r="C112" s="50" t="s">
-        <v>2058</v>
+        <v>2041</v>
       </c>
       <c r="D112" s="27" t="s">
         <v>390</v>
@@ -38674,7 +38710,7 @@
       </c>
       <c r="B113" s="27"/>
       <c r="C113" s="64" t="s">
-        <v>1439</v>
+        <v>1424</v>
       </c>
       <c r="D113" s="62" t="s">
         <v>1377</v>
@@ -38690,7 +38726,7 @@
       </c>
       <c r="B114" s="27"/>
       <c r="C114" s="50" t="s">
-        <v>1440</v>
+        <v>1425</v>
       </c>
       <c r="D114" s="27" t="s">
         <v>391</v>
@@ -38706,7 +38742,7 @@
       </c>
       <c r="B115" s="27"/>
       <c r="C115" s="64" t="s">
-        <v>1441</v>
+        <v>1426</v>
       </c>
       <c r="D115" s="29" t="s">
         <v>1320</v>
@@ -38722,7 +38758,7 @@
       </c>
       <c r="B116" s="27"/>
       <c r="C116" s="64" t="s">
-        <v>1442</v>
+        <v>1427</v>
       </c>
       <c r="D116" s="27" t="s">
         <v>1321</v>
@@ -38738,7 +38774,7 @@
       </c>
       <c r="B117" s="27"/>
       <c r="C117" s="64" t="s">
-        <v>1448</v>
+        <v>1433</v>
       </c>
       <c r="D117" s="27" t="s">
         <v>1322</v>
@@ -38754,7 +38790,7 @@
       </c>
       <c r="B118" s="27"/>
       <c r="C118" s="50" t="s">
-        <v>1443</v>
+        <v>1428</v>
       </c>
       <c r="D118" s="27" t="s">
         <v>1323</v>
@@ -38770,7 +38806,7 @@
       </c>
       <c r="B119" s="27"/>
       <c r="C119" s="50" t="s">
-        <v>1444</v>
+        <v>1429</v>
       </c>
       <c r="D119" s="27" t="s">
         <v>1324</v>
@@ -38786,7 +38822,7 @@
       </c>
       <c r="B120" s="27"/>
       <c r="C120" s="50" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>392</v>
@@ -38802,7 +38838,7 @@
       </c>
       <c r="B121" s="27"/>
       <c r="C121" s="64" t="s">
-        <v>1446</v>
+        <v>1431</v>
       </c>
       <c r="D121" s="27" t="s">
         <v>1325</v>
@@ -38818,7 +38854,7 @@
       </c>
       <c r="B122" s="27"/>
       <c r="C122" s="64" t="s">
-        <v>1447</v>
+        <v>1432</v>
       </c>
       <c r="D122" s="27" t="s">
         <v>1326</v>
@@ -38836,7 +38872,7 @@
         <v>34</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
       <c r="D123" s="27" t="s">
         <v>393</v>
@@ -38852,7 +38888,7 @@
       </c>
       <c r="B124" s="27"/>
       <c r="C124" s="28" t="s">
-        <v>1450</v>
+        <v>1435</v>
       </c>
       <c r="D124" s="27" t="s">
         <v>939</v>
@@ -38884,7 +38920,7 @@
       </c>
       <c r="B126" s="27"/>
       <c r="C126" s="28" t="s">
-        <v>1451</v>
+        <v>1436</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>1328</v>
@@ -38900,7 +38936,7 @@
       </c>
       <c r="B127" s="32"/>
       <c r="C127" s="31" t="s">
-        <v>1452</v>
+        <v>1437</v>
       </c>
       <c r="D127" s="32" t="s">
         <v>1329</v>
@@ -38916,7 +38952,7 @@
       </c>
       <c r="B128" s="27"/>
       <c r="C128" s="28" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="D128" s="27" t="s">
         <v>1118</v>
@@ -38932,7 +38968,7 @@
       </c>
       <c r="B129" s="27"/>
       <c r="C129" s="28" t="s">
-        <v>1454</v>
+        <v>1439</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>1330</v>
@@ -38948,7 +38984,7 @@
       </c>
       <c r="B130" s="27"/>
       <c r="C130" s="28" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>1331</v>
@@ -38964,7 +39000,7 @@
       </c>
       <c r="B131" s="27"/>
       <c r="C131" s="28" t="s">
-        <v>1456</v>
+        <v>1441</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>1332</v>
@@ -38980,7 +39016,7 @@
       </c>
       <c r="B132" s="27"/>
       <c r="C132" s="28" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>394</v>
@@ -38996,7 +39032,7 @@
       </c>
       <c r="B133" s="27"/>
       <c r="C133" s="28" t="s">
-        <v>1458</v>
+        <v>1443</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>395</v>
@@ -39012,7 +39048,7 @@
       </c>
       <c r="B134" s="27"/>
       <c r="C134" s="28" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>940</v>
@@ -39028,7 +39064,7 @@
       </c>
       <c r="B135" s="27"/>
       <c r="C135" s="28" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="D135" s="27" t="s">
         <v>941</v>
@@ -39044,7 +39080,7 @@
       </c>
       <c r="B136" s="27"/>
       <c r="C136" s="28" t="s">
-        <v>1461</v>
+        <v>1446</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>396</v>
@@ -39060,7 +39096,7 @@
       </c>
       <c r="B137" s="27"/>
       <c r="C137" s="28" t="s">
-        <v>1462</v>
+        <v>1447</v>
       </c>
       <c r="D137" s="27" t="s">
         <v>397</v>
@@ -39076,7 +39112,7 @@
       </c>
       <c r="B138" s="27"/>
       <c r="C138" s="28" t="s">
-        <v>1463</v>
+        <v>1448</v>
       </c>
       <c r="D138" s="27" t="s">
         <v>1333</v>
@@ -39092,7 +39128,7 @@
       </c>
       <c r="B139" s="27"/>
       <c r="C139" s="28" t="s">
-        <v>1464</v>
+        <v>1449</v>
       </c>
       <c r="D139" s="27" t="s">
         <v>1334</v>
@@ -39108,7 +39144,7 @@
       </c>
       <c r="B140" s="27"/>
       <c r="C140" s="28" t="s">
-        <v>1465</v>
+        <v>1450</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>398</v>
@@ -39124,7 +39160,7 @@
       </c>
       <c r="B141" s="27"/>
       <c r="C141" s="28" t="s">
-        <v>1466</v>
+        <v>1451</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>942</v>
@@ -39140,7 +39176,7 @@
       </c>
       <c r="B142" s="27"/>
       <c r="C142" s="28" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>1335</v>
@@ -39156,7 +39192,7 @@
       </c>
       <c r="B143" s="27"/>
       <c r="C143" s="28" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>399</v>
@@ -39172,7 +39208,7 @@
       </c>
       <c r="B144" s="27"/>
       <c r="C144" s="28" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>1336</v>
@@ -39188,7 +39224,7 @@
       </c>
       <c r="B145" s="27"/>
       <c r="C145" s="28" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>400</v>
@@ -39204,7 +39240,7 @@
       </c>
       <c r="B146" s="27"/>
       <c r="C146" s="50" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>1337</v>
@@ -39220,7 +39256,7 @@
       </c>
       <c r="B147" s="27"/>
       <c r="C147" s="50" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="D147" s="62" t="s">
         <v>1364</v>
@@ -39236,7 +39272,7 @@
       </c>
       <c r="B148" s="27"/>
       <c r="C148" s="50" t="s">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>1338</v>
@@ -39252,7 +39288,7 @@
       </c>
       <c r="B149" s="27"/>
       <c r="C149" s="50" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>1339</v>
@@ -39266,7 +39302,7 @@
       </c>
       <c r="B150" s="27"/>
       <c r="C150" s="28" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>1340</v>
@@ -39282,7 +39318,7 @@
       </c>
       <c r="B151" s="27"/>
       <c r="C151" s="28" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>401</v>
@@ -39316,7 +39352,7 @@
         <v>122</v>
       </c>
       <c r="C153" s="67" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>1341</v>
@@ -39348,7 +39384,7 @@
       </c>
       <c r="B155" s="32"/>
       <c r="C155" s="67" t="s">
-        <v>2032</v>
+        <v>2015</v>
       </c>
       <c r="D155" s="32" t="s">
         <v>1342</v>
@@ -39364,7 +39400,7 @@
       </c>
       <c r="B156" s="27"/>
       <c r="C156" s="28" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>1343</v>
@@ -39380,7 +39416,7 @@
       </c>
       <c r="B157" s="27"/>
       <c r="C157" s="28" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>1344</v>
@@ -39396,7 +39432,7 @@
       </c>
       <c r="B158" s="27"/>
       <c r="C158" s="28" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>1345</v>
@@ -39412,7 +39448,7 @@
       </c>
       <c r="B159" s="27"/>
       <c r="C159" s="28" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>1346</v>
@@ -39428,7 +39464,7 @@
       </c>
       <c r="B160" s="27"/>
       <c r="C160" s="28" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>1347</v>
@@ -39458,7 +39494,7 @@
       </c>
       <c r="B162" s="32"/>
       <c r="C162" s="68" t="s">
-        <v>2062</v>
+        <v>2045</v>
       </c>
       <c r="D162" s="32" t="s">
         <v>1348</v>
@@ -39474,7 +39510,7 @@
       </c>
       <c r="B163" s="32"/>
       <c r="C163" s="30" t="s">
-        <v>1482</v>
+        <v>1467</v>
       </c>
       <c r="D163" s="32" t="s">
         <v>1349</v>
@@ -39490,7 +39526,7 @@
       </c>
       <c r="B164" s="32"/>
       <c r="C164" s="30" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="D164" s="32" t="s">
         <v>1350</v>
@@ -39522,7 +39558,7 @@
       </c>
       <c r="B166" s="32"/>
       <c r="C166" s="68" t="s">
-        <v>2034</v>
+        <v>2017</v>
       </c>
       <c r="D166" s="32" t="s">
         <v>1351</v>
@@ -39538,7 +39574,7 @@
       </c>
       <c r="B167" s="32"/>
       <c r="C167" s="30" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="D167" s="35" t="s">
         <v>1252</v>
@@ -39554,7 +39590,7 @@
       </c>
       <c r="B168" s="32"/>
       <c r="C168" s="44" t="s">
-        <v>2059</v>
+        <v>2042</v>
       </c>
       <c r="D168" s="35" t="s">
         <v>1246</v>
@@ -39570,7 +39606,7 @@
       </c>
       <c r="B169" s="32"/>
       <c r="C169" s="61" t="s">
-        <v>2060</v>
+        <v>2043</v>
       </c>
       <c r="D169" s="35" t="s">
         <v>1247</v>
@@ -39586,7 +39622,7 @@
       </c>
       <c r="B170" s="32"/>
       <c r="C170" s="61" t="s">
-        <v>2061</v>
+        <v>2044</v>
       </c>
       <c r="D170" s="35" t="s">
         <v>1250</v>
@@ -39644,7 +39680,7 @@
       </c>
       <c r="B174" s="32"/>
       <c r="C174" s="61" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="D174" s="32" t="s">
         <v>987</v>
@@ -39660,7 +39696,7 @@
       </c>
       <c r="B175" s="36"/>
       <c r="C175" s="68" t="s">
-        <v>2033</v>
+        <v>2016</v>
       </c>
       <c r="D175" s="36" t="s">
         <v>1352</v>
@@ -39676,7 +39712,7 @@
       </c>
       <c r="B176" s="36"/>
       <c r="C176" s="61" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="D176" s="37" t="s">
         <v>1353</v>
@@ -39756,7 +39792,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>139</v>
@@ -39772,7 +39808,7 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="69" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>140</v>
@@ -39788,7 +39824,7 @@
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="69" t="s">
-        <v>1490</v>
+        <v>1475</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>141</v>
@@ -39804,7 +39840,7 @@
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="69" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>142</v>
@@ -39820,7 +39856,7 @@
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="69" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>143</v>
@@ -39836,7 +39872,7 @@
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="69" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>144</v>
@@ -39852,7 +39888,7 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="69" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>1027</v>
@@ -39868,7 +39904,7 @@
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="69" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>145</v>
@@ -39884,7 +39920,7 @@
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="69" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>1107</v>
@@ -39900,7 +39936,7 @@
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="69" t="s">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="D11" s="44" t="s">
         <v>146</v>
@@ -39916,7 +39952,7 @@
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="69" t="s">
-        <v>1498</v>
+        <v>1483</v>
       </c>
       <c r="D12" s="44" t="s">
         <v>147</v>
@@ -39932,7 +39968,7 @@
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="70" t="s">
-        <v>2043</v>
+        <v>2026</v>
       </c>
       <c r="D13" s="49" t="s">
         <v>1042</v>
@@ -39948,7 +39984,7 @@
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="69" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="D14" s="48" t="s">
         <v>148</v>
@@ -39980,7 +40016,7 @@
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="69" t="s">
-        <v>1500</v>
+        <v>1485</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>149</v>
@@ -39996,7 +40032,7 @@
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="69" t="s">
-        <v>1501</v>
+        <v>1486</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>1109</v>
@@ -40012,7 +40048,7 @@
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="69" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>1110</v>
@@ -40028,7 +40064,7 @@
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="69" t="s">
-        <v>1503</v>
+        <v>1488</v>
       </c>
       <c r="D19" s="48" t="s">
         <v>944</v>
@@ -40044,7 +40080,7 @@
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="69" t="s">
-        <v>1504</v>
+        <v>1489</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>1080</v>
@@ -40060,7 +40096,7 @@
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="69" t="s">
-        <v>1505</v>
+        <v>1490</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>150</v>
@@ -40076,7 +40112,7 @@
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="69" t="s">
-        <v>1506</v>
+        <v>1491</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>151</v>
@@ -40092,7 +40128,7 @@
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="69" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>152</v>
@@ -40108,7 +40144,7 @@
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="69" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>153</v>
@@ -40124,7 +40160,7 @@
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="69" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>154</v>
@@ -40140,7 +40176,7 @@
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="69" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>1075</v>
@@ -40156,7 +40192,7 @@
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="69" t="s">
-        <v>1511</v>
+        <v>1496</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>1202</v>
@@ -40172,7 +40208,7 @@
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="69" t="s">
-        <v>1512</v>
+        <v>1497</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>1203</v>
@@ -40188,7 +40224,7 @@
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="69" t="s">
-        <v>1513</v>
+        <v>1498</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>155</v>
@@ -40204,7 +40240,7 @@
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="69" t="s">
-        <v>1514</v>
+        <v>1499</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>1222</v>
@@ -40220,7 +40256,7 @@
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="69" t="s">
-        <v>1515</v>
+        <v>1500</v>
       </c>
       <c r="D31" s="49" t="s">
         <v>1060</v>
@@ -40236,7 +40272,7 @@
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="69" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="D32" s="48" t="s">
         <v>156</v>
@@ -40252,7 +40288,7 @@
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="69" t="s">
-        <v>1517</v>
+        <v>1502</v>
       </c>
       <c r="D33" s="48" t="s">
         <v>1111</v>
@@ -40268,7 +40304,7 @@
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="69" t="s">
-        <v>1518</v>
+        <v>1503</v>
       </c>
       <c r="D34" s="48" t="s">
         <v>157</v>
@@ -40300,7 +40336,7 @@
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="69" t="s">
-        <v>1519</v>
+        <v>1504</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>945</v>
@@ -40316,7 +40352,7 @@
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="69" t="s">
-        <v>1520</v>
+        <v>1505</v>
       </c>
       <c r="D37" s="48" t="s">
         <v>159</v>
@@ -40332,7 +40368,7 @@
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="69" t="s">
-        <v>1521</v>
+        <v>1506</v>
       </c>
       <c r="D38" s="49" t="s">
         <v>1033</v>
@@ -40364,7 +40400,7 @@
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="69" t="s">
-        <v>1522</v>
+        <v>1507</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>947</v>
@@ -40380,7 +40416,7 @@
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="69" t="s">
-        <v>1523</v>
+        <v>1508</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>160</v>
@@ -40396,7 +40432,7 @@
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="69" t="s">
-        <v>1524</v>
+        <v>1509</v>
       </c>
       <c r="D42" s="48" t="s">
         <v>161</v>
@@ -40444,7 +40480,7 @@
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="69" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
       <c r="D45" s="48" t="s">
         <v>948</v>
@@ -40460,7 +40496,7 @@
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="69" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>949</v>
@@ -40476,7 +40512,7 @@
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="69" t="s">
-        <v>1527</v>
+        <v>1512</v>
       </c>
       <c r="D47" s="48" t="s">
         <v>164</v>
@@ -40492,7 +40528,7 @@
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="69" t="s">
-        <v>1528</v>
+        <v>1513</v>
       </c>
       <c r="D48" s="48" t="s">
         <v>165</v>
@@ -40508,7 +40544,7 @@
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="69" t="s">
-        <v>1529</v>
+        <v>1514</v>
       </c>
       <c r="D49" s="48" t="s">
         <v>166</v>
@@ -40524,7 +40560,7 @@
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="69" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="D50" s="48" t="s">
         <v>167</v>
@@ -40540,7 +40576,7 @@
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="69" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
       <c r="D51" s="48" t="s">
         <v>168</v>
@@ -40556,7 +40592,7 @@
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="69" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="D52" s="48" t="s">
         <v>169</v>
@@ -40572,7 +40608,7 @@
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="69" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="D53" s="48" t="s">
         <v>1183</v>
@@ -40588,7 +40624,7 @@
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="69" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
       <c r="D54" s="49" t="s">
         <v>1030</v>
@@ -40604,7 +40640,7 @@
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="69" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="D55" s="49" t="s">
         <v>1077</v>
@@ -40652,7 +40688,7 @@
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="69" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="D58" s="48" t="s">
         <v>172</v>
@@ -40668,7 +40704,7 @@
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="69" t="s">
-        <v>1537</v>
+        <v>1522</v>
       </c>
       <c r="D59" s="48" t="s">
         <v>950</v>
@@ -40684,7 +40720,7 @@
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="69" t="s">
-        <v>1538</v>
+        <v>1523</v>
       </c>
       <c r="D60" s="49" t="s">
         <v>1084</v>
@@ -40700,7 +40736,7 @@
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="69" t="s">
-        <v>1539</v>
+        <v>1524</v>
       </c>
       <c r="D61" s="49" t="s">
         <v>1209</v>
@@ -40716,7 +40752,7 @@
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="69" t="s">
-        <v>1540</v>
+        <v>1525</v>
       </c>
       <c r="D62" s="48" t="s">
         <v>1223</v>
@@ -40732,7 +40768,7 @@
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="69" t="s">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="D63" s="48" t="s">
         <v>173</v>
@@ -40748,7 +40784,7 @@
       </c>
       <c r="B64" s="48"/>
       <c r="C64" s="69" t="s">
-        <v>1542</v>
+        <v>1527</v>
       </c>
       <c r="D64" s="48" t="s">
         <v>1126</v>
@@ -40764,7 +40800,7 @@
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="69" t="s">
-        <v>1543</v>
+        <v>1528</v>
       </c>
       <c r="D65" s="48" t="s">
         <v>174</v>
@@ -40796,7 +40832,7 @@
       </c>
       <c r="B67" s="48"/>
       <c r="C67" s="69" t="s">
-        <v>1544</v>
+        <v>1529</v>
       </c>
       <c r="D67" s="49" t="s">
         <v>952</v>
@@ -40812,7 +40848,7 @@
       </c>
       <c r="B68" s="48"/>
       <c r="C68" s="69" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="D68" s="49" t="s">
         <v>1171</v>
@@ -40828,7 +40864,7 @@
       </c>
       <c r="B69" s="48"/>
       <c r="C69" s="69" t="s">
-        <v>1546</v>
+        <v>1531</v>
       </c>
       <c r="D69" s="48" t="s">
         <v>175</v>
@@ -40844,7 +40880,7 @@
       </c>
       <c r="B70" s="48"/>
       <c r="C70" s="69" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
       <c r="D70" s="49" t="s">
         <v>1212</v>
@@ -40892,7 +40928,7 @@
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="69" t="s">
-        <v>1548</v>
+        <v>1533</v>
       </c>
       <c r="D73" s="48" t="s">
         <v>1055</v>
@@ -40908,7 +40944,7 @@
       </c>
       <c r="B74" s="48"/>
       <c r="C74" s="69" t="s">
-        <v>1549</v>
+        <v>1534</v>
       </c>
       <c r="D74" s="48" t="s">
         <v>177</v>
@@ -40940,7 +40976,7 @@
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="69" t="s">
-        <v>1550</v>
+        <v>1535</v>
       </c>
       <c r="D76" s="48" t="s">
         <v>179</v>
@@ -40956,7 +40992,7 @@
       </c>
       <c r="B77" s="48"/>
       <c r="C77" s="69" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="D77" s="48" t="s">
         <v>1114</v>
@@ -40972,7 +41008,7 @@
       </c>
       <c r="B78" s="48"/>
       <c r="C78" s="69" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
       <c r="D78" s="48" t="s">
         <v>180</v>
@@ -40988,7 +41024,7 @@
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="69" t="s">
-        <v>1553</v>
+        <v>1538</v>
       </c>
       <c r="D79" s="48" t="s">
         <v>181</v>
@@ -41020,7 +41056,7 @@
       </c>
       <c r="B81" s="48"/>
       <c r="C81" s="69" t="s">
-        <v>1554</v>
+        <v>1539</v>
       </c>
       <c r="D81" s="48" t="s">
         <v>183</v>
@@ -41036,7 +41072,7 @@
       </c>
       <c r="B82" s="48"/>
       <c r="C82" s="69" t="s">
-        <v>1555</v>
+        <v>1540</v>
       </c>
       <c r="D82" s="48" t="s">
         <v>954</v>
@@ -41052,7 +41088,7 @@
       </c>
       <c r="B83" s="48"/>
       <c r="C83" s="69" t="s">
-        <v>1556</v>
+        <v>1541</v>
       </c>
       <c r="D83" s="48" t="s">
         <v>184</v>
@@ -41068,7 +41104,7 @@
       </c>
       <c r="B84" s="48"/>
       <c r="C84" s="69" t="s">
-        <v>1557</v>
+        <v>1542</v>
       </c>
       <c r="D84" s="48" t="s">
         <v>185</v>
@@ -41084,7 +41120,7 @@
       </c>
       <c r="B85" s="48"/>
       <c r="C85" s="69" t="s">
-        <v>1558</v>
+        <v>1543</v>
       </c>
       <c r="D85" s="48" t="s">
         <v>186</v>
@@ -41116,7 +41152,7 @@
       </c>
       <c r="B87" s="48"/>
       <c r="C87" s="69" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
       <c r="D87" s="49" t="s">
         <v>1036</v>
@@ -41164,7 +41200,7 @@
       </c>
       <c r="B90" s="48"/>
       <c r="C90" s="69" t="s">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="D90" s="48" t="s">
         <v>189</v>
@@ -41180,7 +41216,7 @@
       </c>
       <c r="B91" s="48"/>
       <c r="C91" s="69" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
       <c r="D91" s="49" t="s">
         <v>955</v>
@@ -41212,7 +41248,7 @@
       </c>
       <c r="B93" s="48"/>
       <c r="C93" s="69" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
       <c r="D93" s="49" t="s">
         <v>1194</v>
@@ -41228,7 +41264,7 @@
       </c>
       <c r="B94" s="48"/>
       <c r="C94" s="69" t="s">
-        <v>1563</v>
+        <v>1548</v>
       </c>
       <c r="D94" s="48" t="s">
         <v>1115</v>
@@ -41244,7 +41280,7 @@
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="69" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="D95" s="49" t="s">
         <v>1179</v>
@@ -41292,7 +41328,7 @@
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="69" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
       <c r="D98" s="49" t="s">
         <v>1215</v>
@@ -41308,7 +41344,7 @@
       </c>
       <c r="B99" s="48"/>
       <c r="C99" s="69" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="D99" s="48" t="s">
         <v>193</v>
@@ -41324,7 +41360,7 @@
       </c>
       <c r="B100" s="48"/>
       <c r="C100" s="69" t="s">
-        <v>1567</v>
+        <v>1552</v>
       </c>
       <c r="D100" s="48" t="s">
         <v>194</v>
@@ -41340,7 +41376,7 @@
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="71" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>1034</v>
@@ -41356,7 +41392,7 @@
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="71" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
       <c r="D102" s="48" t="s">
         <v>195</v>
@@ -41372,7 +41408,7 @@
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="71" t="s">
-        <v>1570</v>
+        <v>1555</v>
       </c>
       <c r="D103" s="48" t="s">
         <v>196</v>
@@ -41390,7 +41426,7 @@
         <v>74</v>
       </c>
       <c r="C104" s="69" t="s">
-        <v>2044</v>
+        <v>2027</v>
       </c>
       <c r="D104" s="48" t="s">
         <v>197</v>
@@ -41406,7 +41442,7 @@
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="69" t="s">
-        <v>2045</v>
+        <v>2028</v>
       </c>
       <c r="D105" s="48" t="s">
         <v>198</v>
@@ -41422,7 +41458,7 @@
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="69" t="s">
-        <v>1571</v>
+        <v>1556</v>
       </c>
       <c r="D106" s="48" t="s">
         <v>1006</v>
@@ -41438,7 +41474,7 @@
       </c>
       <c r="B107" s="48"/>
       <c r="C107" s="71" t="s">
-        <v>1572</v>
+        <v>1557</v>
       </c>
       <c r="D107" s="49" t="s">
         <v>1189</v>
@@ -41454,7 +41490,7 @@
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="69" t="s">
-        <v>1573</v>
+        <v>1558</v>
       </c>
       <c r="D108" s="48" t="s">
         <v>956</v>
@@ -41470,7 +41506,7 @@
       </c>
       <c r="B109" s="48"/>
       <c r="C109" s="69" t="s">
-        <v>1574</v>
+        <v>1559</v>
       </c>
       <c r="D109" s="48" t="s">
         <v>1012</v>
@@ -41486,7 +41522,7 @@
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="69" t="s">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="D110" s="48" t="s">
         <v>1025</v>
@@ -41502,7 +41538,7 @@
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="69" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="D111" s="48" t="s">
         <v>1041</v>
@@ -41518,7 +41554,7 @@
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="69" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="D112" s="48" t="s">
         <v>1044</v>
@@ -41534,7 +41570,7 @@
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="69" t="s">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="D113" s="48" t="s">
         <v>1182</v>
@@ -41550,7 +41586,7 @@
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="71" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
       <c r="D114" s="49" t="s">
         <v>1187</v>
@@ -41566,7 +41602,7 @@
       </c>
       <c r="B115" s="48"/>
       <c r="C115" s="71" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="D115" s="48" t="s">
         <v>1043</v>
@@ -41582,7 +41618,7 @@
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="69" t="s">
-        <v>1580</v>
+        <v>1565</v>
       </c>
       <c r="D116" s="48" t="s">
         <v>957</v>
@@ -41598,7 +41634,7 @@
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="69" t="s">
-        <v>1581</v>
+        <v>1566</v>
       </c>
       <c r="D117" s="48" t="s">
         <v>1221</v>
@@ -41614,7 +41650,7 @@
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="69" t="s">
-        <v>1582</v>
+        <v>1567</v>
       </c>
       <c r="D118" s="48" t="s">
         <v>1049</v>
@@ -41630,7 +41666,7 @@
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="69" t="s">
-        <v>1583</v>
+        <v>1568</v>
       </c>
       <c r="D119" s="49" t="s">
         <v>1059</v>
@@ -41646,7 +41682,7 @@
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="71" t="s">
-        <v>2064</v>
+        <v>2047</v>
       </c>
       <c r="D120" s="48" t="s">
         <v>958</v>
@@ -41662,7 +41698,7 @@
       </c>
       <c r="B121" s="48"/>
       <c r="C121" s="69" t="s">
-        <v>1584</v>
+        <v>1569</v>
       </c>
       <c r="D121" s="49" t="s">
         <v>1066</v>
@@ -41678,7 +41714,7 @@
       </c>
       <c r="B122" s="48"/>
       <c r="C122" s="71" t="s">
-        <v>1585</v>
+        <v>1570</v>
       </c>
       <c r="D122" s="49" t="s">
         <v>1162</v>
@@ -41694,7 +41730,7 @@
       </c>
       <c r="B123" s="48"/>
       <c r="C123" s="69" t="s">
-        <v>1586</v>
+        <v>1571</v>
       </c>
       <c r="D123" s="49" t="s">
         <v>1218</v>
@@ -41710,7 +41746,7 @@
       </c>
       <c r="B124" s="48"/>
       <c r="C124" s="71" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="D124" s="48" t="s">
         <v>1167</v>
@@ -41726,7 +41762,7 @@
       </c>
       <c r="B125" s="48"/>
       <c r="C125" s="69" t="s">
-        <v>1588</v>
+        <v>1573</v>
       </c>
       <c r="D125" s="48" t="s">
         <v>199</v>
@@ -41742,7 +41778,7 @@
       </c>
       <c r="B126" s="48"/>
       <c r="C126" s="71" t="s">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="D126" s="48" t="s">
         <v>1085</v>
@@ -41758,7 +41794,7 @@
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="69" t="s">
-        <v>1590</v>
+        <v>1575</v>
       </c>
       <c r="D127" s="44" t="s">
         <v>200</v>
@@ -41774,7 +41810,7 @@
       </c>
       <c r="B128" s="48"/>
       <c r="C128" s="71" t="s">
-        <v>1591</v>
+        <v>1576</v>
       </c>
       <c r="D128" s="48" t="s">
         <v>959</v>
@@ -41790,7 +41826,7 @@
       </c>
       <c r="B129" s="48"/>
       <c r="C129" s="69" t="s">
-        <v>1592</v>
+        <v>1577</v>
       </c>
       <c r="D129" s="48" t="s">
         <v>201</v>
@@ -41806,7 +41842,7 @@
       </c>
       <c r="B130" s="48"/>
       <c r="C130" s="69" t="s">
-        <v>1593</v>
+        <v>1578</v>
       </c>
       <c r="D130" s="48" t="s">
         <v>1204</v>
@@ -41822,7 +41858,7 @@
       </c>
       <c r="B131" s="48"/>
       <c r="C131" s="69" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="D131" s="48" t="s">
         <v>1001</v>
@@ -41854,7 +41890,7 @@
       </c>
       <c r="B133" s="48"/>
       <c r="C133" s="69" t="s">
-        <v>1595</v>
+        <v>1580</v>
       </c>
       <c r="D133" s="48" t="s">
         <v>1061</v>
@@ -41870,7 +41906,7 @@
       </c>
       <c r="B134" s="48"/>
       <c r="C134" s="69" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="D134" s="48" t="s">
         <v>1057</v>
@@ -41886,7 +41922,7 @@
       </c>
       <c r="B135" s="48"/>
       <c r="C135" s="69" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="D135" s="49" t="s">
         <v>1082</v>
@@ -41902,7 +41938,7 @@
       </c>
       <c r="B136" s="48"/>
       <c r="C136" s="69" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
       <c r="D136" s="48" t="s">
         <v>203</v>
@@ -41918,7 +41954,7 @@
       </c>
       <c r="B137" s="48"/>
       <c r="C137" s="69" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="D137" s="48" t="s">
         <v>1015</v>
@@ -41934,7 +41970,7 @@
       </c>
       <c r="B138" s="48"/>
       <c r="C138" s="69" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="D138" s="48" t="s">
         <v>960</v>
@@ -41950,7 +41986,7 @@
       </c>
       <c r="B139" s="48"/>
       <c r="C139" s="69" t="s">
-        <v>2047</v>
+        <v>2030</v>
       </c>
       <c r="D139" s="48" t="s">
         <v>204</v>
@@ -41966,7 +42002,7 @@
       </c>
       <c r="B140" s="48"/>
       <c r="C140" s="69" t="s">
-        <v>2046</v>
+        <v>2029</v>
       </c>
       <c r="D140" s="48" t="s">
         <v>1050</v>
@@ -41982,7 +42018,7 @@
       </c>
       <c r="B141" s="48"/>
       <c r="C141" s="69" t="s">
-        <v>1602</v>
+        <v>1587</v>
       </c>
       <c r="D141" s="48" t="s">
         <v>1219</v>
@@ -41998,7 +42034,7 @@
       </c>
       <c r="B142" s="48"/>
       <c r="C142" s="69" t="s">
-        <v>1603</v>
+        <v>1588</v>
       </c>
       <c r="D142" s="48" t="s">
         <v>1003</v>
@@ -42014,7 +42050,7 @@
       </c>
       <c r="B143" s="48"/>
       <c r="C143" s="69" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
       <c r="D143" s="48" t="s">
         <v>1016</v>
@@ -42030,7 +42066,7 @@
       </c>
       <c r="B144" s="48"/>
       <c r="C144" s="71" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="D144" s="48" t="s">
         <v>1017</v>
@@ -42046,7 +42082,7 @@
       </c>
       <c r="B145" s="48"/>
       <c r="C145" s="69" t="s">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="D145" s="48" t="s">
         <v>205</v>
@@ -42062,7 +42098,7 @@
       </c>
       <c r="B146" s="48"/>
       <c r="C146" s="71" t="s">
-        <v>1607</v>
+        <v>1592</v>
       </c>
       <c r="D146" s="48" t="s">
         <v>1020</v>
@@ -42078,7 +42114,7 @@
       </c>
       <c r="B147" s="48"/>
       <c r="C147" s="69" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
       <c r="D147" s="48" t="s">
         <v>206</v>
@@ -42094,7 +42130,7 @@
       </c>
       <c r="B148" s="48"/>
       <c r="C148" s="69" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="D148" s="48" t="s">
         <v>207</v>
@@ -42110,7 +42146,7 @@
       </c>
       <c r="B149" s="48"/>
       <c r="C149" s="69" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="D149" s="48" t="s">
         <v>961</v>
@@ -42126,7 +42162,7 @@
       </c>
       <c r="B150" s="48"/>
       <c r="C150" s="69" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>1021</v>
@@ -42142,7 +42178,7 @@
       </c>
       <c r="B151" s="48"/>
       <c r="C151" s="69" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>1023</v>
@@ -42158,7 +42194,7 @@
       </c>
       <c r="B152" s="48"/>
       <c r="C152" s="71" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>1051</v>
@@ -42174,7 +42210,7 @@
       </c>
       <c r="B153" s="48"/>
       <c r="C153" s="69" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
       <c r="D153" s="48" t="s">
         <v>962</v>
@@ -42190,7 +42226,7 @@
       </c>
       <c r="B154" s="48"/>
       <c r="C154" s="71" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="D154" s="49" t="s">
         <v>1008</v>
@@ -42206,7 +42242,7 @@
       </c>
       <c r="B155" s="48"/>
       <c r="C155" s="69" t="s">
-        <v>1616</v>
+        <v>1601</v>
       </c>
       <c r="D155" s="49" t="s">
         <v>1185</v>
@@ -42222,7 +42258,7 @@
       </c>
       <c r="B156" s="48"/>
       <c r="C156" s="69" t="s">
-        <v>2048</v>
+        <v>2031</v>
       </c>
       <c r="D156" s="48" t="s">
         <v>1029</v>
@@ -42238,7 +42274,7 @@
       </c>
       <c r="B157" s="48"/>
       <c r="C157" s="69" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
       <c r="D157" s="48" t="s">
         <v>1076</v>
@@ -42254,7 +42290,7 @@
       </c>
       <c r="B158" s="48"/>
       <c r="C158" s="71" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="D158" s="48" t="s">
         <v>1195</v>
@@ -42270,7 +42306,7 @@
       </c>
       <c r="B159" s="48"/>
       <c r="C159" s="69" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="D159" s="48" t="s">
         <v>1004</v>
@@ -42286,7 +42322,7 @@
       </c>
       <c r="B160" s="48"/>
       <c r="C160" s="69" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="D160" s="48" t="s">
         <v>1018</v>
@@ -42302,7 +42338,7 @@
       </c>
       <c r="B161" s="48"/>
       <c r="C161" s="69" t="s">
-        <v>1621</v>
+        <v>1606</v>
       </c>
       <c r="D161" s="48" t="s">
         <v>963</v>
@@ -42318,7 +42354,7 @@
       </c>
       <c r="B162" s="48"/>
       <c r="C162" s="69" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="D162" s="48" t="s">
         <v>208</v>
@@ -42334,7 +42370,7 @@
       </c>
       <c r="B163" s="44"/>
       <c r="C163" s="69" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="D163" s="44" t="s">
         <v>1208</v>
@@ -42350,7 +42386,7 @@
       </c>
       <c r="B164" s="48"/>
       <c r="C164" s="69" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="D164" s="48" t="s">
         <v>1052</v>
@@ -42366,7 +42402,7 @@
       </c>
       <c r="B165" s="44"/>
       <c r="C165" s="69" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="D165" s="44" t="s">
         <v>209</v>
@@ -42382,7 +42418,7 @@
       </c>
       <c r="B166" s="44"/>
       <c r="C166" s="69" t="s">
-        <v>1626</v>
+        <v>1611</v>
       </c>
       <c r="D166" s="44" t="s">
         <v>210</v>
@@ -42398,7 +42434,7 @@
       </c>
       <c r="B167" s="44"/>
       <c r="C167" s="71" t="s">
-        <v>1627</v>
+        <v>1612</v>
       </c>
       <c r="D167" s="47" t="s">
         <v>1069</v>
@@ -42414,7 +42450,7 @@
       </c>
       <c r="B168" s="44"/>
       <c r="C168" s="69" t="s">
-        <v>1628</v>
+        <v>1613</v>
       </c>
       <c r="D168" s="44" t="s">
         <v>964</v>
@@ -42430,7 +42466,7 @@
       </c>
       <c r="B169" s="44"/>
       <c r="C169" s="69" t="s">
-        <v>1629</v>
+        <v>1614</v>
       </c>
       <c r="D169" s="44" t="s">
         <v>1053</v>
@@ -42446,7 +42482,7 @@
       </c>
       <c r="B170" s="44"/>
       <c r="C170" s="71" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="D170" s="47" t="s">
         <v>1173</v>
@@ -42462,7 +42498,7 @@
       </c>
       <c r="B171" s="44"/>
       <c r="C171" s="71" t="s">
-        <v>1631</v>
+        <v>1616</v>
       </c>
       <c r="D171" s="44" t="s">
         <v>1071</v>
@@ -42478,7 +42514,7 @@
       </c>
       <c r="B172" s="44"/>
       <c r="C172" s="69" t="s">
-        <v>2049</v>
+        <v>2032</v>
       </c>
       <c r="D172" s="44" t="s">
         <v>1213</v>
@@ -42494,7 +42530,7 @@
       </c>
       <c r="B173" s="44"/>
       <c r="C173" s="69" t="s">
-        <v>1632</v>
+        <v>1617</v>
       </c>
       <c r="D173" s="44" t="s">
         <v>965</v>
@@ -42510,7 +42546,7 @@
       </c>
       <c r="B174" s="44"/>
       <c r="C174" s="71" t="s">
-        <v>1633</v>
+        <v>1618</v>
       </c>
       <c r="D174" s="44" t="s">
         <v>1010</v>
@@ -42526,7 +42562,7 @@
       </c>
       <c r="B175" s="44"/>
       <c r="C175" s="69" t="s">
-        <v>1634</v>
+        <v>1619</v>
       </c>
       <c r="D175" s="44" t="s">
         <v>1039</v>
@@ -42542,7 +42578,7 @@
       </c>
       <c r="B176" s="44"/>
       <c r="C176" s="71" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="D176" s="47" t="s">
         <v>1174</v>
@@ -42558,7 +42594,7 @@
       </c>
       <c r="B177" s="44"/>
       <c r="C177" s="69" t="s">
-        <v>1636</v>
+        <v>1621</v>
       </c>
       <c r="D177" s="44" t="s">
         <v>1206</v>
@@ -42574,7 +42610,7 @@
       </c>
       <c r="B178" s="44"/>
       <c r="C178" s="69" t="s">
-        <v>1637</v>
+        <v>1622</v>
       </c>
       <c r="D178" s="44" t="s">
         <v>1201</v>
@@ -42590,7 +42626,7 @@
       </c>
       <c r="B179" s="44"/>
       <c r="C179" s="69" t="s">
-        <v>1638</v>
+        <v>1623</v>
       </c>
       <c r="D179" s="44" t="s">
         <v>1074</v>
@@ -42606,7 +42642,7 @@
       </c>
       <c r="B180" s="44"/>
       <c r="C180" s="69" t="s">
-        <v>1639</v>
+        <v>1624</v>
       </c>
       <c r="D180" s="47" t="s">
         <v>1083</v>
@@ -42622,7 +42658,7 @@
       </c>
       <c r="B181" s="44"/>
       <c r="C181" s="71" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
       <c r="D181" s="44" t="s">
         <v>966</v>
@@ -42638,7 +42674,7 @@
       </c>
       <c r="B182" s="44"/>
       <c r="C182" s="71" t="s">
-        <v>1641</v>
+        <v>1626</v>
       </c>
       <c r="D182" s="44" t="s">
         <v>1224</v>
@@ -42654,7 +42690,7 @@
       </c>
       <c r="B183" s="44"/>
       <c r="C183" s="69" t="s">
-        <v>1642</v>
+        <v>1627</v>
       </c>
       <c r="D183" s="47" t="s">
         <v>1199</v>
@@ -42670,7 +42706,7 @@
       </c>
       <c r="B184" s="44"/>
       <c r="C184" s="69" t="s">
-        <v>1643</v>
+        <v>1628</v>
       </c>
       <c r="D184" s="44" t="s">
         <v>211</v>
@@ -42686,7 +42722,7 @@
       </c>
       <c r="B185" s="44"/>
       <c r="C185" s="69" t="s">
-        <v>1644</v>
+        <v>1629</v>
       </c>
       <c r="D185" s="47" t="s">
         <v>1007</v>
@@ -42702,7 +42738,7 @@
       </c>
       <c r="B186" s="44"/>
       <c r="C186" s="69" t="s">
-        <v>1645</v>
+        <v>1630</v>
       </c>
       <c r="D186" s="44" t="s">
         <v>1005</v>
@@ -42718,7 +42754,7 @@
       </c>
       <c r="B187" s="44"/>
       <c r="C187" s="69" t="s">
-        <v>1646</v>
+        <v>1631</v>
       </c>
       <c r="D187" s="44" t="s">
         <v>1009</v>
@@ -42734,7 +42770,7 @@
       </c>
       <c r="B188" s="44"/>
       <c r="C188" s="69" t="s">
-        <v>1647</v>
+        <v>1632</v>
       </c>
       <c r="D188" s="44" t="s">
         <v>1170</v>
@@ -42750,7 +42786,7 @@
       </c>
       <c r="B189" s="44"/>
       <c r="C189" s="69" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="D189" s="44" t="s">
         <v>1037</v>
@@ -42766,7 +42802,7 @@
       </c>
       <c r="B190" s="44"/>
       <c r="C190" s="72" t="s">
-        <v>1649</v>
+        <v>1634</v>
       </c>
       <c r="D190" s="44" t="s">
         <v>1064</v>
@@ -42782,7 +42818,7 @@
       </c>
       <c r="B191" s="44"/>
       <c r="C191" s="71" t="s">
-        <v>1650</v>
+        <v>1635</v>
       </c>
       <c r="D191" s="44" t="s">
         <v>1197</v>
@@ -42798,7 +42834,7 @@
       </c>
       <c r="B192" s="44"/>
       <c r="C192" s="69" t="s">
-        <v>1651</v>
+        <v>1636</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>212</v>
@@ -42814,7 +42850,7 @@
       </c>
       <c r="B193" s="44"/>
       <c r="C193" s="69" t="s">
-        <v>1652</v>
+        <v>1637</v>
       </c>
       <c r="D193" s="44" t="s">
         <v>1002</v>
@@ -42830,7 +42866,7 @@
       </c>
       <c r="B194" s="44"/>
       <c r="C194" s="69" t="s">
-        <v>1653</v>
+        <v>1638</v>
       </c>
       <c r="D194" s="47" t="s">
         <v>1078</v>
@@ -42846,7 +42882,7 @@
       </c>
       <c r="B195" s="44"/>
       <c r="C195" s="69" t="s">
-        <v>1654</v>
+        <v>1639</v>
       </c>
       <c r="D195" s="44" t="s">
         <v>213</v>
@@ -42862,7 +42898,7 @@
       </c>
       <c r="B196" s="44"/>
       <c r="C196" s="71" t="s">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="D196" s="44" t="s">
         <v>214</v>
@@ -42878,7 +42914,7 @@
       </c>
       <c r="B197" s="44"/>
       <c r="C197" s="71" t="s">
-        <v>1656</v>
+        <v>1641</v>
       </c>
       <c r="D197" s="44" t="s">
         <v>1178</v>
@@ -42894,7 +42930,7 @@
       </c>
       <c r="B198" s="44"/>
       <c r="C198" s="69" t="s">
-        <v>1657</v>
+        <v>1642</v>
       </c>
       <c r="D198" s="44" t="s">
         <v>1180</v>
@@ -42910,7 +42946,7 @@
       </c>
       <c r="B199" s="44"/>
       <c r="C199" s="72" t="s">
-        <v>1658</v>
+        <v>1643</v>
       </c>
       <c r="D199" s="44" t="s">
         <v>215</v>
@@ -42926,7 +42962,7 @@
       </c>
       <c r="B200" s="44"/>
       <c r="C200" s="72" t="s">
-        <v>1659</v>
+        <v>1644</v>
       </c>
       <c r="D200" s="44" t="s">
         <v>967</v>
@@ -42942,7 +42978,7 @@
       </c>
       <c r="B201" s="44"/>
       <c r="C201" s="71" t="s">
-        <v>1660</v>
+        <v>1645</v>
       </c>
       <c r="D201" s="44" t="s">
         <v>1035</v>
@@ -42958,7 +42994,7 @@
       </c>
       <c r="B202" s="44"/>
       <c r="C202" s="71" t="s">
-        <v>1661</v>
+        <v>1646</v>
       </c>
       <c r="D202" s="44" t="s">
         <v>968</v>
@@ -42974,7 +43010,7 @@
       </c>
       <c r="B203" s="44"/>
       <c r="C203" s="71" t="s">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="D203" s="44" t="s">
         <v>216</v>
@@ -42990,7 +43026,7 @@
       </c>
       <c r="B204" s="44"/>
       <c r="C204" s="71" t="s">
-        <v>1663</v>
+        <v>1648</v>
       </c>
       <c r="D204" s="44" t="s">
         <v>217</v>
@@ -43008,7 +43044,7 @@
         <v>75</v>
       </c>
       <c r="C205" s="72" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="D205" s="56" t="s">
         <v>994</v>
@@ -43024,7 +43060,7 @@
       </c>
       <c r="B206" s="44"/>
       <c r="C206" s="72" t="s">
-        <v>2050</v>
+        <v>2033</v>
       </c>
       <c r="D206" s="56" t="s">
         <v>1013</v>
@@ -43040,7 +43076,7 @@
       </c>
       <c r="B207" s="44"/>
       <c r="C207" s="72" t="s">
-        <v>2051</v>
+        <v>2034</v>
       </c>
       <c r="D207" s="58" t="s">
         <v>999</v>
@@ -43056,7 +43092,7 @@
       </c>
       <c r="B208" s="44"/>
       <c r="C208" s="72" t="s">
-        <v>1665</v>
+        <v>1650</v>
       </c>
       <c r="D208" s="58" t="s">
         <v>1190</v>
@@ -43072,7 +43108,7 @@
       </c>
       <c r="B209" s="44"/>
       <c r="C209" s="72" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="D209" s="58" t="s">
         <v>1014</v>
@@ -43088,7 +43124,7 @@
       </c>
       <c r="B210" s="44"/>
       <c r="C210" s="72" t="s">
-        <v>1667</v>
+        <v>1652</v>
       </c>
       <c r="D210" s="56" t="s">
         <v>1086</v>
@@ -43104,7 +43140,7 @@
       </c>
       <c r="B211" s="44"/>
       <c r="C211" s="73" t="s">
-        <v>1668</v>
+        <v>1653</v>
       </c>
       <c r="D211" s="56" t="s">
         <v>1102</v>
@@ -43120,7 +43156,7 @@
       </c>
       <c r="B212" s="44"/>
       <c r="C212" s="69" t="s">
-        <v>1669</v>
+        <v>1654</v>
       </c>
       <c r="D212" s="58" t="s">
         <v>1040</v>
@@ -43136,7 +43172,7 @@
       </c>
       <c r="B213" s="44"/>
       <c r="C213" s="74" t="s">
-        <v>1670</v>
+        <v>1655</v>
       </c>
       <c r="D213" s="56" t="s">
         <v>1108</v>
@@ -43152,7 +43188,7 @@
       </c>
       <c r="B214" s="44"/>
       <c r="C214" s="69" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="D214" s="56" t="s">
         <v>1181</v>
@@ -43168,7 +43204,7 @@
       </c>
       <c r="B215" s="44"/>
       <c r="C215" s="73" t="s">
-        <v>1672</v>
+        <v>1657</v>
       </c>
       <c r="D215" s="58" t="s">
         <v>1188</v>
@@ -43184,7 +43220,7 @@
       </c>
       <c r="B216" s="44"/>
       <c r="C216" s="73" t="s">
-        <v>1673</v>
+        <v>1658</v>
       </c>
       <c r="D216" s="56" t="s">
         <v>1087</v>
@@ -43200,7 +43236,7 @@
       </c>
       <c r="B217" s="44"/>
       <c r="C217" s="69" t="s">
-        <v>1674</v>
+        <v>1659</v>
       </c>
       <c r="D217" s="44" t="s">
         <v>1191</v>
@@ -43216,7 +43252,7 @@
       </c>
       <c r="B218" s="44"/>
       <c r="C218" s="73" t="s">
-        <v>1675</v>
+        <v>1660</v>
       </c>
       <c r="D218" s="56" t="s">
         <v>1125</v>
@@ -43232,7 +43268,7 @@
       </c>
       <c r="B219" s="44"/>
       <c r="C219" s="73" t="s">
-        <v>1676</v>
+        <v>1661</v>
       </c>
       <c r="D219" s="56" t="s">
         <v>1225</v>
@@ -43248,7 +43284,7 @@
       </c>
       <c r="B220" s="44"/>
       <c r="C220" s="73" t="s">
-        <v>1677</v>
+        <v>1662</v>
       </c>
       <c r="D220" s="44" t="s">
         <v>1058</v>
@@ -43264,7 +43300,7 @@
       </c>
       <c r="B221" s="44"/>
       <c r="C221" s="69" t="s">
-        <v>2052</v>
+        <v>2035</v>
       </c>
       <c r="D221" s="56" t="s">
         <v>1113</v>
@@ -43280,7 +43316,7 @@
       </c>
       <c r="B222" s="44"/>
       <c r="C222" s="73" t="s">
-        <v>1678</v>
+        <v>1663</v>
       </c>
       <c r="D222" s="56" t="s">
         <v>1068</v>
@@ -43296,7 +43332,7 @@
       </c>
       <c r="B223" s="44"/>
       <c r="C223" s="69" t="s">
-        <v>1679</v>
+        <v>1664</v>
       </c>
       <c r="D223" s="58" t="s">
         <v>1163</v>
@@ -43312,7 +43348,7 @@
       </c>
       <c r="B224" s="44"/>
       <c r="C224" s="69" t="s">
-        <v>1680</v>
+        <v>1665</v>
       </c>
       <c r="D224" s="44" t="s">
         <v>138</v>
@@ -43328,7 +43364,7 @@
       </c>
       <c r="B225" s="44"/>
       <c r="C225" s="73" t="s">
-        <v>1681</v>
+        <v>1666</v>
       </c>
       <c r="D225" s="58" t="s">
         <v>1168</v>
@@ -43344,7 +43380,7 @@
       </c>
       <c r="B226" s="44"/>
       <c r="C226" s="69" t="s">
-        <v>1682</v>
+        <v>1667</v>
       </c>
       <c r="D226" s="44" t="s">
         <v>1079</v>
@@ -43360,7 +43396,7 @@
       </c>
       <c r="B227" s="44"/>
       <c r="C227" s="69" t="s">
-        <v>1683</v>
+        <v>1668</v>
       </c>
       <c r="D227" s="44" t="s">
         <v>1123</v>
@@ -43376,7 +43412,7 @@
       </c>
       <c r="B228" s="44"/>
       <c r="C228" s="73" t="s">
-        <v>1684</v>
+        <v>1669</v>
       </c>
       <c r="D228" s="56" t="s">
         <v>1088</v>
@@ -43392,7 +43428,7 @@
       </c>
       <c r="B229" s="44"/>
       <c r="C229" s="73" t="s">
-        <v>2053</v>
+        <v>2036</v>
       </c>
       <c r="D229" s="56" t="s">
         <v>1116</v>
@@ -43408,7 +43444,7 @@
       </c>
       <c r="B230" s="44"/>
       <c r="C230" s="73" t="s">
-        <v>1685</v>
+        <v>1670</v>
       </c>
       <c r="D230" s="58" t="s">
         <v>996</v>
@@ -43424,7 +43460,7 @@
       </c>
       <c r="B231" s="44"/>
       <c r="C231" s="73" t="s">
-        <v>1686</v>
+        <v>1671</v>
       </c>
       <c r="D231" s="56" t="s">
         <v>1205</v>
@@ -43440,7 +43476,7 @@
       </c>
       <c r="B232" s="44"/>
       <c r="C232" s="69" t="s">
-        <v>1687</v>
+        <v>1672</v>
       </c>
       <c r="D232" s="44" t="s">
         <v>969</v>
@@ -43456,7 +43492,7 @@
       </c>
       <c r="B233" s="44"/>
       <c r="C233" s="73" t="s">
-        <v>1688</v>
+        <v>1673</v>
       </c>
       <c r="D233" s="58" t="s">
         <v>1165</v>
@@ -43472,7 +43508,7 @@
       </c>
       <c r="B234" s="44"/>
       <c r="C234" s="69" t="s">
-        <v>1689</v>
+        <v>1674</v>
       </c>
       <c r="D234" s="44" t="s">
         <v>1062</v>
@@ -43488,7 +43524,7 @@
       </c>
       <c r="B235" s="44"/>
       <c r="C235" s="69" t="s">
-        <v>1690</v>
+        <v>1675</v>
       </c>
       <c r="D235" s="44" t="s">
         <v>1056</v>
@@ -43504,7 +43540,7 @@
       </c>
       <c r="B236" s="44"/>
       <c r="C236" s="69" t="s">
-        <v>1691</v>
+        <v>1676</v>
       </c>
       <c r="D236" s="44" t="s">
         <v>1081</v>
@@ -43520,7 +43556,7 @@
       </c>
       <c r="B237" s="44"/>
       <c r="C237" s="69" t="s">
-        <v>1692</v>
+        <v>1677</v>
       </c>
       <c r="D237" s="44" t="s">
         <v>1026</v>
@@ -43536,7 +43572,7 @@
       </c>
       <c r="B238" s="44"/>
       <c r="C238" s="73" t="s">
-        <v>1693</v>
+        <v>1678</v>
       </c>
       <c r="D238" s="56" t="s">
         <v>1227</v>
@@ -43552,7 +43588,7 @@
       </c>
       <c r="B239" s="44"/>
       <c r="C239" s="69" t="s">
-        <v>1694</v>
+        <v>1679</v>
       </c>
       <c r="D239" s="44" t="s">
         <v>1166</v>
@@ -43568,7 +43604,7 @@
       </c>
       <c r="B240" s="44"/>
       <c r="C240" s="73" t="s">
-        <v>1695</v>
+        <v>1680</v>
       </c>
       <c r="D240" s="56" t="s">
         <v>1164</v>
@@ -43584,7 +43620,7 @@
       </c>
       <c r="B241" s="44"/>
       <c r="C241" s="69" t="s">
-        <v>1696</v>
+        <v>1681</v>
       </c>
       <c r="D241" s="56" t="s">
         <v>1103</v>
@@ -43600,7 +43636,7 @@
       </c>
       <c r="B242" s="44"/>
       <c r="C242" s="73" t="s">
-        <v>1697</v>
+        <v>1682</v>
       </c>
       <c r="D242" s="56" t="s">
         <v>1217</v>
@@ -43616,7 +43652,7 @@
       </c>
       <c r="B243" s="44"/>
       <c r="C243" s="69" t="s">
-        <v>1698</v>
+        <v>1683</v>
       </c>
       <c r="D243" s="44" t="s">
         <v>998</v>
@@ -43632,7 +43668,7 @@
       </c>
       <c r="B244" s="44"/>
       <c r="C244" s="73" t="s">
-        <v>1699</v>
+        <v>1684</v>
       </c>
       <c r="D244" s="56" t="s">
         <v>1089</v>
@@ -43648,7 +43684,7 @@
       </c>
       <c r="B245" s="44"/>
       <c r="C245" s="69" t="s">
-        <v>1700</v>
+        <v>1685</v>
       </c>
       <c r="D245" s="44" t="s">
         <v>1045</v>
@@ -43664,7 +43700,7 @@
       </c>
       <c r="B246" s="44"/>
       <c r="C246" s="73" t="s">
-        <v>1701</v>
+        <v>1686</v>
       </c>
       <c r="D246" s="47" t="s">
         <v>1226</v>
@@ -43680,7 +43716,7 @@
       </c>
       <c r="B247" s="44"/>
       <c r="C247" s="73" t="s">
-        <v>1702</v>
+        <v>1687</v>
       </c>
       <c r="D247" s="44" t="s">
         <v>1019</v>
@@ -43696,7 +43732,7 @@
       </c>
       <c r="B248" s="44"/>
       <c r="C248" s="73" t="s">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="D248" s="58" t="s">
         <v>1124</v>
@@ -43712,7 +43748,7 @@
       </c>
       <c r="B249" s="44"/>
       <c r="C249" s="73" t="s">
-        <v>1704</v>
+        <v>1689</v>
       </c>
       <c r="D249" s="58" t="s">
         <v>1046</v>
@@ -43728,7 +43764,7 @@
       </c>
       <c r="B250" s="44"/>
       <c r="C250" s="69" t="s">
-        <v>1705</v>
+        <v>1690</v>
       </c>
       <c r="D250" s="44" t="s">
         <v>997</v>
@@ -43744,7 +43780,7 @@
       </c>
       <c r="B251" s="44"/>
       <c r="C251" s="69" t="s">
-        <v>1706</v>
+        <v>1691</v>
       </c>
       <c r="D251" s="58" t="s">
         <v>1022</v>
@@ -43760,7 +43796,7 @@
       </c>
       <c r="B252" s="44"/>
       <c r="C252" s="73" t="s">
-        <v>1707</v>
+        <v>1692</v>
       </c>
       <c r="D252" s="58" t="s">
         <v>1024</v>
@@ -43776,7 +43812,7 @@
       </c>
       <c r="B253" s="44"/>
       <c r="C253" s="73" t="s">
-        <v>1708</v>
+        <v>1693</v>
       </c>
       <c r="D253" s="58" t="s">
         <v>1073</v>
@@ -43792,7 +43828,7 @@
       </c>
       <c r="B254" s="44"/>
       <c r="C254" s="73" t="s">
-        <v>1709</v>
+        <v>1694</v>
       </c>
       <c r="D254" s="56" t="s">
         <v>1047</v>
@@ -43808,7 +43844,7 @@
       </c>
       <c r="B255" s="44"/>
       <c r="C255" s="73" t="s">
-        <v>1710</v>
+        <v>1695</v>
       </c>
       <c r="D255" s="44" t="s">
         <v>1000</v>
@@ -43824,7 +43860,7 @@
       </c>
       <c r="B256" s="44"/>
       <c r="C256" s="69" t="s">
-        <v>1711</v>
+        <v>1696</v>
       </c>
       <c r="D256" s="44" t="s">
         <v>1184</v>
@@ -43840,7 +43876,7 @@
       </c>
       <c r="B257" s="44"/>
       <c r="C257" s="69" t="s">
-        <v>1712</v>
+        <v>1697</v>
       </c>
       <c r="D257" s="56" t="s">
         <v>1031</v>
@@ -43856,7 +43892,7 @@
       </c>
       <c r="B258" s="44"/>
       <c r="C258" s="73" t="s">
-        <v>1713</v>
+        <v>1698</v>
       </c>
       <c r="D258" s="44" t="s">
         <v>1032</v>
@@ -43872,7 +43908,7 @@
       </c>
       <c r="B259" s="44"/>
       <c r="C259" s="73" t="s">
-        <v>1714</v>
+        <v>1699</v>
       </c>
       <c r="D259" s="56" t="s">
         <v>1196</v>
@@ -43888,7 +43924,7 @@
       </c>
       <c r="B260" s="44"/>
       <c r="C260" s="73" t="s">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="D260" s="56" t="s">
         <v>1090</v>
@@ -43904,7 +43940,7 @@
       </c>
       <c r="B261" s="44"/>
       <c r="C261" s="73" t="s">
-        <v>1716</v>
+        <v>1701</v>
       </c>
       <c r="D261" s="44" t="s">
         <v>1048</v>
@@ -43920,7 +43956,7 @@
       </c>
       <c r="B262" s="44"/>
       <c r="C262" s="73" t="s">
-        <v>1717</v>
+        <v>1702</v>
       </c>
       <c r="D262" s="56" t="s">
         <v>1099</v>
@@ -43936,7 +43972,7 @@
       </c>
       <c r="B263" s="44"/>
       <c r="C263" s="73" t="s">
-        <v>1718</v>
+        <v>1703</v>
       </c>
       <c r="D263" s="56" t="s">
         <v>1122</v>
@@ -43952,7 +43988,7 @@
       </c>
       <c r="B264" s="44"/>
       <c r="C264" s="73" t="s">
-        <v>1719</v>
+        <v>1704</v>
       </c>
       <c r="D264" s="56" t="s">
         <v>1210</v>
@@ -43968,7 +44004,7 @@
       </c>
       <c r="B265" s="44"/>
       <c r="C265" s="73" t="s">
-        <v>1720</v>
+        <v>1705</v>
       </c>
       <c r="D265" s="56" t="s">
         <v>1091</v>
@@ -43984,7 +44020,7 @@
       </c>
       <c r="B266" s="44"/>
       <c r="C266" s="73" t="s">
-        <v>1721</v>
+        <v>1706</v>
       </c>
       <c r="D266" s="58" t="s">
         <v>1065</v>
@@ -44000,7 +44036,7 @@
       </c>
       <c r="B267" s="44"/>
       <c r="C267" s="73" t="s">
-        <v>1722</v>
+        <v>1707</v>
       </c>
       <c r="D267" s="58" t="s">
         <v>1070</v>
@@ -44016,7 +44052,7 @@
       </c>
       <c r="B268" s="44"/>
       <c r="C268" s="69" t="s">
-        <v>1723</v>
+        <v>1708</v>
       </c>
       <c r="D268" s="44" t="s">
         <v>1112</v>
@@ -44032,7 +44068,7 @@
       </c>
       <c r="B269" s="44"/>
       <c r="C269" s="69" t="s">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="D269" s="44" t="s">
         <v>218</v>
@@ -44048,7 +44084,7 @@
       </c>
       <c r="B270" s="44"/>
       <c r="C270" s="73" t="s">
-        <v>1725</v>
+        <v>1710</v>
       </c>
       <c r="D270" s="56" t="s">
         <v>1193</v>
@@ -44064,7 +44100,7 @@
       </c>
       <c r="B271" s="44"/>
       <c r="C271" s="69" t="s">
-        <v>1726</v>
+        <v>1711</v>
       </c>
       <c r="D271" s="44" t="s">
         <v>1172</v>
@@ -44080,7 +44116,7 @@
       </c>
       <c r="B272" s="44"/>
       <c r="C272" s="73" t="s">
-        <v>1727</v>
+        <v>1712</v>
       </c>
       <c r="D272" s="56" t="s">
         <v>1092</v>
@@ -44096,7 +44132,7 @@
       </c>
       <c r="B273" s="44"/>
       <c r="C273" s="69" t="s">
-        <v>1728</v>
+        <v>1713</v>
       </c>
       <c r="D273" s="58" t="s">
         <v>1214</v>
@@ -44112,7 +44148,7 @@
       </c>
       <c r="B274" s="44"/>
       <c r="C274" s="73" t="s">
-        <v>1729</v>
+        <v>1714</v>
       </c>
       <c r="D274" s="56" t="s">
         <v>1067</v>
@@ -44128,7 +44164,7 @@
       </c>
       <c r="B275" s="44"/>
       <c r="C275" s="73" t="s">
-        <v>1730</v>
+        <v>1715</v>
       </c>
       <c r="D275" s="56" t="s">
         <v>1011</v>
@@ -44144,7 +44180,7 @@
       </c>
       <c r="B276" s="44"/>
       <c r="C276" s="69" t="s">
-        <v>1731</v>
+        <v>1716</v>
       </c>
       <c r="D276" s="44" t="s">
         <v>1038</v>
@@ -44160,7 +44196,7 @@
       </c>
       <c r="B277" s="44"/>
       <c r="C277" s="69" t="s">
-        <v>1732</v>
+        <v>1717</v>
       </c>
       <c r="D277" s="56" t="s">
         <v>1093</v>
@@ -44176,7 +44212,7 @@
       </c>
       <c r="B278" s="44"/>
       <c r="C278" s="73" t="s">
-        <v>1733</v>
+        <v>1718</v>
       </c>
       <c r="D278" s="56" t="s">
         <v>1207</v>
@@ -44192,7 +44228,7 @@
       </c>
       <c r="B279" s="44"/>
       <c r="C279" s="73" t="s">
-        <v>1734</v>
+        <v>1719</v>
       </c>
       <c r="D279" s="58" t="s">
         <v>1200</v>
@@ -44208,7 +44244,7 @@
       </c>
       <c r="B280" s="44"/>
       <c r="C280" s="73" t="s">
-        <v>1735</v>
+        <v>1720</v>
       </c>
       <c r="D280" s="56" t="s">
         <v>1094</v>
@@ -44224,7 +44260,7 @@
       </c>
       <c r="B281" s="44"/>
       <c r="C281" s="73" t="s">
-        <v>1736</v>
+        <v>1721</v>
       </c>
       <c r="D281" s="56" t="s">
         <v>1121</v>
@@ -44240,7 +44276,7 @@
       </c>
       <c r="B282" s="44"/>
       <c r="C282" s="73" t="s">
-        <v>1737</v>
+        <v>1722</v>
       </c>
       <c r="D282" s="56" t="s">
         <v>1186</v>
@@ -44272,7 +44308,7 @@
       </c>
       <c r="B284" s="44"/>
       <c r="C284" s="73" t="s">
-        <v>1738</v>
+        <v>1723</v>
       </c>
       <c r="D284" s="44" t="s">
         <v>220</v>
@@ -44304,7 +44340,7 @@
       </c>
       <c r="B286" s="44"/>
       <c r="C286" s="73" t="s">
-        <v>1739</v>
+        <v>1724</v>
       </c>
       <c r="D286" s="56" t="s">
         <v>1101</v>
@@ -44320,7 +44356,7 @@
       </c>
       <c r="B287" s="44"/>
       <c r="C287" s="69" t="s">
-        <v>1740</v>
+        <v>1725</v>
       </c>
       <c r="D287" s="44" t="s">
         <v>221</v>
@@ -44336,7 +44372,7 @@
       </c>
       <c r="B288" s="44"/>
       <c r="C288" s="73" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="D288" s="58" t="s">
         <v>1095</v>
@@ -44352,7 +44388,7 @@
       </c>
       <c r="B289" s="44"/>
       <c r="C289" s="73" t="s">
-        <v>1742</v>
+        <v>1727</v>
       </c>
       <c r="D289" s="58" t="s">
         <v>1169</v>
@@ -44368,7 +44404,7 @@
       </c>
       <c r="B290" s="44"/>
       <c r="C290" s="73" t="s">
-        <v>1743</v>
+        <v>1728</v>
       </c>
       <c r="D290" s="56" t="s">
         <v>1106</v>
@@ -44384,7 +44420,7 @@
       </c>
       <c r="B291" s="44"/>
       <c r="C291" s="73" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="D291" s="56" t="s">
         <v>1063</v>
@@ -44400,7 +44436,7 @@
       </c>
       <c r="B292" s="44"/>
       <c r="C292" s="73" t="s">
-        <v>1745</v>
+        <v>1730</v>
       </c>
       <c r="D292" s="58" t="s">
         <v>1198</v>
@@ -44416,7 +44452,7 @@
       </c>
       <c r="B293" s="44"/>
       <c r="C293" s="73" t="s">
-        <v>1746</v>
+        <v>1731</v>
       </c>
       <c r="D293" s="58" t="s">
         <v>995</v>
@@ -44432,7 +44468,7 @@
       </c>
       <c r="B294" s="44"/>
       <c r="C294" s="73" t="s">
-        <v>1747</v>
+        <v>1732</v>
       </c>
       <c r="D294" s="58" t="s">
         <v>1100</v>
@@ -44448,7 +44484,7 @@
       </c>
       <c r="B295" s="44"/>
       <c r="C295" s="73" t="s">
-        <v>1758</v>
+        <v>1743</v>
       </c>
       <c r="D295" s="58" t="s">
         <v>1119</v>
@@ -44464,7 +44500,7 @@
       </c>
       <c r="B296" s="44"/>
       <c r="C296" s="73" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="D296" s="56" t="s">
         <v>990</v>
@@ -44480,7 +44516,7 @@
       </c>
       <c r="B297" s="44"/>
       <c r="C297" s="73" t="s">
-        <v>1748</v>
+        <v>1733</v>
       </c>
       <c r="D297" s="56" t="s">
         <v>1192</v>
@@ -44496,7 +44532,7 @@
       </c>
       <c r="B298" s="44"/>
       <c r="C298" s="73" t="s">
-        <v>1756</v>
+        <v>1741</v>
       </c>
       <c r="D298" s="58" t="s">
         <v>1177</v>
@@ -44512,7 +44548,7 @@
       </c>
       <c r="B299" s="44"/>
       <c r="C299" s="69" t="s">
-        <v>1755</v>
+        <v>1740</v>
       </c>
       <c r="D299" s="44" t="s">
         <v>222</v>
@@ -44528,7 +44564,7 @@
       </c>
       <c r="B300" s="44"/>
       <c r="C300" s="73" t="s">
-        <v>1754</v>
+        <v>1739</v>
       </c>
       <c r="D300" s="56" t="s">
         <v>1120</v>
@@ -44544,7 +44580,7 @@
       </c>
       <c r="B301" s="44"/>
       <c r="C301" s="73" t="s">
-        <v>1753</v>
+        <v>1738</v>
       </c>
       <c r="D301" s="56" t="s">
         <v>1216</v>
@@ -44560,7 +44596,7 @@
       </c>
       <c r="B302" s="44"/>
       <c r="C302" s="73" t="s">
-        <v>1752</v>
+        <v>1737</v>
       </c>
       <c r="D302" s="56" t="s">
         <v>1105</v>
@@ -44576,7 +44612,7 @@
       </c>
       <c r="B303" s="44"/>
       <c r="C303" s="73" t="s">
-        <v>1751</v>
+        <v>1736</v>
       </c>
       <c r="D303" s="58" t="s">
         <v>1104</v>
@@ -44592,7 +44628,7 @@
       </c>
       <c r="B304" s="44"/>
       <c r="C304" s="75" t="s">
-        <v>1750</v>
+        <v>1735</v>
       </c>
       <c r="D304" s="58" t="s">
         <v>1211</v>
@@ -44608,7 +44644,7 @@
       </c>
       <c r="B305" s="48"/>
       <c r="C305" s="75" t="s">
-        <v>1749</v>
+        <v>1734</v>
       </c>
       <c r="D305" s="57" t="s">
         <v>991</v>
@@ -45079,19 +45115,19 @@
         <v>20000</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>1835</v>
+        <v>1820</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>1759</v>
+        <v>1744</v>
       </c>
       <c r="D2" s="71" t="s">
         <v>930</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>1836</v>
+        <v>1821</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="11.25">
@@ -45100,13 +45136,13 @@
       </c>
       <c r="B3" s="71"/>
       <c r="C3" s="71" t="s">
-        <v>1760</v>
+        <v>1745</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>970</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>1837</v>
+        <v>1822</v>
       </c>
       <c r="F3" s="77"/>
     </row>
@@ -45116,13 +45152,13 @@
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="71" t="s">
-        <v>1761</v>
+        <v>1746</v>
       </c>
       <c r="D4" s="71" t="s">
         <v>981</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>1838</v>
+        <v>1823</v>
       </c>
       <c r="F4" s="77"/>
     </row>
@@ -45131,10 +45167,10 @@
         <v>20010</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>1839</v>
+        <v>1824</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>1762</v>
+        <v>1747</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>296</v>
@@ -45143,7 +45179,7 @@
         <v>848</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>1775</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25">
@@ -45152,13 +45188,13 @@
       </c>
       <c r="B6" s="71"/>
       <c r="C6" s="71" t="s">
-        <v>1763</v>
+        <v>1748</v>
       </c>
       <c r="D6" s="71" t="s">
         <v>1096</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>1840</v>
+        <v>1825</v>
       </c>
       <c r="F6" s="77"/>
     </row>
@@ -45168,13 +45204,13 @@
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71" t="s">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>297</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>1841</v>
+        <v>1826</v>
       </c>
       <c r="F7" s="77"/>
     </row>
@@ -45184,7 +45220,7 @@
       </c>
       <c r="B8" s="71"/>
       <c r="C8" s="71" t="s">
-        <v>1764</v>
+        <v>1749</v>
       </c>
       <c r="D8" s="71" t="s">
         <v>298</v>
@@ -45199,10 +45235,10 @@
         <v>20020</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>1842</v>
+        <v>1827</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>1765</v>
+        <v>1750</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>293</v>
@@ -45211,7 +45247,7 @@
         <v>850</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25">
@@ -45220,13 +45256,13 @@
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71" t="s">
-        <v>1761</v>
+        <v>1746</v>
       </c>
       <c r="D10" s="71" t="s">
         <v>993</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>1838</v>
+        <v>1823</v>
       </c>
       <c r="F10" s="77"/>
     </row>
@@ -45236,7 +45272,7 @@
       </c>
       <c r="B11" s="71"/>
       <c r="C11" s="71" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
       <c r="D11" s="71" t="s">
         <v>1097</v>
@@ -45252,13 +45288,13 @@
       </c>
       <c r="B12" s="78"/>
       <c r="C12" s="71" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>1843</v>
+        <v>1828</v>
       </c>
       <c r="F12" s="77"/>
     </row>
@@ -45268,13 +45304,13 @@
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="71" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="D13" s="71" t="s">
         <v>989</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>1844</v>
+        <v>1829</v>
       </c>
       <c r="F13" s="77"/>
     </row>
@@ -45284,13 +45320,13 @@
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="71" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>1098</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>1845</v>
+        <v>1830</v>
       </c>
       <c r="F14" s="77"/>
     </row>
@@ -45300,10 +45336,10 @@
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="71" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
       <c r="E15" s="71" t="s">
         <v>45</v>
@@ -45316,7 +45352,7 @@
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="71" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
       <c r="D16" s="71" t="s">
         <v>292</v>
@@ -45332,7 +45368,7 @@
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="71" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
       <c r="D17" s="71" t="s">
         <v>299</v>
@@ -45348,7 +45384,7 @@
       </c>
       <c r="B18" s="71"/>
       <c r="C18" s="71" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
       <c r="D18" s="71" t="s">
         <v>1149</v>
@@ -45364,7 +45400,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>1910</v>
+        <v>1895</v>
       </c>
       <c r="D19" s="71" t="s">
         <v>300</v>
@@ -45382,13 +45418,13 @@
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="71" t="s">
-        <v>1911</v>
+        <v>1896</v>
       </c>
       <c r="D20" s="71" t="s">
         <v>971</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>1846</v>
+        <v>1831</v>
       </c>
       <c r="F20" s="77"/>
     </row>
@@ -45398,7 +45434,7 @@
       </c>
       <c r="B21" s="71"/>
       <c r="C21" s="71" t="s">
-        <v>1912</v>
+        <v>1897</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>301</v>
@@ -45414,13 +45450,13 @@
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71" t="s">
-        <v>1913</v>
+        <v>1898</v>
       </c>
       <c r="D22" s="71" t="s">
         <v>302</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>1847</v>
+        <v>1832</v>
       </c>
       <c r="F22" s="77"/>
     </row>
@@ -45429,10 +45465,10 @@
         <v>20040</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>1836</v>
+        <v>1821</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>1914</v>
+        <v>1899</v>
       </c>
       <c r="D23" s="71" t="s">
         <v>303</v>
@@ -45450,7 +45486,7 @@
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71" t="s">
-        <v>1915</v>
+        <v>1900</v>
       </c>
       <c r="D24" s="71" t="s">
         <v>304</v>
@@ -45466,7 +45502,7 @@
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="71" t="s">
-        <v>1916</v>
+        <v>1901</v>
       </c>
       <c r="D25" s="71" t="s">
         <v>305</v>
@@ -45482,13 +45518,13 @@
       </c>
       <c r="B26" s="71"/>
       <c r="C26" s="71" t="s">
-        <v>1917</v>
+        <v>1902</v>
       </c>
       <c r="D26" s="71" t="s">
         <v>294</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>1848</v>
+        <v>1833</v>
       </c>
       <c r="F26" s="77"/>
     </row>
@@ -45498,7 +45534,7 @@
       </c>
       <c r="B27" s="71"/>
       <c r="C27" s="71" t="s">
-        <v>1918</v>
+        <v>1903</v>
       </c>
       <c r="D27" s="71" t="s">
         <v>306</v>
@@ -45514,7 +45550,7 @@
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="71" t="s">
-        <v>1919</v>
+        <v>1904</v>
       </c>
       <c r="D28" s="71" t="s">
         <v>1354</v>
@@ -45528,7 +45564,7 @@
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="71" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="D29" s="71" t="s">
         <v>1355</v>
@@ -45544,7 +45580,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="71" t="s">
-        <v>1921</v>
+        <v>1906</v>
       </c>
       <c r="D30" s="71" t="s">
         <v>307</v>
@@ -45553,7 +45589,7 @@
         <v>860</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.25">
@@ -45562,7 +45598,7 @@
       </c>
       <c r="B31" s="71"/>
       <c r="C31" s="71" t="s">
-        <v>2063</v>
+        <v>2046</v>
       </c>
       <c r="D31" s="71" t="s">
         <v>308</v>
@@ -45578,13 +45614,13 @@
       </c>
       <c r="B32" s="71"/>
       <c r="C32" s="71" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="D32" s="71" t="s">
         <v>142</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>1849</v>
+        <v>1834</v>
       </c>
       <c r="F32" s="77"/>
     </row>
@@ -45594,13 +45630,13 @@
       </c>
       <c r="B33" s="71"/>
       <c r="C33" s="71" t="s">
-        <v>1922</v>
+        <v>1907</v>
       </c>
       <c r="D33" s="71" t="s">
         <v>309</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>1850</v>
+        <v>1835</v>
       </c>
       <c r="F33" s="77"/>
     </row>
@@ -45610,13 +45646,13 @@
       </c>
       <c r="B34" s="71"/>
       <c r="C34" s="71" t="s">
-        <v>1923</v>
+        <v>1908</v>
       </c>
       <c r="D34" s="71" t="s">
         <v>310</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>1851</v>
+        <v>1836</v>
       </c>
       <c r="F34" s="77"/>
     </row>
@@ -45626,13 +45662,13 @@
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71" t="s">
-        <v>1924</v>
+        <v>1909</v>
       </c>
       <c r="D35" s="71" t="s">
         <v>311</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>1852</v>
+        <v>1837</v>
       </c>
       <c r="F35" s="77"/>
     </row>
@@ -45642,13 +45678,13 @@
       </c>
       <c r="B36" s="71"/>
       <c r="C36" s="71" t="s">
-        <v>1925</v>
+        <v>1910</v>
       </c>
       <c r="D36" s="71" t="s">
         <v>312</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>1853</v>
+        <v>1838</v>
       </c>
       <c r="F36" s="77"/>
     </row>
@@ -45657,19 +45693,19 @@
         <v>20060</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>1854</v>
+        <v>1839</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
       <c r="D37" s="71" t="s">
         <v>1135</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>1855</v>
+        <v>1840</v>
       </c>
       <c r="F37" s="77" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25">
@@ -45696,7 +45732,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="71" t="s">
-        <v>1926</v>
+        <v>1911</v>
       </c>
       <c r="D39" s="71" t="s">
         <v>313</v>
@@ -45705,7 +45741,7 @@
         <v>863</v>
       </c>
       <c r="F39" s="77" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="11.25">
@@ -45714,7 +45750,7 @@
       </c>
       <c r="B40" s="71"/>
       <c r="C40" s="71" t="s">
-        <v>1927</v>
+        <v>1912</v>
       </c>
       <c r="D40" s="71" t="s">
         <v>314</v>
@@ -45730,7 +45766,7 @@
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="71" t="s">
-        <v>1928</v>
+        <v>1913</v>
       </c>
       <c r="D41" s="71" t="s">
         <v>315</v>
@@ -45745,19 +45781,19 @@
         <v>20080</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>1844</v>
+        <v>1829</v>
       </c>
       <c r="C42" s="71" t="s">
-        <v>1929</v>
+        <v>1914</v>
       </c>
       <c r="D42" s="71" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
       <c r="E42" s="71" t="s">
         <v>866</v>
       </c>
       <c r="F42" s="77" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="11.25">
@@ -45766,10 +45802,10 @@
       </c>
       <c r="B43" s="71"/>
       <c r="C43" s="71" t="s">
-        <v>1930</v>
+        <v>1915</v>
       </c>
       <c r="D43" s="71" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
       <c r="E43" s="71" t="s">
         <v>867</v>
@@ -45782,10 +45818,10 @@
       </c>
       <c r="B44" s="71"/>
       <c r="C44" s="71" t="s">
-        <v>1931</v>
+        <v>1916</v>
       </c>
       <c r="D44" s="71" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="E44" s="71" t="s">
         <v>868</v>
@@ -45800,7 +45836,7 @@
         <v>1151</v>
       </c>
       <c r="C45" s="71" t="s">
-        <v>1932</v>
+        <v>1917</v>
       </c>
       <c r="D45" s="71" t="s">
         <v>1152</v>
@@ -45814,7 +45850,7 @@
       </c>
       <c r="B46" s="71"/>
       <c r="C46" s="71" t="s">
-        <v>1933</v>
+        <v>1918</v>
       </c>
       <c r="D46" s="71" t="s">
         <v>1153</v>
@@ -45830,7 +45866,7 @@
         <v>1145</v>
       </c>
       <c r="C47" s="71" t="s">
-        <v>1934</v>
+        <v>1919</v>
       </c>
       <c r="D47" s="71" t="s">
         <v>1146</v>
@@ -45860,10 +45896,10 @@
         <v>113</v>
       </c>
       <c r="C49" s="71" t="s">
-        <v>2035</v>
+        <v>2018</v>
       </c>
       <c r="D49" s="71" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
       <c r="E49" s="71" t="s">
         <v>982</v>
@@ -45878,7 +45914,7 @@
       </c>
       <c r="B50" s="71"/>
       <c r="C50" s="71" t="s">
-        <v>2036</v>
+        <v>2019</v>
       </c>
       <c r="D50" s="71" t="s">
         <v>983</v>
@@ -45894,13 +45930,13 @@
       </c>
       <c r="B51" s="71"/>
       <c r="C51" s="71" t="s">
-        <v>2037</v>
+        <v>2020</v>
       </c>
       <c r="D51" s="71" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
       <c r="E51" s="71" t="s">
-        <v>1856</v>
+        <v>1841</v>
       </c>
       <c r="F51" s="77"/>
     </row>
@@ -45910,13 +45946,13 @@
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="71" t="s">
-        <v>2038</v>
+        <v>2021</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>1788</v>
+        <v>1773</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>1857</v>
+        <v>1842</v>
       </c>
       <c r="F52" s="77"/>
     </row>
@@ -45926,13 +45962,13 @@
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="71" t="s">
-        <v>2039</v>
+        <v>2022</v>
       </c>
       <c r="D53" s="71" t="s">
         <v>985</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>1858</v>
+        <v>1843</v>
       </c>
       <c r="F53" s="77"/>
     </row>
@@ -45942,7 +45978,7 @@
       </c>
       <c r="B54" s="71"/>
       <c r="C54" s="71" t="s">
-        <v>2040</v>
+        <v>2023</v>
       </c>
       <c r="D54" s="71" t="s">
         <v>984</v>
@@ -45958,7 +45994,7 @@
       </c>
       <c r="B55" s="71"/>
       <c r="C55" s="71" t="s">
-        <v>2041</v>
+        <v>2024</v>
       </c>
       <c r="D55" s="71" t="s">
         <v>1150</v>
@@ -45972,7 +46008,7 @@
       </c>
       <c r="B56" s="71"/>
       <c r="C56" s="71" t="s">
-        <v>2042</v>
+        <v>2025</v>
       </c>
       <c r="D56" s="71" t="s">
         <v>1144</v>
@@ -45985,10 +46021,10 @@
         <v>21000</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>1848</v>
+        <v>1833</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>1935</v>
+        <v>1920</v>
       </c>
       <c r="D57" s="71" t="s">
         <v>1136</v>
@@ -46006,7 +46042,7 @@
       </c>
       <c r="B58" s="71"/>
       <c r="C58" s="71" t="s">
-        <v>1936</v>
+        <v>1921</v>
       </c>
       <c r="D58" s="71" t="s">
         <v>1137</v>
@@ -46022,7 +46058,7 @@
       </c>
       <c r="B59" s="71"/>
       <c r="C59" s="71" t="s">
-        <v>1937</v>
+        <v>1922</v>
       </c>
       <c r="D59" s="71" t="s">
         <v>1138</v>
@@ -46038,7 +46074,7 @@
       </c>
       <c r="B60" s="71"/>
       <c r="C60" s="71" t="s">
-        <v>1938</v>
+        <v>1923</v>
       </c>
       <c r="D60" s="71" t="s">
         <v>1139</v>
@@ -46054,7 +46090,7 @@
       </c>
       <c r="B61" s="71"/>
       <c r="C61" s="71" t="s">
-        <v>1939</v>
+        <v>1924</v>
       </c>
       <c r="D61" s="71" t="s">
         <v>1140</v>
@@ -46070,13 +46106,13 @@
       </c>
       <c r="B62" s="71"/>
       <c r="C62" s="71" t="s">
-        <v>1940</v>
+        <v>1925</v>
       </c>
       <c r="D62" s="71" t="s">
         <v>1141</v>
       </c>
       <c r="E62" s="71" t="s">
-        <v>1859</v>
+        <v>1844</v>
       </c>
       <c r="F62" s="77"/>
     </row>
@@ -46085,19 +46121,19 @@
         <v>21010</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>1860</v>
+        <v>1845</v>
       </c>
       <c r="C63" s="71" t="s">
-        <v>1941</v>
+        <v>1926</v>
       </c>
       <c r="D63" s="71" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
       <c r="E63" s="71" t="s">
         <v>874</v>
       </c>
       <c r="F63" s="77" t="s">
-        <v>1790</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="11.25">
@@ -46108,16 +46144,16 @@
         <v>49</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>1942</v>
+        <v>1927</v>
       </c>
       <c r="D64" s="71" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
       <c r="E64" s="71" t="s">
         <v>875</v>
       </c>
       <c r="F64" s="77" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="11.25">
@@ -46126,10 +46162,10 @@
       </c>
       <c r="B65" s="71"/>
       <c r="C65" s="71" t="s">
-        <v>1943</v>
+        <v>1928</v>
       </c>
       <c r="D65" s="71" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
       <c r="E65" s="71" t="s">
         <v>876</v>
@@ -46142,7 +46178,7 @@
       </c>
       <c r="B66" s="71"/>
       <c r="C66" s="71" t="s">
-        <v>1944</v>
+        <v>1929</v>
       </c>
       <c r="D66" s="71" t="s">
         <v>316</v>
@@ -46158,10 +46194,10 @@
       </c>
       <c r="B67" s="71"/>
       <c r="C67" s="71" t="s">
-        <v>1945</v>
+        <v>1930</v>
       </c>
       <c r="D67" s="71" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
       <c r="E67" s="71" t="s">
         <v>878</v>
@@ -46174,7 +46210,7 @@
       </c>
       <c r="B68" s="71"/>
       <c r="C68" s="71" t="s">
-        <v>1946</v>
+        <v>1931</v>
       </c>
       <c r="D68" s="71" t="s">
         <v>317</v>
@@ -46190,13 +46226,13 @@
       </c>
       <c r="B69" s="71"/>
       <c r="C69" s="71" t="s">
-        <v>1947</v>
+        <v>1932</v>
       </c>
       <c r="D69" s="71" t="s">
         <v>318</v>
       </c>
       <c r="E69" s="71" t="s">
-        <v>1861</v>
+        <v>1846</v>
       </c>
       <c r="F69" s="77"/>
     </row>
@@ -46208,16 +46244,16 @@
         <v>50</v>
       </c>
       <c r="C70" s="71" t="s">
-        <v>1948</v>
+        <v>1933</v>
       </c>
       <c r="D70" s="71" t="s">
         <v>319</v>
       </c>
       <c r="E70" s="71" t="s">
-        <v>1862</v>
+        <v>1847</v>
       </c>
       <c r="F70" s="77" t="s">
-        <v>1795</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="11.25">
@@ -46226,7 +46262,7 @@
       </c>
       <c r="B71" s="71"/>
       <c r="C71" s="71" t="s">
-        <v>1949</v>
+        <v>1934</v>
       </c>
       <c r="D71" s="71" t="s">
         <v>320</v>
@@ -46242,7 +46278,7 @@
       </c>
       <c r="B72" s="71"/>
       <c r="C72" s="71" t="s">
-        <v>1950</v>
+        <v>1935</v>
       </c>
       <c r="D72" s="71" t="s">
         <v>321</v>
@@ -46258,7 +46294,7 @@
       </c>
       <c r="B73" s="71"/>
       <c r="C73" s="71" t="s">
-        <v>1951</v>
+        <v>1936</v>
       </c>
       <c r="D73" s="71" t="s">
         <v>322</v>
@@ -46274,7 +46310,7 @@
       </c>
       <c r="B74" s="71"/>
       <c r="C74" s="71" t="s">
-        <v>1952</v>
+        <v>1937</v>
       </c>
       <c r="D74" s="71" t="s">
         <v>323</v>
@@ -46290,7 +46326,7 @@
       </c>
       <c r="B75" s="71"/>
       <c r="C75" s="71" t="s">
-        <v>1953</v>
+        <v>1938</v>
       </c>
       <c r="D75" s="71" t="s">
         <v>324</v>
@@ -46308,16 +46344,16 @@
         <v>51</v>
       </c>
       <c r="C76" s="71" t="s">
-        <v>1954</v>
+        <v>1939</v>
       </c>
       <c r="D76" s="71" t="s">
         <v>325</v>
       </c>
       <c r="E76" s="71" t="s">
-        <v>1863</v>
+        <v>1848</v>
       </c>
       <c r="F76" s="77" t="s">
-        <v>1796</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="11.25">
@@ -46326,13 +46362,13 @@
       </c>
       <c r="B77" s="71"/>
       <c r="C77" s="71" t="s">
-        <v>1955</v>
+        <v>1940</v>
       </c>
       <c r="D77" s="71" t="s">
         <v>326</v>
       </c>
       <c r="E77" s="71" t="s">
-        <v>1864</v>
+        <v>1849</v>
       </c>
       <c r="F77" s="77"/>
     </row>
@@ -46342,7 +46378,7 @@
       </c>
       <c r="B78" s="71"/>
       <c r="C78" s="71" t="s">
-        <v>1956</v>
+        <v>1941</v>
       </c>
       <c r="D78" s="71" t="s">
         <v>327</v>
@@ -46358,7 +46394,7 @@
       </c>
       <c r="B79" s="71"/>
       <c r="C79" s="71" t="s">
-        <v>1957</v>
+        <v>1942</v>
       </c>
       <c r="D79" s="71" t="s">
         <v>328</v>
@@ -46374,7 +46410,7 @@
       </c>
       <c r="B80" s="71"/>
       <c r="C80" s="71" t="s">
-        <v>1958</v>
+        <v>1943</v>
       </c>
       <c r="D80" s="71" t="s">
         <v>329</v>
@@ -46390,13 +46426,13 @@
       </c>
       <c r="B81" s="71"/>
       <c r="C81" s="71" t="s">
-        <v>1959</v>
+        <v>1944</v>
       </c>
       <c r="D81" s="71" t="s">
         <v>330</v>
       </c>
       <c r="E81" s="71" t="s">
-        <v>1865</v>
+        <v>1850</v>
       </c>
       <c r="F81" s="77"/>
     </row>
@@ -46408,7 +46444,7 @@
         <v>52</v>
       </c>
       <c r="C82" s="71" t="s">
-        <v>1960</v>
+        <v>1945</v>
       </c>
       <c r="D82" s="71" t="s">
         <v>331</v>
@@ -46417,7 +46453,7 @@
         <v>888</v>
       </c>
       <c r="F82" s="77" t="s">
-        <v>1797</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="11.25">
@@ -46426,10 +46462,10 @@
       </c>
       <c r="B83" s="71"/>
       <c r="C83" s="71" t="s">
-        <v>1961</v>
+        <v>1946</v>
       </c>
       <c r="D83" s="71" t="s">
-        <v>1798</v>
+        <v>1783</v>
       </c>
       <c r="E83" s="71" t="s">
         <v>889</v>
@@ -46442,7 +46478,7 @@
       </c>
       <c r="B84" s="71"/>
       <c r="C84" s="71" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="D84" s="71" t="s">
         <v>332</v>
@@ -46458,7 +46494,7 @@
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="71" t="s">
-        <v>1963</v>
+        <v>1948</v>
       </c>
       <c r="D85" s="71" t="s">
         <v>333</v>
@@ -46474,13 +46510,13 @@
       </c>
       <c r="B86" s="71"/>
       <c r="C86" s="71" t="s">
-        <v>1964</v>
+        <v>1949</v>
       </c>
       <c r="D86" s="71" t="s">
         <v>334</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>1866</v>
+        <v>1851</v>
       </c>
       <c r="F86" s="77"/>
     </row>
@@ -46490,13 +46526,13 @@
       </c>
       <c r="B87" s="71"/>
       <c r="C87" s="71" t="s">
-        <v>1965</v>
+        <v>1950</v>
       </c>
       <c r="D87" s="71" t="s">
         <v>972</v>
       </c>
       <c r="E87" s="71" t="s">
-        <v>1867</v>
+        <v>1852</v>
       </c>
       <c r="F87" s="77"/>
     </row>
@@ -46508,16 +46544,16 @@
         <v>48</v>
       </c>
       <c r="C88" s="71" t="s">
-        <v>1966</v>
+        <v>1951</v>
       </c>
       <c r="D88" s="71" t="s">
         <v>335</v>
       </c>
       <c r="E88" s="71" t="s">
-        <v>1868</v>
+        <v>1853</v>
       </c>
       <c r="F88" s="77" t="s">
-        <v>1799</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="11.25">
@@ -46525,19 +46561,19 @@
         <v>21070</v>
       </c>
       <c r="B89" s="71" t="s">
-        <v>1869</v>
+        <v>1854</v>
       </c>
       <c r="C89" s="71" t="s">
-        <v>1967</v>
+        <v>1952</v>
       </c>
       <c r="D89" s="71" t="s">
-        <v>1800</v>
+        <v>1785</v>
       </c>
       <c r="E89" s="71" t="s">
         <v>892</v>
       </c>
       <c r="F89" s="77" t="s">
-        <v>1801</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="11.25">
@@ -46546,10 +46582,10 @@
       </c>
       <c r="B90" s="71"/>
       <c r="C90" s="71" t="s">
-        <v>2056</v>
+        <v>2039</v>
       </c>
       <c r="D90" s="71" t="s">
-        <v>1802</v>
+        <v>1787</v>
       </c>
       <c r="E90" s="71" t="s">
         <v>893</v>
@@ -46561,19 +46597,19 @@
         <v>21080</v>
       </c>
       <c r="B91" s="71" t="s">
-        <v>1870</v>
+        <v>1855</v>
       </c>
       <c r="C91" s="75" t="s">
-        <v>1968</v>
+        <v>1953</v>
       </c>
       <c r="D91" s="71" t="s">
         <v>1142</v>
       </c>
       <c r="E91" s="71" t="s">
-        <v>1871</v>
+        <v>1856</v>
       </c>
       <c r="F91" s="77" t="s">
-        <v>1803</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="11.25">
@@ -46588,7 +46624,7 @@
         <v>228</v>
       </c>
       <c r="E92" s="71" t="s">
-        <v>1872</v>
+        <v>1857</v>
       </c>
       <c r="F92" s="77"/>
     </row>
@@ -46598,7 +46634,7 @@
       </c>
       <c r="B93" s="71"/>
       <c r="C93" s="71" t="s">
-        <v>1976</v>
+        <v>1961</v>
       </c>
       <c r="D93" s="71" t="s">
         <v>1159</v>
@@ -46614,7 +46650,7 @@
       </c>
       <c r="B94" s="71"/>
       <c r="C94" s="71" t="s">
-        <v>2027</v>
+        <v>2012</v>
       </c>
       <c r="D94" s="71" t="s">
         <v>1160</v>
@@ -46630,7 +46666,7 @@
       </c>
       <c r="B95" s="71"/>
       <c r="C95" s="71" t="s">
-        <v>1969</v>
+        <v>1954</v>
       </c>
       <c r="D95" s="71" t="s">
         <v>1156</v>
@@ -46646,7 +46682,7 @@
       </c>
       <c r="B96" s="71"/>
       <c r="C96" s="71" t="s">
-        <v>1977</v>
+        <v>1962</v>
       </c>
       <c r="D96" s="71" t="s">
         <v>1157</v>
@@ -46662,7 +46698,7 @@
       </c>
       <c r="B97" s="71"/>
       <c r="C97" s="71" t="s">
-        <v>1978</v>
+        <v>1963</v>
       </c>
       <c r="D97" s="71" t="s">
         <v>1161</v>
@@ -46678,7 +46714,7 @@
       </c>
       <c r="B98" s="71"/>
       <c r="C98" s="71" t="s">
-        <v>1970</v>
+        <v>1955</v>
       </c>
       <c r="D98" s="71" t="s">
         <v>1228</v>
@@ -46693,10 +46729,10 @@
         <v>21100</v>
       </c>
       <c r="B99" s="71" t="s">
-        <v>1873</v>
+        <v>1858</v>
       </c>
       <c r="C99" s="71" t="s">
-        <v>2055</v>
+        <v>2038</v>
       </c>
       <c r="D99" s="71" t="s">
         <v>336</v>
@@ -46705,7 +46741,7 @@
         <v>897</v>
       </c>
       <c r="F99" s="77" t="s">
-        <v>1804</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="11.25">
@@ -46716,7 +46752,7 @@
         <v>114</v>
       </c>
       <c r="C100" s="71" t="s">
-        <v>1971</v>
+        <v>1956</v>
       </c>
       <c r="D100" s="71" t="s">
         <v>337</v>
@@ -46725,7 +46761,7 @@
         <v>898</v>
       </c>
       <c r="F100" s="77" t="s">
-        <v>1805</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="11.25">
@@ -46734,7 +46770,7 @@
       </c>
       <c r="B101" s="71"/>
       <c r="C101" s="71" t="s">
-        <v>1972</v>
+        <v>1957</v>
       </c>
       <c r="D101" s="71" t="s">
         <v>338</v>
@@ -46750,7 +46786,7 @@
       </c>
       <c r="B102" s="71"/>
       <c r="C102" s="71" t="s">
-        <v>2054</v>
+        <v>2037</v>
       </c>
       <c r="D102" s="71" t="s">
         <v>339</v>
@@ -46766,7 +46802,7 @@
       </c>
       <c r="B103" s="71"/>
       <c r="C103" s="71" t="s">
-        <v>1973</v>
+        <v>1958</v>
       </c>
       <c r="D103" s="71" t="s">
         <v>340</v>
@@ -46782,7 +46818,7 @@
       </c>
       <c r="B104" s="71"/>
       <c r="C104" s="71" t="s">
-        <v>1974</v>
+        <v>1959</v>
       </c>
       <c r="D104" s="71" t="s">
         <v>341</v>
@@ -46798,7 +46834,7 @@
       </c>
       <c r="B105" s="71"/>
       <c r="C105" s="71" t="s">
-        <v>1975</v>
+        <v>1960</v>
       </c>
       <c r="D105" s="71" t="s">
         <v>342</v>
@@ -46816,16 +46852,16 @@
         <v>115</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>1979</v>
+        <v>1964</v>
       </c>
       <c r="D106" s="71" t="s">
         <v>343</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>1874</v>
+        <v>1859</v>
       </c>
       <c r="F106" s="77" t="s">
-        <v>1806</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="11.25">
@@ -46834,7 +46870,7 @@
       </c>
       <c r="B107" s="71"/>
       <c r="C107" s="71" t="s">
-        <v>1980</v>
+        <v>1965</v>
       </c>
       <c r="D107" s="71" t="s">
         <v>344</v>
@@ -46850,7 +46886,7 @@
       </c>
       <c r="B108" s="71"/>
       <c r="C108" s="71" t="s">
-        <v>1981</v>
+        <v>1966</v>
       </c>
       <c r="D108" s="71" t="s">
         <v>973</v>
@@ -46866,7 +46902,7 @@
       </c>
       <c r="B109" s="71"/>
       <c r="C109" s="71" t="s">
-        <v>1982</v>
+        <v>1967</v>
       </c>
       <c r="D109" s="71" t="s">
         <v>974</v>
@@ -46882,13 +46918,13 @@
       </c>
       <c r="B110" s="71"/>
       <c r="C110" s="71" t="s">
-        <v>1983</v>
+        <v>1968</v>
       </c>
       <c r="D110" s="71" t="s">
         <v>975</v>
       </c>
       <c r="E110" s="71" t="s">
-        <v>1875</v>
+        <v>1860</v>
       </c>
       <c r="F110" s="77"/>
     </row>
@@ -46898,13 +46934,13 @@
       </c>
       <c r="B111" s="71"/>
       <c r="C111" s="71" t="s">
-        <v>1984</v>
+        <v>1969</v>
       </c>
       <c r="D111" s="71" t="s">
         <v>976</v>
       </c>
       <c r="E111" s="71" t="s">
-        <v>1876</v>
+        <v>1861</v>
       </c>
       <c r="F111" s="77"/>
     </row>
@@ -46916,7 +46952,7 @@
         <v>116</v>
       </c>
       <c r="C112" s="71" t="s">
-        <v>1985</v>
+        <v>1970</v>
       </c>
       <c r="D112" s="71" t="s">
         <v>345</v>
@@ -46925,7 +46961,7 @@
         <v>907</v>
       </c>
       <c r="F112" s="77" t="s">
-        <v>1807</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="11.25">
@@ -46934,7 +46970,7 @@
       </c>
       <c r="B113" s="71"/>
       <c r="C113" s="71" t="s">
-        <v>1986</v>
+        <v>1971</v>
       </c>
       <c r="D113" s="71" t="s">
         <v>346</v>
@@ -46950,13 +46986,13 @@
       </c>
       <c r="B114" s="71"/>
       <c r="C114" s="71" t="s">
-        <v>1987</v>
+        <v>1972</v>
       </c>
       <c r="D114" s="71" t="s">
         <v>347</v>
       </c>
       <c r="E114" s="71" t="s">
-        <v>1877</v>
+        <v>1862</v>
       </c>
       <c r="F114" s="77"/>
     </row>
@@ -46966,7 +47002,7 @@
       </c>
       <c r="B115" s="71"/>
       <c r="C115" s="71" t="s">
-        <v>1988</v>
+        <v>1973</v>
       </c>
       <c r="D115" s="71" t="s">
         <v>348</v>
@@ -46982,7 +47018,7 @@
       </c>
       <c r="B116" s="71"/>
       <c r="C116" s="71" t="s">
-        <v>1989</v>
+        <v>1974</v>
       </c>
       <c r="D116" s="71" t="s">
         <v>977</v>
@@ -46998,13 +47034,13 @@
       </c>
       <c r="B117" s="71"/>
       <c r="C117" s="71" t="s">
-        <v>1990</v>
+        <v>1975</v>
       </c>
       <c r="D117" s="71" t="s">
         <v>349</v>
       </c>
       <c r="E117" s="71" t="s">
-        <v>1878</v>
+        <v>1863</v>
       </c>
       <c r="F117" s="77"/>
     </row>
@@ -47016,16 +47052,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>1991</v>
+        <v>1976</v>
       </c>
       <c r="D118" s="71" t="s">
         <v>350</v>
       </c>
       <c r="E118" s="71" t="s">
-        <v>1879</v>
+        <v>1864</v>
       </c>
       <c r="F118" s="77" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="11.25">
@@ -47034,7 +47070,7 @@
       </c>
       <c r="B119" s="71"/>
       <c r="C119" s="71" t="s">
-        <v>1992</v>
+        <v>1977</v>
       </c>
       <c r="D119" s="71" t="s">
         <v>351</v>
@@ -47050,13 +47086,13 @@
       </c>
       <c r="B120" s="71"/>
       <c r="C120" s="71" t="s">
-        <v>1993</v>
+        <v>1978</v>
       </c>
       <c r="D120" s="71" t="s">
         <v>352</v>
       </c>
       <c r="E120" s="71" t="s">
-        <v>1880</v>
+        <v>1865</v>
       </c>
       <c r="F120" s="77"/>
     </row>
@@ -47066,13 +47102,13 @@
       </c>
       <c r="B121" s="71"/>
       <c r="C121" s="71" t="s">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="D121" s="71" t="s">
         <v>353</v>
       </c>
       <c r="E121" s="71" t="s">
-        <v>1881</v>
+        <v>1866</v>
       </c>
       <c r="F121" s="77"/>
     </row>
@@ -47082,7 +47118,7 @@
       </c>
       <c r="B122" s="71"/>
       <c r="C122" s="71" t="s">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="D122" s="71" t="s">
         <v>354</v>
@@ -47098,7 +47134,7 @@
       </c>
       <c r="B123" s="71"/>
       <c r="C123" s="71" t="s">
-        <v>1996</v>
+        <v>1981</v>
       </c>
       <c r="D123" s="71" t="s">
         <v>355</v>
@@ -47116,16 +47152,16 @@
         <v>118</v>
       </c>
       <c r="C124" s="71" t="s">
-        <v>1997</v>
+        <v>1982</v>
       </c>
       <c r="D124" s="71" t="s">
         <v>356</v>
       </c>
       <c r="E124" s="71" t="s">
-        <v>1882</v>
+        <v>1867</v>
       </c>
       <c r="F124" s="77" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="11.25">
@@ -47202,7 +47238,7 @@
       </c>
       <c r="B129" s="71"/>
       <c r="C129" s="71" t="s">
-        <v>1998</v>
+        <v>1983</v>
       </c>
       <c r="D129" s="75" t="s">
         <v>979</v>
@@ -47218,13 +47254,13 @@
       </c>
       <c r="B130" s="71"/>
       <c r="C130" s="75" t="s">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="D130" s="75" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
       <c r="E130" s="71" t="s">
-        <v>1883</v>
+        <v>1868</v>
       </c>
       <c r="F130" s="77"/>
     </row>
@@ -47234,13 +47270,13 @@
       </c>
       <c r="B131" s="71"/>
       <c r="C131" s="71" t="s">
-        <v>1999</v>
+        <v>1984</v>
       </c>
       <c r="D131" s="75" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
       <c r="E131" s="71" t="s">
-        <v>1884</v>
+        <v>1869</v>
       </c>
       <c r="F131" s="77"/>
     </row>
@@ -47249,19 +47285,19 @@
         <v>23000</v>
       </c>
       <c r="B132" s="71" t="s">
-        <v>1885</v>
+        <v>1870</v>
       </c>
       <c r="C132" s="71" t="s">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="D132" s="71" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
       <c r="E132" s="71" t="s">
-        <v>1886</v>
+        <v>1871</v>
       </c>
       <c r="F132" s="77" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="11.25">
@@ -47270,13 +47306,13 @@
       </c>
       <c r="B133" s="71"/>
       <c r="C133" s="71" t="s">
-        <v>2001</v>
+        <v>1986</v>
       </c>
       <c r="D133" s="71" t="s">
-        <v>1814</v>
+        <v>1799</v>
       </c>
       <c r="E133" s="71" t="s">
-        <v>1887</v>
+        <v>1872</v>
       </c>
       <c r="F133" s="77"/>
     </row>
@@ -47286,13 +47322,13 @@
       </c>
       <c r="B134" s="71"/>
       <c r="C134" s="71" t="s">
-        <v>2002</v>
+        <v>1987</v>
       </c>
       <c r="D134" s="71" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
       <c r="E134" s="71" t="s">
-        <v>1888</v>
+        <v>1873</v>
       </c>
       <c r="F134" s="77"/>
     </row>
@@ -47302,13 +47338,13 @@
       </c>
       <c r="B135" s="71"/>
       <c r="C135" s="71" t="s">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="D135" s="71" t="s">
-        <v>1816</v>
+        <v>1801</v>
       </c>
       <c r="E135" s="71" t="s">
-        <v>1889</v>
+        <v>1874</v>
       </c>
       <c r="F135" s="77"/>
     </row>
@@ -47318,10 +47354,10 @@
       </c>
       <c r="B136" s="71"/>
       <c r="C136" s="71" t="s">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="D136" s="71" t="s">
-        <v>1817</v>
+        <v>1802</v>
       </c>
       <c r="E136" s="71"/>
       <c r="F136" s="77"/>
@@ -47331,19 +47367,19 @@
         <v>23010</v>
       </c>
       <c r="B137" s="71" t="s">
-        <v>1890</v>
+        <v>1875</v>
       </c>
       <c r="C137" s="71" t="s">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="D137" s="71" t="s">
-        <v>1818</v>
+        <v>1803</v>
       </c>
       <c r="E137" s="71" t="s">
-        <v>1891</v>
+        <v>1876</v>
       </c>
       <c r="F137" s="77" t="s">
-        <v>1819</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="11.25">
@@ -47352,13 +47388,13 @@
       </c>
       <c r="B138" s="71"/>
       <c r="C138" s="71" t="s">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="D138" s="71" t="s">
         <v>358</v>
       </c>
       <c r="E138" s="71" t="s">
-        <v>1892</v>
+        <v>1877</v>
       </c>
       <c r="F138" s="77"/>
     </row>
@@ -47368,13 +47404,13 @@
       </c>
       <c r="B139" s="71"/>
       <c r="C139" s="71" t="s">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="D139" s="71" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
       <c r="E139" s="71" t="s">
-        <v>1893</v>
+        <v>1878</v>
       </c>
       <c r="F139" s="77"/>
     </row>
@@ -47384,13 +47420,13 @@
       </c>
       <c r="B140" s="71"/>
       <c r="C140" s="71" t="s">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="D140" s="71" t="s">
-        <v>1821</v>
+        <v>1806</v>
       </c>
       <c r="E140" s="71" t="s">
-        <v>1894</v>
+        <v>1879</v>
       </c>
       <c r="F140" s="77"/>
     </row>
@@ -47399,10 +47435,10 @@
         <v>23020</v>
       </c>
       <c r="B141" s="71" t="s">
-        <v>1895</v>
+        <v>1880</v>
       </c>
       <c r="C141" s="71" t="s">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="D141" s="71" t="s">
         <v>359</v>
@@ -47411,7 +47447,7 @@
         <v>918</v>
       </c>
       <c r="F141" s="77" t="s">
-        <v>1822</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="11.25">
@@ -47420,7 +47456,7 @@
       </c>
       <c r="B142" s="71"/>
       <c r="C142" s="71" t="s">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="D142" s="71" t="s">
         <v>980</v>
@@ -47436,7 +47472,7 @@
       </c>
       <c r="B143" s="71"/>
       <c r="C143" s="71" t="s">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="D143" s="71" t="s">
         <v>360</v>
@@ -47452,10 +47488,10 @@
       </c>
       <c r="B144" s="71"/>
       <c r="C144" s="71" t="s">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="D144" s="71" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
       <c r="E144" s="71" t="s">
         <v>921</v>
@@ -47470,16 +47506,16 @@
         <v>54</v>
       </c>
       <c r="C145" s="71" t="s">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="D145" s="71" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="E145" s="71" t="s">
         <v>922</v>
       </c>
       <c r="F145" s="77" t="s">
-        <v>1825</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="11.25">
@@ -47488,13 +47524,13 @@
       </c>
       <c r="B146" s="71"/>
       <c r="C146" s="71" t="s">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="D146" s="71" t="s">
-        <v>1826</v>
+        <v>1811</v>
       </c>
       <c r="E146" s="71" t="s">
-        <v>1896</v>
+        <v>1881</v>
       </c>
       <c r="F146" s="77"/>
     </row>
@@ -47504,13 +47540,13 @@
       </c>
       <c r="B147" s="71"/>
       <c r="C147" s="71" t="s">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D147" s="71" t="s">
         <v>1158</v>
       </c>
       <c r="E147" s="71" t="s">
-        <v>1897</v>
+        <v>1882</v>
       </c>
       <c r="F147" s="77"/>
     </row>
@@ -47522,16 +47558,16 @@
         <v>55</v>
       </c>
       <c r="C148" s="71" t="s">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="D148" s="71" t="s">
         <v>361</v>
       </c>
       <c r="E148" s="71" t="s">
-        <v>1898</v>
+        <v>1883</v>
       </c>
       <c r="F148" s="77" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="11.25">
@@ -47540,13 +47576,13 @@
       </c>
       <c r="B149" s="71"/>
       <c r="C149" s="71" t="s">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="D149" s="71" t="s">
         <v>362</v>
       </c>
       <c r="E149" s="71" t="s">
-        <v>1899</v>
+        <v>1884</v>
       </c>
       <c r="F149" s="77"/>
     </row>
@@ -47556,13 +47592,13 @@
       </c>
       <c r="B150" s="71"/>
       <c r="C150" s="71" t="s">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="D150" s="71" t="s">
         <v>363</v>
       </c>
       <c r="E150" s="71" t="s">
-        <v>1900</v>
+        <v>1885</v>
       </c>
       <c r="F150" s="77"/>
     </row>
@@ -47571,10 +47607,10 @@
         <v>23100</v>
       </c>
       <c r="B151" s="71" t="s">
-        <v>1901</v>
+        <v>1886</v>
       </c>
       <c r="C151" s="71" t="s">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="D151" s="71" t="s">
         <v>986</v>
@@ -47583,7 +47619,7 @@
         <v>923</v>
       </c>
       <c r="F151" s="77" t="s">
-        <v>1828</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="11.25">
@@ -47592,13 +47628,13 @@
       </c>
       <c r="B152" s="71"/>
       <c r="C152" s="71" t="s">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="D152" s="71" t="s">
         <v>364</v>
       </c>
       <c r="E152" s="71" t="s">
-        <v>1902</v>
+        <v>1887</v>
       </c>
       <c r="F152" s="77"/>
     </row>
@@ -47607,17 +47643,17 @@
         <v>24000</v>
       </c>
       <c r="B153" s="71" t="s">
-        <v>1903</v>
+        <v>1888</v>
       </c>
       <c r="C153" s="71"/>
       <c r="D153" s="71" t="s">
-        <v>1829</v>
+        <v>1814</v>
       </c>
       <c r="E153" s="71" t="s">
-        <v>1904</v>
+        <v>1889</v>
       </c>
       <c r="F153" s="77" t="s">
-        <v>1830</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="11.25">
@@ -47627,7 +47663,7 @@
       <c r="B154" s="71"/>
       <c r="C154" s="71"/>
       <c r="D154" s="71" t="s">
-        <v>1831</v>
+        <v>1816</v>
       </c>
       <c r="E154" s="71" t="s">
         <v>924</v>
@@ -47655,7 +47691,7 @@
       <c r="B156" s="71"/>
       <c r="C156" s="71"/>
       <c r="D156" s="71" t="s">
-        <v>1832</v>
+        <v>1817</v>
       </c>
       <c r="E156" s="71" t="s">
         <v>926</v>
@@ -47669,10 +47705,10 @@
       <c r="B157" s="71"/>
       <c r="C157" s="71"/>
       <c r="D157" s="71" t="s">
-        <v>1833</v>
+        <v>1818</v>
       </c>
       <c r="E157" s="71" t="s">
-        <v>1905</v>
+        <v>1890</v>
       </c>
       <c r="F157" s="77"/>
     </row>
@@ -47686,7 +47722,7 @@
         <v>366</v>
       </c>
       <c r="E158" s="71" t="s">
-        <v>1906</v>
+        <v>1891</v>
       </c>
       <c r="F158" s="77"/>
     </row>
@@ -47728,7 +47764,7 @@
         <v>369</v>
       </c>
       <c r="E161" s="71" t="s">
-        <v>1907</v>
+        <v>1892</v>
       </c>
       <c r="F161" s="77"/>
     </row>
@@ -47742,7 +47778,7 @@
         <v>370</v>
       </c>
       <c r="E162" s="71" t="s">
-        <v>1908</v>
+        <v>1893</v>
       </c>
       <c r="F162" s="77"/>
     </row>
@@ -47752,13 +47788,13 @@
       </c>
       <c r="B163" s="78"/>
       <c r="C163" s="78" t="s">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="D163" s="78" t="s">
-        <v>1834</v>
+        <v>1819</v>
       </c>
       <c r="E163" s="78" t="s">
-        <v>1909</v>
+        <v>1894</v>
       </c>
       <c r="F163" s="77"/>
     </row>
